--- a/test/writer_output/Molar Volume Analysis.xlsx
+++ b/test/writer_output/Molar Volume Analysis.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Membrane Libraries\SorptionModels.jl\test\writer_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA0CF7F-22FA-4EAA-9E42-6B327DA2D56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Partial Molar Volume Analysis" sheetId="2" r:id="rId2"/>
-    <sheet name="Also with uncertainty!" sheetId="3" r:id="rId3"/>
+    <sheet name="Partial Molar Volume Analysis" r:id="rId4" sheetId="2"/>
+    <sheet name="Also with uncertainty!" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Step</t>
   </si>
@@ -407,26 +407,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A55580D-D8EE-41A6-AA8F-7F3E379B46E2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD74C6A-B4A0-4F73-B900-482C8AFAD893}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,12 +455,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -472,19 +472,19 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>1.0865252000850483E-2</v>
+        <v>0.01053987096240326</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2">
-        <v>52.80069935559932</v>
+        <v>51.21948003498717</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -501,24 +501,24 @@
         <v>9</v>
       </c>
       <c r="F3">
-        <v>1.1026465701141295E-2</v>
+        <v>0.011113095737457345</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3">
-        <v>53.584132277393735</v>
+        <v>54.00511896986348</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.2247842855431781</v>
+        <v>4.224784285543178</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -530,24 +530,24 @@
         <v>9</v>
       </c>
       <c r="F4">
-        <v>1.1434777612707274E-2</v>
+        <v>0.011370306108005027</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
       <c r="H4">
-        <v>55.568361863989395</v>
+        <v>55.25505661009192</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5.9819954485567139</v>
+        <v>5.981995448556714</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -559,24 +559,24 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>1.1406650821340847E-2</v>
+        <v>0.011461576737019237</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
       <c r="H5">
-        <v>55.431677113864858</v>
+        <v>55.698594692982084</v>
       </c>
       <c r="I5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7.9448377051143853</v>
+        <v>7.944837705114385</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -588,24 +588,24 @@
         <v>9</v>
       </c>
       <c r="F6">
-        <v>1.1592806793243118E-2</v>
+        <v>0.011607112618723691</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
       <c r="H6">
-        <v>56.336319316815313</v>
+        <v>56.405839801952176</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9.8889862258953158</v>
+        <v>9.888986225895316</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -617,19 +617,19 @@
         <v>9</v>
       </c>
       <c r="F7">
-        <v>1.2109487935165813E-2</v>
+        <v>0.011959847739864717</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
       </c>
       <c r="H7">
-        <v>58.847179224641891</v>
+        <v>58.11998882326069</v>
       </c>
       <c r="I7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -646,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="F8">
-        <v>1.2120110293003685E-2</v>
+        <v>0.01264874296840362</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
       </c>
       <c r="H8">
-        <v>58.898799557295121</v>
+        <v>61.467739050014956</v>
       </c>
       <c r="I8" t="s">
         <v>9</v>
@@ -664,25 +664,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5718D0B5-B8A2-4708-B997-64DF0AD70B35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="A1:J8"/>
-    </sheetView>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -711,36 +700,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C2">
-        <v>4.6734339441849319E-3</v>
+        <v>0.004673433944184932</v>
       </c>
       <c r="D2">
         <v>0.21681059625562235</v>
       </c>
       <c r="E2">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="F2">
-        <v>1.0865252000850483E-2</v>
+        <v>0.010539870962403301</v>
       </c>
       <c r="G2">
-        <v>6.4416278126297282E-4</v>
+        <v>0.0013482065001652753</v>
       </c>
       <c r="H2">
-        <v>52.80069935559932</v>
+        <v>51.21948003498738</v>
       </c>
       <c r="I2">
-        <v>3.1822690079856573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.5752203803287195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -748,120 +737,120 @@
         <v>2.0282703317762607</v>
       </c>
       <c r="C3">
-        <v>2.2478706378621635E-2</v>
+        <v>0.022478706378621635</v>
       </c>
       <c r="D3">
         <v>0.21681059625562235</v>
       </c>
       <c r="E3">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="F3">
-        <v>1.1026465701141295E-2</v>
+        <v>0.011113095737457345</v>
       </c>
       <c r="G3">
-        <v>3.0926910483063732E-4</v>
+        <v>0.00030566353984542554</v>
       </c>
       <c r="H3">
-        <v>53.584132277393735</v>
+        <v>54.00511896986348</v>
       </c>
       <c r="I3">
-        <v>1.6112716139585448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.596608553343804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.2247842855431781</v>
+        <v>4.224784285543178</v>
       </c>
       <c r="C4">
-        <v>4.6036726925799798E-2</v>
+        <v>0.0460367269257998</v>
       </c>
       <c r="D4">
         <v>0.21681059625562235</v>
       </c>
       <c r="E4">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="F4">
-        <v>1.1434777612707274E-2</v>
+        <v>0.011370306108005017</v>
       </c>
       <c r="G4">
-        <v>3.3051072387096795E-4</v>
+        <v>0.00036816970517249717</v>
       </c>
       <c r="H4">
-        <v>55.568361863989395</v>
+        <v>55.25505661009188</v>
       </c>
       <c r="I4">
-        <v>1.7153961916228193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.8867614750867665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5.9819954485567139</v>
+        <v>5.981995448556714</v>
       </c>
       <c r="C5">
-        <v>6.501618328409213E-2</v>
+        <v>0.06501618328409213</v>
       </c>
       <c r="D5">
         <v>0.21681059625562235</v>
       </c>
       <c r="E5">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="F5">
-        <v>1.1406650821340847E-2</v>
+        <v>0.011461576737019233</v>
       </c>
       <c r="G5">
-        <v>3.5126856120105032E-4</v>
+        <v>0.0002461288425864187</v>
       </c>
       <c r="H5">
-        <v>55.431677113864858</v>
+        <v>55.69859469298207</v>
       </c>
       <c r="I5">
-        <v>1.8097005003940558</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.3398502660856424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7.9448377051143853</v>
+        <v>7.944837705114385</v>
       </c>
       <c r="C6">
-        <v>8.6252953131432913E-2</v>
+        <v>0.08625295313143291</v>
       </c>
       <c r="D6">
         <v>0.21681059625562235</v>
       </c>
       <c r="E6">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="F6">
-        <v>1.1592806793243118E-2</v>
+        <v>0.011607112618723695</v>
       </c>
       <c r="G6">
-        <v>3.3447976873186695E-4</v>
+        <v>0.0003781153869899814</v>
       </c>
       <c r="H6">
-        <v>56.336319316815313</v>
+        <v>56.4058398019522</v>
       </c>
       <c r="I6">
-        <v>1.7363795277157446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.9365567949520686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9.8889862258953158</v>
+        <v>9.888986225895316</v>
       </c>
       <c r="C7">
         <v>0.10730367015276393</v>
@@ -870,22 +859,22 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="E7">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="F7">
-        <v>1.2109487935165813E-2</v>
+        <v>0.011959847739864716</v>
       </c>
       <c r="G7">
-        <v>3.431519993561229E-4</v>
+        <v>0.0003080436305770664</v>
       </c>
       <c r="H7">
-        <v>58.847179224641891</v>
+        <v>58.119988823260684</v>
       </c>
       <c r="I7">
-        <v>1.78543555414885</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.6241532556642557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -899,19 +888,19 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="E8">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="F8">
-        <v>1.2120110293003685E-2</v>
+        <v>0.012648742968403584</v>
       </c>
       <c r="G8">
-        <v>7.0092681644138611E-4</v>
+        <v>0.0013179241631915053</v>
       </c>
       <c r="H8">
-        <v>58.898799557295121</v>
+        <v>61.467739050014785</v>
       </c>
       <c r="I8">
-        <v>3.4655449274318837</v>
+        <v>6.439145069972003</v>
       </c>
     </row>
   </sheetData>

--- a/test/writer_output/Molar Volume Analysis.xlsx
+++ b/test/writer_output/Molar Volume Analysis.xlsx
@@ -27,11 +27,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Step</t>
   </si>
   <si>
+    <t>Pressure (MPa)</t>
+  </si>
+  <si>
+    <t>Pressure σ</t>
+  </si>
+  <si>
     <t>Concentration (CC/CC)</t>
   </si>
   <si>
@@ -42,6 +48,18 @@
   </si>
   <si>
     <t>dp/dc σ</t>
+  </si>
+  <si>
+    <t>Frac. Dilation</t>
+  </si>
+  <si>
+    <t>Frac. Dilation σ</t>
+  </si>
+  <si>
+    <t>Continuous Dilation</t>
+  </si>
+  <si>
+    <t>Cont. Dilation σ</t>
   </si>
   <si>
     <t>d(ΔV/V0)/dp (1/MPa)</t>
@@ -420,13 +438,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,8 +472,26 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -463,199 +499,325 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>0.21681059625562235</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F2">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>-1.1192777098324072e-6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2">
         <v>0.01053987096240326</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2">
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2">
         <v>51.21948003498717</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>0.4397505</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
         <v>2.0282703317762607</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>0.21681059625562235</v>
-      </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F3">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0.004778</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>0.004775317954889122</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3">
         <v>0.011113095737457345</v>
       </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3">
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3">
         <v>54.00511896986348</v>
       </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>0.9159779999999998</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
         <v>4.224784285543178</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>0.21681059625562235</v>
-      </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F4">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>0.0101</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>0.010139385051465775</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4">
         <v>0.011370306108005027</v>
       </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4">
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4">
         <v>55.25505661009192</v>
       </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>1.2969600000000001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
         <v>5.981995448556714</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>0.21681059625562235</v>
-      </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F5">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>0.01458</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>0.014489596787486337</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5">
         <v>0.011461576737019237</v>
       </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5">
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5">
         <v>55.698594692982084</v>
       </c>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="O5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>1.722525</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
         <v>7.944837705114385</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>0.21681059625562235</v>
-      </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F6">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>0.019299999999999998</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>0.019393739497952478</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6">
         <v>0.011607112618723691</v>
       </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6">
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6">
         <v>56.405839801952176</v>
       </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>2.144037</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
         <v>9.888986225895316</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>0.21681059625562235</v>
-      </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F7">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>0.024399999999999998</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>0.02435036911786393</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7">
         <v>0.011959847739864717</v>
       </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7">
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7">
         <v>58.11998882326069</v>
       </c>
-      <c r="I7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>2.5483237499999998</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
         <v>11.753686369625104</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>0.21681059625562235</v>
-      </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F8">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>0.029300000000000003</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>0.029310710868052207</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8">
         <v>0.01264874296840362</v>
       </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8">
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8">
         <v>61.467739050014956</v>
       </c>
-      <c r="I8" t="s">
-        <v>9</v>
+      <c r="O8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -665,13 +827,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -699,8 +861,26 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -708,198 +888,324 @@
         <v>0.0</v>
       </c>
       <c r="C2">
+        <v>0.00101325</v>
+      </c>
+      <c r="D2">
+        <v>0.0</v>
+      </c>
+      <c r="E2">
         <v>0.004673433944184932</v>
       </c>
-      <c r="D2">
-        <v>0.21681059625562235</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G2">
         <v>0.0023503417324359246</v>
       </c>
-      <c r="F2">
+      <c r="H2">
+        <v>0.0</v>
+      </c>
+      <c r="I2">
+        <v>0.0002</v>
+      </c>
+      <c r="J2">
+        <v>-1.1192777098379502e-6</v>
+      </c>
+      <c r="K2">
+        <v>0.00019896802866219536</v>
+      </c>
+      <c r="L2">
         <v>0.010539870962403301</v>
       </c>
-      <c r="G2">
+      <c r="M2">
         <v>0.0013482065001652753</v>
       </c>
-      <c r="H2">
+      <c r="N2">
         <v>51.21948003498738</v>
       </c>
-      <c r="I2">
+      <c r="O2">
         <v>6.5752203803287195</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>0.4397505</v>
+      </c>
+      <c r="C3">
+        <v>0.00101325</v>
+      </c>
+      <c r="D3">
         <v>2.0282703317762607</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>0.022478706378621635</v>
       </c>
-      <c r="D3">
-        <v>0.21681059625562235</v>
-      </c>
-      <c r="E3">
+      <c r="F3">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G3">
         <v>0.0023503417324359246</v>
       </c>
-      <c r="F3">
+      <c r="H3">
+        <v>0.004778</v>
+      </c>
+      <c r="I3">
+        <v>0.0002</v>
+      </c>
+      <c r="J3">
+        <v>0.004775317954889125</v>
+      </c>
+      <c r="K3">
+        <v>0.00018158665552164626</v>
+      </c>
+      <c r="L3">
         <v>0.011113095737457345</v>
       </c>
-      <c r="G3">
+      <c r="M3">
         <v>0.00030566353984542554</v>
       </c>
-      <c r="H3">
+      <c r="N3">
         <v>54.00511896986348</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>1.596608553343804</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>0.9159779999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.00101325</v>
+      </c>
+      <c r="D4">
         <v>4.224784285543178</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>0.0460367269257998</v>
       </c>
-      <c r="D4">
-        <v>0.21681059625562235</v>
-      </c>
-      <c r="E4">
+      <c r="F4">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G4">
         <v>0.0023503417324359246</v>
       </c>
-      <c r="F4">
+      <c r="H4">
+        <v>0.0101</v>
+      </c>
+      <c r="I4">
+        <v>0.0002</v>
+      </c>
+      <c r="J4">
+        <v>0.010139385051465773</v>
+      </c>
+      <c r="K4">
+        <v>0.00013601043647793937</v>
+      </c>
+      <c r="L4">
         <v>0.011370306108005017</v>
       </c>
-      <c r="G4">
+      <c r="M4">
         <v>0.00036816970517249717</v>
       </c>
-      <c r="H4">
+      <c r="N4">
         <v>55.25505661009188</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>1.8867614750867665</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>1.2969600000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.00101325</v>
+      </c>
+      <c r="D5">
         <v>5.981995448556714</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>0.06501618328409213</v>
       </c>
-      <c r="D5">
-        <v>0.21681059625562235</v>
-      </c>
-      <c r="E5">
+      <c r="F5">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G5">
         <v>0.0023503417324359246</v>
       </c>
-      <c r="F5">
+      <c r="H5">
+        <v>0.01458</v>
+      </c>
+      <c r="I5">
+        <v>0.0002</v>
+      </c>
+      <c r="J5">
+        <v>0.014489596787486334</v>
+      </c>
+      <c r="K5">
+        <v>0.00014681003298291787</v>
+      </c>
+      <c r="L5">
         <v>0.011461576737019233</v>
       </c>
-      <c r="G5">
+      <c r="M5">
         <v>0.0002461288425864187</v>
       </c>
-      <c r="H5">
+      <c r="N5">
         <v>55.69859469298207</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>1.3398502660856424</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>1.722525</v>
+      </c>
+      <c r="C6">
+        <v>0.00101325</v>
+      </c>
+      <c r="D6">
         <v>7.944837705114385</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>0.08625295313143291</v>
       </c>
-      <c r="D6">
-        <v>0.21681059625562235</v>
-      </c>
-      <c r="E6">
+      <c r="F6">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G6">
         <v>0.0023503417324359246</v>
       </c>
-      <c r="F6">
+      <c r="H6">
+        <v>0.019299999999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.0002</v>
+      </c>
+      <c r="J6">
+        <v>0.019393739497952475</v>
+      </c>
+      <c r="K6">
+        <v>0.00013551247093161511</v>
+      </c>
+      <c r="L6">
         <v>0.011607112618723695</v>
       </c>
-      <c r="G6">
+      <c r="M6">
         <v>0.0003781153869899814</v>
       </c>
-      <c r="H6">
+      <c r="N6">
         <v>56.4058398019522</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>1.9365567949520686</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>2.144037</v>
+      </c>
+      <c r="C7">
+        <v>0.00101325</v>
+      </c>
+      <c r="D7">
         <v>9.888986225895316</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>0.10730367015276393</v>
       </c>
-      <c r="D7">
-        <v>0.21681059625562235</v>
-      </c>
-      <c r="E7">
+      <c r="F7">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G7">
         <v>0.0023503417324359246</v>
       </c>
-      <c r="F7">
+      <c r="H7">
+        <v>0.024399999999999998</v>
+      </c>
+      <c r="I7">
+        <v>0.0002</v>
+      </c>
+      <c r="J7">
+        <v>0.024350369117863924</v>
+      </c>
+      <c r="K7">
+        <v>0.00017301708632066373</v>
+      </c>
+      <c r="L7">
         <v>0.011959847739864716</v>
       </c>
-      <c r="G7">
+      <c r="M7">
         <v>0.0003080436305770664</v>
       </c>
-      <c r="H7">
+      <c r="N7">
         <v>58.119988823260684</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>1.6241532556642557</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>2.5483237499999998</v>
+      </c>
+      <c r="C8">
+        <v>0.00101325</v>
+      </c>
+      <c r="D8">
         <v>11.753686369625104</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>0.12750186595444718</v>
       </c>
-      <c r="D8">
-        <v>0.21681059625562235</v>
-      </c>
-      <c r="E8">
+      <c r="F8">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G8">
         <v>0.0023503417324359246</v>
       </c>
-      <c r="F8">
+      <c r="H8">
+        <v>0.029300000000000003</v>
+      </c>
+      <c r="I8">
+        <v>0.0002</v>
+      </c>
+      <c r="J8">
+        <v>0.029310710868052196</v>
+      </c>
+      <c r="K8">
+        <v>0.00019839310817709973</v>
+      </c>
+      <c r="L8">
         <v>0.012648742968403584</v>
       </c>
-      <c r="G8">
+      <c r="M8">
         <v>0.0013179241631915053</v>
       </c>
-      <c r="H8">
+      <c r="N8">
         <v>61.467739050014785</v>
       </c>
-      <c r="I8">
+      <c r="O8">
         <v>6.439145069972003</v>
       </c>
     </row>

--- a/test/writer_output/Molar Volume Analysis.xlsx
+++ b/test/writer_output/Molar Volume Analysis.xlsx
@@ -438,13 +438,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,20 +478,20 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -538,7 +538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -585,7 +585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -632,7 +632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -679,7 +679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -726,7 +726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -773,7 +773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -827,13 +827,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -867,20 +867,20 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -927,7 +927,7 @@
         <v>6.5752203803287195</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -974,7 +974,7 @@
         <v>1.596608553343804</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>1.8867614750867665</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>1.3398502660856424</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>1.9365567949520686</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>1.6241532556642557</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>

--- a/test/writer_output/Molar Volume Analysis.xlsx
+++ b/test/writer_output/Molar Volume Analysis.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Step</t>
   </si>
@@ -74,7 +74,7 @@
     <t>Partial molar volume σ</t>
   </si>
   <si>
-    <t>Interpolated pressures</t>
+    <t>Interpolated pressures (MPa)</t>
   </si>
   <si>
     <t>Interpolated pressure σ</t>
@@ -84,6 +84,30 @@
   </si>
   <si>
     <t>Interpolated dilation σ</t>
+  </si>
+  <si>
+    <t>Interpolated concentration (CC/CC)</t>
+  </si>
+  <si>
+    <t>Interpolated concentration σ</t>
+  </si>
+  <si>
+    <t>Interpolated dp/dc (MPa/(CC/CC))</t>
+  </si>
+  <si>
+    <t>Interpolated dp/dc σ</t>
+  </si>
+  <si>
+    <t>Interpolated d(ΔV/V0)/dp (1/MPa)</t>
+  </si>
+  <si>
+    <t>Interpolated d(ΔV/V0)/dp σ</t>
+  </si>
+  <si>
+    <t>Interpolated molar volumes (cm3/mol)</t>
+  </si>
+  <si>
+    <t>Interpolated molar volume σ</t>
   </si>
   <si>
     <t>No uncertainty</t>
@@ -450,13 +474,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,8 +538,32 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
@@ -523,25 +571,25 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>0.0</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>0.21681059625562235</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>0.0</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J2">
         <v>0.0</v>
@@ -565,7 +613,7 @@
         <v>0.0</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R2">
         <v>0.0</v>
@@ -573,8 +621,32 @@
       <c r="S2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2">
+        <v>0.01082677242731691</v>
+      </c>
+      <c r="Y2">
+        <v>0.0005003623267378652</v>
+      </c>
+      <c r="Z2">
+        <v>52.613704300784306</v>
+      </c>
+      <c r="AA2">
+        <v>2.431557112608725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>2</v>
       </c>
@@ -582,25 +654,25 @@
         <v>0.4397505</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>2.0282703317762607</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>0.21681059625562235</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>0.004778</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J3">
         <v>0.004804221165084185</v>
@@ -624,7 +696,7 @@
         <v>0.08787323275862068</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R3">
         <v>0.000952902391377181</v>
@@ -632,8 +704,32 @@
       <c r="S3">
         <v>3.916409816424238e-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>0.4052995299870725</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3">
+        <v>0.010862187843442077</v>
+      </c>
+      <c r="Y3">
+        <v>0.0003999325793028513</v>
+      </c>
+      <c r="Z3">
+        <v>52.785808798612074</v>
+      </c>
+      <c r="AA3">
+        <v>1.9435094446614134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>3</v>
       </c>
@@ -641,25 +737,25 @@
         <v>0.9159779999999998</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>4.224784285543178</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>0.21681059625562235</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>0.0101</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J4">
         <v>0.010118667077756938</v>
@@ -683,7 +779,7 @@
         <v>0.17574646551724135</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R4">
         <v>0.0019091090890199858</v>
@@ -691,8 +787,32 @@
       <c r="S4">
         <v>7.101208697248884e-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>0.810599059974145</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4">
+        <v>0.010901666498460942</v>
+      </c>
+      <c r="Y4">
+        <v>0.00033402856775317764</v>
+      </c>
+      <c r="Z4">
+        <v>52.97765898252417</v>
+      </c>
+      <c r="AA4">
+        <v>1.6232427909390805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>4</v>
       </c>
@@ -700,25 +820,25 @@
         <v>1.2969600000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>5.981995448556714</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>0.21681059625562235</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>0.01458</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J5">
         <v>0.01445910479836697</v>
@@ -742,7 +862,7 @@
         <v>0.26361969827586207</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R5">
         <v>0.002868907948488987</v>
@@ -750,8 +870,32 @@
       <c r="S5">
         <v>9.779194939367895e-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>1.2158985899612178</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5">
+        <v>0.010943765255035796</v>
+      </c>
+      <c r="Y5">
+        <v>0.000287103136017376</v>
+      </c>
+      <c r="Z5">
+        <v>53.18224179284274</v>
+      </c>
+      <c r="AA5">
+        <v>1.3952043052215088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>5</v>
       </c>
@@ -759,25 +903,25 @@
         <v>1.722525</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>7.944837705114385</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>0.21681059625562235</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>0.019299999999999998</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J6">
         <v>0.01940241914142831</v>
@@ -801,7 +945,7 @@
         <v>0.3514929310344827</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R6">
         <v>0.003832488552593269</v>
@@ -809,8 +953,32 @@
       <c r="S6">
         <v>0.00012085150166572087</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>1.62119811994829</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6">
+        <v>0.010987629107014207</v>
+      </c>
+      <c r="Y6">
+        <v>0.00025201345218578723</v>
+      </c>
+      <c r="Z6">
+        <v>53.395402247907136</v>
+      </c>
+      <c r="AA6">
+        <v>1.2246827336712376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>6</v>
       </c>
@@ -818,25 +986,25 @@
         <v>2.144037</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>9.888986225895316</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>0.21681059625562235</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H7">
         <v>0.024399999999999998</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J7">
         <v>0.02439803612578866</v>
@@ -860,7 +1028,7 @@
         <v>0.4393661637931034</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R7">
         <v>0.00479998085095342</v>
@@ -868,8 +1036,32 @@
       <c r="S7">
         <v>0.00014107568780026425</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>2.0264976499353624</v>
+      </c>
+      <c r="U7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W7" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7">
+        <v>0.01103272535554112</v>
+      </c>
+      <c r="Y7">
+        <v>0.00022509760285576743</v>
+      </c>
+      <c r="Z7">
+        <v>53.614551648247634</v>
+      </c>
+      <c r="AA7">
+        <v>1.093882668632365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>7</v>
       </c>
@@ -877,25 +1069,25 @@
         <v>2.5483237499999998</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>11.753686369625104</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>0.21681059625562235</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H8">
         <v>0.029300000000000003</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J8">
         <v>0.029282717179379445</v>
@@ -919,7 +1111,7 @@
         <v>0.5272393965517241</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R8">
         <v>0.0057714768976044216</v>
@@ -927,13 +1119,37 @@
       <c r="S8">
         <v>0.00015908744860621487</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>2.4317971799224356</v>
+      </c>
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W8" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8">
+        <v>0.011078708086302728</v>
+      </c>
+      <c r="Y8">
+        <v>0.00020427193612227777</v>
+      </c>
+      <c r="Z8">
+        <v>53.838008991188524</v>
+      </c>
+      <c r="AA8">
+        <v>0.9926784105085018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="P9">
         <v>0.6151126293103448</v>
       </c>
       <c r="Q9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R9">
         <v>0.006747043726113851</v>
@@ -941,13 +1157,37 @@
       <c r="S9">
         <v>0.00017534921917604823</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>2.837096709909508</v>
+      </c>
+      <c r="U9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9">
+        <v>0.011125344752966839</v>
+      </c>
+      <c r="Y9">
+        <v>0.00018823531195462544</v>
+      </c>
+      <c r="Z9">
+        <v>54.06464419627039</v>
+      </c>
+      <c r="AA9">
+        <v>0.9147469486989949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="P10">
         <v>0.7029858620689654</v>
       </c>
       <c r="Q10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R10">
         <v>0.007726731309468842</v>
@@ -955,13 +1195,37 @@
       <c r="S10">
         <v>0.00019021871302947433</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>3.24239623989658</v>
+      </c>
+      <c r="U10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W10" t="s">
+        <v>27</v>
+      </c>
+      <c r="X10">
+        <v>0.011172474347284772</v>
+      </c>
+      <c r="Y10">
+        <v>0.0001761046552080391</v>
+      </c>
+      <c r="Z10">
+        <v>54.29367482898262</v>
+      </c>
+      <c r="AA10">
+        <v>0.8557968976728113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="P11">
         <v>0.7908590948275861</v>
       </c>
       <c r="Q11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R11">
         <v>0.008710577662962845</v>
@@ -969,13 +1233,37 @@
       <c r="S11">
         <v>0.00020398184916096683</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>3.6476957698836525</v>
+      </c>
+      <c r="U11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W11" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11">
+        <v>0.011219982527915964</v>
+      </c>
+      <c r="Y11">
+        <v>0.00016723269715867404</v>
+      </c>
+      <c r="Z11">
+        <v>54.52454523698078</v>
+      </c>
+      <c r="AA11">
+        <v>0.8126827950617218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="P12">
         <v>0.8787323275862068</v>
       </c>
       <c r="Q12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R12">
         <v>0.009698612218910743</v>
@@ -983,13 +1271,37 @@
       <c r="S12">
         <v>0.0002168733559295384</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>4.052995299870725</v>
+      </c>
+      <c r="U12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W12" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12">
+        <v>0.011267786282330218</v>
+      </c>
+      <c r="Y12">
+        <v>0.00016111090395652797</v>
+      </c>
+      <c r="Z12">
+        <v>54.75685201317872</v>
+      </c>
+      <c r="AA12">
+        <v>0.7829333734782771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="P13">
         <v>0.9666055603448275</v>
       </c>
       <c r="Q13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R13">
         <v>0.010690858119527859</v>
@@ -997,13 +1309,37 @@
       <c r="S13">
         <v>0.00022909027408647215</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>4.458294829857798</v>
+      </c>
+      <c r="U13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13">
+        <v>0.01131582416343667</v>
+      </c>
+      <c r="Y13">
+        <v>0.00015731696626580124</v>
+      </c>
+      <c r="Z13">
+        <v>54.990296549742006</v>
+      </c>
+      <c r="AA13">
+        <v>0.7644963815551945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="P14">
         <v>1.0544787931034483</v>
       </c>
       <c r="Q14" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R14">
         <v>0.011687333812058049</v>
@@ -1011,13 +1347,37 @@
       <c r="S14">
         <v>0.00024080112683325146</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14">
+        <v>4.863594359844871</v>
+      </c>
+      <c r="U14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X14">
+        <v>0.011364049900053137</v>
+      </c>
+      <c r="Y14">
+        <v>0.00015548760482806122</v>
+      </c>
+      <c r="Z14">
+        <v>55.22465398757125</v>
+      </c>
+      <c r="AA14">
+        <v>0.7556064300585079</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="P15">
         <v>1.142352025862069</v>
       </c>
       <c r="Q15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R15">
         <v>0.012688054181916222</v>
@@ -1025,13 +1385,37 @@
       <c r="S15">
         <v>0.00025215231549185265</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>5.2688938898319435</v>
+      </c>
+      <c r="U15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W15" t="s">
+        <v>27</v>
+      </c>
+      <c r="X15">
+        <v>0.01141242811170724</v>
+      </c>
+      <c r="Y15">
+        <v>0.0001553057920120299</v>
+      </c>
+      <c r="Z15">
+        <v>55.459752391981</v>
+      </c>
+      <c r="AA15">
+        <v>0.7547228938241424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="P16">
         <v>1.2302252586206897</v>
       </c>
       <c r="Q16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R16">
         <v>0.01369303137275903</v>
@@ -1039,13 +1423,37 @@
       <c r="S16">
         <v>0.000263272667535592</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16">
+        <v>5.674193419819016</v>
+      </c>
+      <c r="U16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X16">
+        <v>0.011460931371436932</v>
+      </c>
+      <c r="Y16">
+        <v>0.00015649532841786033</v>
+      </c>
+      <c r="Z16">
+        <v>55.695458479106605</v>
+      </c>
+      <c r="AA16">
+        <v>0.7605035562636214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="P17">
         <v>1.3180984913793101</v>
       </c>
       <c r="Q17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R17">
         <v>0.014702275389955145</v>
@@ -1053,13 +1461,37 @@
       <c r="S17">
         <v>0.0002742767156225921</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17">
+        <v>6.079492949806087</v>
+      </c>
+      <c r="U17" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W17" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17">
+        <v>0.011509538152883496</v>
+      </c>
+      <c r="Y17">
+        <v>0.0001588182406411921</v>
+      </c>
+      <c r="Z17">
+        <v>55.931667639612265</v>
+      </c>
+      <c r="AA17">
+        <v>0.7717919635572571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="P18">
         <v>1.4059717241379308</v>
       </c>
       <c r="Q18" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R18">
         <v>0.015715794551385182</v>
@@ -1067,13 +1499,37 @@
       <c r="S18">
         <v>0.0002852670850892551</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>6.48479247979316</v>
+      </c>
+      <c r="U18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18">
+        <v>0.01155823137000056</v>
+      </c>
+      <c r="Y18">
+        <v>0.00016207250800400621</v>
+      </c>
+      <c r="Z18">
+        <v>56.168296842271694</v>
+      </c>
+      <c r="AA18">
+        <v>0.7876063774919946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="P19">
         <v>1.4938449568965515</v>
       </c>
       <c r="Q19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R19">
         <v>0.016733595828809077</v>
@@ -1081,13 +1537,37 @@
       <c r="S19">
         <v>0.0002963362459011124</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>6.890092009780233</v>
+      </c>
+      <c r="U19" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W19" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19">
+        <v>0.01160699732163645</v>
+      </c>
+      <c r="Y19">
+        <v>0.00016608914872899046</v>
+      </c>
+      <c r="Z19">
+        <v>56.40527950506817</v>
+      </c>
+      <c r="AA19">
+        <v>0.8071256154556194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="P20">
         <v>1.5817181896551722</v>
       </c>
       <c r="Q20" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R20">
         <v>0.017755685109588245</v>
@@ -1095,13 +1575,37 @@
       <c r="S20">
         <v>0.0003075678086480988</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20">
+        <v>7.295391539767305</v>
+      </c>
+      <c r="U20" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W20" t="s">
+        <v>27</v>
+      </c>
+      <c r="X20">
+        <v>0.011655824917602892</v>
+      </c>
+      <c r="Y20">
+        <v>0.00017072860608995918</v>
+      </c>
+      <c r="Z20">
+        <v>56.64256173420367</v>
+      </c>
+      <c r="AA20">
+        <v>0.8296714885996989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="P21">
         <v>1.6695914224137929</v>
       </c>
       <c r="Q21" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R21">
         <v>0.01878206739963033</v>
@@ -1109,13 +1613,37 @@
       <c r="S21">
         <v>0.0003190374941032444</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21">
+        <v>7.700691069754377</v>
+      </c>
+      <c r="U21" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W21" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21">
+        <v>0.01170470510358927</v>
+      </c>
+      <c r="Y21">
+        <v>0.0001758767584944391</v>
+      </c>
+      <c r="Z21">
+        <v>56.880099529416384</v>
+      </c>
+      <c r="AA21">
+        <v>0.8546894124660274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="P22">
         <v>1.7574646551724136</v>
       </c>
       <c r="Q22" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R22">
         <v>0.019812746982401087</v>
@@ -1123,13 +1651,37 @@
       <c r="S22">
         <v>0.0003308138716553176</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22">
+        <v>8.10599059974145</v>
+      </c>
+      <c r="U22" t="s">
+        <v>27</v>
+      </c>
+      <c r="V22">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W22" t="s">
+        <v>27</v>
+      </c>
+      <c r="X22">
+        <v>0.011753630428607787</v>
+      </c>
+      <c r="Y22">
+        <v>0.00018144092948320484</v>
+      </c>
+      <c r="Z22">
+        <v>57.117856681940374</v>
+      </c>
+      <c r="AA22">
+        <v>0.8817290172094765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="P23">
         <v>1.8453378879310343</v>
       </c>
       <c r="Q23" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R23">
         <v>0.02084772754471261</v>
@@ -1137,13 +1689,37 @@
       <c r="S23">
         <v>0.00034295893753116596</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23">
+        <v>8.511290129728524</v>
+      </c>
+      <c r="U23" t="s">
+        <v>27</v>
+      </c>
+      <c r="V23">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W23" t="s">
+        <v>27</v>
+      </c>
+      <c r="X23">
+        <v>0.011802594715982061</v>
+      </c>
+      <c r="Y23">
+        <v>0.00018734617851195394</v>
+      </c>
+      <c r="Z23">
+        <v>57.355803175644134</v>
+      </c>
+      <c r="AA23">
+        <v>0.910426122307685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="P24">
         <v>1.933211120689655</v>
       </c>
       <c r="Q24" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R24">
         <v>0.021887012277113954</v>
@@ -1151,13 +1727,37 @@
       <c r="S24">
         <v>0.00035552858559418645</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24">
+        <v>8.916589659715596</v>
+      </c>
+      <c r="U24" t="s">
+        <v>27</v>
+      </c>
+      <c r="V24">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W24" t="s">
+        <v>27</v>
+      </c>
+      <c r="X24">
+        <v>0.011851592810491604</v>
+      </c>
+      <c r="Y24">
+        <v>0.00019353202826855956</v>
+      </c>
+      <c r="Z24">
+        <v>57.59391395825581</v>
+      </c>
+      <c r="AA24">
+        <v>0.940486832655855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="P25">
         <v>2.0210843534482756</v>
       </c>
       <c r="Q25" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R25">
         <v>0.022930603954672103</v>
@@ -1165,13 +1765,37 @@
       <c r="S25">
         <v>0.0003685730095491704</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25">
+        <v>9.321889189702668</v>
+      </c>
+      <c r="U25" t="s">
+        <v>27</v>
+      </c>
+      <c r="V25">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W25" t="s">
+        <v>27</v>
+      </c>
+      <c r="X25">
+        <v>0.011900620382172733</v>
+      </c>
+      <c r="Y25">
+        <v>0.00019994968206892626</v>
+      </c>
+      <c r="Z25">
+        <v>57.83216798791548</v>
+      </c>
+      <c r="AA25">
+        <v>0.9716740162439537</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="P26">
         <v>2.1089575862068966</v>
       </c>
       <c r="Q26" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R26">
         <v>0.02397850500247108</v>
@@ -1179,13 +1803,37 @@
       <c r="S26">
         <v>0.00038213706437424655</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26">
+        <v>9.727188719689742</v>
+      </c>
+      <c r="U26" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W26" t="s">
+        <v>27</v>
+      </c>
+      <c r="X26">
+        <v>0.011949673772718645</v>
+      </c>
+      <c r="Y26">
+        <v>0.0002065597185815071</v>
+      </c>
+      <c r="Z26">
+        <v>58.070547486742086</v>
+      </c>
+      <c r="AA26">
+        <v>1.0037961014567953</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="P27">
         <v>2.196830818965517</v>
       </c>
       <c r="Q27" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R27">
         <v>0.02503071754909903</v>
@@ -1193,13 +1841,37 @@
       <c r="S27">
         <v>0.0003962606060249945</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27">
+        <v>10.132488249676813</v>
+      </c>
+      <c r="U27" t="s">
+        <v>27</v>
+      </c>
+      <c r="V27">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W27" t="s">
+        <v>27</v>
+      </c>
+      <c r="X27">
+        <v>0.011998749874226944</v>
+      </c>
+      <c r="Y27">
+        <v>0.00021333021592441959</v>
+      </c>
+      <c r="Z27">
+        <v>58.30903735159581</v>
+      </c>
+      <c r="AA27">
+        <v>1.03669796095007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="P28">
         <v>2.284704051724138</v>
       </c>
       <c r="Q28" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R28">
         <v>0.026087243470617083</v>
@@ -1207,13 +1879,37 @@
       <c r="S28">
         <v>0.000410978821495503</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28">
+        <v>10.537787779663887</v>
+      </c>
+      <c r="U28" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W28" t="s">
+        <v>27</v>
+      </c>
+      <c r="X28">
+        <v>0.012047846032737093</v>
+      </c>
+      <c r="Y28">
+        <v>0.00022023524342439872</v>
+      </c>
+      <c r="Z28">
+        <v>58.547624685309415</v>
+      </c>
+      <c r="AA28">
+        <v>1.0702535822131576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="P29">
         <v>2.3725772844827584</v>
       </c>
       <c r="Q29" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R29">
         <v>0.02714808442692907</v>
@@ -1221,13 +1917,37 @@
       <c r="S29">
         <v>0.0004263225559132312</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29">
+        <v>10.943087309650958</v>
+      </c>
+      <c r="U29" t="s">
+        <v>27</v>
+      </c>
+      <c r="V29">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W29" t="s">
+        <v>27</v>
+      </c>
+      <c r="X29">
+        <v>0.012096959970930255</v>
+      </c>
+      <c r="Y29">
+        <v>0.0002272536582841552</v>
+      </c>
+      <c r="Z29">
+        <v>58.78629842104086</v>
+      </c>
+      <c r="AA29">
+        <v>1.1043602198625988</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="P30">
         <v>2.4604505172413793</v>
       </c>
       <c r="Q30" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R30">
         <v>0.028213241892041663</v>
@@ -1235,19 +1955,67 @@
       <c r="S30">
         <v>0.000442318639295784</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30">
+        <v>11.348386839638032</v>
+      </c>
+      <c r="U30" t="s">
+        <v>27</v>
+      </c>
+      <c r="V30">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W30" t="s">
+        <v>27</v>
+      </c>
+      <c r="X30">
+        <v>0.012146089725761401</v>
+      </c>
+      <c r="Y30">
+        <v>0.00023436814983020363</v>
+      </c>
+      <c r="Z30">
+        <v>59.02504901919088</v>
+      </c>
+      <c r="AA30">
+        <v>1.1389337510758144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="P31">
         <v>2.5483237499999998</v>
       </c>
       <c r="Q31" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R31">
         <v>0.029282717179379445</v>
       </c>
       <c r="S31">
         <v>0.00045899021273607165</v>
+      </c>
+      <c r="T31">
+        <v>11.753686369625104</v>
+      </c>
+      <c r="U31" t="s">
+        <v>27</v>
+      </c>
+      <c r="V31">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W31" t="s">
+        <v>27</v>
+      </c>
+      <c r="X31">
+        <v>0.012195233597815831</v>
+      </c>
+      <c r="Y31">
+        <v>0.00024156448201942548</v>
+      </c>
+      <c r="Z31">
+        <v>59.263868221296164</v>
+      </c>
+      <c r="AA31">
+        <v>1.1739049944815247</v>
       </c>
     </row>
   </sheetData>
@@ -1257,13 +2025,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1321,8 +2089,32 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1380,8 +2172,32 @@
       <c r="S2">
         <v>1.0970227161978857e-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>0.0</v>
+      </c>
+      <c r="U2">
+        <v>0.004673433944184932</v>
+      </c>
+      <c r="V2">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W2">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X2">
+        <v>0.01082677242731691</v>
+      </c>
+      <c r="Y2">
+        <v>0.0005003624684662629</v>
+      </c>
+      <c r="Z2">
+        <v>52.613704300784306</v>
+      </c>
+      <c r="AA2">
+        <v>2.4975556773491503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1439,8 +2255,32 @@
       <c r="S3">
         <v>4.0581954757315434e-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>0.4052995299870725</v>
+      </c>
+      <c r="U3">
+        <v>0.006300072468969903</v>
+      </c>
+      <c r="V3">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W3">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X3">
+        <v>0.010862187843442077</v>
+      </c>
+      <c r="Y3">
+        <v>0.0003999328004974088</v>
+      </c>
+      <c r="Z3">
+        <v>52.785808798612074</v>
+      </c>
+      <c r="AA3">
+        <v>2.0259999723859274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1498,8 +2338,32 @@
       <c r="S4">
         <v>7.175697822090248e-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>0.810599059974145</v>
+      </c>
+      <c r="U4">
+        <v>0.00981087394664336</v>
+      </c>
+      <c r="V4">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W4">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X4">
+        <v>0.010901666498460942</v>
+      </c>
+      <c r="Y4">
+        <v>0.0003340288588966255</v>
+      </c>
+      <c r="Z4">
+        <v>52.97765898252417</v>
+      </c>
+      <c r="AA4">
+        <v>1.7218446529028988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1557,8 +2421,32 @@
       <c r="S5">
         <v>9.830268440360269e-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>1.2158985899612178</v>
+      </c>
+      <c r="U5">
+        <v>0.013839363723763418</v>
+      </c>
+      <c r="V5">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W5">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X5">
+        <v>0.010943765255035796</v>
+      </c>
+      <c r="Y5">
+        <v>0.00028710348621928725</v>
+      </c>
+      <c r="Z5">
+        <v>53.18224179284274</v>
+      </c>
+      <c r="AA5">
+        <v>1.5096288792435422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1616,8 +2504,32 @@
       <c r="S6">
         <v>0.00012124173160846076</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>1.62119811994829</v>
+      </c>
+      <c r="U6">
+        <v>0.01804203799905522</v>
+      </c>
+      <c r="V6">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W6">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X6">
+        <v>0.010987629107014207</v>
+      </c>
+      <c r="Y6">
+        <v>0.00025201385123376077</v>
+      </c>
+      <c r="Z6">
+        <v>53.395402247907136</v>
+      </c>
+      <c r="AA6">
+        <v>1.3545854969037572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1675,8 +2587,32 @@
       <c r="S7">
         <v>0.0001413918491466202</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>2.026497649935363</v>
+      </c>
+      <c r="U7">
+        <v>0.022320723291128507</v>
+      </c>
+      <c r="V7">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W7">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X7">
+        <v>0.01103272535554112</v>
+      </c>
+      <c r="Y7">
+        <v>0.00022509804144560543</v>
+      </c>
+      <c r="Z7">
+        <v>53.614551648247634</v>
+      </c>
+      <c r="AA7">
+        <v>1.238704641531797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1734,8 +2670,32 @@
       <c r="S8">
         <v>0.00015935329775997406</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>2.4317971799224356</v>
+      </c>
+      <c r="U8">
+        <v>0.026638818433217738</v>
+      </c>
+      <c r="V8">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W8">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X8">
+        <v>0.011078708086302728</v>
+      </c>
+      <c r="Y8">
+        <v>0.00020427240566225593</v>
+      </c>
+      <c r="Z8">
+        <v>53.838008991188524</v>
+      </c>
+      <c r="AA8">
+        <v>1.1515389269846978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="P9">
         <v>0.6151126293103448</v>
       </c>
@@ -1748,8 +2708,32 @@
       <c r="S9">
         <v>0.00017557871429584948</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>2.837096709909508</v>
+      </c>
+      <c r="U9">
+        <v>0.030979848498593338</v>
+      </c>
+      <c r="V9">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W9">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X9">
+        <v>0.011125344752966839</v>
+      </c>
+      <c r="Y9">
+        <v>0.00018823580440906115</v>
+      </c>
+      <c r="Z9">
+        <v>54.06464419627039</v>
+      </c>
+      <c r="AA9">
+        <v>1.08640099787928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="P10">
         <v>0.7029858620689654</v>
       </c>
@@ -1762,8 +2746,32 @@
       <c r="S10">
         <v>0.00019042088147761885</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>3.24239623989658</v>
+      </c>
+      <c r="U10">
+        <v>0.03533536167457029</v>
+      </c>
+      <c r="V10">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W10">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X10">
+        <v>0.011172474347284772</v>
+      </c>
+      <c r="Y10">
+        <v>0.00017610516310722924</v>
+      </c>
+      <c r="Z10">
+        <v>54.29367482898262</v>
+      </c>
+      <c r="AA10">
+        <v>1.038657686609428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="P11">
         <v>0.7908590948275862</v>
       </c>
@@ -1776,8 +2784,32 @@
       <c r="S11">
         <v>0.0002041629633125013</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>3.647695769883653</v>
+      </c>
+      <c r="U11">
+        <v>0.03970059146346093</v>
+      </c>
+      <c r="V11">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W11">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X11">
+        <v>0.011219982527915964</v>
+      </c>
+      <c r="Y11">
+        <v>0.00016723321377307544</v>
+      </c>
+      <c r="Z11">
+        <v>54.52454523698078</v>
+      </c>
+      <c r="AA11">
+        <v>1.0049014937342025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="P12">
         <v>0.8787323275862069</v>
       </c>
@@ -1790,8 +2822,32 @@
       <c r="S12">
         <v>0.0002170380258646752</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>4.052995299870726</v>
+      </c>
+      <c r="U12">
+        <v>0.044072650778272944</v>
+      </c>
+      <c r="V12">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W12">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X12">
+        <v>0.011267786282330218</v>
+      </c>
+      <c r="Y12">
+        <v>0.00016111142356634164</v>
+      </c>
+      <c r="Z12">
+        <v>54.75685201317872</v>
+      </c>
+      <c r="AA12">
+        <v>0.9825179954020696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="P13">
         <v>0.9666055603448275</v>
       </c>
@@ -1804,8 +2860,32 @@
       <c r="S13">
         <v>0.00022924204520614482</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>4.458294829857798</v>
+      </c>
+      <c r="U13">
+        <v>0.04844969078227042</v>
+      </c>
+      <c r="V13">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W13">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X13">
+        <v>0.01131582416343667</v>
+      </c>
+      <c r="Y13">
+        <v>0.00015731748442451932</v>
+      </c>
+      <c r="Z13">
+        <v>54.990296549742006</v>
+      </c>
+      <c r="AA13">
+        <v>0.9694443409738647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="P14">
         <v>1.0544787931034483</v>
       </c>
@@ -1818,8 +2898,32 @@
       <c r="S14">
         <v>0.0002409428285511546</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14">
+        <v>4.863594359844871</v>
+      </c>
+      <c r="U14">
+        <v>0.05283047352968432</v>
+      </c>
+      <c r="V14">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W14">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X14">
+        <v>0.011364049900053137</v>
+      </c>
+      <c r="Y14">
+        <v>0.0001554881185260411</v>
+      </c>
+      <c r="Z14">
+        <v>55.22465398757125</v>
+      </c>
+      <c r="AA14">
+        <v>0.9640249181271975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="P15">
         <v>1.142352025862069</v>
       </c>
@@ -1832,8 +2936,32 @@
       <c r="S15">
         <v>0.000252286275129834</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>5.2688938898319435</v>
+      </c>
+      <c r="U15">
+        <v>0.05721413930177376</v>
+      </c>
+      <c r="V15">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W15">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X15">
+        <v>0.01141242811170724</v>
+      </c>
+      <c r="Y15">
+        <v>0.00015530629968983658</v>
+      </c>
+      <c r="Z15">
+        <v>55.459752391981</v>
+      </c>
+      <c r="AA15">
+        <v>0.9649184219925405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="P16">
         <v>1.2302252586206897</v>
       </c>
@@ -1846,8 +2974,32 @@
       <c r="S16">
         <v>0.000263400846769018</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16">
+        <v>5.674193419819016</v>
+      </c>
+      <c r="U16">
+        <v>0.061600072604777914</v>
+      </c>
+      <c r="V16">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W16">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X16">
+        <v>0.011460931371436932</v>
+      </c>
+      <c r="Y16">
+        <v>0.00015649582983498346</v>
+      </c>
+      <c r="Z16">
+        <v>55.695458479106605</v>
+      </c>
+      <c r="AA16">
+        <v>0.9710332120594646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="P17">
         <v>1.3180984913793103</v>
       </c>
@@ -1860,8 +3012,32 @@
       <c r="S17">
         <v>0.00027440080024256785</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17">
+        <v>6.079492949806088</v>
+      </c>
+      <c r="U17">
+        <v>0.06598782130048005</v>
+      </c>
+      <c r="V17">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W17">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X17">
+        <v>0.011509538152883496</v>
+      </c>
+      <c r="Y17">
+        <v>0.00015881873664614347</v>
+      </c>
+      <c r="Z17">
+        <v>55.931667639612265</v>
+      </c>
+      <c r="AA17">
+        <v>0.9814791405749472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="P18">
         <v>1.4059717241379308</v>
       </c>
@@ -1874,8 +3050,32 @@
       <c r="S18">
         <v>0.0002853885455208376</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>6.48479247979316</v>
+      </c>
+      <c r="U18">
+        <v>0.0703770458406241</v>
+      </c>
+      <c r="V18">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W18">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X18">
+        <v>0.01155823137000056</v>
+      </c>
+      <c r="Y18">
+        <v>0.0001620730002642808</v>
+      </c>
+      <c r="Z18">
+        <v>56.168296842271694</v>
+      </c>
+      <c r="AA18">
+        <v>0.9955298060656257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="P19">
         <v>1.4938449568965515</v>
       </c>
@@ -1888,8 +3088,32 @@
       <c r="S19">
         <v>0.0002964563788401391</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>6.890092009780233</v>
+      </c>
+      <c r="U19">
+        <v>0.07476748630736199</v>
+      </c>
+      <c r="V19">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W19">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X19">
+        <v>0.01160699732163645</v>
+      </c>
+      <c r="Y19">
+        <v>0.0001660896394694078</v>
+      </c>
+      <c r="Z19">
+        <v>56.40527950506817</v>
+      </c>
+      <c r="AA19">
+        <v>1.0125920939184143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="P20">
         <v>1.5817181896551724</v>
       </c>
@@ -1902,8 +3126,32 @@
       <c r="S20">
         <v>0.0003076877662328391</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20">
+        <v>7.295391539767306</v>
+      </c>
+      <c r="U20">
+        <v>0.07915894038192314</v>
+      </c>
+      <c r="V20">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W20">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X20">
+        <v>0.011655824917602892</v>
+      </c>
+      <c r="Y20">
+        <v>0.00017072909786860506</v>
+      </c>
+      <c r="Z20">
+        <v>56.64256173420367</v>
+      </c>
+      <c r="AA20">
+        <v>1.032181278372133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="P21">
         <v>1.6695914224137929</v>
       </c>
@@ -1916,8 +3164,32 @@
       <c r="S21">
         <v>0.00031915830473794207</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21">
+        <v>7.700691069754377</v>
+      </c>
+      <c r="U21">
+        <v>0.08355124823876184</v>
+      </c>
+      <c r="V21">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W21">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X21">
+        <v>0.01170470510358927</v>
+      </c>
+      <c r="Y21">
+        <v>0.00017587725402740204</v>
+      </c>
+      <c r="Z21">
+        <v>56.880099529416384</v>
+      </c>
+      <c r="AA21">
+        <v>1.0539006175357806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="P22">
         <v>1.7574646551724138</v>
       </c>
@@ -1930,8 +3202,32 @@
       <c r="S22">
         <v>0.00033093645520774936</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22">
+        <v>8.105990599741451</v>
+      </c>
+      <c r="U22">
+        <v>0.08794428195352204</v>
+      </c>
+      <c r="V22">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W22">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X22">
+        <v>0.01175363042860779</v>
+      </c>
+      <c r="Y22">
+        <v>0.0001814414315171613</v>
+      </c>
+      <c r="Z22">
+        <v>57.117856681940374</v>
+      </c>
+      <c r="AA22">
+        <v>1.0774246742412348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="P23">
         <v>1.8453378879310343</v>
       </c>
@@ -1944,8 +3240,32 @@
       <c r="S23">
         <v>0.0003430841167462541</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23">
+        <v>8.511290129728524</v>
+      </c>
+      <c r="U23">
+        <v>0.09233793792686192</v>
+      </c>
+      <c r="V23">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W23">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X23">
+        <v>0.011802594715982061</v>
+      </c>
+      <c r="Y23">
+        <v>0.0001873466897375243</v>
+      </c>
+      <c r="Z23">
+        <v>57.355803175644134</v>
+      </c>
+      <c r="AA23">
+        <v>1.1024857441393372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="P24">
         <v>1.933211120689655</v>
       </c>
@@ -1958,8 +3278,32 @@
       <c r="S24">
         <v>0.00035565709498889885</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24">
+        <v>8.916589659715596</v>
+      </c>
+      <c r="U24">
+        <v>0.09673213136827112</v>
+      </c>
+      <c r="V24">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W24">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X24">
+        <v>0.011851592810491604</v>
+      </c>
+      <c r="Y24">
+        <v>0.00019353255126547828</v>
+      </c>
+      <c r="Z24">
+        <v>57.59391395825581</v>
+      </c>
+      <c r="AA24">
+        <v>1.1288628632479547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="P25">
         <v>2.0210843534482756</v>
       </c>
@@ -1972,8 +3316,32 @@
       <c r="S25">
         <v>0.0003687055026620693</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25">
+        <v>9.321889189702668</v>
+      </c>
+      <c r="U25">
+        <v>0.10112679221507505</v>
+      </c>
+      <c r="V25">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W25">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X25">
+        <v>0.011900620382172733</v>
+      </c>
+      <c r="Y25">
+        <v>0.0001999502192745367</v>
+      </c>
+      <c r="Z25">
+        <v>57.83216798791548</v>
+      </c>
+      <c r="AA25">
+        <v>1.1563729388688042</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="P26">
         <v>2.1089575862068966</v>
       </c>
@@ -1986,8 +3354,32 @@
       <c r="S26">
         <v>0.00038227411996837984</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26">
+        <v>9.727188719689742</v>
+      </c>
+      <c r="U26">
+        <v>0.10552186206930061</v>
+      </c>
+      <c r="V26">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W26">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X26">
+        <v>0.011949673772718645</v>
+      </c>
+      <c r="Y26">
+        <v>0.0002065602722755385</v>
+      </c>
+      <c r="Z26">
+        <v>58.070547486742086</v>
+      </c>
+      <c r="AA26">
+        <v>1.184863613052383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="P27">
         <v>2.196830818965517</v>
       </c>
@@ -2000,8 +3392,32 @@
       <c r="S27">
         <v>0.0003964027336458014</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27">
+        <v>10.132488249676813</v>
+      </c>
+      <c r="U27">
+        <v>0.10991729186817281</v>
+      </c>
+      <c r="V27">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W27">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X27">
+        <v>0.011998749874226944</v>
+      </c>
+      <c r="Y27">
+        <v>0.00021333078822464521</v>
+      </c>
+      <c r="Z27">
+        <v>58.30903735159581</v>
+      </c>
+      <c r="AA27">
+        <v>1.2142075288224887</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="P28">
         <v>2.284704051724138</v>
       </c>
@@ -2014,8 +3430,32 @@
       <c r="S28">
         <v>0.0004111264666424009</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28">
+        <v>10.537787779663887</v>
+      </c>
+      <c r="U28">
+        <v>0.1143130400912018</v>
+      </c>
+      <c r="V28">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W28">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X28">
+        <v>0.012047846032737093</v>
+      </c>
+      <c r="Y28">
+        <v>0.00022023583628924152</v>
+      </c>
+      <c r="Z28">
+        <v>58.547624685309415</v>
+      </c>
+      <c r="AA28">
+        <v>1.244297725235803</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="P29">
         <v>2.3725772844827584</v>
       </c>
@@ -2028,8 +3468,32 @@
       <c r="S29">
         <v>0.0004264761049799306</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29">
+        <v>10.943087309650958</v>
+      </c>
+      <c r="U29">
+        <v>0.1187090713650451</v>
+      </c>
+      <c r="V29">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W29">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X29">
+        <v>0.012096959970930255</v>
+      </c>
+      <c r="Y29">
+        <v>0.00022725427351948468</v>
+      </c>
+      <c r="Z29">
+        <v>58.78629842104086</v>
+      </c>
+      <c r="AA29">
+        <v>1.275043936859738</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="P30">
         <v>2.4604505172413793</v>
       </c>
@@ -2042,8 +3506,32 @@
       <c r="S30">
         <v>0.0004424784243605887</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30">
+        <v>11.348386839638032</v>
+      </c>
+      <c r="U30">
+        <v>0.12310535536689325</v>
+      </c>
+      <c r="V30">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W30">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X30">
+        <v>0.012146089725761401</v>
+      </c>
+      <c r="Y30">
+        <v>0.0002343687890984507</v>
+      </c>
+      <c r="Z30">
+        <v>59.02504901919088</v>
+      </c>
+      <c r="AA30">
+        <v>1.3063696158273328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="P31">
         <v>2.5483237499999998</v>
       </c>
@@ -2055,6 +3543,30 @@
       </c>
       <c r="S31">
         <v>0.00045915651623271614</v>
+      </c>
+      <c r="T31">
+        <v>11.753686369625104</v>
+      </c>
+      <c r="U31">
+        <v>0.12750186595444718</v>
+      </c>
+      <c r="V31">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W31">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X31">
+        <v>0.012195233597815831</v>
+      </c>
+      <c r="Y31">
+        <v>0.0002415651468497785</v>
+      </c>
+      <c r="Z31">
+        <v>59.263868221296164</v>
+      </c>
+      <c r="AA31">
+        <v>1.3382095303525503</v>
       </c>
     </row>
   </sheetData>

--- a/test/writer_output/Molar Volume Analysis.xlsx
+++ b/test/writer_output/Molar Volume Analysis.xlsx
@@ -1,33 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Membrane Packages\SorptionModels.jl\test\writer_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95AC012-52B8-433B-A766-916F688CCEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Partial Molar Volume Analysis" r:id="rId4" sheetId="2"/>
-    <sheet name="Also with uncertainty!" r:id="rId6" sheetId="3"/>
+    <sheet name="Partial Molar Volume Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="With hessian an uncertain input" sheetId="3" r:id="rId3"/>
+    <sheet name="Also with jackknifing!" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="28">
   <si>
     <t>Step</t>
   </si>
@@ -461,26 +473,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D760D48-8110-4C27-8DBA-7A493BCE3048}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED4E91F-69EF-4B1F-A602-F6B41AF4E840}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,18 +575,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -586,43 +598,43 @@
         <v>27</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>27</v>
       </c>
       <c r="J2">
-        <v>0.0</v>
-      </c>
-      <c r="K2">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
       </c>
       <c r="L2">
-        <v>0.01082677242731691</v>
-      </c>
-      <c r="M2">
-        <v>0.0005003623267378652</v>
+        <v>1.0826772427316909E-2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
       </c>
       <c r="N2">
         <v>52.613704300784306</v>
       </c>
-      <c r="O2">
-        <v>2.431557112608725</v>
+      <c r="O2" t="s">
+        <v>27</v>
       </c>
       <c r="P2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="s">
         <v>27</v>
       </c>
       <c r="R2">
-        <v>0.0</v>
-      </c>
-      <c r="S2">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
       </c>
       <c r="T2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -634,24 +646,24 @@
         <v>27</v>
       </c>
       <c r="X2">
-        <v>0.01082677242731691</v>
-      </c>
-      <c r="Y2">
-        <v>0.0005003623267378652</v>
+        <v>1.0826772427316909E-2</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>27</v>
       </c>
       <c r="Z2">
         <v>52.613704300784306</v>
       </c>
-      <c r="AA2">
-        <v>2.431557112608725</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4397505</v>
+        <v>0.43975049999999999</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -669,43 +681,43 @@
         <v>27</v>
       </c>
       <c r="H3">
-        <v>0.004778</v>
+        <v>4.7780000000000001E-3</v>
       </c>
       <c r="I3" t="s">
         <v>27</v>
       </c>
       <c r="J3">
-        <v>0.004804221165084185</v>
-      </c>
-      <c r="K3">
-        <v>0.00014115889901212696</v>
+        <v>4.804221165084185E-3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
       </c>
       <c r="L3">
-        <v>0.011032924745666518</v>
-      </c>
-      <c r="M3">
-        <v>0.00022499441625376378</v>
+        <v>1.1032924745666518E-2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
       </c>
       <c r="N3">
-        <v>53.61552060304636</v>
-      </c>
-      <c r="O3">
-        <v>1.0933812237740688</v>
+        <v>53.615520603046363</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
       </c>
       <c r="P3">
-        <v>0.08787323275862068</v>
+        <v>8.7873232758620676E-2</v>
       </c>
       <c r="Q3" t="s">
         <v>27</v>
       </c>
       <c r="R3">
-        <v>0.000952902391377181</v>
-      </c>
-      <c r="S3">
-        <v>3.916409816424238e-5</v>
+        <v>9.5290239137718104E-4</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
       </c>
       <c r="T3">
-        <v>0.4052995299870725</v>
+        <v>0.40529952998707253</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -717,30 +729,30 @@
         <v>27</v>
       </c>
       <c r="X3">
-        <v>0.010862187843442077</v>
-      </c>
-      <c r="Y3">
-        <v>0.0003999325793028513</v>
+        <v>1.0862187843442077E-2</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>27</v>
       </c>
       <c r="Z3">
         <v>52.785808798612074</v>
       </c>
-      <c r="AA3">
-        <v>1.9435094446614134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9159779999999998</v>
+        <v>0.91597799999999985</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4">
-        <v>4.224784285543178</v>
+        <v>4.2247842855431781</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -752,28 +764,28 @@
         <v>27</v>
       </c>
       <c r="H4">
-        <v>0.0101</v>
+        <v>1.01E-2</v>
       </c>
       <c r="I4" t="s">
         <v>27</v>
       </c>
       <c r="J4">
-        <v>0.010118667077756938</v>
-      </c>
-      <c r="K4">
-        <v>0.00022212361249591273</v>
+        <v>1.0118667077756938E-2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
       </c>
       <c r="L4">
-        <v>0.011288121853328314</v>
-      </c>
-      <c r="M4">
-        <v>0.00015924079361936836</v>
+        <v>1.1288121853328314E-2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
       </c>
       <c r="N4">
-        <v>54.85567460564238</v>
-      </c>
-      <c r="O4">
-        <v>0.7738453989272558</v>
+        <v>54.855674605642378</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
       </c>
       <c r="P4">
         <v>0.17574646551724135</v>
@@ -782,13 +794,13 @@
         <v>27</v>
       </c>
       <c r="R4">
-        <v>0.0019091090890199858</v>
-      </c>
-      <c r="S4">
-        <v>7.101208697248884e-5</v>
+        <v>1.9091090890199858E-3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
       </c>
       <c r="T4">
-        <v>0.810599059974145</v>
+        <v>0.81059905997414505</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -800,19 +812,19 @@
         <v>27</v>
       </c>
       <c r="X4">
-        <v>0.010901666498460942</v>
-      </c>
-      <c r="Y4">
-        <v>0.00033402856775317764</v>
+        <v>1.0901666498460942E-2</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>27</v>
       </c>
       <c r="Z4">
-        <v>52.97765898252417</v>
-      </c>
-      <c r="AA4">
-        <v>1.6232427909390805</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>52.977658982524169</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -823,7 +835,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>5.981995448556714</v>
+        <v>5.9819954485567139</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -835,28 +847,28 @@
         <v>27</v>
       </c>
       <c r="H5">
-        <v>0.01458</v>
+        <v>1.4579999999999999E-2</v>
       </c>
       <c r="I5" t="s">
         <v>27</v>
       </c>
       <c r="J5">
-        <v>0.01445910479836697</v>
-      </c>
-      <c r="K5">
-        <v>0.00027163456450156727</v>
+        <v>1.445910479836697E-2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
       </c>
       <c r="L5">
-        <v>0.011497836990041721</v>
-      </c>
-      <c r="M5">
-        <v>0.0001581673168967901</v>
+        <v>1.1497836990041721E-2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
       </c>
       <c r="N5">
-        <v>55.87480475403252</v>
-      </c>
-      <c r="O5">
-        <v>0.7686287392777923</v>
+        <v>55.874804754032517</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
       </c>
       <c r="P5">
         <v>0.26361969827586207</v>
@@ -865,10 +877,10 @@
         <v>27</v>
       </c>
       <c r="R5">
-        <v>0.002868907948488987</v>
-      </c>
-      <c r="S5">
-        <v>9.779194939367895e-5</v>
+        <v>2.868907948488987E-3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
       </c>
       <c r="T5">
         <v>1.2158985899612178</v>
@@ -883,30 +895,30 @@
         <v>27</v>
       </c>
       <c r="X5">
-        <v>0.010943765255035796</v>
-      </c>
-      <c r="Y5">
-        <v>0.000287103136017376</v>
+        <v>1.0943765255035796E-2</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>27</v>
       </c>
       <c r="Z5">
-        <v>53.18224179284274</v>
-      </c>
-      <c r="AA5">
-        <v>1.3952043052215088</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>53.182241792842738</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.722525</v>
+        <v>1.7225250000000001</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6">
-        <v>7.944837705114385</v>
+        <v>7.9448377051143853</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -918,28 +930,28 @@
         <v>27</v>
       </c>
       <c r="H6">
-        <v>0.019299999999999998</v>
+        <v>1.9299999999999998E-2</v>
       </c>
       <c r="I6" t="s">
         <v>27</v>
       </c>
       <c r="J6">
-        <v>0.01940241914142831</v>
-      </c>
-      <c r="K6">
-        <v>0.0003260905796397016</v>
+        <v>1.9402419141428311E-2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
       </c>
       <c r="L6">
-        <v>0.011734172033610058</v>
-      </c>
-      <c r="M6">
-        <v>0.00017918386342462937</v>
+        <v>1.1734172033610058E-2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
       </c>
       <c r="N6">
         <v>57.023296807568634</v>
       </c>
-      <c r="O6">
-        <v>0.8707605954577085</v>
+      <c r="O6" t="s">
+        <v>27</v>
       </c>
       <c r="P6">
         <v>0.3514929310344827</v>
@@ -948,13 +960,13 @@
         <v>27</v>
       </c>
       <c r="R6">
-        <v>0.003832488552593269</v>
-      </c>
-      <c r="S6">
-        <v>0.00012085150166572087</v>
+        <v>3.8324885525932691E-3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>27</v>
       </c>
       <c r="T6">
-        <v>1.62119811994829</v>
+        <v>1.6211981199482901</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -966,19 +978,19 @@
         <v>27</v>
       </c>
       <c r="X6">
-        <v>0.010987629107014207</v>
-      </c>
-      <c r="Y6">
-        <v>0.00025201345218578723</v>
+        <v>1.0987629107014207E-2</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>27</v>
       </c>
       <c r="Z6">
         <v>53.395402247907136</v>
       </c>
-      <c r="AA6">
-        <v>1.2246827336712376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -989,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="D7">
-        <v>9.888986225895316</v>
+        <v>9.8889862258953158</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -1001,40 +1013,40 @@
         <v>27</v>
       </c>
       <c r="H7">
-        <v>0.024399999999999998</v>
+        <v>2.4399999999999998E-2</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>
       </c>
       <c r="J7">
-        <v>0.02439803612578866</v>
-      </c>
-      <c r="K7">
-        <v>0.00038770608680741497</v>
+        <v>2.4398036125788659E-2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
       </c>
       <c r="L7">
-        <v>0.011969262620789484</v>
-      </c>
-      <c r="M7">
-        <v>0.00020924486116137689</v>
+        <v>1.1969262620789484E-2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
       </c>
       <c r="N7">
         <v>58.165741309916164</v>
       </c>
-      <c r="O7">
-        <v>1.0168448007484014</v>
+      <c r="O7" t="s">
+        <v>27</v>
       </c>
       <c r="P7">
-        <v>0.4393661637931034</v>
+        <v>0.43936616379310339</v>
       </c>
       <c r="Q7" t="s">
         <v>27</v>
       </c>
       <c r="R7">
-        <v>0.00479998085095342</v>
-      </c>
-      <c r="S7">
-        <v>0.00014107568780026425</v>
+        <v>4.7999808509534203E-3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
       </c>
       <c r="T7">
         <v>2.0264976499353624</v>
@@ -1049,19 +1061,19 @@
         <v>27</v>
       </c>
       <c r="X7">
-        <v>0.01103272535554112</v>
-      </c>
-      <c r="Y7">
-        <v>0.00022509760285576743</v>
+        <v>1.1032725355541119E-2</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>27</v>
       </c>
       <c r="Z7">
         <v>53.614551648247634</v>
       </c>
-      <c r="AA7">
-        <v>1.093882668632365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1084,40 +1096,40 @@
         <v>27</v>
       </c>
       <c r="H8">
-        <v>0.029300000000000003</v>
+        <v>2.9300000000000003E-2</v>
       </c>
       <c r="I8" t="s">
         <v>27</v>
       </c>
       <c r="J8">
-        <v>0.029282717179379445</v>
-      </c>
-      <c r="K8">
-        <v>0.00045899021273607165</v>
+        <v>2.9282717179379445E-2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
       </c>
       <c r="L8">
-        <v>0.012195233597815831</v>
-      </c>
-      <c r="M8">
-        <v>0.00024156448201942548</v>
+        <v>1.2195233597815831E-2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
       </c>
       <c r="N8">
         <v>59.263868221296164</v>
       </c>
-      <c r="O8">
-        <v>1.1739049944815247</v>
+      <c r="O8" t="s">
+        <v>27</v>
       </c>
       <c r="P8">
-        <v>0.5272393965517241</v>
+        <v>0.52723939655172414</v>
       </c>
       <c r="Q8" t="s">
         <v>27</v>
       </c>
       <c r="R8">
-        <v>0.0057714768976044216</v>
-      </c>
-      <c r="S8">
-        <v>0.00015908744860621487</v>
+        <v>5.7714768976044216E-3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
       </c>
       <c r="T8">
         <v>2.4317971799224356</v>
@@ -1132,33 +1144,33 @@
         <v>27</v>
       </c>
       <c r="X8">
-        <v>0.011078708086302728</v>
-      </c>
-      <c r="Y8">
-        <v>0.00020427193612227777</v>
+        <v>1.1078708086302728E-2</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>27</v>
       </c>
       <c r="Z8">
         <v>53.838008991188524</v>
       </c>
-      <c r="AA8">
-        <v>0.9926784105085018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P9">
-        <v>0.6151126293103448</v>
+        <v>0.61511262931034483</v>
       </c>
       <c r="Q9" t="s">
         <v>27</v>
       </c>
       <c r="R9">
-        <v>0.006747043726113851</v>
-      </c>
-      <c r="S9">
-        <v>0.00017534921917604823</v>
+        <v>6.7470437261138508E-3</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
       </c>
       <c r="T9">
-        <v>2.837096709909508</v>
+        <v>2.8370967099095079</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -1170,33 +1182,33 @@
         <v>27</v>
       </c>
       <c r="X9">
-        <v>0.011125344752966839</v>
-      </c>
-      <c r="Y9">
-        <v>0.00018823531195462544</v>
+        <v>1.1125344752966839E-2</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>27</v>
       </c>
       <c r="Z9">
-        <v>54.06464419627039</v>
-      </c>
-      <c r="AA9">
-        <v>0.9147469486989949</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+        <v>54.064644196270393</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P10">
-        <v>0.7029858620689654</v>
+        <v>0.70298586206896541</v>
       </c>
       <c r="Q10" t="s">
         <v>27</v>
       </c>
       <c r="R10">
-        <v>0.007726731309468842</v>
-      </c>
-      <c r="S10">
-        <v>0.00019021871302947433</v>
+        <v>7.7267313094688417E-3</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
       </c>
       <c r="T10">
-        <v>3.24239623989658</v>
+        <v>3.2423962398965802</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -1208,19 +1220,19 @@
         <v>27</v>
       </c>
       <c r="X10">
-        <v>0.011172474347284772</v>
-      </c>
-      <c r="Y10">
-        <v>0.0001761046552080391</v>
+        <v>1.1172474347284772E-2</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>27</v>
       </c>
       <c r="Z10">
-        <v>54.29367482898262</v>
-      </c>
-      <c r="AA10">
-        <v>0.8557968976728113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+        <v>54.293674828982617</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P11">
         <v>0.7908590948275861</v>
       </c>
@@ -1228,10 +1240,10 @@
         <v>27</v>
       </c>
       <c r="R11">
-        <v>0.008710577662962845</v>
-      </c>
-      <c r="S11">
-        <v>0.00020398184916096683</v>
+        <v>8.7105776629628449E-3</v>
+      </c>
+      <c r="S11" t="s">
+        <v>27</v>
       </c>
       <c r="T11">
         <v>3.6476957698836525</v>
@@ -1246,33 +1258,33 @@
         <v>27</v>
       </c>
       <c r="X11">
-        <v>0.011219982527915964</v>
-      </c>
-      <c r="Y11">
-        <v>0.00016723269715867404</v>
+        <v>1.1219982527915964E-2</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>27</v>
       </c>
       <c r="Z11">
-        <v>54.52454523698078</v>
-      </c>
-      <c r="AA11">
-        <v>0.8126827950617218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+        <v>54.524545236980778</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P12">
-        <v>0.8787323275862068</v>
+        <v>0.87873232758620679</v>
       </c>
       <c r="Q12" t="s">
         <v>27</v>
       </c>
       <c r="R12">
-        <v>0.009698612218910743</v>
-      </c>
-      <c r="S12">
-        <v>0.0002168733559295384</v>
+        <v>9.6986122189107425E-3</v>
+      </c>
+      <c r="S12" t="s">
+        <v>27</v>
       </c>
       <c r="T12">
-        <v>4.052995299870725</v>
+        <v>4.0529952998707248</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -1284,30 +1296,30 @@
         <v>27</v>
       </c>
       <c r="X12">
-        <v>0.011267786282330218</v>
-      </c>
-      <c r="Y12">
-        <v>0.00016111090395652797</v>
+        <v>1.1267786282330218E-2</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>27</v>
       </c>
       <c r="Z12">
-        <v>54.75685201317872</v>
-      </c>
-      <c r="AA12">
-        <v>0.7829333734782771</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <v>54.756852013178722</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P13">
-        <v>0.9666055603448275</v>
+        <v>0.96660556034482747</v>
       </c>
       <c r="Q13" t="s">
         <v>27</v>
       </c>
       <c r="R13">
-        <v>0.010690858119527859</v>
-      </c>
-      <c r="S13">
-        <v>0.00022909027408647215</v>
+        <v>1.0690858119527859E-2</v>
+      </c>
+      <c r="S13" t="s">
+        <v>27</v>
       </c>
       <c r="T13">
         <v>4.458294829857798</v>
@@ -1322,19 +1334,19 @@
         <v>27</v>
       </c>
       <c r="X13">
-        <v>0.01131582416343667</v>
-      </c>
-      <c r="Y13">
-        <v>0.00015731696626580124</v>
+        <v>1.1315824163436671E-2</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>27</v>
       </c>
       <c r="Z13">
         <v>54.990296549742006</v>
       </c>
-      <c r="AA13">
-        <v>0.7644963815551945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P14">
         <v>1.0544787931034483</v>
       </c>
@@ -1342,13 +1354,13 @@
         <v>27</v>
       </c>
       <c r="R14">
-        <v>0.011687333812058049</v>
-      </c>
-      <c r="S14">
-        <v>0.00024080112683325146</v>
+        <v>1.1687333812058049E-2</v>
+      </c>
+      <c r="S14" t="s">
+        <v>27</v>
       </c>
       <c r="T14">
-        <v>4.863594359844871</v>
+        <v>4.8635943598448712</v>
       </c>
       <c r="U14" t="s">
         <v>27</v>
@@ -1360,19 +1372,19 @@
         <v>27</v>
       </c>
       <c r="X14">
-        <v>0.011364049900053137</v>
-      </c>
-      <c r="Y14">
-        <v>0.00015548760482806122</v>
+        <v>1.1364049900053137E-2</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>27</v>
       </c>
       <c r="Z14">
-        <v>55.22465398757125</v>
-      </c>
-      <c r="AA14">
-        <v>0.7556064300585079</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+        <v>55.224653987571251</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P15">
         <v>1.142352025862069</v>
       </c>
@@ -1380,10 +1392,10 @@
         <v>27</v>
       </c>
       <c r="R15">
-        <v>0.012688054181916222</v>
-      </c>
-      <c r="S15">
-        <v>0.00025215231549185265</v>
+        <v>1.2688054181916222E-2</v>
+      </c>
+      <c r="S15" t="s">
+        <v>27</v>
       </c>
       <c r="T15">
         <v>5.2688938898319435</v>
@@ -1398,19 +1410,19 @@
         <v>27</v>
       </c>
       <c r="X15">
-        <v>0.01141242811170724</v>
-      </c>
-      <c r="Y15">
-        <v>0.0001553057920120299</v>
+        <v>1.1412428111707239E-2</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>27</v>
       </c>
       <c r="Z15">
-        <v>55.459752391981</v>
-      </c>
-      <c r="AA15">
-        <v>0.7547228938241424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+        <v>55.459752391980999</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P16">
         <v>1.2302252586206897</v>
       </c>
@@ -1418,13 +1430,13 @@
         <v>27</v>
       </c>
       <c r="R16">
-        <v>0.01369303137275903</v>
-      </c>
-      <c r="S16">
-        <v>0.000263272667535592</v>
+        <v>1.369303137275903E-2</v>
+      </c>
+      <c r="S16" t="s">
+        <v>27</v>
       </c>
       <c r="T16">
-        <v>5.674193419819016</v>
+        <v>5.6741934198190158</v>
       </c>
       <c r="U16" t="s">
         <v>27</v>
@@ -1436,19 +1448,19 @@
         <v>27</v>
       </c>
       <c r="X16">
-        <v>0.011460931371436932</v>
-      </c>
-      <c r="Y16">
-        <v>0.00015649532841786033</v>
+        <v>1.1460931371436932E-2</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>27</v>
       </c>
       <c r="Z16">
         <v>55.695458479106605</v>
       </c>
-      <c r="AA16">
-        <v>0.7605035562636214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P17">
         <v>1.3180984913793101</v>
       </c>
@@ -1456,13 +1468,13 @@
         <v>27</v>
       </c>
       <c r="R17">
-        <v>0.014702275389955145</v>
-      </c>
-      <c r="S17">
-        <v>0.0002742767156225921</v>
+        <v>1.4702275389955145E-2</v>
+      </c>
+      <c r="S17" t="s">
+        <v>27</v>
       </c>
       <c r="T17">
-        <v>6.079492949806087</v>
+        <v>6.0794929498060872</v>
       </c>
       <c r="U17" t="s">
         <v>27</v>
@@ -1474,19 +1486,19 @@
         <v>27</v>
       </c>
       <c r="X17">
-        <v>0.011509538152883496</v>
-      </c>
-      <c r="Y17">
-        <v>0.0001588182406411921</v>
+        <v>1.1509538152883496E-2</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>27</v>
       </c>
       <c r="Z17">
         <v>55.931667639612265</v>
       </c>
-      <c r="AA17">
-        <v>0.7717919635572571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P18">
         <v>1.4059717241379308</v>
       </c>
@@ -1494,13 +1506,13 @@
         <v>27</v>
       </c>
       <c r="R18">
-        <v>0.015715794551385182</v>
-      </c>
-      <c r="S18">
-        <v>0.0002852670850892551</v>
+        <v>1.5715794551385182E-2</v>
+      </c>
+      <c r="S18" t="s">
+        <v>27</v>
       </c>
       <c r="T18">
-        <v>6.48479247979316</v>
+        <v>6.4847924797931604</v>
       </c>
       <c r="U18" t="s">
         <v>27</v>
@@ -1512,19 +1524,19 @@
         <v>27</v>
       </c>
       <c r="X18">
-        <v>0.01155823137000056</v>
-      </c>
-      <c r="Y18">
-        <v>0.00016207250800400621</v>
+        <v>1.155823137000056E-2</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>27</v>
       </c>
       <c r="Z18">
         <v>56.168296842271694</v>
       </c>
-      <c r="AA18">
-        <v>0.7876063774919946</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P19">
         <v>1.4938449568965515</v>
       </c>
@@ -1532,13 +1544,13 @@
         <v>27</v>
       </c>
       <c r="R19">
-        <v>0.016733595828809077</v>
-      </c>
-      <c r="S19">
-        <v>0.0002963362459011124</v>
+        <v>1.6733595828809077E-2</v>
+      </c>
+      <c r="S19" t="s">
+        <v>27</v>
       </c>
       <c r="T19">
-        <v>6.890092009780233</v>
+        <v>6.8900920097802327</v>
       </c>
       <c r="U19" t="s">
         <v>27</v>
@@ -1550,19 +1562,19 @@
         <v>27</v>
       </c>
       <c r="X19">
-        <v>0.01160699732163645</v>
-      </c>
-      <c r="Y19">
-        <v>0.00016608914872899046</v>
+        <v>1.1606997321636449E-2</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>27</v>
       </c>
       <c r="Z19">
-        <v>56.40527950506817</v>
-      </c>
-      <c r="AA19">
-        <v>0.8071256154556194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+        <v>56.405279505068172</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P20">
         <v>1.5817181896551722</v>
       </c>
@@ -1570,10 +1582,10 @@
         <v>27</v>
       </c>
       <c r="R20">
-        <v>0.017755685109588245</v>
-      </c>
-      <c r="S20">
-        <v>0.0003075678086480988</v>
+        <v>1.7755685109588245E-2</v>
+      </c>
+      <c r="S20" t="s">
+        <v>27</v>
       </c>
       <c r="T20">
         <v>7.295391539767305</v>
@@ -1588,19 +1600,19 @@
         <v>27</v>
       </c>
       <c r="X20">
-        <v>0.011655824917602892</v>
-      </c>
-      <c r="Y20">
-        <v>0.00017072860608995918</v>
+        <v>1.1655824917602892E-2</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>27</v>
       </c>
       <c r="Z20">
-        <v>56.64256173420367</v>
-      </c>
-      <c r="AA20">
-        <v>0.8296714885996989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+        <v>56.642561734203667</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P21">
         <v>1.6695914224137929</v>
       </c>
@@ -1608,13 +1620,13 @@
         <v>27</v>
       </c>
       <c r="R21">
-        <v>0.01878206739963033</v>
-      </c>
-      <c r="S21">
-        <v>0.0003190374941032444</v>
+        <v>1.8782067399630328E-2</v>
+      </c>
+      <c r="S21" t="s">
+        <v>27</v>
       </c>
       <c r="T21">
-        <v>7.700691069754377</v>
+        <v>7.7006910697543773</v>
       </c>
       <c r="U21" t="s">
         <v>27</v>
@@ -1626,19 +1638,19 @@
         <v>27</v>
       </c>
       <c r="X21">
-        <v>0.01170470510358927</v>
-      </c>
-      <c r="Y21">
-        <v>0.0001758767584944391</v>
+        <v>1.170470510358927E-2</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>27</v>
       </c>
       <c r="Z21">
         <v>56.880099529416384</v>
       </c>
-      <c r="AA21">
-        <v>0.8546894124660274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P22">
         <v>1.7574646551724136</v>
       </c>
@@ -1646,13 +1658,13 @@
         <v>27</v>
       </c>
       <c r="R22">
-        <v>0.019812746982401087</v>
-      </c>
-      <c r="S22">
-        <v>0.0003308138716553176</v>
+        <v>1.9812746982401087E-2</v>
+      </c>
+      <c r="S22" t="s">
+        <v>27</v>
       </c>
       <c r="T22">
-        <v>8.10599059974145</v>
+        <v>8.1059905997414496</v>
       </c>
       <c r="U22" t="s">
         <v>27</v>
@@ -1664,19 +1676,19 @@
         <v>27</v>
       </c>
       <c r="X22">
-        <v>0.011753630428607787</v>
-      </c>
-      <c r="Y22">
-        <v>0.00018144092948320484</v>
+        <v>1.1753630428607787E-2</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>27</v>
       </c>
       <c r="Z22">
         <v>57.117856681940374</v>
       </c>
-      <c r="AA22">
-        <v>0.8817290172094765</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P23">
         <v>1.8453378879310343</v>
       </c>
@@ -1684,13 +1696,13 @@
         <v>27</v>
       </c>
       <c r="R23">
-        <v>0.02084772754471261</v>
-      </c>
-      <c r="S23">
-        <v>0.00034295893753116596</v>
+        <v>2.0847727544712608E-2</v>
+      </c>
+      <c r="S23" t="s">
+        <v>27</v>
       </c>
       <c r="T23">
-        <v>8.511290129728524</v>
+        <v>8.5112901297285237</v>
       </c>
       <c r="U23" t="s">
         <v>27</v>
@@ -1702,30 +1714,30 @@
         <v>27</v>
       </c>
       <c r="X23">
-        <v>0.011802594715982061</v>
-      </c>
-      <c r="Y23">
-        <v>0.00018734617851195394</v>
+        <v>1.1802594715982061E-2</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>27</v>
       </c>
       <c r="Z23">
         <v>57.355803175644134</v>
       </c>
-      <c r="AA23">
-        <v>0.910426122307685</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P24">
-        <v>1.933211120689655</v>
+        <v>1.9332111206896549</v>
       </c>
       <c r="Q24" t="s">
         <v>27</v>
       </c>
       <c r="R24">
-        <v>0.021887012277113954</v>
-      </c>
-      <c r="S24">
-        <v>0.00035552858559418645</v>
+        <v>2.1887012277113954E-2</v>
+      </c>
+      <c r="S24" t="s">
+        <v>27</v>
       </c>
       <c r="T24">
         <v>8.916589659715596</v>
@@ -1740,19 +1752,19 @@
         <v>27</v>
       </c>
       <c r="X24">
-        <v>0.011851592810491604</v>
-      </c>
-      <c r="Y24">
-        <v>0.00019353202826855956</v>
+        <v>1.1851592810491604E-2</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>27</v>
       </c>
       <c r="Z24">
-        <v>57.59391395825581</v>
-      </c>
-      <c r="AA24">
-        <v>0.940486832655855</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+        <v>57.593913958255811</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P25">
         <v>2.0210843534482756</v>
       </c>
@@ -1760,13 +1772,13 @@
         <v>27</v>
       </c>
       <c r="R25">
-        <v>0.022930603954672103</v>
-      </c>
-      <c r="S25">
-        <v>0.0003685730095491704</v>
+        <v>2.2930603954672103E-2</v>
+      </c>
+      <c r="S25" t="s">
+        <v>27</v>
       </c>
       <c r="T25">
-        <v>9.321889189702668</v>
+        <v>9.3218891897026683</v>
       </c>
       <c r="U25" t="s">
         <v>27</v>
@@ -1778,19 +1790,19 @@
         <v>27</v>
       </c>
       <c r="X25">
-        <v>0.011900620382172733</v>
-      </c>
-      <c r="Y25">
-        <v>0.00019994968206892626</v>
+        <v>1.1900620382172733E-2</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>27</v>
       </c>
       <c r="Z25">
-        <v>57.83216798791548</v>
-      </c>
-      <c r="AA25">
-        <v>0.9716740162439537</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+        <v>57.832167987915483</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P26">
         <v>2.1089575862068966</v>
       </c>
@@ -1798,13 +1810,13 @@
         <v>27</v>
       </c>
       <c r="R26">
-        <v>0.02397850500247108</v>
-      </c>
-      <c r="S26">
-        <v>0.00038213706437424655</v>
+        <v>2.397850500247108E-2</v>
+      </c>
+      <c r="S26" t="s">
+        <v>27</v>
       </c>
       <c r="T26">
-        <v>9.727188719689742</v>
+        <v>9.7271887196897424</v>
       </c>
       <c r="U26" t="s">
         <v>27</v>
@@ -1816,19 +1828,19 @@
         <v>27</v>
       </c>
       <c r="X26">
-        <v>0.011949673772718645</v>
-      </c>
-      <c r="Y26">
-        <v>0.0002065597185815071</v>
+        <v>1.1949673772718645E-2</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>27</v>
       </c>
       <c r="Z26">
         <v>58.070547486742086</v>
       </c>
-      <c r="AA26">
-        <v>1.0037961014567953</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P27">
         <v>2.196830818965517</v>
       </c>
@@ -1836,10 +1848,10 @@
         <v>27</v>
       </c>
       <c r="R27">
-        <v>0.02503071754909903</v>
-      </c>
-      <c r="S27">
-        <v>0.0003962606060249945</v>
+        <v>2.5030717549099031E-2</v>
+      </c>
+      <c r="S27" t="s">
+        <v>27</v>
       </c>
       <c r="T27">
         <v>10.132488249676813</v>
@@ -1854,30 +1866,30 @@
         <v>27</v>
       </c>
       <c r="X27">
-        <v>0.011998749874226944</v>
-      </c>
-      <c r="Y27">
-        <v>0.00021333021592441959</v>
+        <v>1.1998749874226944E-2</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>27</v>
       </c>
       <c r="Z27">
-        <v>58.30903735159581</v>
-      </c>
-      <c r="AA27">
-        <v>1.03669796095007</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+        <v>58.309037351595812</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P28">
-        <v>2.284704051724138</v>
+        <v>2.2847040517241379</v>
       </c>
       <c r="Q28" t="s">
         <v>27</v>
       </c>
       <c r="R28">
-        <v>0.026087243470617083</v>
-      </c>
-      <c r="S28">
-        <v>0.000410978821495503</v>
+        <v>2.6087243470617083E-2</v>
+      </c>
+      <c r="S28" t="s">
+        <v>27</v>
       </c>
       <c r="T28">
         <v>10.537787779663887</v>
@@ -1892,19 +1904,19 @@
         <v>27</v>
       </c>
       <c r="X28">
-        <v>0.012047846032737093</v>
-      </c>
-      <c r="Y28">
-        <v>0.00022023524342439872</v>
+        <v>1.2047846032737093E-2</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>27</v>
       </c>
       <c r="Z28">
         <v>58.547624685309415</v>
       </c>
-      <c r="AA28">
-        <v>1.0702535822131576</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P29">
         <v>2.3725772844827584</v>
       </c>
@@ -1912,10 +1924,10 @@
         <v>27</v>
       </c>
       <c r="R29">
-        <v>0.02714808442692907</v>
-      </c>
-      <c r="S29">
-        <v>0.0004263225559132312</v>
+        <v>2.7148084426929071E-2</v>
+      </c>
+      <c r="S29" t="s">
+        <v>27</v>
       </c>
       <c r="T29">
         <v>10.943087309650958</v>
@@ -1930,19 +1942,19 @@
         <v>27</v>
       </c>
       <c r="X29">
-        <v>0.012096959970930255</v>
-      </c>
-      <c r="Y29">
-        <v>0.0002272536582841552</v>
+        <v>1.2096959970930255E-2</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>27</v>
       </c>
       <c r="Z29">
-        <v>58.78629842104086</v>
-      </c>
-      <c r="AA29">
-        <v>1.1043602198625988</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+        <v>58.786298421040861</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P30">
         <v>2.4604505172413793</v>
       </c>
@@ -1950,10 +1962,10 @@
         <v>27</v>
       </c>
       <c r="R30">
-        <v>0.028213241892041663</v>
-      </c>
-      <c r="S30">
-        <v>0.000442318639295784</v>
+        <v>2.8213241892041663E-2</v>
+      </c>
+      <c r="S30" t="s">
+        <v>27</v>
       </c>
       <c r="T30">
         <v>11.348386839638032</v>
@@ -1968,19 +1980,19 @@
         <v>27</v>
       </c>
       <c r="X30">
-        <v>0.012146089725761401</v>
-      </c>
-      <c r="Y30">
-        <v>0.00023436814983020363</v>
+        <v>1.2146089725761401E-2</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>27</v>
       </c>
       <c r="Z30">
-        <v>59.02504901919088</v>
-      </c>
-      <c r="AA30">
-        <v>1.1389337510758144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+        <v>59.025049019190881</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P31">
         <v>2.5483237499999998</v>
       </c>
@@ -1988,10 +2000,10 @@
         <v>27</v>
       </c>
       <c r="R31">
-        <v>0.029282717179379445</v>
-      </c>
-      <c r="S31">
-        <v>0.00045899021273607165</v>
+        <v>2.9282717179379445E-2</v>
+      </c>
+      <c r="S31" t="s">
+        <v>27</v>
       </c>
       <c r="T31">
         <v>11.753686369625104</v>
@@ -2006,16 +2018,16 @@
         <v>27</v>
       </c>
       <c r="X31">
-        <v>0.012195233597815831</v>
-      </c>
-      <c r="Y31">
-        <v>0.00024156448201942548</v>
+        <v>1.2195233597815831E-2</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>27</v>
       </c>
       <c r="Z31">
         <v>59.263868221296164</v>
       </c>
-      <c r="AA31">
-        <v>1.1739049944815247</v>
+      <c r="AA31" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2024,14 +2036,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FB242A-B514-4289-AA38-92A627ACEE7C}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2114,45 +2126,45 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.00101325</v>
+        <v>1.01325E-3</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.004673433944184932</v>
+        <v>4.6734339441849319E-3</v>
       </c>
       <c r="F2">
         <v>0.21681059625562235</v>
       </c>
       <c r="G2">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.0970227161978857e-5</v>
+        <v>1.0970227161978857E-5</v>
       </c>
       <c r="L2">
-        <v>0.01082677242731691</v>
+        <v>1.0826772427316909E-2</v>
       </c>
       <c r="M2">
-        <v>0.0005003624684662629</v>
+        <v>5.0036246846626292E-4</v>
       </c>
       <c r="N2">
         <v>52.613704300784306</v>
@@ -2161,34 +2173,34 @@
         <v>2.4975556773491503</v>
       </c>
       <c r="P2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.00101325</v>
+        <v>1.01325E-3</v>
       </c>
       <c r="R2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1.0970227161978857e-5</v>
+        <v>1.0970227161978857E-5</v>
       </c>
       <c r="T2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.004673433944184932</v>
+        <v>4.6734339441849319E-3</v>
       </c>
       <c r="V2">
         <v>0.21681059625562235</v>
       </c>
       <c r="W2">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X2">
-        <v>0.01082677242731691</v>
+        <v>1.0826772427316909E-2</v>
       </c>
       <c r="Y2">
-        <v>0.0005003624684662629</v>
+        <v>5.0036246846626292E-4</v>
       </c>
       <c r="Z2">
         <v>52.613704300784306</v>
@@ -2197,81 +2209,81 @@
         <v>2.4975556773491503</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4397505</v>
+        <v>0.43975049999999999</v>
       </c>
       <c r="C3">
-        <v>0.00101325</v>
+        <v>1.01325E-3</v>
       </c>
       <c r="D3">
         <v>2.0282703317762607</v>
       </c>
       <c r="E3">
-        <v>0.022478706378621635</v>
+        <v>2.2478706378621635E-2</v>
       </c>
       <c r="F3">
         <v>0.21681059625562235</v>
       </c>
       <c r="G3">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="H3">
-        <v>0.004778</v>
+        <v>4.7780000000000001E-3</v>
       </c>
       <c r="I3">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J3">
-        <v>0.004804221165084185</v>
+        <v>4.804221165084185E-3</v>
       </c>
       <c r="K3">
-        <v>0.00014160087320717229</v>
+        <v>1.4160087320717229E-4</v>
       </c>
       <c r="L3">
-        <v>0.011032924745666518</v>
+        <v>1.1032924745666518E-2</v>
       </c>
       <c r="M3">
-        <v>0.0002249950303721675</v>
+        <v>2.2499503037216751E-4</v>
       </c>
       <c r="N3">
-        <v>53.61552060304636</v>
+        <v>53.615520603046363</v>
       </c>
       <c r="O3">
         <v>1.2382675276542505</v>
       </c>
       <c r="P3">
-        <v>0.08787323275862068</v>
+        <v>8.7873232758620676E-2</v>
       </c>
       <c r="Q3">
-        <v>0.0009789340684133114</v>
+        <v>9.7893406841331135E-4</v>
       </c>
       <c r="R3">
-        <v>0.000952902391377181</v>
+        <v>9.5290239137718104E-4</v>
       </c>
       <c r="S3">
-        <v>4.0581954757315434e-5</v>
+        <v>4.0581954757315434E-5</v>
       </c>
       <c r="T3">
-        <v>0.4052995299870725</v>
+        <v>0.40529952998707253</v>
       </c>
       <c r="U3">
-        <v>0.006300072468969903</v>
+        <v>6.3000724689699032E-3</v>
       </c>
       <c r="V3">
         <v>0.21681059625562235</v>
       </c>
       <c r="W3">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X3">
-        <v>0.010862187843442077</v>
+        <v>1.0862187843442077E-2</v>
       </c>
       <c r="Y3">
-        <v>0.0003999328004974088</v>
+        <v>3.9993280049740879E-4</v>
       </c>
       <c r="Z3">
         <v>52.785808798612074</v>
@@ -2280,90 +2292,90 @@
         <v>2.0259999723859274</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9159779999999998</v>
+        <v>0.91597799999999985</v>
       </c>
       <c r="C4">
-        <v>0.00101325</v>
+        <v>1.01325E-3</v>
       </c>
       <c r="D4">
-        <v>4.224784285543178</v>
+        <v>4.2247842855431781</v>
       </c>
       <c r="E4">
-        <v>0.0460367269257998</v>
+        <v>4.6036726925799798E-2</v>
       </c>
       <c r="F4">
         <v>0.21681059625562235</v>
       </c>
       <c r="G4">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="H4">
-        <v>0.0101</v>
+        <v>1.01E-2</v>
       </c>
       <c r="I4">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J4">
-        <v>0.010118667077756938</v>
+        <v>1.0118667077756938E-2</v>
       </c>
       <c r="K4">
-        <v>0.00022241789489292033</v>
+        <v>2.2241789489292033E-4</v>
       </c>
       <c r="L4">
-        <v>0.011288121853328314</v>
+        <v>1.1288121853328314E-2</v>
       </c>
       <c r="M4">
-        <v>0.0001592417564441622</v>
+        <v>1.5924175644416221E-4</v>
       </c>
       <c r="N4">
-        <v>54.85567460564238</v>
+        <v>54.855674605642378</v>
       </c>
       <c r="O4">
-        <v>0.9759456444466469</v>
+        <v>0.97594564444664689</v>
       </c>
       <c r="P4">
         <v>0.17574646551724135</v>
       </c>
       <c r="Q4">
-        <v>0.0009459552717305105</v>
+        <v>9.4595527173051055E-4</v>
       </c>
       <c r="R4">
-        <v>0.0019091090890199858</v>
+        <v>1.9091090890199858E-3</v>
       </c>
       <c r="S4">
-        <v>7.175697822090248e-5</v>
+        <v>7.1756978220902483E-5</v>
       </c>
       <c r="T4">
-        <v>0.810599059974145</v>
+        <v>0.81059905997414505</v>
       </c>
       <c r="U4">
-        <v>0.00981087394664336</v>
+        <v>9.8108739466433604E-3</v>
       </c>
       <c r="V4">
         <v>0.21681059625562235</v>
       </c>
       <c r="W4">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X4">
-        <v>0.010901666498460942</v>
+        <v>1.0901666498460942E-2</v>
       </c>
       <c r="Y4">
-        <v>0.0003340288588966255</v>
+        <v>3.3402885889662547E-4</v>
       </c>
       <c r="Z4">
-        <v>52.97765898252417</v>
+        <v>52.977658982524169</v>
       </c>
       <c r="AA4">
         <v>1.7218446529028988</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2371,40 +2383,40 @@
         <v>1.2969600000000001</v>
       </c>
       <c r="C5">
-        <v>0.00101325</v>
+        <v>1.01325E-3</v>
       </c>
       <c r="D5">
-        <v>5.981995448556714</v>
+        <v>5.9819954485567139</v>
       </c>
       <c r="E5">
-        <v>0.06501618328409213</v>
+        <v>6.501618328409213E-2</v>
       </c>
       <c r="F5">
         <v>0.21681059625562235</v>
       </c>
       <c r="G5">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="H5">
-        <v>0.01458</v>
+        <v>1.4579999999999999E-2</v>
       </c>
       <c r="I5">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J5">
-        <v>0.01445910479836697</v>
+        <v>1.445910479836697E-2</v>
       </c>
       <c r="K5">
-        <v>0.0002718842831124713</v>
+        <v>2.7188428311247131E-4</v>
       </c>
       <c r="L5">
-        <v>0.011497836990041721</v>
+        <v>1.1497836990041721E-2</v>
       </c>
       <c r="M5">
-        <v>0.00015816831093891232</v>
+        <v>1.5816831093891232E-4</v>
       </c>
       <c r="N5">
-        <v>55.87480475403252</v>
+        <v>55.874804754032517</v>
       </c>
       <c r="O5">
         <v>0.9786139082253773</v>
@@ -2413,78 +2425,78 @@
         <v>0.26361969827586207</v>
       </c>
       <c r="Q5">
-        <v>0.0009144582877001659</v>
+        <v>9.1445828770016593E-4</v>
       </c>
       <c r="R5">
-        <v>0.002868907948488987</v>
+        <v>2.868907948488987E-3</v>
       </c>
       <c r="S5">
-        <v>9.830268440360269e-5</v>
+        <v>9.8302684403602688E-5</v>
       </c>
       <c r="T5">
         <v>1.2158985899612178</v>
       </c>
       <c r="U5">
-        <v>0.013839363723763418</v>
+        <v>1.3839363723763418E-2</v>
       </c>
       <c r="V5">
         <v>0.21681059625562235</v>
       </c>
       <c r="W5">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X5">
-        <v>0.010943765255035796</v>
+        <v>1.0943765255035796E-2</v>
       </c>
       <c r="Y5">
-        <v>0.00028710348621928725</v>
+        <v>2.8710348621928725E-4</v>
       </c>
       <c r="Z5">
-        <v>53.18224179284274</v>
+        <v>53.182241792842738</v>
       </c>
       <c r="AA5">
         <v>1.5096288792435422</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.722525</v>
+        <v>1.7225250000000001</v>
       </c>
       <c r="C6">
-        <v>0.00101325</v>
+        <v>1.01325E-3</v>
       </c>
       <c r="D6">
-        <v>7.944837705114385</v>
+        <v>7.9448377051143853</v>
       </c>
       <c r="E6">
-        <v>0.08625295313143291</v>
+        <v>8.6252953131432913E-2</v>
       </c>
       <c r="F6">
         <v>0.21681059625562235</v>
       </c>
       <c r="G6">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="H6">
-        <v>0.019299999999999998</v>
+        <v>1.9299999999999998E-2</v>
       </c>
       <c r="I6">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J6">
-        <v>0.01940241914142831</v>
+        <v>1.9402419141428311E-2</v>
       </c>
       <c r="K6">
-        <v>0.0003263072630243367</v>
+        <v>3.263072630243367E-4</v>
       </c>
       <c r="L6">
-        <v>0.011734172033610058</v>
+        <v>1.1734172033610058E-2</v>
       </c>
       <c r="M6">
-        <v>0.00017918475167923804</v>
+        <v>1.7918475167923804E-4</v>
       </c>
       <c r="N6">
         <v>57.023296807568634</v>
@@ -2496,31 +2508,31 @@
         <v>0.3514929310344827</v>
       </c>
       <c r="Q6">
-        <v>0.0008846014140767376</v>
+        <v>8.8460141407673758E-4</v>
       </c>
       <c r="R6">
-        <v>0.003832488552593269</v>
+        <v>3.8324885525932691E-3</v>
       </c>
       <c r="S6">
-        <v>0.00012124173160846076</v>
+        <v>1.2124173160846076E-4</v>
       </c>
       <c r="T6">
-        <v>1.62119811994829</v>
+        <v>1.6211981199482901</v>
       </c>
       <c r="U6">
-        <v>0.01804203799905522</v>
+        <v>1.8042037999055221E-2</v>
       </c>
       <c r="V6">
         <v>0.21681059625562235</v>
       </c>
       <c r="W6">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X6">
-        <v>0.010987629107014207</v>
+        <v>1.0987629107014207E-2</v>
       </c>
       <c r="Y6">
-        <v>0.00025201385123376077</v>
+        <v>2.5201385123376077E-4</v>
       </c>
       <c r="Z6">
         <v>53.395402247907136</v>
@@ -2529,7 +2541,7 @@
         <v>1.3545854969037572</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2537,10 +2549,10 @@
         <v>2.144037</v>
       </c>
       <c r="C7">
-        <v>0.00101325</v>
+        <v>1.01325E-3</v>
       </c>
       <c r="D7">
-        <v>9.888986225895316</v>
+        <v>9.8889862258953158</v>
       </c>
       <c r="E7">
         <v>0.10730367015276393</v>
@@ -2549,25 +2561,25 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="G7">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="H7">
-        <v>0.024399999999999998</v>
+        <v>2.4399999999999998E-2</v>
       </c>
       <c r="I7">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J7">
-        <v>0.02439803612578866</v>
+        <v>2.4398036125788659E-2</v>
       </c>
       <c r="K7">
-        <v>0.0003878957264819011</v>
+        <v>3.8789572648190108E-4</v>
       </c>
       <c r="L7">
-        <v>0.011969262620789484</v>
+        <v>1.1969262620789484E-2</v>
       </c>
       <c r="M7">
-        <v>0.00020924562629670435</v>
+        <v>2.0924562629670435E-4</v>
       </c>
       <c r="N7">
         <v>58.165741309916164</v>
@@ -2579,31 +2591,31 @@
         <v>0.43936616379310345</v>
       </c>
       <c r="Q7">
-        <v>0.0008565561754163449</v>
+        <v>8.5655617541634493E-4</v>
       </c>
       <c r="R7">
-        <v>0.00479998085095342</v>
+        <v>4.7999808509534203E-3</v>
       </c>
       <c r="S7">
-        <v>0.0001413918491466202</v>
+        <v>1.4139184914662019E-4</v>
       </c>
       <c r="T7">
-        <v>2.026497649935363</v>
+        <v>2.0264976499353629</v>
       </c>
       <c r="U7">
-        <v>0.022320723291128507</v>
+        <v>2.2320723291128507E-2</v>
       </c>
       <c r="V7">
         <v>0.21681059625562235</v>
       </c>
       <c r="W7">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X7">
-        <v>0.01103272535554112</v>
+        <v>1.1032725355541119E-2</v>
       </c>
       <c r="Y7">
-        <v>0.00022509804144560543</v>
+        <v>2.2509804144560543E-4</v>
       </c>
       <c r="Z7">
         <v>53.614551648247634</v>
@@ -2612,7 +2624,7 @@
         <v>1.238704641531797</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2620,7 +2632,7 @@
         <v>2.5483237499999998</v>
       </c>
       <c r="C8">
-        <v>0.00101325</v>
+        <v>1.01325E-3</v>
       </c>
       <c r="D8">
         <v>11.753686369625104</v>
@@ -2632,25 +2644,25 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="G8">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="H8">
-        <v>0.029300000000000003</v>
+        <v>2.9300000000000003E-2</v>
       </c>
       <c r="I8">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J8">
-        <v>0.029282717179379445</v>
+        <v>2.9282717179379445E-2</v>
       </c>
       <c r="K8">
-        <v>0.00045915651623271614</v>
+        <v>4.5915651623271614E-4</v>
       </c>
       <c r="L8">
-        <v>0.012195233597815831</v>
+        <v>1.2195233597815831E-2</v>
       </c>
       <c r="M8">
-        <v>0.0002415651468497785</v>
+        <v>2.4156514684977849E-4</v>
       </c>
       <c r="N8">
         <v>59.263868221296164</v>
@@ -2659,34 +2671,34 @@
         <v>1.3382095303525503</v>
       </c>
       <c r="P8">
-        <v>0.5272393965517241</v>
+        <v>0.52723939655172414</v>
       </c>
       <c r="Q8">
-        <v>0.0008305061225032949</v>
+        <v>8.305061225032949E-4</v>
       </c>
       <c r="R8">
-        <v>0.0057714768976044216</v>
+        <v>5.7714768976044216E-3</v>
       </c>
       <c r="S8">
-        <v>0.00015935329775997406</v>
+        <v>1.5935329775997406E-4</v>
       </c>
       <c r="T8">
         <v>2.4317971799224356</v>
       </c>
       <c r="U8">
-        <v>0.026638818433217738</v>
+        <v>2.6638818433217738E-2</v>
       </c>
       <c r="V8">
         <v>0.21681059625562235</v>
       </c>
       <c r="W8">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X8">
-        <v>0.011078708086302728</v>
+        <v>1.1078708086302728E-2</v>
       </c>
       <c r="Y8">
-        <v>0.00020427240566225593</v>
+        <v>2.0427240566225593E-4</v>
       </c>
       <c r="Z8">
         <v>53.838008991188524</v>
@@ -2695,492 +2707,492 @@
         <v>1.1515389269846978</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P9">
-        <v>0.6151126293103448</v>
+        <v>0.61511262931034483</v>
       </c>
       <c r="Q9">
-        <v>0.0008066445781143688</v>
+        <v>8.0664457811436879E-4</v>
       </c>
       <c r="R9">
-        <v>0.006747043726113851</v>
+        <v>6.7470437261138508E-3</v>
       </c>
       <c r="S9">
-        <v>0.00017557871429584948</v>
+        <v>1.7557871429584948E-4</v>
       </c>
       <c r="T9">
-        <v>2.837096709909508</v>
+        <v>2.8370967099095079</v>
       </c>
       <c r="U9">
-        <v>0.030979848498593338</v>
+        <v>3.0979848498593338E-2</v>
       </c>
       <c r="V9">
         <v>0.21681059625562235</v>
       </c>
       <c r="W9">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X9">
-        <v>0.011125344752966839</v>
+        <v>1.1125344752966839E-2</v>
       </c>
       <c r="Y9">
-        <v>0.00018823580440906115</v>
+        <v>1.8823580440906115E-4</v>
       </c>
       <c r="Z9">
-        <v>54.06464419627039</v>
+        <v>54.064644196270393</v>
       </c>
       <c r="AA9">
-        <v>1.08640099787928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+        <v>1.0864009978792799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P10">
-        <v>0.7029858620689654</v>
+        <v>0.70298586206896541</v>
       </c>
       <c r="Q10">
-        <v>0.0007851710955590679</v>
+        <v>7.8517109555906791E-4</v>
       </c>
       <c r="R10">
-        <v>0.007726731309468842</v>
+        <v>7.7267313094688417E-3</v>
       </c>
       <c r="S10">
-        <v>0.00019042088147761885</v>
+        <v>1.9042088147761885E-4</v>
       </c>
       <c r="T10">
-        <v>3.24239623989658</v>
+        <v>3.2423962398965802</v>
       </c>
       <c r="U10">
-        <v>0.03533536167457029</v>
+        <v>3.5335361674570291E-2</v>
       </c>
       <c r="V10">
         <v>0.21681059625562235</v>
       </c>
       <c r="W10">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X10">
-        <v>0.011172474347284772</v>
+        <v>1.1172474347284772E-2</v>
       </c>
       <c r="Y10">
-        <v>0.00017610516310722924</v>
+        <v>1.7610516310722924E-4</v>
       </c>
       <c r="Z10">
-        <v>54.29367482898262</v>
+        <v>54.293674828982617</v>
       </c>
       <c r="AA10">
-        <v>1.038657686609428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+        <v>1.0386576866094279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P11">
-        <v>0.7908590948275862</v>
+        <v>0.79085909482758621</v>
       </c>
       <c r="Q11">
-        <v>0.000766286461589799</v>
+        <v>7.6628646158979896E-4</v>
       </c>
       <c r="R11">
-        <v>0.008710577662962847</v>
+        <v>8.7105776629628467E-3</v>
       </c>
       <c r="S11">
-        <v>0.0002041629633125013</v>
+        <v>2.041629633125013E-4</v>
       </c>
       <c r="T11">
         <v>3.647695769883653</v>
       </c>
       <c r="U11">
-        <v>0.03970059146346093</v>
+        <v>3.970059146346093E-2</v>
       </c>
       <c r="V11">
         <v>0.21681059625562235</v>
       </c>
       <c r="W11">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X11">
-        <v>0.011219982527915964</v>
+        <v>1.1219982527915964E-2</v>
       </c>
       <c r="Y11">
-        <v>0.00016723321377307544</v>
+        <v>1.6723321377307544E-4</v>
       </c>
       <c r="Z11">
-        <v>54.52454523698078</v>
+        <v>54.524545236980778</v>
       </c>
       <c r="AA11">
         <v>1.0049014937342025</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P12">
         <v>0.8787323275862069</v>
       </c>
       <c r="Q12">
-        <v>0.0007501862109799612</v>
+        <v>7.5018621097996117E-4</v>
       </c>
       <c r="R12">
-        <v>0.009698612218910743</v>
+        <v>9.6986122189107425E-3</v>
       </c>
       <c r="S12">
-        <v>0.0002170380258646752</v>
+        <v>2.1703802586467519E-4</v>
       </c>
       <c r="T12">
-        <v>4.052995299870726</v>
+        <v>4.0529952998707257</v>
       </c>
       <c r="U12">
-        <v>0.044072650778272944</v>
+        <v>4.4072650778272944E-2</v>
       </c>
       <c r="V12">
         <v>0.21681059625562235</v>
       </c>
       <c r="W12">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X12">
-        <v>0.011267786282330218</v>
+        <v>1.1267786282330218E-2</v>
       </c>
       <c r="Y12">
-        <v>0.00016111142356634164</v>
+        <v>1.6111142356634164E-4</v>
       </c>
       <c r="Z12">
-        <v>54.75685201317872</v>
+        <v>54.756852013178722</v>
       </c>
       <c r="AA12">
-        <v>0.9825179954020696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <v>0.98251799540206963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P13">
-        <v>0.9666055603448275</v>
+        <v>0.96660556034482747</v>
       </c>
       <c r="Q13">
-        <v>0.0007370528333080308</v>
+        <v>7.3705283330803084E-4</v>
       </c>
       <c r="R13">
-        <v>0.010690858119527859</v>
+        <v>1.0690858119527859E-2</v>
       </c>
       <c r="S13">
-        <v>0.00022924204520614482</v>
+        <v>2.2924204520614482E-4</v>
       </c>
       <c r="T13">
         <v>4.458294829857798</v>
       </c>
       <c r="U13">
-        <v>0.04844969078227042</v>
+        <v>4.8449690782270419E-2</v>
       </c>
       <c r="V13">
         <v>0.21681059625562235</v>
       </c>
       <c r="W13">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X13">
-        <v>0.01131582416343667</v>
+        <v>1.1315824163436671E-2</v>
       </c>
       <c r="Y13">
-        <v>0.00015731748442451932</v>
+        <v>1.5731748442451932E-4</v>
       </c>
       <c r="Z13">
         <v>54.990296549742006</v>
       </c>
       <c r="AA13">
-        <v>0.9694443409738647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+        <v>0.96944434097386467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P14">
         <v>1.0544787931034483</v>
       </c>
       <c r="Q14">
-        <v>0.0007270471271139099</v>
+        <v>7.2704712711390987E-4</v>
       </c>
       <c r="R14">
-        <v>0.011687333812058049</v>
+        <v>1.1687333812058049E-2</v>
       </c>
       <c r="S14">
-        <v>0.0002409428285511546</v>
+        <v>2.4094282855115459E-4</v>
       </c>
       <c r="T14">
-        <v>4.863594359844871</v>
+        <v>4.8635943598448712</v>
       </c>
       <c r="U14">
-        <v>0.05283047352968432</v>
+        <v>5.283047352968432E-2</v>
       </c>
       <c r="V14">
         <v>0.21681059625562235</v>
       </c>
       <c r="W14">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X14">
-        <v>0.011364049900053137</v>
+        <v>1.1364049900053137E-2</v>
       </c>
       <c r="Y14">
-        <v>0.0001554881185260411</v>
+        <v>1.554881185260411E-4</v>
       </c>
       <c r="Z14">
-        <v>55.22465398757125</v>
+        <v>55.224653987571251</v>
       </c>
       <c r="AA14">
-        <v>0.9640249181271975</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+        <v>0.96402491812719748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P15">
         <v>1.142352025862069</v>
       </c>
       <c r="Q15">
-        <v>0.0007202994439926026</v>
+        <v>7.2029944399260265E-4</v>
       </c>
       <c r="R15">
-        <v>0.012688054181916222</v>
+        <v>1.2688054181916222E-2</v>
       </c>
       <c r="S15">
-        <v>0.000252286275129834</v>
+        <v>2.5228627512983401E-4</v>
       </c>
       <c r="T15">
         <v>5.2688938898319435</v>
       </c>
       <c r="U15">
-        <v>0.05721413930177376</v>
+        <v>5.7214139301773763E-2</v>
       </c>
       <c r="V15">
         <v>0.21681059625562235</v>
       </c>
       <c r="W15">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X15">
-        <v>0.01141242811170724</v>
+        <v>1.1412428111707239E-2</v>
       </c>
       <c r="Y15">
-        <v>0.00015530629968983658</v>
+        <v>1.5530629968983658E-4</v>
       </c>
       <c r="Z15">
-        <v>55.459752391981</v>
+        <v>55.459752391980999</v>
       </c>
       <c r="AA15">
-        <v>0.9649184219925405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+        <v>0.96491842199254052</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P16">
         <v>1.2302252586206897</v>
       </c>
       <c r="Q16">
-        <v>0.0007169017861616635</v>
+        <v>7.1690178616166348E-4</v>
       </c>
       <c r="R16">
-        <v>0.01369303137275903</v>
+        <v>1.369303137275903E-2</v>
       </c>
       <c r="S16">
-        <v>0.000263400846769018</v>
+        <v>2.6340084676901797E-4</v>
       </c>
       <c r="T16">
-        <v>5.674193419819016</v>
+        <v>5.6741934198190158</v>
       </c>
       <c r="U16">
-        <v>0.061600072604777914</v>
+        <v>6.1600072604777914E-2</v>
       </c>
       <c r="V16">
         <v>0.21681059625562235</v>
       </c>
       <c r="W16">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X16">
-        <v>0.011460931371436932</v>
+        <v>1.1460931371436932E-2</v>
       </c>
       <c r="Y16">
-        <v>0.00015649582983498346</v>
+        <v>1.5649582983498346E-4</v>
       </c>
       <c r="Z16">
         <v>55.695458479106605</v>
       </c>
       <c r="AA16">
-        <v>0.9710332120594646</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+        <v>0.97103321205946458</v>
+      </c>
+    </row>
+    <row r="17" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P17">
         <v>1.3180984913793103</v>
       </c>
       <c r="Q17">
-        <v>0.0007169017861616635</v>
+        <v>7.1690178616166348E-4</v>
       </c>
       <c r="R17">
-        <v>0.014702275389955147</v>
+        <v>1.4702275389955147E-2</v>
       </c>
       <c r="S17">
-        <v>0.00027440080024256785</v>
+        <v>2.7440080024256785E-4</v>
       </c>
       <c r="T17">
-        <v>6.079492949806088</v>
+        <v>6.0794929498060881</v>
       </c>
       <c r="U17">
-        <v>0.06598782130048005</v>
+        <v>6.5987821300480046E-2</v>
       </c>
       <c r="V17">
         <v>0.21681059625562235</v>
       </c>
       <c r="W17">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X17">
-        <v>0.011509538152883496</v>
+        <v>1.1509538152883496E-2</v>
       </c>
       <c r="Y17">
-        <v>0.00015881873664614347</v>
+        <v>1.5881873664614347E-4</v>
       </c>
       <c r="Z17">
         <v>55.931667639612265</v>
       </c>
       <c r="AA17">
-        <v>0.9814791405749472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+        <v>0.98147914057494723</v>
+      </c>
+    </row>
+    <row r="18" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P18">
         <v>1.4059717241379308</v>
       </c>
       <c r="Q18">
-        <v>0.0007202994439926026</v>
+        <v>7.2029944399260265E-4</v>
       </c>
       <c r="R18">
-        <v>0.015715794551385182</v>
+        <v>1.5715794551385182E-2</v>
       </c>
       <c r="S18">
-        <v>0.0002853885455208376</v>
+        <v>2.8538854552083762E-4</v>
       </c>
       <c r="T18">
-        <v>6.48479247979316</v>
+        <v>6.4847924797931604</v>
       </c>
       <c r="U18">
-        <v>0.0703770458406241</v>
+        <v>7.0377045840624097E-2</v>
       </c>
       <c r="V18">
         <v>0.21681059625562235</v>
       </c>
       <c r="W18">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X18">
-        <v>0.01155823137000056</v>
+        <v>1.155823137000056E-2</v>
       </c>
       <c r="Y18">
-        <v>0.0001620730002642808</v>
+        <v>1.620730002642808E-4</v>
       </c>
       <c r="Z18">
         <v>56.168296842271694</v>
       </c>
       <c r="AA18">
-        <v>0.9955298060656257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+        <v>0.99552980606562569</v>
+      </c>
+    </row>
+    <row r="19" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P19">
         <v>1.4938449568965515</v>
       </c>
       <c r="Q19">
-        <v>0.0007270471271139098</v>
+        <v>7.2704712711390976E-4</v>
       </c>
       <c r="R19">
-        <v>0.016733595828809077</v>
+        <v>1.6733595828809077E-2</v>
       </c>
       <c r="S19">
-        <v>0.0002964563788401391</v>
+        <v>2.9645637884013912E-4</v>
       </c>
       <c r="T19">
-        <v>6.890092009780233</v>
+        <v>6.8900920097802327</v>
       </c>
       <c r="U19">
-        <v>0.07476748630736199</v>
+        <v>7.4767486307361991E-2</v>
       </c>
       <c r="V19">
         <v>0.21681059625562235</v>
       </c>
       <c r="W19">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X19">
-        <v>0.01160699732163645</v>
+        <v>1.1606997321636449E-2</v>
       </c>
       <c r="Y19">
-        <v>0.0001660896394694078</v>
+        <v>1.6608963946940781E-4</v>
       </c>
       <c r="Z19">
-        <v>56.40527950506817</v>
+        <v>56.405279505068172</v>
       </c>
       <c r="AA19">
         <v>1.0125920939184143</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P20">
         <v>1.5817181896551724</v>
       </c>
       <c r="Q20">
-        <v>0.0007370528333080308</v>
+        <v>7.3705283330803084E-4</v>
       </c>
       <c r="R20">
-        <v>0.01775568510958825</v>
+        <v>1.7755685109588248E-2</v>
       </c>
       <c r="S20">
-        <v>0.0003076877662328391</v>
+        <v>3.0768776623283912E-4</v>
       </c>
       <c r="T20">
-        <v>7.295391539767306</v>
+        <v>7.2953915397673059</v>
       </c>
       <c r="U20">
-        <v>0.07915894038192314</v>
+        <v>7.9158940381923143E-2</v>
       </c>
       <c r="V20">
         <v>0.21681059625562235</v>
       </c>
       <c r="W20">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X20">
-        <v>0.011655824917602892</v>
+        <v>1.1655824917602892E-2</v>
       </c>
       <c r="Y20">
-        <v>0.00017072909786860506</v>
+        <v>1.7072909786860506E-4</v>
       </c>
       <c r="Z20">
-        <v>56.64256173420367</v>
+        <v>56.642561734203667</v>
       </c>
       <c r="AA20">
-        <v>1.032181278372133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+        <v>1.0321812783721329</v>
+      </c>
+    </row>
+    <row r="21" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P21">
         <v>1.6695914224137929</v>
       </c>
       <c r="Q21">
-        <v>0.0007501862109799612</v>
+        <v>7.5018621097996117E-4</v>
       </c>
       <c r="R21">
-        <v>0.01878206739963033</v>
+        <v>1.8782067399630328E-2</v>
       </c>
       <c r="S21">
-        <v>0.00031915830473794207</v>
+        <v>3.1915830473794207E-4</v>
       </c>
       <c r="T21">
-        <v>7.700691069754377</v>
+        <v>7.7006910697543773</v>
       </c>
       <c r="U21">
-        <v>0.08355124823876184</v>
+        <v>8.3551248238761838E-2</v>
       </c>
       <c r="V21">
         <v>0.21681059625562235</v>
       </c>
       <c r="W21">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X21">
-        <v>0.01170470510358927</v>
+        <v>1.170470510358927E-2</v>
       </c>
       <c r="Y21">
-        <v>0.00017587725402740204</v>
+        <v>1.7587725402740204E-4</v>
       </c>
       <c r="Z21">
         <v>56.880099529416384</v>
@@ -3189,36 +3201,36 @@
         <v>1.0539006175357806</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P22">
         <v>1.7574646551724138</v>
       </c>
       <c r="Q22">
-        <v>0.000766286461589799</v>
+        <v>7.6628646158979896E-4</v>
       </c>
       <c r="R22">
-        <v>0.01981274698240109</v>
+        <v>1.981274698240109E-2</v>
       </c>
       <c r="S22">
-        <v>0.00033093645520774936</v>
+        <v>3.3093645520774936E-4</v>
       </c>
       <c r="T22">
-        <v>8.105990599741451</v>
+        <v>8.1059905997414514</v>
       </c>
       <c r="U22">
-        <v>0.08794428195352204</v>
+        <v>8.7944281953522038E-2</v>
       </c>
       <c r="V22">
         <v>0.21681059625562235</v>
       </c>
       <c r="W22">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X22">
-        <v>0.01175363042860779</v>
+        <v>1.1753630428607789E-2</v>
       </c>
       <c r="Y22">
-        <v>0.0001814414315171613</v>
+        <v>1.8144143151716129E-4</v>
       </c>
       <c r="Z22">
         <v>57.117856681940374</v>
@@ -3227,36 +3239,36 @@
         <v>1.0774246742412348</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P23">
         <v>1.8453378879310343</v>
       </c>
       <c r="Q23">
-        <v>0.0007851710955590679</v>
+        <v>7.8517109555906791E-4</v>
       </c>
       <c r="R23">
-        <v>0.02084772754471261</v>
+        <v>2.0847727544712608E-2</v>
       </c>
       <c r="S23">
-        <v>0.0003430841167462541</v>
+        <v>3.4308411674625411E-4</v>
       </c>
       <c r="T23">
-        <v>8.511290129728524</v>
+        <v>8.5112901297285237</v>
       </c>
       <c r="U23">
-        <v>0.09233793792686192</v>
+        <v>9.2337937926861915E-2</v>
       </c>
       <c r="V23">
         <v>0.21681059625562235</v>
       </c>
       <c r="W23">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X23">
-        <v>0.011802594715982061</v>
+        <v>1.1802594715982061E-2</v>
       </c>
       <c r="Y23">
-        <v>0.0001873466897375243</v>
+        <v>1.873466897375243E-4</v>
       </c>
       <c r="Z23">
         <v>57.355803175644134</v>
@@ -3265,59 +3277,59 @@
         <v>1.1024857441393372</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P24">
-        <v>1.933211120689655</v>
+        <v>1.9332111206896549</v>
       </c>
       <c r="Q24">
-        <v>0.0008066445781143688</v>
+        <v>8.0664457811436879E-4</v>
       </c>
       <c r="R24">
-        <v>0.021887012277113954</v>
+        <v>2.1887012277113954E-2</v>
       </c>
       <c r="S24">
-        <v>0.00035565709498889885</v>
+        <v>3.5565709498889885E-4</v>
       </c>
       <c r="T24">
         <v>8.916589659715596</v>
       </c>
       <c r="U24">
-        <v>0.09673213136827112</v>
+        <v>9.6732131368271121E-2</v>
       </c>
       <c r="V24">
         <v>0.21681059625562235</v>
       </c>
       <c r="W24">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X24">
-        <v>0.011851592810491604</v>
+        <v>1.1851592810491604E-2</v>
       </c>
       <c r="Y24">
-        <v>0.00019353255126547828</v>
+        <v>1.9353255126547828E-4</v>
       </c>
       <c r="Z24">
-        <v>57.59391395825581</v>
+        <v>57.593913958255811</v>
       </c>
       <c r="AA24">
         <v>1.1288628632479547</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P25">
         <v>2.0210843534482756</v>
       </c>
       <c r="Q25">
-        <v>0.0008305061225032949</v>
+        <v>8.305061225032949E-4</v>
       </c>
       <c r="R25">
-        <v>0.022930603954672103</v>
+        <v>2.2930603954672103E-2</v>
       </c>
       <c r="S25">
-        <v>0.0003687055026620693</v>
+        <v>3.6870550266206929E-4</v>
       </c>
       <c r="T25">
-        <v>9.321889189702668</v>
+        <v>9.3218891897026683</v>
       </c>
       <c r="U25">
         <v>0.10112679221507505</v>
@@ -3326,36 +3338,36 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W25">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X25">
-        <v>0.011900620382172733</v>
+        <v>1.1900620382172733E-2</v>
       </c>
       <c r="Y25">
-        <v>0.0001999502192745367</v>
+        <v>1.9995021927453669E-4</v>
       </c>
       <c r="Z25">
-        <v>57.83216798791548</v>
+        <v>57.832167987915483</v>
       </c>
       <c r="AA25">
         <v>1.1563729388688042</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P26">
         <v>2.1089575862068966</v>
       </c>
       <c r="Q26">
-        <v>0.0008565561754163449</v>
+        <v>8.5655617541634493E-4</v>
       </c>
       <c r="R26">
-        <v>0.02397850500247108</v>
+        <v>2.397850500247108E-2</v>
       </c>
       <c r="S26">
-        <v>0.00038227411996837984</v>
+        <v>3.8227411996837984E-4</v>
       </c>
       <c r="T26">
-        <v>9.727188719689742</v>
+        <v>9.7271887196897424</v>
       </c>
       <c r="U26">
         <v>0.10552186206930061</v>
@@ -3364,33 +3376,33 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W26">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X26">
-        <v>0.011949673772718645</v>
+        <v>1.1949673772718645E-2</v>
       </c>
       <c r="Y26">
-        <v>0.0002065602722755385</v>
+        <v>2.0656027227553849E-4</v>
       </c>
       <c r="Z26">
         <v>58.070547486742086</v>
       </c>
       <c r="AA26">
-        <v>1.184863613052383</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+        <v>1.1848636130523831</v>
+      </c>
+    </row>
+    <row r="27" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P27">
         <v>2.196830818965517</v>
       </c>
       <c r="Q27">
-        <v>0.0008846014140767376</v>
+        <v>8.8460141407673758E-4</v>
       </c>
       <c r="R27">
-        <v>0.02503071754909903</v>
+        <v>2.5030717549099031E-2</v>
       </c>
       <c r="S27">
-        <v>0.0003964027336458014</v>
+        <v>3.9640273364580141E-4</v>
       </c>
       <c r="T27">
         <v>10.132488249676813</v>
@@ -3402,33 +3414,33 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W27">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X27">
-        <v>0.011998749874226944</v>
+        <v>1.1998749874226944E-2</v>
       </c>
       <c r="Y27">
-        <v>0.00021333078822464521</v>
+        <v>2.1333078822464521E-4</v>
       </c>
       <c r="Z27">
-        <v>58.30903735159581</v>
+        <v>58.309037351595812</v>
       </c>
       <c r="AA27">
         <v>1.2142075288224887</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P28">
-        <v>2.284704051724138</v>
+        <v>2.2847040517241379</v>
       </c>
       <c r="Q28">
-        <v>0.0009144582877001659</v>
+        <v>9.1445828770016593E-4</v>
       </c>
       <c r="R28">
-        <v>0.026087243470617083</v>
+        <v>2.6087243470617083E-2</v>
       </c>
       <c r="S28">
-        <v>0.0004111264666424009</v>
+        <v>4.1112646664240087E-4</v>
       </c>
       <c r="T28">
         <v>10.537787779663887</v>
@@ -3440,13 +3452,13 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W28">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X28">
-        <v>0.012047846032737093</v>
+        <v>1.2047846032737093E-2</v>
       </c>
       <c r="Y28">
-        <v>0.00022023583628924152</v>
+        <v>2.2023583628924152E-4</v>
       </c>
       <c r="Z28">
         <v>58.547624685309415</v>
@@ -3455,18 +3467,18 @@
         <v>1.244297725235803</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P29">
         <v>2.3725772844827584</v>
       </c>
       <c r="Q29">
-        <v>0.0009459552717305105</v>
+        <v>9.4595527173051055E-4</v>
       </c>
       <c r="R29">
-        <v>0.02714808442692907</v>
+        <v>2.7148084426929071E-2</v>
       </c>
       <c r="S29">
-        <v>0.0004264761049799306</v>
+        <v>4.2647610497993058E-4</v>
       </c>
       <c r="T29">
         <v>10.943087309650958</v>
@@ -3478,33 +3490,33 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W29">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X29">
-        <v>0.012096959970930255</v>
+        <v>1.2096959970930255E-2</v>
       </c>
       <c r="Y29">
-        <v>0.00022725427351948468</v>
+        <v>2.2725427351948468E-4</v>
       </c>
       <c r="Z29">
-        <v>58.78629842104086</v>
+        <v>58.786298421040861</v>
       </c>
       <c r="AA29">
-        <v>1.275043936859738</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+        <v>1.2750439368597379</v>
+      </c>
+    </row>
+    <row r="30" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P30">
         <v>2.4604505172413793</v>
       </c>
       <c r="Q30">
-        <v>0.0009789340684133114</v>
+        <v>9.7893406841331135E-4</v>
       </c>
       <c r="R30">
-        <v>0.028213241892041663</v>
+        <v>2.8213241892041663E-2</v>
       </c>
       <c r="S30">
-        <v>0.0004424784243605887</v>
+        <v>4.4247842436058872E-4</v>
       </c>
       <c r="T30">
         <v>11.348386839638032</v>
@@ -3516,33 +3528,33 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W30">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X30">
-        <v>0.012146089725761401</v>
+        <v>1.2146089725761401E-2</v>
       </c>
       <c r="Y30">
-        <v>0.0002343687890984507</v>
+        <v>2.3436878909845069E-4</v>
       </c>
       <c r="Z30">
-        <v>59.02504901919088</v>
+        <v>59.025049019190881</v>
       </c>
       <c r="AA30">
         <v>1.3063696158273328</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P31">
         <v>2.5483237499999998</v>
       </c>
       <c r="Q31">
-        <v>0.00101325</v>
+        <v>1.01325E-3</v>
       </c>
       <c r="R31">
-        <v>0.029282717179379445</v>
+        <v>2.9282717179379445E-2</v>
       </c>
       <c r="S31">
-        <v>0.00045915651623271614</v>
+        <v>4.5915651623271614E-4</v>
       </c>
       <c r="T31">
         <v>11.753686369625104</v>
@@ -3554,19 +3566,1572 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W31">
-        <v>0.0023503417324359246</v>
+        <v>2.3503417324359246E-3</v>
       </c>
       <c r="X31">
-        <v>0.012195233597815831</v>
+        <v>1.2195233597815831E-2</v>
       </c>
       <c r="Y31">
-        <v>0.0002415651468497785</v>
+        <v>2.4156514684977849E-4</v>
       </c>
       <c r="Z31">
         <v>59.263868221296164</v>
       </c>
       <c r="AA31">
         <v>1.3382095303525503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BFAD28-9C94-45A6-B0EB-B69C312EA6A6}">
+  <dimension ref="A1:AA31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1.01325E-3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>4.6734339441849319E-3</v>
+      </c>
+      <c r="F2">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G2">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1.0970227161978857E-5</v>
+      </c>
+      <c r="L2">
+        <v>1.0826772427316909E-2</v>
+      </c>
+      <c r="M2">
+        <v>6.175101262501729E-4</v>
+      </c>
+      <c r="N2">
+        <v>52.613704300784306</v>
+      </c>
+      <c r="O2">
+        <v>3.0545700131989171</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.01325E-3</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.0970227161978857E-5</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>4.6734339441849319E-3</v>
+      </c>
+      <c r="V2">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W2">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X2">
+        <v>1.0826772427316909E-2</v>
+      </c>
+      <c r="Y2">
+        <v>6.175101262501729E-4</v>
+      </c>
+      <c r="Z2">
+        <v>52.613704300784306</v>
+      </c>
+      <c r="AA2">
+        <v>3.0545700131989171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.43975049999999999</v>
+      </c>
+      <c r="C3">
+        <v>1.01325E-3</v>
+      </c>
+      <c r="D3">
+        <v>2.0282703317762607</v>
+      </c>
+      <c r="E3">
+        <v>2.2478706378621635E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G3">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="H3">
+        <v>4.7780000000000001E-3</v>
+      </c>
+      <c r="I3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J3">
+        <v>4.804221165084185E-3</v>
+      </c>
+      <c r="K3">
+        <v>1.9849405663078807E-4</v>
+      </c>
+      <c r="L3">
+        <v>1.1032924745666518E-2</v>
+      </c>
+      <c r="M3">
+        <v>3.7542094496766012E-4</v>
+      </c>
+      <c r="N3">
+        <v>53.615520603046363</v>
+      </c>
+      <c r="O3">
+        <v>1.9147393669278523</v>
+      </c>
+      <c r="P3">
+        <v>8.7873232758620676E-2</v>
+      </c>
+      <c r="Q3">
+        <v>9.7893406841331135E-4</v>
+      </c>
+      <c r="R3">
+        <v>9.5290239137718104E-4</v>
+      </c>
+      <c r="S3">
+        <v>5.0828366554361763E-5</v>
+      </c>
+      <c r="T3">
+        <v>0.40529952998707253</v>
+      </c>
+      <c r="U3">
+        <v>6.3000724689699032E-3</v>
+      </c>
+      <c r="V3">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W3">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X3">
+        <v>1.0862187843442077E-2</v>
+      </c>
+      <c r="Y3">
+        <v>5.214840765940472E-4</v>
+      </c>
+      <c r="Z3">
+        <v>52.785808798612074</v>
+      </c>
+      <c r="AA3">
+        <v>2.5980018232528397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.91597799999999985</v>
+      </c>
+      <c r="C4">
+        <v>1.01325E-3</v>
+      </c>
+      <c r="D4">
+        <v>4.2247842855431781</v>
+      </c>
+      <c r="E4">
+        <v>4.6036726925799798E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G4">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="H4">
+        <v>1.01E-2</v>
+      </c>
+      <c r="I4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J4">
+        <v>1.0118667077756938E-2</v>
+      </c>
+      <c r="K4">
+        <v>3.6000896653062055E-4</v>
+      </c>
+      <c r="L4">
+        <v>1.1288121853328314E-2</v>
+      </c>
+      <c r="M4">
+        <v>3.59381804496249E-4</v>
+      </c>
+      <c r="N4">
+        <v>54.855674605642378</v>
+      </c>
+      <c r="O4">
+        <v>1.844914835296199</v>
+      </c>
+      <c r="P4">
+        <v>0.17574646551724135</v>
+      </c>
+      <c r="Q4">
+        <v>9.4595527173051055E-4</v>
+      </c>
+      <c r="R4">
+        <v>1.9091090890199858E-3</v>
+      </c>
+      <c r="S4">
+        <v>9.3008441195591686E-5</v>
+      </c>
+      <c r="T4">
+        <v>0.81059905997414505</v>
+      </c>
+      <c r="U4">
+        <v>9.8108739466433604E-3</v>
+      </c>
+      <c r="V4">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W4">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X4">
+        <v>1.0901666498460942E-2</v>
+      </c>
+      <c r="Y4">
+        <v>4.594513636853912E-4</v>
+      </c>
+      <c r="Z4">
+        <v>52.977658982524169</v>
+      </c>
+      <c r="AA4">
+        <v>2.3054249430831999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.2969600000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.01325E-3</v>
+      </c>
+      <c r="D5">
+        <v>5.9819954485567139</v>
+      </c>
+      <c r="E5">
+        <v>6.501618328409213E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G5">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="H5">
+        <v>1.4579999999999999E-2</v>
+      </c>
+      <c r="I5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J5">
+        <v>1.445910479836697E-2</v>
+      </c>
+      <c r="K5">
+        <v>4.8899809641663242E-4</v>
+      </c>
+      <c r="L5">
+        <v>1.1497836990041721E-2</v>
+      </c>
+      <c r="M5">
+        <v>3.8273862090524566E-4</v>
+      </c>
+      <c r="N5">
+        <v>55.874804754032517</v>
+      </c>
+      <c r="O5">
+        <v>1.956097081287866</v>
+      </c>
+      <c r="P5">
+        <v>0.26361969827586207</v>
+      </c>
+      <c r="Q5">
+        <v>9.1445828770016593E-4</v>
+      </c>
+      <c r="R5">
+        <v>2.868907948488987E-3</v>
+      </c>
+      <c r="S5">
+        <v>1.3087267763211083E-4</v>
+      </c>
+      <c r="T5">
+        <v>1.2158985899612178</v>
+      </c>
+      <c r="U5">
+        <v>1.3839363723763418E-2</v>
+      </c>
+      <c r="V5">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W5">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X5">
+        <v>1.0943765255035796E-2</v>
+      </c>
+      <c r="Y5">
+        <v>4.1893449570123997E-4</v>
+      </c>
+      <c r="Z5">
+        <v>53.182241792842738</v>
+      </c>
+      <c r="AA5">
+        <v>2.1159085335425356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.7225250000000001</v>
+      </c>
+      <c r="C6">
+        <v>1.01325E-3</v>
+      </c>
+      <c r="D6">
+        <v>7.9448377051143853</v>
+      </c>
+      <c r="E6">
+        <v>8.6252953131432913E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G6">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="H6">
+        <v>1.9299999999999998E-2</v>
+      </c>
+      <c r="I6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J6">
+        <v>1.9402419141428311E-2</v>
+      </c>
+      <c r="K6">
+        <v>6.4439003297395105E-4</v>
+      </c>
+      <c r="L6">
+        <v>1.1734172033610058E-2</v>
+      </c>
+      <c r="M6">
+        <v>4.2300037465080938E-4</v>
+      </c>
+      <c r="N6">
+        <v>57.023296807568634</v>
+      </c>
+      <c r="O6">
+        <v>2.146545071328799</v>
+      </c>
+      <c r="P6">
+        <v>0.3514929310344827</v>
+      </c>
+      <c r="Q6">
+        <v>8.8460141407673758E-4</v>
+      </c>
+      <c r="R6">
+        <v>3.8324885525932691E-3</v>
+      </c>
+      <c r="S6">
+        <v>1.656417995835199E-4</v>
+      </c>
+      <c r="T6">
+        <v>1.6211981199482901</v>
+      </c>
+      <c r="U6">
+        <v>1.8042037999055221E-2</v>
+      </c>
+      <c r="V6">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W6">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X6">
+        <v>1.0987629107014207E-2</v>
+      </c>
+      <c r="Y6">
+        <v>3.924839744969083E-4</v>
+      </c>
+      <c r="Z6">
+        <v>53.395402247907136</v>
+      </c>
+      <c r="AA6">
+        <v>1.9932108202840506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.144037</v>
+      </c>
+      <c r="C7">
+        <v>1.01325E-3</v>
+      </c>
+      <c r="D7">
+        <v>9.8889862258953158</v>
+      </c>
+      <c r="E7">
+        <v>0.10730367015276393</v>
+      </c>
+      <c r="F7">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G7">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="H7">
+        <v>2.4399999999999998E-2</v>
+      </c>
+      <c r="I7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J7">
+        <v>2.4398036125788659E-2</v>
+      </c>
+      <c r="K7">
+        <v>8.153899026910491E-4</v>
+      </c>
+      <c r="L7">
+        <v>1.1969262620789484E-2</v>
+      </c>
+      <c r="M7">
+        <v>4.7108984935060309E-4</v>
+      </c>
+      <c r="N7">
+        <v>58.165741309916164</v>
+      </c>
+      <c r="O7">
+        <v>2.374553965450771</v>
+      </c>
+      <c r="P7">
+        <v>0.43936616379310345</v>
+      </c>
+      <c r="Q7">
+        <v>8.5655617541634493E-4</v>
+      </c>
+      <c r="R7">
+        <v>4.7999808509534203E-3</v>
+      </c>
+      <c r="S7">
+        <v>1.9826508624299632E-4</v>
+      </c>
+      <c r="T7">
+        <v>2.0264976499353629</v>
+      </c>
+      <c r="U7">
+        <v>2.2320723291128507E-2</v>
+      </c>
+      <c r="V7">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W7">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X7">
+        <v>1.1032725355541119E-2</v>
+      </c>
+      <c r="Y7">
+        <v>3.7547923187108241E-4</v>
+      </c>
+      <c r="Z7">
+        <v>53.614551648247634</v>
+      </c>
+      <c r="AA7">
+        <v>1.9150060663449651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2.5483237499999998</v>
+      </c>
+      <c r="C8">
+        <v>1.01325E-3</v>
+      </c>
+      <c r="D8">
+        <v>11.753686369625104</v>
+      </c>
+      <c r="E8">
+        <v>0.12750186595444718</v>
+      </c>
+      <c r="F8">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G8">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="H8">
+        <v>2.9300000000000003E-2</v>
+      </c>
+      <c r="I8">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J8">
+        <v>2.9282717179379445E-2</v>
+      </c>
+      <c r="K8">
+        <v>9.9852145388086241E-4</v>
+      </c>
+      <c r="L8">
+        <v>1.2195233597815831E-2</v>
+      </c>
+      <c r="M8">
+        <v>5.2209456274723398E-4</v>
+      </c>
+      <c r="N8">
+        <v>59.263868221296164</v>
+      </c>
+      <c r="O8">
+        <v>2.6172428712559586</v>
+      </c>
+      <c r="P8">
+        <v>0.52723939655172414</v>
+      </c>
+      <c r="Q8">
+        <v>8.305061225032949E-4</v>
+      </c>
+      <c r="R8">
+        <v>5.7714768976044216E-3</v>
+      </c>
+      <c r="S8">
+        <v>2.2942359961091599E-4</v>
+      </c>
+      <c r="T8">
+        <v>2.4317971799224356</v>
+      </c>
+      <c r="U8">
+        <v>2.6638818433217738E-2</v>
+      </c>
+      <c r="V8">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W8">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X8">
+        <v>1.1078708086302728E-2</v>
+      </c>
+      <c r="Y8">
+        <v>3.6497800173778143E-4</v>
+      </c>
+      <c r="Z8">
+        <v>53.838008991188524</v>
+      </c>
+      <c r="AA8">
+        <v>1.8672015219844316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>0.61511262931034483</v>
+      </c>
+      <c r="Q9">
+        <v>8.0664457811436879E-4</v>
+      </c>
+      <c r="R9">
+        <v>6.7470437261138508E-3</v>
+      </c>
+      <c r="S9">
+        <v>2.596107774130774E-4</v>
+      </c>
+      <c r="T9">
+        <v>2.8370967099095079</v>
+      </c>
+      <c r="U9">
+        <v>3.0979848498593338E-2</v>
+      </c>
+      <c r="V9">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W9">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X9">
+        <v>1.1125344752966839E-2</v>
+      </c>
+      <c r="Y9">
+        <v>3.5906848633976787E-4</v>
+      </c>
+      <c r="Z9">
+        <v>54.064644196270393</v>
+      </c>
+      <c r="AA9">
+        <v>1.8407252911346741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>0.70298586206896541</v>
+      </c>
+      <c r="Q10">
+        <v>7.8517109555906791E-4</v>
+      </c>
+      <c r="R10">
+        <v>7.7267313094688417E-3</v>
+      </c>
+      <c r="S10">
+        <v>2.8919136762643418E-4</v>
+      </c>
+      <c r="T10">
+        <v>3.2423962398965802</v>
+      </c>
+      <c r="U10">
+        <v>3.5335361674570291E-2</v>
+      </c>
+      <c r="V10">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W10">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X10">
+        <v>1.1172474347284772E-2</v>
+      </c>
+      <c r="Y10">
+        <v>3.5648584917448721E-4</v>
+      </c>
+      <c r="Z10">
+        <v>54.293674828982617</v>
+      </c>
+      <c r="AA10">
+        <v>1.8296294573607972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>0.79085909482758621</v>
+      </c>
+      <c r="Q11">
+        <v>7.6628646158979896E-4</v>
+      </c>
+      <c r="R11">
+        <v>8.7105776629628467E-3</v>
+      </c>
+      <c r="S11">
+        <v>3.1844084242794844E-4</v>
+      </c>
+      <c r="T11">
+        <v>3.647695769883653</v>
+      </c>
+      <c r="U11">
+        <v>3.970059146346093E-2</v>
+      </c>
+      <c r="V11">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W11">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X11">
+        <v>1.1219982527915964E-2</v>
+      </c>
+      <c r="Y11">
+        <v>3.5637808111818701E-4</v>
+      </c>
+      <c r="Z11">
+        <v>54.524545236980778</v>
+      </c>
+      <c r="AA11">
+        <v>1.8299404566764972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>0.8787323275862069</v>
+      </c>
+      <c r="Q12">
+        <v>7.5018621097996117E-4</v>
+      </c>
+      <c r="R12">
+        <v>9.6986122189107425E-3</v>
+      </c>
+      <c r="S12">
+        <v>3.4757170544094163E-4</v>
+      </c>
+      <c r="T12">
+        <v>4.0529952998707257</v>
+      </c>
+      <c r="U12">
+        <v>4.4072650778272944E-2</v>
+      </c>
+      <c r="V12">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W12">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X12">
+        <v>1.1267786282330218E-2</v>
+      </c>
+      <c r="Y12">
+        <v>3.5816032196048724E-4</v>
+      </c>
+      <c r="Z12">
+        <v>54.756852013178722</v>
+      </c>
+      <c r="AA12">
+        <v>1.8389506503544566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>0.96660556034482747</v>
+      </c>
+      <c r="Q13">
+        <v>7.3705283330803084E-4</v>
+      </c>
+      <c r="R13">
+        <v>1.0690858119527859E-2</v>
+      </c>
+      <c r="S13">
+        <v>3.7675128233410134E-4</v>
+      </c>
+      <c r="T13">
+        <v>4.458294829857798</v>
+      </c>
+      <c r="U13">
+        <v>4.8449690782270419E-2</v>
+      </c>
+      <c r="V13">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W13">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X13">
+        <v>1.1315824163436671E-2</v>
+      </c>
+      <c r="Y13">
+        <v>3.6142299332279898E-4</v>
+      </c>
+      <c r="Z13">
+        <v>54.990296549742006</v>
+      </c>
+      <c r="AA13">
+        <v>1.854776055651179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>1.0544787931034483</v>
+      </c>
+      <c r="Q14">
+        <v>7.2704712711390987E-4</v>
+      </c>
+      <c r="R14">
+        <v>1.1687333812058049E-2</v>
+      </c>
+      <c r="S14">
+        <v>4.0611394277049974E-4</v>
+      </c>
+      <c r="T14">
+        <v>4.8635943598448712</v>
+      </c>
+      <c r="U14">
+        <v>5.283047352968432E-2</v>
+      </c>
+      <c r="V14">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W14">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X14">
+        <v>1.1364049900053137E-2</v>
+      </c>
+      <c r="Y14">
+        <v>3.6587319064499638E-4</v>
+      </c>
+      <c r="Z14">
+        <v>55.224653987571251</v>
+      </c>
+      <c r="AA14">
+        <v>1.8760768384351418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>1.142352025862069</v>
+      </c>
+      <c r="Q15">
+        <v>7.2029944399260265E-4</v>
+      </c>
+      <c r="R15">
+        <v>1.2688054181916222E-2</v>
+      </c>
+      <c r="S15">
+        <v>4.3576962712778874E-4</v>
+      </c>
+      <c r="T15">
+        <v>5.2688938898319435</v>
+      </c>
+      <c r="U15">
+        <v>5.7214139301773763E-2</v>
+      </c>
+      <c r="V15">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W15">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X15">
+        <v>1.1412428111707239E-2</v>
+      </c>
+      <c r="Y15">
+        <v>3.7129686281641501E-4</v>
+      </c>
+      <c r="Z15">
+        <v>55.459752391980999</v>
+      </c>
+      <c r="AA15">
+        <v>1.901878444878961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>1.2302252586206897</v>
+      </c>
+      <c r="Q16">
+        <v>7.1690178616166348E-4</v>
+      </c>
+      <c r="R16">
+        <v>1.369303137275903E-2</v>
+      </c>
+      <c r="S16">
+        <v>4.6580988131267309E-4</v>
+      </c>
+      <c r="T16">
+        <v>5.6741934198190158</v>
+      </c>
+      <c r="U16">
+        <v>6.1600072604777914E-2</v>
+      </c>
+      <c r="V16">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W16">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X16">
+        <v>1.1460931371436932E-2</v>
+      </c>
+      <c r="Y16">
+        <v>3.7753411383674792E-4</v>
+      </c>
+      <c r="Z16">
+        <v>55.695458479106605</v>
+      </c>
+      <c r="AA16">
+        <v>1.9314556377663561</v>
+      </c>
+    </row>
+    <row r="17" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>1.3180984913793103</v>
+      </c>
+      <c r="Q17">
+        <v>7.1690178616166348E-4</v>
+      </c>
+      <c r="R17">
+        <v>1.4702275389955147E-2</v>
+      </c>
+      <c r="S17">
+        <v>4.9631218500843734E-4</v>
+      </c>
+      <c r="T17">
+        <v>6.0794929498060881</v>
+      </c>
+      <c r="U17">
+        <v>6.5987821300480046E-2</v>
+      </c>
+      <c r="V17">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W17">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X17">
+        <v>1.1509538152883496E-2</v>
+      </c>
+      <c r="Y17">
+        <v>3.844628709584568E-4</v>
+      </c>
+      <c r="Z17">
+        <v>55.931667639612265</v>
+      </c>
+      <c r="AA17">
+        <v>1.9642562989115524</v>
+      </c>
+    </row>
+    <row r="18" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>1.4059717241379308</v>
+      </c>
+      <c r="Q18">
+        <v>7.2029944399260265E-4</v>
+      </c>
+      <c r="R18">
+        <v>1.5715794551385182E-2</v>
+      </c>
+      <c r="S18">
+        <v>5.2734309450374109E-4</v>
+      </c>
+      <c r="T18">
+        <v>6.4847924797931604</v>
+      </c>
+      <c r="U18">
+        <v>7.0377045840624097E-2</v>
+      </c>
+      <c r="V18">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W18">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X18">
+        <v>1.155823137000056E-2</v>
+      </c>
+      <c r="Y18">
+        <v>3.9198794355821355E-4</v>
+      </c>
+      <c r="Z18">
+        <v>56.168296842271694</v>
+      </c>
+      <c r="AA18">
+        <v>1.9998506696079072</v>
+      </c>
+    </row>
+    <row r="19" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>1.4938449568965515</v>
+      </c>
+      <c r="Q19">
+        <v>7.2704712711390976E-4</v>
+      </c>
+      <c r="R19">
+        <v>1.6733595828809077E-2</v>
+      </c>
+      <c r="S19">
+        <v>5.5896055146537982E-4</v>
+      </c>
+      <c r="T19">
+        <v>6.8900920097802327</v>
+      </c>
+      <c r="U19">
+        <v>7.4767486307361991E-2</v>
+      </c>
+      <c r="V19">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W19">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X19">
+        <v>1.1606997321636449E-2</v>
+      </c>
+      <c r="Y19">
+        <v>4.0003359378594402E-4</v>
+      </c>
+      <c r="Z19">
+        <v>56.405279505068172</v>
+      </c>
+      <c r="AA19">
+        <v>2.0378970626850492</v>
+      </c>
+    </row>
+    <row r="20" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>1.5817181896551724</v>
+      </c>
+      <c r="Q20">
+        <v>7.3705283330803084E-4</v>
+      </c>
+      <c r="R20">
+        <v>1.7755685109588248E-2</v>
+      </c>
+      <c r="S20">
+        <v>5.9121559803632367E-4</v>
+      </c>
+      <c r="T20">
+        <v>7.2953915397673059</v>
+      </c>
+      <c r="U20">
+        <v>7.9158940381923143E-2</v>
+      </c>
+      <c r="V20">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W20">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X20">
+        <v>1.1655824917602892E-2</v>
+      </c>
+      <c r="Y20">
+        <v>4.085384210839577E-4</v>
+      </c>
+      <c r="Z20">
+        <v>56.642561734203667</v>
+      </c>
+      <c r="AA20">
+        <v>2.0781183720947132</v>
+      </c>
+    </row>
+    <row r="21" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>1.6695914224137929</v>
+      </c>
+      <c r="Q21">
+        <v>7.5018621097996117E-4</v>
+      </c>
+      <c r="R21">
+        <v>1.8782067399630328E-2</v>
+      </c>
+      <c r="S21">
+        <v>6.2415366491283574E-4</v>
+      </c>
+      <c r="T21">
+        <v>7.7006910697543773</v>
+      </c>
+      <c r="U21">
+        <v>8.3551248238761838E-2</v>
+      </c>
+      <c r="V21">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W21">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X21">
+        <v>1.170470510358927E-2</v>
+      </c>
+      <c r="Y21">
+        <v>4.174517890804035E-4</v>
+      </c>
+      <c r="Z21">
+        <v>56.880099529416384</v>
+      </c>
+      <c r="AA21">
+        <v>2.1202857478633108</v>
+      </c>
+    </row>
+    <row r="22" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>1.7574646551724138</v>
+      </c>
+      <c r="Q22">
+        <v>7.6628646158979896E-4</v>
+      </c>
+      <c r="R22">
+        <v>1.981274698240109E-2</v>
+      </c>
+      <c r="S22">
+        <v>6.5781554933321159E-4</v>
+      </c>
+      <c r="T22">
+        <v>8.1059905997414514</v>
+      </c>
+      <c r="U22">
+        <v>8.7944281953522038E-2</v>
+      </c>
+      <c r="V22">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W22">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X22">
+        <v>1.1753630428607789E-2</v>
+      </c>
+      <c r="Y22">
+        <v>4.2673129277420166E-4</v>
+      </c>
+      <c r="Z22">
+        <v>57.117856681940374</v>
+      </c>
+      <c r="AA22">
+        <v>2.1642070842714602</v>
+      </c>
+    </row>
+    <row r="23" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>1.8453378879310343</v>
+      </c>
+      <c r="Q23">
+        <v>7.8517109555906791E-4</v>
+      </c>
+      <c r="R23">
+        <v>2.0847727544712608E-2</v>
+      </c>
+      <c r="S23">
+        <v>6.922381659127593E-4</v>
+      </c>
+      <c r="T23">
+        <v>8.5112901297285237</v>
+      </c>
+      <c r="U23">
+        <v>9.2337937926861915E-2</v>
+      </c>
+      <c r="V23">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W23">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X23">
+        <v>1.1802594715982061E-2</v>
+      </c>
+      <c r="Y23">
+        <v>4.3634093579015892E-4</v>
+      </c>
+      <c r="Z23">
+        <v>57.355803175644134</v>
+      </c>
+      <c r="AA23">
+        <v>2.2097187804844709</v>
+      </c>
+    </row>
+    <row r="24" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>1.9332111206896549</v>
+      </c>
+      <c r="Q24">
+        <v>8.0664457811436879E-4</v>
+      </c>
+      <c r="R24">
+        <v>2.1887012277113954E-2</v>
+      </c>
+      <c r="S24">
+        <v>7.2745512971813067E-4</v>
+      </c>
+      <c r="T24">
+        <v>8.916589659715596</v>
+      </c>
+      <c r="U24">
+        <v>9.6732131368271121E-2</v>
+      </c>
+      <c r="V24">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W24">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X24">
+        <v>1.1851592810491604E-2</v>
+      </c>
+      <c r="Y24">
+        <v>4.4624979820605184E-4</v>
+      </c>
+      <c r="Z24">
+        <v>57.593913958255811</v>
+      </c>
+      <c r="AA24">
+        <v>2.2566797529453235</v>
+      </c>
+    </row>
+    <row r="25" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>2.0210843534482756</v>
+      </c>
+      <c r="Q25">
+        <v>8.305061225032949E-4</v>
+      </c>
+      <c r="R25">
+        <v>2.2930603954672103E-2</v>
+      </c>
+      <c r="S25">
+        <v>7.6349721448530151E-4</v>
+      </c>
+      <c r="T25">
+        <v>9.3218891897026683</v>
+      </c>
+      <c r="U25">
+        <v>0.10112679221507505</v>
+      </c>
+      <c r="V25">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W25">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X25">
+        <v>1.1900620382172733E-2</v>
+      </c>
+      <c r="Y25">
+        <v>4.5643104750361392E-4</v>
+      </c>
+      <c r="Z25">
+        <v>57.832167987915483</v>
+      </c>
+      <c r="AA25">
+        <v>2.3049670159314433</v>
+      </c>
+    </row>
+    <row r="26" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>2.1089575862068966</v>
+      </c>
+      <c r="Q26">
+        <v>8.5655617541634493E-4</v>
+      </c>
+      <c r="R26">
+        <v>2.397850500247108E-2</v>
+      </c>
+      <c r="S26">
+        <v>8.0039271721617082E-4</v>
+      </c>
+      <c r="T26">
+        <v>9.7271887196897424</v>
+      </c>
+      <c r="U26">
+        <v>0.10552186206930061</v>
+      </c>
+      <c r="V26">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W26">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X26">
+        <v>1.1949673772718645E-2</v>
+      </c>
+      <c r="Y26">
+        <v>4.668611925481074E-4</v>
+      </c>
+      <c r="Z26">
+        <v>58.070547486742086</v>
+      </c>
+      <c r="AA26">
+        <v>2.3544723675295458</v>
+      </c>
+    </row>
+    <row r="27" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>2.196830818965517</v>
+      </c>
+      <c r="Q27">
+        <v>8.8460141407673758E-4</v>
+      </c>
+      <c r="R27">
+        <v>2.5030717549099031E-2</v>
+      </c>
+      <c r="S27">
+        <v>8.3816775205253484E-4</v>
+      </c>
+      <c r="T27">
+        <v>10.132488249676813</v>
+      </c>
+      <c r="U27">
+        <v>0.10991729186817281</v>
+      </c>
+      <c r="V27">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W27">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X27">
+        <v>1.1998749874226944E-2</v>
+      </c>
+      <c r="Y27">
+        <v>4.775195119286397E-4</v>
+      </c>
+      <c r="Z27">
+        <v>58.309037351595812</v>
+      </c>
+      <c r="AA27">
+        <v>2.4050998644982124</v>
+      </c>
+    </row>
+    <row r="28" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>2.2847040517241379</v>
+      </c>
+      <c r="Q28">
+        <v>9.1445828770016593E-4</v>
+      </c>
+      <c r="R28">
+        <v>2.6087243470617083E-2</v>
+      </c>
+      <c r="S28">
+        <v>8.7684649032077424E-4</v>
+      </c>
+      <c r="T28">
+        <v>10.537787779663887</v>
+      </c>
+      <c r="U28">
+        <v>0.1143130400912018</v>
+      </c>
+      <c r="V28">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W28">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X28">
+        <v>1.2047846032737093E-2</v>
+      </c>
+      <c r="Y28">
+        <v>4.8838760905126598E-4</v>
+      </c>
+      <c r="Z28">
+        <v>58.547624685309415</v>
+      </c>
+      <c r="AA28">
+        <v>2.456763867266865</v>
+      </c>
+    </row>
+    <row r="29" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>2.3725772844827584</v>
+      </c>
+      <c r="Q29">
+        <v>9.4595527173051055E-4</v>
+      </c>
+      <c r="R29">
+        <v>2.7148084426929071E-2</v>
+      </c>
+      <c r="S29">
+        <v>9.1645135928159285E-4</v>
+      </c>
+      <c r="T29">
+        <v>10.943087309650958</v>
+      </c>
+      <c r="U29">
+        <v>0.1187090713650451</v>
+      </c>
+      <c r="V29">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W29">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X29">
+        <v>1.2096959970930255E-2</v>
+      </c>
+      <c r="Y29">
+        <v>4.9944906062366343E-4</v>
+      </c>
+      <c r="Z29">
+        <v>58.786298421040861</v>
+      </c>
+      <c r="AA29">
+        <v>2.509387502343059</v>
+      </c>
+    </row>
+    <row r="30" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>2.4604505172413793</v>
+      </c>
+      <c r="Q30">
+        <v>9.7893406841331135E-4</v>
+      </c>
+      <c r="R30">
+        <v>2.8213241892041663E-2</v>
+      </c>
+      <c r="S30">
+        <v>9.5700320893393558E-4</v>
+      </c>
+      <c r="T30">
+        <v>11.348386839638032</v>
+      </c>
+      <c r="U30">
+        <v>0.12310535536689325</v>
+      </c>
+      <c r="V30">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W30">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X30">
+        <v>1.2146089725761401E-2</v>
+      </c>
+      <c r="Y30">
+        <v>5.1068913489846733E-4</v>
+      </c>
+      <c r="Z30">
+        <v>59.025049019190881</v>
+      </c>
+      <c r="AA30">
+        <v>2.5629014343988814</v>
+      </c>
+    </row>
+    <row r="31" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>2.5483237499999998</v>
+      </c>
+      <c r="Q31">
+        <v>1.01325E-3</v>
+      </c>
+      <c r="R31">
+        <v>2.9282717179379445E-2</v>
+      </c>
+      <c r="S31">
+        <v>9.9852145388086241E-4</v>
+      </c>
+      <c r="T31">
+        <v>11.753686369625104</v>
+      </c>
+      <c r="U31">
+        <v>0.12750186595444718</v>
+      </c>
+      <c r="V31">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W31">
+        <v>2.3503417324359246E-3</v>
+      </c>
+      <c r="X31">
+        <v>1.2195233597815831E-2</v>
+      </c>
+      <c r="Y31">
+        <v>5.2209456274723398E-4</v>
+      </c>
+      <c r="Z31">
+        <v>59.263868221296164</v>
+      </c>
+      <c r="AA31">
+        <v>2.6172428712559586</v>
       </c>
     </row>
   </sheetData>

--- a/test/writer_output/Molar Volume Analysis.xlsx
+++ b/test/writer_output/Molar Volume Analysis.xlsx
@@ -1,45 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Membrane Packages\SorptionModels.jl\test\writer_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95AC012-52B8-433B-A766-916F688CCEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Partial Molar Volume Analysis" sheetId="2" r:id="rId2"/>
-    <sheet name="With hessian an uncertain input" sheetId="3" r:id="rId3"/>
-    <sheet name="Also with jackknifing!" sheetId="4" r:id="rId4"/>
+    <sheet name="Partial Molar Volume Analysis" r:id="rId4" sheetId="2"/>
+    <sheet name="With hessian an uncertain input" r:id="rId6" sheetId="3"/>
+    <sheet name="Also with jackknifing!" r:id="rId7" sheetId="4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Step</t>
   </si>
@@ -473,26 +462,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D760D48-8110-4C27-8DBA-7A493BCE3048}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED4E91F-69EF-4B1F-A602-F6B41AF4E840}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,18 +564,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -598,43 +587,43 @@
         <v>27</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="s">
         <v>27</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K2" t="s">
         <v>27</v>
       </c>
       <c r="L2">
-        <v>1.0826772427316909E-2</v>
+        <v>0.010795589317327492</v>
       </c>
       <c r="M2" t="s">
         <v>27</v>
       </c>
       <c r="N2">
-        <v>52.613704300784306</v>
+        <v>52.46216708697694</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q2" t="s">
         <v>27</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S2" t="s">
         <v>27</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -646,24 +635,24 @@
         <v>27</v>
       </c>
       <c r="X2">
-        <v>1.0826772427316909E-2</v>
+        <v>0.010795589317327492</v>
       </c>
       <c r="Y2" t="s">
         <v>27</v>
       </c>
       <c r="Z2">
-        <v>52.613704300784306</v>
+        <v>52.46216708697694</v>
       </c>
       <c r="AA2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.43975049999999999</v>
+        <v>0.4397505</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -681,43 +670,43 @@
         <v>27</v>
       </c>
       <c r="H3">
-        <v>4.7780000000000001E-3</v>
+        <v>0.004778</v>
       </c>
       <c r="I3" t="s">
         <v>27</v>
       </c>
       <c r="J3">
-        <v>4.804221165084185E-3</v>
+        <v>0.004800103872732109</v>
       </c>
       <c r="K3" t="s">
         <v>27</v>
       </c>
       <c r="L3">
-        <v>1.1032924745666518E-2</v>
+        <v>0.011035432198053252</v>
       </c>
       <c r="M3" t="s">
         <v>27</v>
       </c>
       <c r="N3">
-        <v>53.615520603046363</v>
+        <v>53.62770580037176</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
       </c>
       <c r="P3">
-        <v>8.7873232758620676E-2</v>
+        <v>0.08787323275862068</v>
       </c>
       <c r="Q3" t="s">
         <v>27</v>
       </c>
       <c r="R3">
-        <v>9.5290239137718104E-4</v>
+        <v>0.0009507493335303291</v>
       </c>
       <c r="S3" t="s">
         <v>27</v>
       </c>
       <c r="T3">
-        <v>0.40529952998707253</v>
+        <v>0.4052995299870725</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -729,30 +718,30 @@
         <v>27</v>
       </c>
       <c r="X3">
-        <v>1.0862187843442077E-2</v>
+        <v>0.010843521553172808</v>
       </c>
       <c r="Y3" t="s">
         <v>27</v>
       </c>
       <c r="Z3">
-        <v>52.785808798612074</v>
+        <v>52.695098230599946</v>
       </c>
       <c r="AA3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.91597799999999985</v>
+        <v>0.9159779999999998</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4">
-        <v>4.2247842855431781</v>
+        <v>4.224784285543178</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -764,25 +753,25 @@
         <v>27</v>
       </c>
       <c r="H4">
-        <v>1.01E-2</v>
+        <v>0.0101</v>
       </c>
       <c r="I4" t="s">
         <v>27</v>
       </c>
       <c r="J4">
-        <v>1.0118667077756938E-2</v>
+        <v>0.010117311770503568</v>
       </c>
       <c r="K4" t="s">
         <v>27</v>
       </c>
       <c r="L4">
-        <v>1.1288121853328314E-2</v>
+        <v>0.01129509112805449</v>
       </c>
       <c r="M4" t="s">
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.855674605642378</v>
+        <v>54.889542442257174</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -794,13 +783,13 @@
         <v>27</v>
       </c>
       <c r="R4">
-        <v>1.9091090890199858E-3</v>
+        <v>0.001905710505038155</v>
       </c>
       <c r="S4" t="s">
         <v>27</v>
       </c>
       <c r="T4">
-        <v>0.81059905997414505</v>
+        <v>0.810599059974145</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -812,19 +801,19 @@
         <v>27</v>
       </c>
       <c r="X4">
-        <v>1.0901666498460942E-2</v>
+        <v>0.010891451000045294</v>
       </c>
       <c r="Y4" t="s">
         <v>27</v>
       </c>
       <c r="Z4">
-        <v>52.977658982524169</v>
+        <v>52.928015820950925</v>
       </c>
       <c r="AA4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>4</v>
       </c>
@@ -835,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>5.9819954485567139</v>
+        <v>5.981995448556714</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -847,25 +836,25 @@
         <v>27</v>
       </c>
       <c r="H5">
-        <v>1.4579999999999999E-2</v>
+        <v>0.01458</v>
       </c>
       <c r="I5" t="s">
         <v>27</v>
       </c>
       <c r="J5">
-        <v>1.445910479836697E-2</v>
+        <v>0.01446009876601928</v>
       </c>
       <c r="K5" t="s">
         <v>27</v>
       </c>
       <c r="L5">
-        <v>1.1497836990041721E-2</v>
+        <v>0.011502759335172863</v>
       </c>
       <c r="M5" t="s">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>55.874804754032517</v>
+        <v>55.89872534652072</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>
@@ -877,7 +866,7 @@
         <v>27</v>
       </c>
       <c r="R5">
-        <v>2.868907948488987E-3</v>
+        <v>0.002864883269456886</v>
       </c>
       <c r="S5" t="s">
         <v>27</v>
@@ -895,30 +884,30 @@
         <v>27</v>
       </c>
       <c r="X5">
-        <v>1.0943765255035796E-2</v>
+        <v>0.010939377658161886</v>
       </c>
       <c r="Y5" t="s">
         <v>27</v>
       </c>
       <c r="Z5">
-        <v>53.182241792842738</v>
+        <v>53.16091985908412</v>
       </c>
       <c r="AA5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.7225250000000001</v>
+        <v>1.722525</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6">
-        <v>7.9448377051143853</v>
+        <v>7.944837705114385</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -930,25 +919,25 @@
         <v>27</v>
       </c>
       <c r="H6">
-        <v>1.9299999999999998E-2</v>
+        <v>0.019299999999999998</v>
       </c>
       <c r="I6" t="s">
         <v>27</v>
       </c>
       <c r="J6">
-        <v>1.9402419141428311E-2</v>
+        <v>0.019404618799188977</v>
       </c>
       <c r="K6" t="s">
         <v>27</v>
       </c>
       <c r="L6">
-        <v>1.1734172033610058E-2</v>
+        <v>0.01173466722150307</v>
       </c>
       <c r="M6" t="s">
         <v>27</v>
       </c>
       <c r="N6">
-        <v>57.023296807568634</v>
+        <v>57.025703219040864</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -960,13 +949,13 @@
         <v>27</v>
       </c>
       <c r="R6">
-        <v>3.8324885525932691E-3</v>
+        <v>0.00382826738173897</v>
       </c>
       <c r="S6" t="s">
         <v>27</v>
       </c>
       <c r="T6">
-        <v>1.6211981199482901</v>
+        <v>1.62119811994829</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -978,19 +967,19 @@
         <v>27</v>
       </c>
       <c r="X6">
-        <v>1.0987629107014207E-2</v>
+        <v>0.010987301527738191</v>
       </c>
       <c r="Y6" t="s">
         <v>27</v>
       </c>
       <c r="Z6">
-        <v>53.395402247907136</v>
+        <v>53.39381034604727</v>
       </c>
       <c r="AA6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1001,7 +990,7 @@
         <v>27</v>
       </c>
       <c r="D7">
-        <v>9.8889862258953158</v>
+        <v>9.888986225895316</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -1013,37 +1002,37 @@
         <v>27</v>
       </c>
       <c r="H7">
-        <v>2.4399999999999998E-2</v>
+        <v>0.024399999999999998</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>
       </c>
       <c r="J7">
-        <v>2.4398036125788659E-2</v>
+        <v>0.024399321022261056</v>
       </c>
       <c r="K7" t="s">
         <v>27</v>
       </c>
       <c r="L7">
-        <v>1.1969262620789484E-2</v>
+        <v>0.011964302072882793</v>
       </c>
       <c r="M7" t="s">
         <v>27</v>
       </c>
       <c r="N7">
-        <v>58.165741309916164</v>
+        <v>58.141635067498626</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
       </c>
       <c r="P7">
-        <v>0.43936616379310339</v>
+        <v>0.4393661637931034</v>
       </c>
       <c r="Q7" t="s">
         <v>27</v>
       </c>
       <c r="R7">
-        <v>4.7999808509534203E-3</v>
+        <v>0.004795862596856049</v>
       </c>
       <c r="S7" t="s">
         <v>27</v>
@@ -1061,19 +1050,19 @@
         <v>27</v>
       </c>
       <c r="X7">
-        <v>1.1032725355541119E-2</v>
+        <v>0.011035222608991146</v>
       </c>
       <c r="Y7" t="s">
         <v>27</v>
       </c>
       <c r="Z7">
-        <v>53.614551648247634</v>
+        <v>53.626687282894615</v>
       </c>
       <c r="AA7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1096,37 +1085,37 @@
         <v>27</v>
       </c>
       <c r="H8">
-        <v>2.9300000000000003E-2</v>
+        <v>0.029300000000000003</v>
       </c>
       <c r="I8" t="s">
         <v>27</v>
       </c>
       <c r="J8">
-        <v>2.9282717179379445E-2</v>
+        <v>0.029280841869446572</v>
       </c>
       <c r="K8" t="s">
         <v>27</v>
       </c>
       <c r="L8">
-        <v>1.2195233597815831E-2</v>
+        <v>0.012184492624057519</v>
       </c>
       <c r="M8" t="s">
         <v>27</v>
       </c>
       <c r="N8">
-        <v>59.263868221296164</v>
+        <v>59.211671463581325</v>
       </c>
       <c r="O8" t="s">
         <v>27</v>
       </c>
       <c r="P8">
-        <v>0.52723939655172414</v>
+        <v>0.5272393965517241</v>
       </c>
       <c r="Q8" t="s">
         <v>27</v>
       </c>
       <c r="R8">
-        <v>5.7714768976044216E-3</v>
+        <v>0.005767668669798498</v>
       </c>
       <c r="S8" t="s">
         <v>27</v>
@@ -1144,33 +1133,33 @@
         <v>27</v>
       </c>
       <c r="X8">
-        <v>1.1078708086302728E-2</v>
+        <v>0.011083140902136801</v>
       </c>
       <c r="Y8" t="s">
         <v>27</v>
       </c>
       <c r="Z8">
-        <v>53.838008991188524</v>
+        <v>53.859550670676064</v>
       </c>
       <c r="AA8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27">
       <c r="P9">
-        <v>0.61511262931034483</v>
+        <v>0.6151126293103448</v>
       </c>
       <c r="Q9" t="s">
         <v>27</v>
       </c>
       <c r="R9">
-        <v>6.7470437261138508E-3</v>
+        <v>0.006743685355575679</v>
       </c>
       <c r="S9" t="s">
         <v>27</v>
       </c>
       <c r="T9">
-        <v>2.8370967099095079</v>
+        <v>2.837096709909508</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -1182,33 +1171,33 @@
         <v>27</v>
       </c>
       <c r="X9">
-        <v>1.1125344752966839E-2</v>
+        <v>0.011131056407390982</v>
       </c>
       <c r="Y9" t="s">
         <v>27</v>
       </c>
       <c r="Z9">
-        <v>54.064644196270393</v>
+        <v>54.09240051044044</v>
       </c>
       <c r="AA9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27">
       <c r="P10">
-        <v>0.70298586206896541</v>
+        <v>0.7029858620689654</v>
       </c>
       <c r="Q10" t="s">
         <v>27</v>
       </c>
       <c r="R10">
-        <v>7.7267313094688417E-3</v>
+        <v>0.007723912409216438</v>
       </c>
       <c r="S10" t="s">
         <v>27</v>
       </c>
       <c r="T10">
-        <v>3.2423962398965802</v>
+        <v>3.24239623989658</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -1220,19 +1209,19 @@
         <v>27</v>
       </c>
       <c r="X10">
-        <v>1.1172474347284772E-2</v>
+        <v>0.01117896912497085</v>
       </c>
       <c r="Y10" t="s">
         <v>27</v>
       </c>
       <c r="Z10">
-        <v>54.293674828982617</v>
+        <v>54.325236803243065</v>
       </c>
       <c r="AA10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27">
       <c r="P11">
         <v>0.7908590948275861</v>
       </c>
@@ -1240,7 +1229,7 @@
         <v>27</v>
       </c>
       <c r="R11">
-        <v>8.7105776629628449E-3</v>
+        <v>0.00870834958576805</v>
       </c>
       <c r="S11" t="s">
         <v>27</v>
@@ -1258,33 +1247,33 @@
         <v>27</v>
       </c>
       <c r="X11">
-        <v>1.1219982527915964E-2</v>
+        <v>0.011226879055092231</v>
       </c>
       <c r="Y11" t="s">
         <v>27</v>
       </c>
       <c r="Z11">
-        <v>54.524545236980778</v>
+        <v>54.55805955013277</v>
       </c>
       <c r="AA11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27">
       <c r="P12">
-        <v>0.87873232758620679</v>
+        <v>0.8787323275862068</v>
       </c>
       <c r="Q12" t="s">
         <v>27</v>
       </c>
       <c r="R12">
-        <v>9.6986122189107425E-3</v>
+        <v>0.009696996640297106</v>
       </c>
       <c r="S12" t="s">
         <v>27</v>
       </c>
       <c r="T12">
-        <v>4.0529952998707248</v>
+        <v>4.052995299870725</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -1296,27 +1285,27 @@
         <v>27</v>
       </c>
       <c r="X12">
-        <v>1.1267786282330218E-2</v>
+        <v>0.011274786197971176</v>
       </c>
       <c r="Y12" t="s">
         <v>27</v>
       </c>
       <c r="Z12">
-        <v>54.756852013178722</v>
+        <v>54.79086875215946</v>
       </c>
       <c r="AA12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27">
       <c r="P13">
-        <v>0.96660556034482747</v>
+        <v>0.9666055603448275</v>
       </c>
       <c r="Q13" t="s">
         <v>27</v>
       </c>
       <c r="R13">
-        <v>1.0690858119527859E-2</v>
+        <v>0.010689853327888965</v>
       </c>
       <c r="S13" t="s">
         <v>27</v>
@@ -1334,19 +1323,19 @@
         <v>27</v>
       </c>
       <c r="X13">
-        <v>1.1315824163436671E-2</v>
+        <v>0.011322690553823955</v>
       </c>
       <c r="Y13" t="s">
         <v>27</v>
       </c>
       <c r="Z13">
-        <v>54.990296549742006</v>
+        <v>55.02366441037413</v>
       </c>
       <c r="AA13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27">
       <c r="P14">
         <v>1.0544787931034483</v>
       </c>
@@ -1354,13 +1343,13 @@
         <v>27</v>
       </c>
       <c r="R14">
-        <v>1.1687333812058049E-2</v>
+        <v>0.011686919403648632</v>
       </c>
       <c r="S14" t="s">
         <v>27</v>
       </c>
       <c r="T14">
-        <v>4.8635943598448712</v>
+        <v>4.863594359844871</v>
       </c>
       <c r="U14" t="s">
         <v>27</v>
@@ -1372,19 +1361,19 @@
         <v>27</v>
       </c>
       <c r="X14">
-        <v>1.1364049900053137E-2</v>
+        <v>0.011370592122867285</v>
       </c>
       <c r="Y14" t="s">
         <v>27</v>
       </c>
       <c r="Z14">
-        <v>55.224653987571251</v>
+        <v>55.25644652582993</v>
       </c>
       <c r="AA14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27">
       <c r="P15">
         <v>1.142352025862069</v>
       </c>
@@ -1392,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="R15">
-        <v>1.2688054181916222E-2</v>
+        <v>0.012688194622698878</v>
       </c>
       <c r="S15" t="s">
         <v>27</v>
@@ -1410,19 +1399,19 @@
         <v>27</v>
       </c>
       <c r="X15">
-        <v>1.1412428111707239E-2</v>
+        <v>0.011418490905316325</v>
       </c>
       <c r="Y15" t="s">
         <v>27</v>
       </c>
       <c r="Z15">
-        <v>55.459752391980999</v>
+        <v>55.48921509957244</v>
       </c>
       <c r="AA15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27">
       <c r="P16">
         <v>1.2302252586206897</v>
       </c>
@@ -1430,13 +1419,13 @@
         <v>27</v>
       </c>
       <c r="R16">
-        <v>1.369303137275903E-2</v>
+        <v>0.013693678740182458</v>
       </c>
       <c r="S16" t="s">
         <v>27</v>
       </c>
       <c r="T16">
-        <v>5.6741934198190158</v>
+        <v>5.674193419819016</v>
       </c>
       <c r="U16" t="s">
         <v>27</v>
@@ -1448,19 +1437,19 @@
         <v>27</v>
       </c>
       <c r="X16">
-        <v>1.1460931371436932E-2</v>
+        <v>0.011466386901387793</v>
       </c>
       <c r="Y16" t="s">
         <v>27</v>
       </c>
       <c r="Z16">
-        <v>55.695458479106605</v>
+        <v>55.721970132654846</v>
       </c>
       <c r="AA16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27">
       <c r="P17">
         <v>1.3180984913793101</v>
       </c>
@@ -1468,13 +1457,13 @@
         <v>27</v>
       </c>
       <c r="R17">
-        <v>1.4702275389955145E-2</v>
+        <v>0.014703371511261443</v>
       </c>
       <c r="S17" t="s">
         <v>27</v>
       </c>
       <c r="T17">
-        <v>6.0794929498060872</v>
+        <v>6.079492949806087</v>
       </c>
       <c r="U17" t="s">
         <v>27</v>
@@ -1486,19 +1475,19 @@
         <v>27</v>
       </c>
       <c r="X17">
-        <v>1.1509538152883496E-2</v>
+        <v>0.01151428011129818</v>
       </c>
       <c r="Y17" t="s">
         <v>27</v>
       </c>
       <c r="Z17">
-        <v>55.931667639612265</v>
+        <v>55.954711626129175</v>
       </c>
       <c r="AA17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27">
       <c r="P18">
         <v>1.4059717241379308</v>
       </c>
@@ -1506,13 +1495,13 @@
         <v>27</v>
       </c>
       <c r="R18">
-        <v>1.5715794551385182E-2</v>
+        <v>0.015717272691115447</v>
       </c>
       <c r="S18" t="s">
         <v>27</v>
       </c>
       <c r="T18">
-        <v>6.4847924797931604</v>
+        <v>6.48479247979316</v>
       </c>
       <c r="U18" t="s">
         <v>27</v>
@@ -1524,19 +1513,19 @@
         <v>27</v>
       </c>
       <c r="X18">
-        <v>1.155823137000056E-2</v>
+        <v>0.011562170535263094</v>
       </c>
       <c r="Y18" t="s">
         <v>27</v>
       </c>
       <c r="Z18">
-        <v>56.168296842271694</v>
+        <v>56.18743958104322</v>
       </c>
       <c r="AA18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27">
       <c r="P19">
         <v>1.4938449568965515</v>
       </c>
@@ -1544,13 +1533,13 @@
         <v>27</v>
       </c>
       <c r="R19">
-        <v>1.6733595828809077E-2</v>
+        <v>0.01673538203494429</v>
       </c>
       <c r="S19" t="s">
         <v>27</v>
       </c>
       <c r="T19">
-        <v>6.8900920097802327</v>
+        <v>6.890092009780233</v>
       </c>
       <c r="U19" t="s">
         <v>27</v>
@@ -1562,19 +1551,19 @@
         <v>27</v>
       </c>
       <c r="X19">
-        <v>1.1606997321636449E-2</v>
+        <v>0.011610058173498361</v>
       </c>
       <c r="Y19" t="s">
         <v>27</v>
       </c>
       <c r="Z19">
-        <v>56.405279505068172</v>
+        <v>56.42015399844579</v>
       </c>
       <c r="AA19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27">
       <c r="P20">
         <v>1.5817181896551722</v>
       </c>
@@ -1582,7 +1571,7 @@
         <v>27</v>
       </c>
       <c r="R20">
-        <v>1.7755685109588245E-2</v>
+        <v>0.017757699297966667</v>
       </c>
       <c r="S20" t="s">
         <v>27</v>
@@ -1600,19 +1589,19 @@
         <v>27</v>
       </c>
       <c r="X20">
-        <v>1.1655824917602892E-2</v>
+        <v>0.011657943026220474</v>
       </c>
       <c r="Y20" t="s">
         <v>27</v>
       </c>
       <c r="Z20">
-        <v>56.642561734203667</v>
+        <v>56.65285487938896</v>
       </c>
       <c r="AA20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27">
       <c r="P21">
         <v>1.6695914224137929</v>
       </c>
@@ -1620,13 +1609,13 @@
         <v>27</v>
       </c>
       <c r="R21">
-        <v>1.8782067399630328E-2</v>
+        <v>0.0187842242354197</v>
       </c>
       <c r="S21" t="s">
         <v>27</v>
       </c>
       <c r="T21">
-        <v>7.7006910697543773</v>
+        <v>7.700691069754377</v>
       </c>
       <c r="U21" t="s">
         <v>27</v>
@@ -1638,19 +1627,19 @@
         <v>27</v>
       </c>
       <c r="X21">
-        <v>1.170470510358927E-2</v>
+        <v>0.011705825093645261</v>
       </c>
       <c r="Y21" t="s">
         <v>27</v>
       </c>
       <c r="Z21">
-        <v>56.880099529416384</v>
+        <v>56.885542224921565</v>
       </c>
       <c r="AA21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27">
       <c r="P22">
         <v>1.7574646551724136</v>
       </c>
@@ -1658,13 +1647,13 @@
         <v>27</v>
       </c>
       <c r="R22">
-        <v>1.9812746982401087E-2</v>
+        <v>0.019814956602559608</v>
       </c>
       <c r="S22" t="s">
         <v>27</v>
       </c>
       <c r="T22">
-        <v>8.1059905997414496</v>
+        <v>8.10599059974145</v>
       </c>
       <c r="U22" t="s">
         <v>27</v>
@@ -1676,19 +1665,19 @@
         <v>27</v>
       </c>
       <c r="X22">
-        <v>1.1753630428607787E-2</v>
+        <v>0.011753704375988772</v>
       </c>
       <c r="Y22" t="s">
         <v>27</v>
       </c>
       <c r="Z22">
-        <v>57.117856681940374</v>
+        <v>57.118216036093514</v>
       </c>
       <c r="AA22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27">
       <c r="P23">
         <v>1.8453378879310343</v>
       </c>
@@ -1696,13 +1685,13 @@
         <v>27</v>
       </c>
       <c r="R23">
-        <v>2.0847727544712608E-2</v>
+        <v>0.020849896154662595</v>
       </c>
       <c r="S23" t="s">
         <v>27</v>
       </c>
       <c r="T23">
-        <v>8.5112901297285237</v>
+        <v>8.511290129728524</v>
       </c>
       <c r="U23" t="s">
         <v>27</v>
@@ -1714,27 +1703,27 @@
         <v>27</v>
       </c>
       <c r="X23">
-        <v>1.1802594715982061E-2</v>
+        <v>0.011801580873467277</v>
       </c>
       <c r="Y23" t="s">
         <v>27</v>
       </c>
       <c r="Z23">
-        <v>57.355803175644134</v>
+        <v>57.3508763139558</v>
       </c>
       <c r="AA23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27">
       <c r="P24">
-        <v>1.9332111206896549</v>
+        <v>1.933211120689655</v>
       </c>
       <c r="Q24" t="s">
         <v>27</v>
       </c>
       <c r="R24">
-        <v>2.1887012277113954E-2</v>
+        <v>0.021889042647022183</v>
       </c>
       <c r="S24" t="s">
         <v>27</v>
@@ -1752,19 +1741,19 @@
         <v>27</v>
       </c>
       <c r="X24">
-        <v>1.1851592810491604E-2</v>
+        <v>0.011849454586296604</v>
       </c>
       <c r="Y24" t="s">
         <v>27</v>
       </c>
       <c r="Z24">
-        <v>57.593913958255811</v>
+        <v>57.58352305955726</v>
       </c>
       <c r="AA24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27">
       <c r="P25">
         <v>2.0210843534482756</v>
       </c>
@@ -1772,13 +1761,13 @@
         <v>27</v>
       </c>
       <c r="R25">
-        <v>2.2930603954672103E-2</v>
+        <v>0.02293239583495188</v>
       </c>
       <c r="S25" t="s">
         <v>27</v>
       </c>
       <c r="T25">
-        <v>9.3218891897026683</v>
+        <v>9.321889189702668</v>
       </c>
       <c r="U25" t="s">
         <v>27</v>
@@ -1790,19 +1779,19 @@
         <v>27</v>
       </c>
       <c r="X25">
-        <v>1.1900620382172733E-2</v>
+        <v>0.011897325514692136</v>
       </c>
       <c r="Y25" t="s">
         <v>27</v>
       </c>
       <c r="Z25">
-        <v>57.832167987915483</v>
+        <v>57.816156273944564</v>
       </c>
       <c r="AA25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27">
       <c r="P26">
         <v>2.1089575862068966</v>
       </c>
@@ -1810,13 +1799,13 @@
         <v>27</v>
       </c>
       <c r="R26">
-        <v>2.397850500247108E-2</v>
+        <v>0.023979955473784287</v>
       </c>
       <c r="S26" t="s">
         <v>27</v>
       </c>
       <c r="T26">
-        <v>9.7271887196897424</v>
+        <v>9.727188719689742</v>
       </c>
       <c r="U26" t="s">
         <v>27</v>
@@ -1828,19 +1817,19 @@
         <v>27</v>
       </c>
       <c r="X26">
-        <v>1.1949673772718645E-2</v>
+        <v>0.01194519365887059</v>
       </c>
       <c r="Y26" t="s">
         <v>27</v>
       </c>
       <c r="Z26">
-        <v>58.070547486742086</v>
+        <v>58.048775958170864</v>
       </c>
       <c r="AA26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27">
       <c r="P27">
         <v>2.196830818965517</v>
       </c>
@@ -1848,7 +1837,7 @@
         <v>27</v>
       </c>
       <c r="R27">
-        <v>2.5030717549099031E-2</v>
+        <v>0.025031721318871547</v>
       </c>
       <c r="S27" t="s">
         <v>27</v>
@@ -1866,27 +1855,27 @@
         <v>27</v>
       </c>
       <c r="X27">
-        <v>1.1998749874226944E-2</v>
+        <v>0.011993059019047791</v>
       </c>
       <c r="Y27" t="s">
         <v>27</v>
       </c>
       <c r="Z27">
-        <v>58.309037351595812</v>
+        <v>58.28138211328499</v>
       </c>
       <c r="AA27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27">
       <c r="P28">
-        <v>2.2847040517241379</v>
+        <v>2.284704051724138</v>
       </c>
       <c r="Q28" t="s">
         <v>27</v>
       </c>
       <c r="R28">
-        <v>2.6087243470617083E-2</v>
+        <v>0.026087693125582234</v>
       </c>
       <c r="S28" t="s">
         <v>27</v>
@@ -1904,19 +1893,19 @@
         <v>27</v>
       </c>
       <c r="X28">
-        <v>1.2047846032737093E-2</v>
+        <v>0.012040921595438903</v>
       </c>
       <c r="Y28" t="s">
         <v>27</v>
       </c>
       <c r="Z28">
-        <v>58.547624685309415</v>
+        <v>58.51397474033254</v>
       </c>
       <c r="AA28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27">
       <c r="P29">
         <v>2.3725772844827584</v>
       </c>
@@ -1924,7 +1913,7 @@
         <v>27</v>
       </c>
       <c r="R29">
-        <v>2.7148084426929071E-2</v>
+        <v>0.02714787064930624</v>
       </c>
       <c r="S29" t="s">
         <v>27</v>
@@ -1942,19 +1931,19 @@
         <v>27</v>
       </c>
       <c r="X29">
-        <v>1.2096959970930255E-2</v>
+        <v>0.012088781388260417</v>
       </c>
       <c r="Y29" t="s">
         <v>27</v>
       </c>
       <c r="Z29">
-        <v>58.786298421040861</v>
+        <v>58.74655384036558</v>
       </c>
       <c r="AA29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27">
       <c r="P30">
         <v>2.4604505172413793</v>
       </c>
@@ -1962,7 +1951,7 @@
         <v>27</v>
       </c>
       <c r="R30">
-        <v>2.8213241892041663E-2</v>
+        <v>0.0282122536454521</v>
       </c>
       <c r="S30" t="s">
         <v>27</v>
@@ -1980,19 +1969,19 @@
         <v>27</v>
       </c>
       <c r="X30">
-        <v>1.2146089725761401E-2</v>
+        <v>0.012136638397728383</v>
       </c>
       <c r="Y30" t="s">
         <v>27</v>
       </c>
       <c r="Z30">
-        <v>59.025049019190881</v>
+        <v>58.97911941443403</v>
       </c>
       <c r="AA30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27">
       <c r="P31">
         <v>2.5483237499999998</v>
       </c>
@@ -2000,7 +1989,7 @@
         <v>27</v>
       </c>
       <c r="R31">
-        <v>2.9282717179379445E-2</v>
+        <v>0.029280841869446572</v>
       </c>
       <c r="S31" t="s">
         <v>27</v>
@@ -2018,13 +2007,13 @@
         <v>27</v>
       </c>
       <c r="X31">
-        <v>1.2195233597815831E-2</v>
+        <v>0.012184492624057519</v>
       </c>
       <c r="Y31" t="s">
         <v>27</v>
       </c>
       <c r="Z31">
-        <v>59.263868221296164</v>
+        <v>59.211671463581325</v>
       </c>
       <c r="AA31" t="s">
         <v>27</v>
@@ -2036,14 +2025,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FB242A-B514-4289-AA38-92A627ACEE7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2126,256 +2115,256 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C2">
-        <v>1.01325E-3</v>
+        <v>0.00101325</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E2">
-        <v>4.6734339441849319E-3</v>
+        <v>0.004673433944184932</v>
       </c>
       <c r="F2">
         <v>0.21681059625562235</v>
       </c>
       <c r="G2">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I2">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K2">
-        <v>1.0970227161978857E-5</v>
+        <v>1.0938630875781951e-5</v>
       </c>
       <c r="L2">
-        <v>1.0826772427316909E-2</v>
+        <v>0.010795589317327492</v>
       </c>
       <c r="M2">
-        <v>5.0036246846626292E-4</v>
+        <v>1.7124092564063638</v>
       </c>
       <c r="N2">
-        <v>52.613704300784306</v>
+        <v>52.46216708697694</v>
       </c>
       <c r="O2">
-        <v>2.4975556773491503</v>
+        <v>8321.611548939012</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q2">
-        <v>1.01325E-3</v>
+        <v>0.00101325</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S2">
-        <v>1.0970227161978857E-5</v>
+        <v>1.0938630875781951e-5</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U2">
-        <v>4.6734339441849319E-3</v>
+        <v>0.004673433944184932</v>
       </c>
       <c r="V2">
         <v>0.21681059625562235</v>
       </c>
       <c r="W2">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X2">
-        <v>1.0826772427316909E-2</v>
+        <v>0.010795589317327492</v>
       </c>
       <c r="Y2">
-        <v>5.0036246846626292E-4</v>
+        <v>1.7124092564063638</v>
       </c>
       <c r="Z2">
-        <v>52.613704300784306</v>
+        <v>52.46216708697694</v>
       </c>
       <c r="AA2">
-        <v>2.4975556773491503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8321.611548939012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.43975049999999999</v>
+        <v>0.4397505</v>
       </c>
       <c r="C3">
-        <v>1.01325E-3</v>
+        <v>0.00101325</v>
       </c>
       <c r="D3">
         <v>2.0282703317762607</v>
       </c>
       <c r="E3">
-        <v>2.2478706378621635E-2</v>
+        <v>0.022478706378621635</v>
       </c>
       <c r="F3">
         <v>0.21681059625562235</v>
       </c>
       <c r="G3">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="H3">
-        <v>4.7780000000000001E-3</v>
+        <v>0.004778</v>
       </c>
       <c r="I3">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="J3">
-        <v>4.804221165084185E-3</v>
+        <v>0.004800103872732109</v>
       </c>
       <c r="K3">
-        <v>1.4160087320717229E-4</v>
+        <v>0.7529962860656916</v>
       </c>
       <c r="L3">
-        <v>1.1032924745666518E-2</v>
+        <v>0.011035432198053252</v>
       </c>
       <c r="M3">
-        <v>2.2499503037216751E-4</v>
+        <v>1.7122430881307247</v>
       </c>
       <c r="N3">
-        <v>53.615520603046363</v>
+        <v>53.62770580037176</v>
       </c>
       <c r="O3">
-        <v>1.2382675276542505</v>
+        <v>8320.804039674073</v>
       </c>
       <c r="P3">
-        <v>8.7873232758620676E-2</v>
+        <v>0.08787323275862068</v>
       </c>
       <c r="Q3">
-        <v>9.7893406841331135E-4</v>
+        <v>0.0009789340684133114</v>
       </c>
       <c r="R3">
-        <v>9.5290239137718104E-4</v>
+        <v>0.0009507493335303291</v>
       </c>
       <c r="S3">
-        <v>4.0581954757315434E-5</v>
+        <v>0.1504734782669294</v>
       </c>
       <c r="T3">
-        <v>0.40529952998707253</v>
+        <v>0.4052995299870725</v>
       </c>
       <c r="U3">
-        <v>6.3000724689699032E-3</v>
+        <v>0.006300072468969903</v>
       </c>
       <c r="V3">
         <v>0.21681059625562235</v>
       </c>
       <c r="W3">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X3">
-        <v>1.0862187843442077E-2</v>
+        <v>0.010843521553172808</v>
       </c>
       <c r="Y3">
-        <v>3.9993280049740879E-4</v>
+        <v>1.7123760440560847</v>
       </c>
       <c r="Z3">
-        <v>52.785808798612074</v>
+        <v>52.695098230599946</v>
       </c>
       <c r="AA3">
-        <v>2.0259999723859274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8321.450150617235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.91597799999999985</v>
+        <v>0.9159779999999998</v>
       </c>
       <c r="C4">
-        <v>1.01325E-3</v>
+        <v>0.00101325</v>
       </c>
       <c r="D4">
-        <v>4.2247842855431781</v>
+        <v>4.224784285543178</v>
       </c>
       <c r="E4">
-        <v>4.6036726925799798E-2</v>
+        <v>0.0460367269257998</v>
       </c>
       <c r="F4">
         <v>0.21681059625562235</v>
       </c>
       <c r="G4">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="H4">
-        <v>1.01E-2</v>
+        <v>0.0101</v>
       </c>
       <c r="I4">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="J4">
-        <v>1.0118667077756938E-2</v>
+        <v>0.010117311770503568</v>
       </c>
       <c r="K4">
-        <v>2.2241789489292033E-4</v>
+        <v>1.5683706966326942</v>
       </c>
       <c r="L4">
-        <v>1.1288121853328314E-2</v>
+        <v>0.01129509112805449</v>
       </c>
       <c r="M4">
-        <v>1.5924175644416221E-4</v>
+        <v>1.7120632454637865</v>
       </c>
       <c r="N4">
-        <v>54.855674605642378</v>
+        <v>54.889542442257174</v>
       </c>
       <c r="O4">
-        <v>0.97594564444664689</v>
+        <v>8319.93007853106</v>
       </c>
       <c r="P4">
         <v>0.17574646551724135</v>
       </c>
       <c r="Q4">
-        <v>9.4595527173051055E-4</v>
+        <v>0.0009459552717305105</v>
       </c>
       <c r="R4">
-        <v>1.9091090890199858E-3</v>
+        <v>0.001905710505038155</v>
       </c>
       <c r="S4">
-        <v>7.1756978220902483E-5</v>
+        <v>0.3009440376121977</v>
       </c>
       <c r="T4">
-        <v>0.81059905997414505</v>
+        <v>0.810599059974145</v>
       </c>
       <c r="U4">
-        <v>9.8108739466433604E-3</v>
+        <v>0.00981087394664336</v>
       </c>
       <c r="V4">
         <v>0.21681059625562235</v>
       </c>
       <c r="W4">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X4">
-        <v>1.0901666498460942E-2</v>
+        <v>0.010891451000045294</v>
       </c>
       <c r="Y4">
-        <v>3.3402885889662547E-4</v>
+        <v>1.7123428355726429</v>
       </c>
       <c r="Z4">
-        <v>52.977658982524169</v>
+        <v>52.928015820950925</v>
       </c>
       <c r="AA4">
-        <v>1.7218446529028988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8321.28877108747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2383,165 +2372,165 @@
         <v>1.2969600000000001</v>
       </c>
       <c r="C5">
-        <v>1.01325E-3</v>
+        <v>0.00101325</v>
       </c>
       <c r="D5">
-        <v>5.9819954485567139</v>
+        <v>5.981995448556714</v>
       </c>
       <c r="E5">
-        <v>6.501618328409213E-2</v>
+        <v>0.06501618328409213</v>
       </c>
       <c r="F5">
         <v>0.21681059625562235</v>
       </c>
       <c r="G5">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="H5">
-        <v>1.4579999999999999E-2</v>
+        <v>0.01458</v>
       </c>
       <c r="I5">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="J5">
-        <v>1.445910479836697E-2</v>
+        <v>0.01446009876601928</v>
       </c>
       <c r="K5">
-        <v>2.7188428311247131E-4</v>
+        <v>2.220608567792961</v>
       </c>
       <c r="L5">
-        <v>1.1497836990041721E-2</v>
+        <v>0.011502759335172863</v>
       </c>
       <c r="M5">
-        <v>1.5816831093891232E-4</v>
+        <v>1.7119194529871855</v>
       </c>
       <c r="N5">
-        <v>55.874804754032517</v>
+        <v>55.89872534652072</v>
       </c>
       <c r="O5">
-        <v>0.9786139082253773</v>
+        <v>8319.23130645228</v>
       </c>
       <c r="P5">
         <v>0.26361969827586207</v>
       </c>
       <c r="Q5">
-        <v>9.1445828770016593E-4</v>
+        <v>0.0009144582877001659</v>
       </c>
       <c r="R5">
-        <v>2.868907948488987E-3</v>
+        <v>0.002864883269456886</v>
       </c>
       <c r="S5">
-        <v>9.8302684403602688E-5</v>
+        <v>0.4514116790381079</v>
       </c>
       <c r="T5">
         <v>1.2158985899612178</v>
       </c>
       <c r="U5">
-        <v>1.3839363723763418E-2</v>
+        <v>0.013839363723763418</v>
       </c>
       <c r="V5">
         <v>0.21681059625562235</v>
       </c>
       <c r="W5">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X5">
-        <v>1.0943765255035796E-2</v>
+        <v>0.010939377658161886</v>
       </c>
       <c r="Y5">
-        <v>2.8710348621928725E-4</v>
+        <v>1.7123096309554384</v>
       </c>
       <c r="Z5">
-        <v>53.182241792842738</v>
+        <v>53.16091985908412</v>
       </c>
       <c r="AA5">
-        <v>1.5096288792435422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8321.12741034681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.7225250000000001</v>
+        <v>1.722525</v>
       </c>
       <c r="C6">
-        <v>1.01325E-3</v>
+        <v>0.00101325</v>
       </c>
       <c r="D6">
-        <v>7.9448377051143853</v>
+        <v>7.944837705114385</v>
       </c>
       <c r="E6">
-        <v>8.6252953131432913E-2</v>
+        <v>0.08625295313143291</v>
       </c>
       <c r="F6">
         <v>0.21681059625562235</v>
       </c>
       <c r="G6">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="H6">
-        <v>1.9299999999999998E-2</v>
+        <v>0.019299999999999998</v>
       </c>
       <c r="I6">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="J6">
-        <v>1.9402419141428311E-2</v>
+        <v>0.019404618799188977</v>
       </c>
       <c r="K6">
-        <v>3.263072630243367E-4</v>
+        <v>2.9491073773360066</v>
       </c>
       <c r="L6">
-        <v>1.1734172033610058E-2</v>
+        <v>0.01173466722150307</v>
       </c>
       <c r="M6">
-        <v>1.7918475167923804E-4</v>
+        <v>1.711758919488349</v>
       </c>
       <c r="N6">
-        <v>57.023296807568634</v>
+        <v>57.025703219040864</v>
       </c>
       <c r="O6">
-        <v>1.0678748598622436</v>
+        <v>8318.451179933523</v>
       </c>
       <c r="P6">
         <v>0.3514929310344827</v>
       </c>
       <c r="Q6">
-        <v>8.8460141407673758E-4</v>
+        <v>0.0008846014140767376</v>
       </c>
       <c r="R6">
-        <v>3.8324885525932691E-3</v>
+        <v>0.00382826738173897</v>
       </c>
       <c r="S6">
-        <v>1.2124173160846076E-4</v>
+        <v>0.6018764027425015</v>
       </c>
       <c r="T6">
-        <v>1.6211981199482901</v>
+        <v>1.62119811994829</v>
       </c>
       <c r="U6">
-        <v>1.8042037999055221E-2</v>
+        <v>0.01804203799905522</v>
       </c>
       <c r="V6">
         <v>0.21681059625562235</v>
       </c>
       <c r="W6">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X6">
-        <v>1.0987629107014207E-2</v>
+        <v>0.010987301527738191</v>
       </c>
       <c r="Y6">
-        <v>2.5201385123376077E-4</v>
+        <v>1.712276430203871</v>
       </c>
       <c r="Z6">
-        <v>53.395402247907136</v>
+        <v>53.39381034604727</v>
       </c>
       <c r="AA6">
-        <v>1.3545854969037572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8320.96606839233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2549,10 +2538,10 @@
         <v>2.144037</v>
       </c>
       <c r="C7">
-        <v>1.01325E-3</v>
+        <v>0.00101325</v>
       </c>
       <c r="D7">
-        <v>9.8889862258953158</v>
+        <v>9.888986225895316</v>
       </c>
       <c r="E7">
         <v>0.10730367015276393</v>
@@ -2561,70 +2550,70 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="G7">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="H7">
-        <v>2.4399999999999998E-2</v>
+        <v>0.024399999999999998</v>
       </c>
       <c r="I7">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="J7">
-        <v>2.4398036125788659E-2</v>
+        <v>0.024399321022261056</v>
       </c>
       <c r="K7">
-        <v>3.8789572648190108E-4</v>
+        <v>3.6706007580621187</v>
       </c>
       <c r="L7">
-        <v>1.1969262620789484E-2</v>
+        <v>0.011964302072882793</v>
       </c>
       <c r="M7">
-        <v>2.0924562629670435E-4</v>
+        <v>1.7116000040240604</v>
       </c>
       <c r="N7">
-        <v>58.165741309916164</v>
+        <v>58.141635067498626</v>
       </c>
       <c r="O7">
-        <v>1.1964827624141054</v>
+        <v>8317.678916412666</v>
       </c>
       <c r="P7">
         <v>0.43936616379310345</v>
       </c>
       <c r="Q7">
-        <v>8.5655617541634493E-4</v>
+        <v>0.0008565561754163449</v>
       </c>
       <c r="R7">
-        <v>4.7999808509534203E-3</v>
+        <v>0.00479586259685616</v>
       </c>
       <c r="S7">
-        <v>1.4139184914662019E-4</v>
+        <v>0.7523382090026965</v>
       </c>
       <c r="T7">
-        <v>2.0264976499353629</v>
+        <v>2.026497649935363</v>
       </c>
       <c r="U7">
-        <v>2.2320723291128507E-2</v>
+        <v>0.022320723291128507</v>
       </c>
       <c r="V7">
         <v>0.21681059625562235</v>
       </c>
       <c r="W7">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X7">
-        <v>1.1032725355541119E-2</v>
+        <v>0.011035222608991146</v>
       </c>
       <c r="Y7">
-        <v>2.2509804144560543E-4</v>
+        <v>1.7122432333173405</v>
       </c>
       <c r="Z7">
-        <v>53.614551648247634</v>
+        <v>53.626687282894615</v>
       </c>
       <c r="AA7">
-        <v>1.238704641531797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8320.80474522112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2632,7 +2621,7 @@
         <v>2.5483237499999998</v>
       </c>
       <c r="C8">
-        <v>1.01325E-3</v>
+        <v>0.00101325</v>
       </c>
       <c r="D8">
         <v>11.753686369625104</v>
@@ -2644,692 +2633,692 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="G8">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="H8">
-        <v>2.9300000000000003E-2</v>
+        <v>0.029300000000000003</v>
       </c>
       <c r="I8">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="J8">
-        <v>2.9282717179379445E-2</v>
+        <v>0.029280841869446572</v>
       </c>
       <c r="K8">
-        <v>4.5915651623271614E-4</v>
+        <v>4.3625470944131495</v>
       </c>
       <c r="L8">
-        <v>1.2195233597815831E-2</v>
+        <v>0.012184492624057519</v>
       </c>
       <c r="M8">
-        <v>2.4156514684977849E-4</v>
+        <v>1.7114476659933757</v>
       </c>
       <c r="N8">
-        <v>59.263868221296164</v>
+        <v>59.211671463581325</v>
       </c>
       <c r="O8">
-        <v>1.3382095303525503</v>
+        <v>8316.938616519421</v>
       </c>
       <c r="P8">
-        <v>0.52723939655172414</v>
+        <v>0.5272393965517241</v>
       </c>
       <c r="Q8">
-        <v>8.305061225032949E-4</v>
+        <v>0.0008305061225032949</v>
       </c>
       <c r="R8">
-        <v>5.7714768976044216E-3</v>
+        <v>0.005767668669798498</v>
       </c>
       <c r="S8">
-        <v>1.5935329775997406E-4</v>
+        <v>0.9027970981092219</v>
       </c>
       <c r="T8">
         <v>2.4317971799224356</v>
       </c>
       <c r="U8">
-        <v>2.6638818433217738E-2</v>
+        <v>0.026638818433217738</v>
       </c>
       <c r="V8">
         <v>0.21681059625562235</v>
       </c>
       <c r="W8">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X8">
-        <v>1.1078708086302728E-2</v>
+        <v>0.011083140902136801</v>
       </c>
       <c r="Y8">
-        <v>2.0427240566225593E-4</v>
+        <v>1.7122100402952471</v>
       </c>
       <c r="Z8">
-        <v>53.838008991188524</v>
+        <v>53.859550670676064</v>
       </c>
       <c r="AA8">
-        <v>1.1515389269846978</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8320.643440830263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="P9">
-        <v>0.61511262931034483</v>
+        <v>0.6151126293103448</v>
       </c>
       <c r="Q9">
-        <v>8.0664457811436879E-4</v>
+        <v>0.0008066445781143688</v>
       </c>
       <c r="R9">
-        <v>6.7470437261138508E-3</v>
+        <v>0.006743685355575679</v>
       </c>
       <c r="S9">
-        <v>1.7557871429584948E-4</v>
+        <v>1.0532530703563527</v>
       </c>
       <c r="T9">
-        <v>2.8370967099095079</v>
+        <v>2.837096709909508</v>
       </c>
       <c r="U9">
-        <v>3.0979848498593338E-2</v>
+        <v>0.030979848498593338</v>
       </c>
       <c r="V9">
         <v>0.21681059625562235</v>
       </c>
       <c r="W9">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X9">
-        <v>1.1125344752966839E-2</v>
+        <v>0.011131056407390982</v>
       </c>
       <c r="Y9">
-        <v>1.8823580440906115E-4</v>
+        <v>1.712176851136991</v>
       </c>
       <c r="Z9">
-        <v>54.064644196270393</v>
+        <v>54.09240051044044</v>
       </c>
       <c r="AA9">
-        <v>1.0864009978792799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8320.482155216845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="P10">
-        <v>0.70298586206896541</v>
+        <v>0.7029858620689654</v>
       </c>
       <c r="Q10">
-        <v>7.8517109555906791E-4</v>
+        <v>0.0007851710955590679</v>
       </c>
       <c r="R10">
-        <v>7.7267313094688417E-3</v>
+        <v>0.007723912409216438</v>
       </c>
       <c r="S10">
-        <v>1.9042088147761885E-4</v>
+        <v>1.2037061260397421</v>
       </c>
       <c r="T10">
-        <v>3.2423962398965802</v>
+        <v>3.24239623989658</v>
       </c>
       <c r="U10">
-        <v>3.5335361674570291E-2</v>
+        <v>0.03533536167457029</v>
       </c>
       <c r="V10">
         <v>0.21681059625562235</v>
       </c>
       <c r="W10">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X10">
-        <v>1.1172474347284772E-2</v>
+        <v>0.01117896912497085</v>
       </c>
       <c r="Y10">
-        <v>1.7610516310722924E-4</v>
+        <v>1.7121436658419722</v>
       </c>
       <c r="Z10">
-        <v>54.293674828982617</v>
+        <v>54.325236803243065</v>
       </c>
       <c r="AA10">
-        <v>1.0386576866094279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8320.320888377946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="P11">
-        <v>0.79085909482758621</v>
+        <v>0.7908590948275862</v>
       </c>
       <c r="Q11">
-        <v>7.6628646158979896E-4</v>
+        <v>0.000766286461589799</v>
       </c>
       <c r="R11">
-        <v>8.7105776629628467E-3</v>
+        <v>0.00870834958576805</v>
       </c>
       <c r="S11">
-        <v>2.041629633125013E-4</v>
+        <v>1.3541562654556343</v>
       </c>
       <c r="T11">
         <v>3.647695769883653</v>
       </c>
       <c r="U11">
-        <v>3.970059146346093E-2</v>
+        <v>0.03970059146346093</v>
       </c>
       <c r="V11">
         <v>0.21681059625562235</v>
       </c>
       <c r="W11">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X11">
-        <v>1.1219982527915964E-2</v>
+        <v>0.011226879055092231</v>
       </c>
       <c r="Y11">
-        <v>1.6723321377307544E-4</v>
+        <v>1.7121104844095913</v>
       </c>
       <c r="Z11">
-        <v>54.524545236980778</v>
+        <v>54.55805955013277</v>
       </c>
       <c r="AA11">
-        <v>1.0049014937342025</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8320.159640310658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="P12">
         <v>0.8787323275862069</v>
       </c>
       <c r="Q12">
-        <v>7.5018621097996117E-4</v>
+        <v>0.0007501862109799612</v>
       </c>
       <c r="R12">
-        <v>9.6986122189107425E-3</v>
+        <v>0.009696996640297328</v>
       </c>
       <c r="S12">
-        <v>2.1703802586467519E-4</v>
+        <v>1.5046034889005464</v>
       </c>
       <c r="T12">
-        <v>4.0529952998707257</v>
+        <v>4.052995299870726</v>
       </c>
       <c r="U12">
-        <v>4.4072650778272944E-2</v>
+        <v>0.044072650778272944</v>
       </c>
       <c r="V12">
         <v>0.21681059625562235</v>
       </c>
       <c r="W12">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X12">
-        <v>1.1267786282330218E-2</v>
+        <v>0.011274786197971176</v>
       </c>
       <c r="Y12">
-        <v>1.6111142356634164E-4</v>
+        <v>1.7120773068392487</v>
       </c>
       <c r="Z12">
-        <v>54.756852013178722</v>
+        <v>54.79086875215946</v>
       </c>
       <c r="AA12">
-        <v>0.98251799540206963</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8319.998411012066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="P13">
-        <v>0.96660556034482747</v>
+        <v>0.9666055603448275</v>
       </c>
       <c r="Q13">
-        <v>7.3705283330803084E-4</v>
+        <v>0.0007370528333080308</v>
       </c>
       <c r="R13">
-        <v>1.0690858119527859E-2</v>
+        <v>0.010689853327888965</v>
       </c>
       <c r="S13">
-        <v>2.2924204520614482E-4</v>
+        <v>1.6550477966711277</v>
       </c>
       <c r="T13">
         <v>4.458294829857798</v>
       </c>
       <c r="U13">
-        <v>4.8449690782270419E-2</v>
+        <v>0.04844969078227042</v>
       </c>
       <c r="V13">
         <v>0.21681059625562235</v>
       </c>
       <c r="W13">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X13">
-        <v>1.1315824163436671E-2</v>
+        <v>0.011322690553823955</v>
       </c>
       <c r="Y13">
-        <v>1.5731748442451932E-4</v>
+        <v>1.7120441331303455</v>
       </c>
       <c r="Z13">
-        <v>54.990296549742006</v>
+        <v>55.02366441037413</v>
       </c>
       <c r="AA13">
-        <v>0.96944434097386467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8319.837200479255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="P14">
         <v>1.0544787931034483</v>
       </c>
       <c r="Q14">
-        <v>7.2704712711390987E-4</v>
+        <v>0.0007270471271139099</v>
       </c>
       <c r="R14">
-        <v>1.1687333812058049E-2</v>
+        <v>0.011686919403648632</v>
       </c>
       <c r="S14">
-        <v>2.4094282855115459E-4</v>
+        <v>1.8054891890640863</v>
       </c>
       <c r="T14">
-        <v>4.8635943598448712</v>
+        <v>4.863594359844871</v>
       </c>
       <c r="U14">
-        <v>5.283047352968432E-2</v>
+        <v>0.05283047352968432</v>
       </c>
       <c r="V14">
         <v>0.21681059625562235</v>
       </c>
       <c r="W14">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X14">
-        <v>1.1364049900053137E-2</v>
+        <v>0.011370592122867285</v>
       </c>
       <c r="Y14">
-        <v>1.554881185260411E-4</v>
+        <v>1.7120109632822813</v>
       </c>
       <c r="Z14">
-        <v>55.224653987571251</v>
+        <v>55.25644652582993</v>
       </c>
       <c r="AA14">
-        <v>0.96402491812719748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8319.676008709315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="P15">
         <v>1.142352025862069</v>
       </c>
       <c r="Q15">
-        <v>7.2029944399260265E-4</v>
+        <v>0.0007202994439926026</v>
       </c>
       <c r="R15">
-        <v>1.2688054181916222E-2</v>
+        <v>0.012688194622698878</v>
       </c>
       <c r="S15">
-        <v>2.5228627512983401E-4</v>
+        <v>1.9559276663761502</v>
       </c>
       <c r="T15">
         <v>5.2688938898319435</v>
       </c>
       <c r="U15">
-        <v>5.7214139301773763E-2</v>
+        <v>0.05721413930177376</v>
       </c>
       <c r="V15">
         <v>0.21681059625562235</v>
       </c>
       <c r="W15">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X15">
-        <v>1.1412428111707239E-2</v>
+        <v>0.011418490905316325</v>
       </c>
       <c r="Y15">
-        <v>1.5530629968983658E-4</v>
+        <v>1.7119777972944574</v>
       </c>
       <c r="Z15">
-        <v>55.459752391980999</v>
+        <v>55.48921509957244</v>
       </c>
       <c r="AA15">
-        <v>0.96491842199254052</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+        <v>8319.51483569933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="P16">
         <v>1.2302252586206897</v>
       </c>
       <c r="Q16">
-        <v>7.1690178616166348E-4</v>
+        <v>0.0007169017861616635</v>
       </c>
       <c r="R16">
-        <v>1.369303137275903E-2</v>
+        <v>0.013693678740182458</v>
       </c>
       <c r="S16">
-        <v>2.6340084676901797E-4</v>
+        <v>2.1063632289040473</v>
       </c>
       <c r="T16">
-        <v>5.6741934198190158</v>
+        <v>5.674193419819016</v>
       </c>
       <c r="U16">
-        <v>6.1600072604777914E-2</v>
+        <v>0.061600072604777914</v>
       </c>
       <c r="V16">
         <v>0.21681059625562235</v>
       </c>
       <c r="W16">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X16">
-        <v>1.1460931371436932E-2</v>
+        <v>0.011466386901387793</v>
       </c>
       <c r="Y16">
-        <v>1.5649582983498346E-4</v>
+        <v>1.7119446351662748</v>
       </c>
       <c r="Z16">
-        <v>55.695458479106605</v>
+        <v>55.721970132654846</v>
       </c>
       <c r="AA16">
-        <v>0.97103321205946458</v>
-      </c>
-    </row>
-    <row r="17" spans="16:27" x14ac:dyDescent="0.25">
+        <v>8319.353681446393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="P17">
         <v>1.3180984913793103</v>
       </c>
       <c r="Q17">
-        <v>7.1690178616166348E-4</v>
+        <v>0.0007169017861616635</v>
       </c>
       <c r="R17">
-        <v>1.4702275389955147E-2</v>
+        <v>0.014703371511261443</v>
       </c>
       <c r="S17">
-        <v>2.7440080024256785E-4</v>
+        <v>2.25679587694449</v>
       </c>
       <c r="T17">
-        <v>6.0794929498060881</v>
+        <v>6.079492949806088</v>
       </c>
       <c r="U17">
-        <v>6.5987821300480046E-2</v>
+        <v>0.06598782130048005</v>
       </c>
       <c r="V17">
         <v>0.21681059625562235</v>
       </c>
       <c r="W17">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X17">
-        <v>1.1509538152883496E-2</v>
+        <v>0.01151428011129818</v>
       </c>
       <c r="Y17">
-        <v>1.5881873664614347E-4</v>
+        <v>1.7119114768971344</v>
       </c>
       <c r="Z17">
-        <v>55.931667639612265</v>
+        <v>55.954711626129175</v>
       </c>
       <c r="AA17">
-        <v>0.98147914057494723</v>
-      </c>
-    </row>
-    <row r="18" spans="16:27" x14ac:dyDescent="0.25">
+        <v>8319.19254594759</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="P18">
         <v>1.4059717241379308</v>
       </c>
       <c r="Q18">
-        <v>7.2029944399260265E-4</v>
+        <v>0.0007202994439926026</v>
       </c>
       <c r="R18">
-        <v>1.5715794551385182E-2</v>
+        <v>0.015717272691115447</v>
       </c>
       <c r="S18">
-        <v>2.8538854552083762E-4</v>
+        <v>2.4072256107941676</v>
       </c>
       <c r="T18">
-        <v>6.4847924797931604</v>
+        <v>6.48479247979316</v>
       </c>
       <c r="U18">
-        <v>7.0377045840624097E-2</v>
+        <v>0.0703770458406241</v>
       </c>
       <c r="V18">
         <v>0.21681059625562235</v>
       </c>
       <c r="W18">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X18">
-        <v>1.155823137000056E-2</v>
+        <v>0.011562170535263094</v>
       </c>
       <c r="Y18">
-        <v>1.620730002642808E-4</v>
+        <v>1.7118783224864371</v>
       </c>
       <c r="Z18">
-        <v>56.168296842271694</v>
+        <v>56.18743958104322</v>
       </c>
       <c r="AA18">
-        <v>0.99552980606562569</v>
-      </c>
-    </row>
-    <row r="19" spans="16:27" x14ac:dyDescent="0.25">
+        <v>8319.031429200011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="P19">
         <v>1.4938449568965515</v>
       </c>
       <c r="Q19">
-        <v>7.2704712711390976E-4</v>
+        <v>0.0007270471271139098</v>
       </c>
       <c r="R19">
-        <v>1.6733595828809077E-2</v>
+        <v>0.01673538203494429</v>
       </c>
       <c r="S19">
-        <v>2.9645637884013912E-4</v>
+        <v>2.557652430749743</v>
       </c>
       <c r="T19">
-        <v>6.8900920097802327</v>
+        <v>6.890092009780233</v>
       </c>
       <c r="U19">
-        <v>7.4767486307361991E-2</v>
+        <v>0.07476748630736199</v>
       </c>
       <c r="V19">
         <v>0.21681059625562235</v>
       </c>
       <c r="W19">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X19">
-        <v>1.1606997321636449E-2</v>
+        <v>0.011610058173498361</v>
       </c>
       <c r="Y19">
-        <v>1.6608963946940781E-4</v>
+        <v>1.7118451719335848</v>
       </c>
       <c r="Z19">
-        <v>56.405279505068172</v>
+        <v>56.42015399844579</v>
       </c>
       <c r="AA19">
-        <v>1.0125920939184143</v>
-      </c>
-    </row>
-    <row r="20" spans="16:27" x14ac:dyDescent="0.25">
+        <v>8318.87033120075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="P20">
         <v>1.5817181896551724</v>
       </c>
       <c r="Q20">
-        <v>7.3705283330803084E-4</v>
+        <v>0.0007370528333080308</v>
       </c>
       <c r="R20">
-        <v>1.7755685109588248E-2</v>
+        <v>0.017757699297966667</v>
       </c>
       <c r="S20">
-        <v>3.0768776623283912E-4</v>
+        <v>2.708076337107845</v>
       </c>
       <c r="T20">
-        <v>7.2953915397673059</v>
+        <v>7.295391539767306</v>
       </c>
       <c r="U20">
-        <v>7.9158940381923143E-2</v>
+        <v>0.07915894038192314</v>
       </c>
       <c r="V20">
         <v>0.21681059625562235</v>
       </c>
       <c r="W20">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X20">
-        <v>1.1655824917602892E-2</v>
+        <v>0.011657943026220474</v>
       </c>
       <c r="Y20">
-        <v>1.7072909786860506E-4</v>
+        <v>1.7118120252379774</v>
       </c>
       <c r="Z20">
-        <v>56.642561734203667</v>
+        <v>56.65285487938896</v>
       </c>
       <c r="AA20">
-        <v>1.0321812783721329</v>
-      </c>
-    </row>
-    <row r="21" spans="16:27" x14ac:dyDescent="0.25">
+        <v>8318.709251946886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="P21">
         <v>1.6695914224137929</v>
       </c>
       <c r="Q21">
-        <v>7.5018621097996117E-4</v>
+        <v>0.0007501862109799612</v>
       </c>
       <c r="R21">
-        <v>1.8782067399630328E-2</v>
+        <v>0.0187842242354197</v>
       </c>
       <c r="S21">
-        <v>3.1915830473794207E-4</v>
+        <v>2.8584973301650685</v>
       </c>
       <c r="T21">
-        <v>7.7006910697543773</v>
+        <v>7.700691069754377</v>
       </c>
       <c r="U21">
-        <v>8.3551248238761838E-2</v>
+        <v>0.08355124823876184</v>
       </c>
       <c r="V21">
         <v>0.21681059625562235</v>
       </c>
       <c r="W21">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X21">
-        <v>1.170470510358927E-2</v>
+        <v>0.011705825093645261</v>
       </c>
       <c r="Y21">
-        <v>1.7587725402740204E-4</v>
+        <v>1.7117788823990174</v>
       </c>
       <c r="Z21">
-        <v>56.880099529416384</v>
+        <v>56.885542224921565</v>
       </c>
       <c r="AA21">
-        <v>1.0539006175357806</v>
-      </c>
-    </row>
-    <row r="22" spans="16:27" x14ac:dyDescent="0.25">
+        <v>8318.548191435524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="P22">
         <v>1.7574646551724138</v>
       </c>
       <c r="Q22">
-        <v>7.6628646158979896E-4</v>
+        <v>0.000766286461589799</v>
       </c>
       <c r="R22">
-        <v>1.981274698240109E-2</v>
+        <v>0.019814956602560052</v>
       </c>
       <c r="S22">
-        <v>3.3093645520774936E-4</v>
+        <v>3.0089154102179743</v>
       </c>
       <c r="T22">
-        <v>8.1059905997414514</v>
+        <v>8.105990599741451</v>
       </c>
       <c r="U22">
-        <v>8.7944281953522038E-2</v>
+        <v>0.08794428195352204</v>
       </c>
       <c r="V22">
         <v>0.21681059625562235</v>
       </c>
       <c r="W22">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X22">
-        <v>1.1753630428607789E-2</v>
+        <v>0.011753704375988772</v>
       </c>
       <c r="Y22">
-        <v>1.8144143151716129E-4</v>
+        <v>1.7117457434161056</v>
       </c>
       <c r="Z22">
-        <v>57.117856681940374</v>
+        <v>57.118216036093514</v>
       </c>
       <c r="AA22">
-        <v>1.0774246742412348</v>
-      </c>
-    </row>
-    <row r="23" spans="16:27" x14ac:dyDescent="0.25">
+        <v>8318.387149663744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="P23">
         <v>1.8453378879310343</v>
       </c>
       <c r="Q23">
-        <v>7.8517109555906791E-4</v>
+        <v>0.0007851710955590679</v>
       </c>
       <c r="R23">
-        <v>2.0847727544712608E-2</v>
+        <v>0.020849896154662595</v>
       </c>
       <c r="S23">
-        <v>3.4308411674625411E-4</v>
+        <v>3.1593305775630824</v>
       </c>
       <c r="T23">
-        <v>8.5112901297285237</v>
+        <v>8.511290129728524</v>
       </c>
       <c r="U23">
-        <v>9.2337937926861915E-2</v>
+        <v>0.09233793792686192</v>
       </c>
       <c r="V23">
         <v>0.21681059625562235</v>
       </c>
       <c r="W23">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X23">
-        <v>1.1802594715982061E-2</v>
+        <v>0.011801580873467277</v>
       </c>
       <c r="Y23">
-        <v>1.873466897375243E-4</v>
+        <v>1.7117126082886442</v>
       </c>
       <c r="Z23">
-        <v>57.355803175644134</v>
+        <v>57.3508763139558</v>
       </c>
       <c r="AA23">
-        <v>1.1024857441393372</v>
-      </c>
-    </row>
-    <row r="24" spans="16:27" x14ac:dyDescent="0.25">
+        <v>8318.226126628644</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="P24">
-        <v>1.9332111206896549</v>
+        <v>1.933211120689655</v>
       </c>
       <c r="Q24">
-        <v>8.0664457811436879E-4</v>
+        <v>0.0008066445781143688</v>
       </c>
       <c r="R24">
-        <v>2.1887012277113954E-2</v>
+        <v>0.021889042647022183</v>
       </c>
       <c r="S24">
-        <v>3.5565709498889885E-4</v>
+        <v>3.3097428324968785</v>
       </c>
       <c r="T24">
         <v>8.916589659715596</v>
       </c>
       <c r="U24">
-        <v>9.6732131368271121E-2</v>
+        <v>0.09673213136827112</v>
       </c>
       <c r="V24">
         <v>0.21681059625562235</v>
       </c>
       <c r="W24">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X24">
-        <v>1.1851592810491604E-2</v>
+        <v>0.011849454586296604</v>
       </c>
       <c r="Y24">
-        <v>1.9353255126547828E-4</v>
+        <v>1.7116794770160342</v>
       </c>
       <c r="Z24">
-        <v>57.593913958255811</v>
+        <v>57.58352305955726</v>
       </c>
       <c r="AA24">
-        <v>1.1288628632479547</v>
-      </c>
-    </row>
-    <row r="25" spans="16:27" x14ac:dyDescent="0.25">
+        <v>8318.065122327313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="P25">
         <v>2.0210843534482756</v>
       </c>
       <c r="Q25">
-        <v>8.305061225032949E-4</v>
+        <v>0.0008305061225032949</v>
       </c>
       <c r="R25">
-        <v>2.2930603954672103E-2</v>
+        <v>0.02293239583495188</v>
       </c>
       <c r="S25">
-        <v>3.6870550266206929E-4</v>
+        <v>3.4601521753158075</v>
       </c>
       <c r="T25">
-        <v>9.3218891897026683</v>
+        <v>9.321889189702668</v>
       </c>
       <c r="U25">
         <v>0.10112679221507505</v>
@@ -3338,36 +3327,36 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W25">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X25">
-        <v>1.1900620382172733E-2</v>
+        <v>0.011897325514692136</v>
       </c>
       <c r="Y25">
-        <v>1.9995021927453669E-4</v>
+        <v>1.7116463495976781</v>
       </c>
       <c r="Z25">
-        <v>57.832167987915483</v>
+        <v>57.816156273944564</v>
       </c>
       <c r="AA25">
-        <v>1.1563729388688042</v>
-      </c>
-    </row>
-    <row r="26" spans="16:27" x14ac:dyDescent="0.25">
+        <v>8317.904136756846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="P26">
         <v>2.1089575862068966</v>
       </c>
       <c r="Q26">
-        <v>8.5655617541634493E-4</v>
+        <v>0.0008565561754163449</v>
       </c>
       <c r="R26">
-        <v>2.397850500247108E-2</v>
+        <v>0.023979955473784287</v>
       </c>
       <c r="S26">
-        <v>3.8227411996837984E-4</v>
+        <v>3.610558606316278</v>
       </c>
       <c r="T26">
-        <v>9.7271887196897424</v>
+        <v>9.727188719689742</v>
       </c>
       <c r="U26">
         <v>0.10552186206930061</v>
@@ -3376,33 +3365,33 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W26">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X26">
-        <v>1.1949673772718645E-2</v>
+        <v>0.01194519365887059</v>
       </c>
       <c r="Y26">
-        <v>2.0656027227553849E-4</v>
+        <v>1.7116132260329773</v>
       </c>
       <c r="Z26">
-        <v>58.070547486742086</v>
+        <v>58.048775958170864</v>
       </c>
       <c r="AA26">
-        <v>1.1848636130523831</v>
-      </c>
-    </row>
-    <row r="27" spans="16:27" x14ac:dyDescent="0.25">
+        <v>8317.743169914334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="P27">
         <v>2.196830818965517</v>
       </c>
       <c r="Q27">
-        <v>8.8460141407673758E-4</v>
+        <v>0.0008846014140767376</v>
       </c>
       <c r="R27">
-        <v>2.5030717549099031E-2</v>
+        <v>0.025031721318871547</v>
       </c>
       <c r="S27">
-        <v>3.9640273364580141E-4</v>
+        <v>3.760962125794652</v>
       </c>
       <c r="T27">
         <v>10.132488249676813</v>
@@ -3414,33 +3403,33 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W27">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X27">
-        <v>1.1998749874226944E-2</v>
+        <v>0.011993059019047791</v>
       </c>
       <c r="Y27">
-        <v>2.1333078822464521E-4</v>
+        <v>1.7115801063213336</v>
       </c>
       <c r="Z27">
-        <v>58.309037351595812</v>
+        <v>58.28138211328499</v>
       </c>
       <c r="AA27">
-        <v>1.2142075288224887</v>
-      </c>
-    </row>
-    <row r="28" spans="16:27" x14ac:dyDescent="0.25">
+        <v>8317.582221796873</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="P28">
-        <v>2.2847040517241379</v>
+        <v>2.284704051724138</v>
       </c>
       <c r="Q28">
-        <v>9.1445828770016593E-4</v>
+        <v>0.0009144582877001659</v>
       </c>
       <c r="R28">
-        <v>2.6087243470617083E-2</v>
+        <v>0.026087693125582234</v>
       </c>
       <c r="S28">
-        <v>4.1112646664240087E-4</v>
+        <v>3.9113627340472608</v>
       </c>
       <c r="T28">
         <v>10.537787779663887</v>
@@ -3452,33 +3441,33 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W28">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X28">
-        <v>1.2047846032737093E-2</v>
+        <v>0.012040921595438903</v>
       </c>
       <c r="Y28">
-        <v>2.2023583628924152E-4</v>
+        <v>1.7115469904621492</v>
       </c>
       <c r="Z28">
-        <v>58.547624685309415</v>
+        <v>58.51397474033254</v>
       </c>
       <c r="AA28">
-        <v>1.244297725235803</v>
-      </c>
-    </row>
-    <row r="29" spans="16:27" x14ac:dyDescent="0.25">
+        <v>8317.421292401556</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="P29">
         <v>2.3725772844827584</v>
       </c>
       <c r="Q29">
-        <v>9.4595527173051055E-4</v>
+        <v>0.0009459552717305105</v>
       </c>
       <c r="R29">
-        <v>2.7148084426929071E-2</v>
+        <v>0.02714787064930624</v>
       </c>
       <c r="S29">
-        <v>4.2647610497993058E-4</v>
+        <v>4.061760431370389</v>
       </c>
       <c r="T29">
         <v>10.943087309650958</v>
@@ -3490,33 +3479,33 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W29">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X29">
-        <v>1.2096959970930255E-2</v>
+        <v>0.012088781388260417</v>
       </c>
       <c r="Y29">
-        <v>2.2725427351948468E-4</v>
+        <v>1.711513878454827</v>
       </c>
       <c r="Z29">
-        <v>58.786298421040861</v>
+        <v>58.74655384036558</v>
       </c>
       <c r="AA29">
-        <v>1.2750439368597379</v>
-      </c>
-    </row>
-    <row r="30" spans="16:27" x14ac:dyDescent="0.25">
+        <v>8317.260381725479</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="P30">
         <v>2.4604505172413793</v>
       </c>
       <c r="Q30">
-        <v>9.7893406841331135E-4</v>
+        <v>0.0009789340684133114</v>
       </c>
       <c r="R30">
-        <v>2.8213241892041663E-2</v>
+        <v>0.0282122536454521</v>
       </c>
       <c r="S30">
-        <v>4.4247842436058872E-4</v>
+        <v>4.212155218060283</v>
       </c>
       <c r="T30">
         <v>11.348386839638032</v>
@@ -3528,33 +3517,33 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W30">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X30">
-        <v>1.2146089725761401E-2</v>
+        <v>0.012136638397728383</v>
       </c>
       <c r="Y30">
-        <v>2.3436878909845069E-4</v>
+        <v>1.711480770298768</v>
       </c>
       <c r="Z30">
-        <v>59.025049019190881</v>
+        <v>58.97911941443403</v>
       </c>
       <c r="AA30">
-        <v>1.3063696158273328</v>
-      </c>
-    </row>
-    <row r="31" spans="16:27" x14ac:dyDescent="0.25">
+        <v>8317.099489765735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="P31">
         <v>2.5483237499999998</v>
       </c>
       <c r="Q31">
-        <v>1.01325E-3</v>
+        <v>0.00101325</v>
       </c>
       <c r="R31">
-        <v>2.9282717179379445E-2</v>
+        <v>0.029280841869446572</v>
       </c>
       <c r="S31">
-        <v>4.5915651623271614E-4</v>
+        <v>4.3625470944131495</v>
       </c>
       <c r="T31">
         <v>11.753686369625104</v>
@@ -3566,19 +3555,19 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W31">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X31">
-        <v>1.2195233597815831E-2</v>
+        <v>0.012184492624057519</v>
       </c>
       <c r="Y31">
-        <v>2.4156514684977849E-4</v>
+        <v>1.7114476659933757</v>
       </c>
       <c r="Z31">
-        <v>59.263868221296164</v>
+        <v>59.211671463581325</v>
       </c>
       <c r="AA31">
-        <v>1.3382095303525503</v>
+        <v>8316.938616519421</v>
       </c>
     </row>
   </sheetData>
@@ -3587,16 +3576,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BFAD28-9C94-45A6-B0EB-B69C312EA6A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:L22"/>
-    </sheetView>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3679,256 +3666,256 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C2">
-        <v>1.01325E-3</v>
+        <v>0.00101325</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E2">
-        <v>4.6734339441849319E-3</v>
+        <v>0.004673433944184932</v>
       </c>
       <c r="F2">
         <v>0.21681059625562235</v>
       </c>
       <c r="G2">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I2">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K2">
-        <v>1.0970227161978857E-5</v>
+        <v>1.0938630875781951e-5</v>
       </c>
       <c r="L2">
-        <v>1.0826772427316909E-2</v>
+        <v>0.010795589317327492</v>
       </c>
       <c r="M2">
-        <v>6.175101262501729E-4</v>
+        <v>3.224409330879928e-5</v>
       </c>
       <c r="N2">
-        <v>52.613704300784306</v>
+        <v>52.46216708697694</v>
       </c>
       <c r="O2">
-        <v>3.0545700131989171</v>
+        <v>0.5899089364870984</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q2">
-        <v>1.01325E-3</v>
+        <v>0.00101325</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S2">
-        <v>1.0970227161978857E-5</v>
+        <v>1.0938630875781951e-5</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U2">
-        <v>4.6734339441849319E-3</v>
+        <v>0.004673433944184932</v>
       </c>
       <c r="V2">
         <v>0.21681059625562235</v>
       </c>
       <c r="W2">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X2">
-        <v>1.0826772427316909E-2</v>
+        <v>0.010795589317327492</v>
       </c>
       <c r="Y2">
-        <v>6.175101262501729E-4</v>
+        <v>3.224409330879928e-5</v>
       </c>
       <c r="Z2">
-        <v>52.613704300784306</v>
+        <v>52.46216708697694</v>
       </c>
       <c r="AA2">
-        <v>3.0545700131989171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.5899089364870984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.43975049999999999</v>
+        <v>0.4397505</v>
       </c>
       <c r="C3">
-        <v>1.01325E-3</v>
+        <v>0.00101325</v>
       </c>
       <c r="D3">
         <v>2.0282703317762607</v>
       </c>
       <c r="E3">
-        <v>2.2478706378621635E-2</v>
+        <v>0.022478706378621635</v>
       </c>
       <c r="F3">
         <v>0.21681059625562235</v>
       </c>
       <c r="G3">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="H3">
-        <v>4.7780000000000001E-3</v>
+        <v>0.004778</v>
       </c>
       <c r="I3">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="J3">
-        <v>4.804221165084185E-3</v>
+        <v>0.004800103872732109</v>
       </c>
       <c r="K3">
-        <v>1.9849405663078807E-4</v>
+        <v>1.844099998431065e-5</v>
       </c>
       <c r="L3">
-        <v>1.1032924745666518E-2</v>
+        <v>0.011035432198053252</v>
       </c>
       <c r="M3">
-        <v>3.7542094496766012E-4</v>
+        <v>3.647416062322552e-5</v>
       </c>
       <c r="N3">
-        <v>53.615520603046363</v>
+        <v>53.62770580037176</v>
       </c>
       <c r="O3">
-        <v>1.9147393669278523</v>
+        <v>0.6077733299870516</v>
       </c>
       <c r="P3">
-        <v>8.7873232758620676E-2</v>
+        <v>0.08787323275862068</v>
       </c>
       <c r="Q3">
-        <v>9.7893406841331135E-4</v>
+        <v>0.0009789340684133114</v>
       </c>
       <c r="R3">
-        <v>9.5290239137718104E-4</v>
+        <v>0.0009507493335303291</v>
       </c>
       <c r="S3">
-        <v>5.0828366554361763E-5</v>
+        <v>1.0987639665147907e-5</v>
       </c>
       <c r="T3">
-        <v>0.40529952998707253</v>
+        <v>0.4052995299870725</v>
       </c>
       <c r="U3">
-        <v>6.3000724689699032E-3</v>
+        <v>0.006300072468969903</v>
       </c>
       <c r="V3">
         <v>0.21681059625562235</v>
       </c>
       <c r="W3">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X3">
-        <v>1.0862187843442077E-2</v>
+        <v>0.010843521553172808</v>
       </c>
       <c r="Y3">
-        <v>5.214840765940472E-4</v>
+        <v>3.242285197896797e-5</v>
       </c>
       <c r="Z3">
-        <v>52.785808798612074</v>
+        <v>52.695098230599946</v>
       </c>
       <c r="AA3">
-        <v>2.5980018232528397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.5925740929767519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.91597799999999985</v>
+        <v>0.9159779999999998</v>
       </c>
       <c r="C4">
-        <v>1.01325E-3</v>
+        <v>0.00101325</v>
       </c>
       <c r="D4">
-        <v>4.2247842855431781</v>
+        <v>4.224784285543178</v>
       </c>
       <c r="E4">
-        <v>4.6036726925799798E-2</v>
+        <v>0.0460367269257998</v>
       </c>
       <c r="F4">
         <v>0.21681059625562235</v>
       </c>
       <c r="G4">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="H4">
-        <v>1.01E-2</v>
+        <v>0.0101</v>
       </c>
       <c r="I4">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="J4">
-        <v>1.0118667077756938E-2</v>
+        <v>0.010117311770503568</v>
       </c>
       <c r="K4">
-        <v>3.6000896653062055E-4</v>
+        <v>3.5602247541461635e-5</v>
       </c>
       <c r="L4">
-        <v>1.1288121853328314E-2</v>
+        <v>0.01129509112805449</v>
       </c>
       <c r="M4">
-        <v>3.59381804496249E-4</v>
+        <v>4.7963743996320106e-5</v>
       </c>
       <c r="N4">
-        <v>54.855674605642378</v>
+        <v>54.889542442257174</v>
       </c>
       <c r="O4">
-        <v>1.844914835296199</v>
+        <v>0.6390547877513278</v>
       </c>
       <c r="P4">
         <v>0.17574646551724135</v>
       </c>
       <c r="Q4">
-        <v>9.4595527173051055E-4</v>
+        <v>0.0009459552717305105</v>
       </c>
       <c r="R4">
-        <v>1.9091090890199858E-3</v>
+        <v>0.001905710505038155</v>
       </c>
       <c r="S4">
-        <v>9.3008441195591686E-5</v>
+        <v>1.1773227879437655e-5</v>
       </c>
       <c r="T4">
-        <v>0.81059905997414505</v>
+        <v>0.810599059974145</v>
       </c>
       <c r="U4">
-        <v>9.8108739466433604E-3</v>
+        <v>0.00981087394664336</v>
       </c>
       <c r="V4">
         <v>0.21681059625562235</v>
       </c>
       <c r="W4">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X4">
-        <v>1.0901666498460942E-2</v>
+        <v>0.010891451000045294</v>
       </c>
       <c r="Y4">
-        <v>4.594513636853912E-4</v>
+        <v>3.2955092323233137e-5</v>
       </c>
       <c r="Z4">
-        <v>52.977658982524169</v>
+        <v>52.928015820950925</v>
       </c>
       <c r="AA4">
-        <v>2.3054249430831999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.5956986640315967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3936,165 +3923,165 @@
         <v>1.2969600000000001</v>
       </c>
       <c r="C5">
-        <v>1.01325E-3</v>
+        <v>0.00101325</v>
       </c>
       <c r="D5">
-        <v>5.9819954485567139</v>
+        <v>5.981995448556714</v>
       </c>
       <c r="E5">
-        <v>6.501618328409213E-2</v>
+        <v>0.06501618328409213</v>
       </c>
       <c r="F5">
         <v>0.21681059625562235</v>
       </c>
       <c r="G5">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="H5">
-        <v>1.4579999999999999E-2</v>
+        <v>0.01458</v>
       </c>
       <c r="I5">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="J5">
-        <v>1.445910479836697E-2</v>
+        <v>0.01446009876601928</v>
       </c>
       <c r="K5">
-        <v>4.8899809641663242E-4</v>
+        <v>5.428734665910479e-5</v>
       </c>
       <c r="L5">
-        <v>1.1497836990041721E-2</v>
+        <v>0.011502759335172863</v>
       </c>
       <c r="M5">
-        <v>3.8273862090524566E-4</v>
+        <v>5.971979972788473e-5</v>
       </c>
       <c r="N5">
-        <v>55.874804754032517</v>
+        <v>55.89872534652072</v>
       </c>
       <c r="O5">
-        <v>1.956097081287866</v>
+        <v>0.6718823782869113</v>
       </c>
       <c r="P5">
         <v>0.26361969827586207</v>
       </c>
       <c r="Q5">
-        <v>9.1445828770016593E-4</v>
+        <v>0.0009144582877001659</v>
       </c>
       <c r="R5">
-        <v>2.868907948488987E-3</v>
+        <v>0.002864883269456886</v>
       </c>
       <c r="S5">
-        <v>1.3087267763211083E-4</v>
+        <v>1.3195321819766082e-5</v>
       </c>
       <c r="T5">
         <v>1.2158985899612178</v>
       </c>
       <c r="U5">
-        <v>1.3839363723763418E-2</v>
+        <v>0.013839363723763418</v>
       </c>
       <c r="V5">
         <v>0.21681059625562235</v>
       </c>
       <c r="W5">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X5">
-        <v>1.0943765255035796E-2</v>
+        <v>0.010939377658161886</v>
       </c>
       <c r="Y5">
-        <v>4.1893449570123997E-4</v>
+        <v>3.3824011881529906e-5</v>
       </c>
       <c r="Z5">
-        <v>53.182241792842738</v>
+        <v>53.16091985908412</v>
       </c>
       <c r="AA5">
-        <v>2.1159085335425356</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.5992753019631913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.7225250000000001</v>
+        <v>1.722525</v>
       </c>
       <c r="C6">
-        <v>1.01325E-3</v>
+        <v>0.00101325</v>
       </c>
       <c r="D6">
-        <v>7.9448377051143853</v>
+        <v>7.944837705114385</v>
       </c>
       <c r="E6">
-        <v>8.6252953131432913E-2</v>
+        <v>0.08625295313143291</v>
       </c>
       <c r="F6">
         <v>0.21681059625562235</v>
       </c>
       <c r="G6">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="H6">
-        <v>1.9299999999999998E-2</v>
+        <v>0.019299999999999998</v>
       </c>
       <c r="I6">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="J6">
-        <v>1.9402419141428311E-2</v>
+        <v>0.019404618799188977</v>
       </c>
       <c r="K6">
-        <v>6.4439003297395105E-4</v>
+        <v>8.081863873454316e-5</v>
       </c>
       <c r="L6">
-        <v>1.1734172033610058E-2</v>
+        <v>0.01173466722150307</v>
       </c>
       <c r="M6">
-        <v>4.2300037465080938E-4</v>
+        <v>7.412452582489258e-5</v>
       </c>
       <c r="N6">
-        <v>57.023296807568634</v>
+        <v>57.025703219040864</v>
       </c>
       <c r="O6">
-        <v>2.146545071328799</v>
+        <v>0.7154804585232319</v>
       </c>
       <c r="P6">
         <v>0.3514929310344827</v>
       </c>
       <c r="Q6">
-        <v>8.8460141407673758E-4</v>
+        <v>0.0008846014140767376</v>
       </c>
       <c r="R6">
-        <v>3.8324885525932691E-3</v>
+        <v>0.00382826738173897</v>
       </c>
       <c r="S6">
-        <v>1.656417995835199E-4</v>
+        <v>1.5119858371104549e-5</v>
       </c>
       <c r="T6">
-        <v>1.6211981199482901</v>
+        <v>1.62119811994829</v>
       </c>
       <c r="U6">
-        <v>1.8042037999055221E-2</v>
+        <v>0.01804203799905522</v>
       </c>
       <c r="V6">
         <v>0.21681059625562235</v>
       </c>
       <c r="W6">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X6">
-        <v>1.0987629107014207E-2</v>
+        <v>0.010987301527738191</v>
       </c>
       <c r="Y6">
-        <v>3.924839744969083E-4</v>
+        <v>3.50044315701159e-5</v>
       </c>
       <c r="Z6">
-        <v>53.395402247907136</v>
+        <v>53.39381034604727</v>
       </c>
       <c r="AA6">
-        <v>1.9932108202840506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.6032958060288165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4102,10 +4089,10 @@
         <v>2.144037</v>
       </c>
       <c r="C7">
-        <v>1.01325E-3</v>
+        <v>0.00101325</v>
       </c>
       <c r="D7">
-        <v>9.8889862258953158</v>
+        <v>9.888986225895316</v>
       </c>
       <c r="E7">
         <v>0.10730367015276393</v>
@@ -4114,70 +4101,70 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="G7">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="H7">
-        <v>2.4399999999999998E-2</v>
+        <v>0.024399999999999998</v>
       </c>
       <c r="I7">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="J7">
-        <v>2.4398036125788659E-2</v>
+        <v>0.024399321022261056</v>
       </c>
       <c r="K7">
-        <v>8.153899026910491E-4</v>
+        <v>0.00011339633419451476</v>
       </c>
       <c r="L7">
-        <v>1.1969262620789484E-2</v>
+        <v>0.011964302072882793</v>
       </c>
       <c r="M7">
-        <v>4.7108984935060309E-4</v>
+        <v>8.909435945872067e-5</v>
       </c>
       <c r="N7">
-        <v>58.165741309916164</v>
+        <v>58.141635067498626</v>
       </c>
       <c r="O7">
-        <v>2.374553965450771</v>
+        <v>0.7646678730684443</v>
       </c>
       <c r="P7">
         <v>0.43936616379310345</v>
       </c>
       <c r="Q7">
-        <v>8.5655617541634493E-4</v>
+        <v>0.0008565561754163449</v>
       </c>
       <c r="R7">
-        <v>4.7999808509534203E-3</v>
+        <v>0.00479586259685616</v>
       </c>
       <c r="S7">
-        <v>1.9826508624299632E-4</v>
+        <v>1.7435213310149565e-5</v>
       </c>
       <c r="T7">
-        <v>2.0264976499353629</v>
+        <v>2.026497649935363</v>
       </c>
       <c r="U7">
-        <v>2.2320723291128507E-2</v>
+        <v>0.022320723291128507</v>
       </c>
       <c r="V7">
         <v>0.21681059625562235</v>
       </c>
       <c r="W7">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X7">
-        <v>1.1032725355541119E-2</v>
+        <v>0.011035222608991146</v>
       </c>
       <c r="Y7">
-        <v>3.7547923187108241E-4</v>
+        <v>3.646600268057512e-5</v>
       </c>
       <c r="Z7">
-        <v>53.614551648247634</v>
+        <v>53.626687282894615</v>
       </c>
       <c r="AA7">
-        <v>1.9150060663449651</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.6077512079220669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4185,7 +4172,7 @@
         <v>2.5483237499999998</v>
       </c>
       <c r="C8">
-        <v>1.01325E-3</v>
+        <v>0.00101325</v>
       </c>
       <c r="D8">
         <v>11.753686369625104</v>
@@ -4197,692 +4184,692 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="G8">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="H8">
-        <v>2.9300000000000003E-2</v>
+        <v>0.029300000000000003</v>
       </c>
       <c r="I8">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="J8">
-        <v>2.9282717179379445E-2</v>
+        <v>0.029280841869446572</v>
       </c>
       <c r="K8">
-        <v>9.9852145388086241E-4</v>
+        <v>0.0001507665183429243</v>
       </c>
       <c r="L8">
-        <v>1.2195233597815831E-2</v>
+        <v>0.012184492624057519</v>
       </c>
       <c r="M8">
-        <v>5.2209456274723398E-4</v>
+        <v>0.00010382460213918194</v>
       </c>
       <c r="N8">
-        <v>59.263868221296164</v>
+        <v>59.211671463581325</v>
       </c>
       <c r="O8">
-        <v>2.6172428712559586</v>
+        <v>0.8164456100333032</v>
       </c>
       <c r="P8">
-        <v>0.52723939655172414</v>
+        <v>0.5272393965517241</v>
       </c>
       <c r="Q8">
-        <v>8.305061225032949E-4</v>
+        <v>0.0008305061225032949</v>
       </c>
       <c r="R8">
-        <v>5.7714768976044216E-3</v>
+        <v>0.005767668669798498</v>
       </c>
       <c r="S8">
-        <v>2.2942359961091599E-4</v>
+        <v>2.0066909744799822e-5</v>
       </c>
       <c r="T8">
         <v>2.4317971799224356</v>
       </c>
       <c r="U8">
-        <v>2.6638818433217738E-2</v>
+        <v>0.026638818433217738</v>
       </c>
       <c r="V8">
         <v>0.21681059625562235</v>
       </c>
       <c r="W8">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X8">
-        <v>1.1078708086302728E-2</v>
+        <v>0.011083140902136801</v>
       </c>
       <c r="Y8">
-        <v>3.6497800173778143E-4</v>
+        <v>3.817634136390573e-5</v>
       </c>
       <c r="Z8">
-        <v>53.838008991188524</v>
+        <v>53.859550670676064</v>
       </c>
       <c r="AA8">
-        <v>1.8672015219844316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.612631861223959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="P9">
-        <v>0.61511262931034483</v>
+        <v>0.6151126293103448</v>
       </c>
       <c r="Q9">
-        <v>8.0664457811436879E-4</v>
+        <v>0.0008066445781143688</v>
       </c>
       <c r="R9">
-        <v>6.7470437261138508E-3</v>
+        <v>0.006743685355575679</v>
       </c>
       <c r="S9">
-        <v>2.596107774130774E-4</v>
+        <v>2.2970959271943186e-5</v>
       </c>
       <c r="T9">
-        <v>2.8370967099095079</v>
+        <v>2.837096709909508</v>
       </c>
       <c r="U9">
-        <v>3.0979848498593338E-2</v>
+        <v>0.030979848498593338</v>
       </c>
       <c r="V9">
         <v>0.21681059625562235</v>
       </c>
       <c r="W9">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X9">
-        <v>1.1125344752966839E-2</v>
+        <v>0.011131056407390982</v>
       </c>
       <c r="Y9">
-        <v>3.5906848633976787E-4</v>
+        <v>4.0103530908915143e-5</v>
       </c>
       <c r="Z9">
-        <v>54.064644196270393</v>
+        <v>54.09240051044044</v>
       </c>
       <c r="AA9">
-        <v>1.8407252911346741</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.6179275329353965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="P10">
-        <v>0.70298586206896541</v>
+        <v>0.7029858620689654</v>
       </c>
       <c r="Q10">
-        <v>7.8517109555906791E-4</v>
+        <v>0.0007851710955590679</v>
       </c>
       <c r="R10">
-        <v>7.7267313094688417E-3</v>
+        <v>0.007723912409216438</v>
       </c>
       <c r="S10">
-        <v>2.8919136762643418E-4</v>
+        <v>2.6123715998066114e-5</v>
       </c>
       <c r="T10">
-        <v>3.2423962398965802</v>
+        <v>3.24239623989658</v>
       </c>
       <c r="U10">
-        <v>3.5335361674570291E-2</v>
+        <v>0.03533536167457029</v>
       </c>
       <c r="V10">
         <v>0.21681059625562235</v>
       </c>
       <c r="W10">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X10">
-        <v>1.1172474347284772E-2</v>
+        <v>0.01117896912497085</v>
       </c>
       <c r="Y10">
-        <v>3.5648584917448721E-4</v>
+        <v>4.2217788957982596e-5</v>
       </c>
       <c r="Z10">
-        <v>54.293674828982617</v>
+        <v>54.325236803243065</v>
       </c>
       <c r="AA10">
-        <v>1.8296294573607972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.6236274953219104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="P11">
-        <v>0.79085909482758621</v>
+        <v>0.7908590948275862</v>
       </c>
       <c r="Q11">
-        <v>7.6628646158979896E-4</v>
+        <v>0.000766286461589799</v>
       </c>
       <c r="R11">
-        <v>8.7105776629628467E-3</v>
+        <v>0.00870834958576805</v>
       </c>
       <c r="S11">
-        <v>3.1844084242794844E-4</v>
+        <v>2.951403477764838e-5</v>
       </c>
       <c r="T11">
         <v>3.647695769883653</v>
       </c>
       <c r="U11">
-        <v>3.970059146346093E-2</v>
+        <v>0.03970059146346093</v>
       </c>
       <c r="V11">
         <v>0.21681059625562235</v>
       </c>
       <c r="W11">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X11">
-        <v>1.1219982527915964E-2</v>
+        <v>0.011226879055092231</v>
       </c>
       <c r="Y11">
-        <v>3.5637808111818701E-4</v>
+        <v>4.449236429167437e-5</v>
       </c>
       <c r="Z11">
-        <v>54.524545236980778</v>
+        <v>54.55805955013277</v>
       </c>
       <c r="AA11">
-        <v>1.8299404566764972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.6297206164614495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="P12">
         <v>0.8787323275862069</v>
       </c>
       <c r="Q12">
-        <v>7.5018621097996117E-4</v>
+        <v>0.0007501862109799612</v>
       </c>
       <c r="R12">
-        <v>9.6986122189107425E-3</v>
+        <v>0.009696996640297328</v>
       </c>
       <c r="S12">
-        <v>3.4757170544094163E-4</v>
+        <v>3.31381606116037e-5</v>
       </c>
       <c r="T12">
-        <v>4.0529952998707257</v>
+        <v>4.052995299870726</v>
       </c>
       <c r="U12">
-        <v>4.4072650778272944E-2</v>
+        <v>0.044072650778272944</v>
       </c>
       <c r="V12">
         <v>0.21681059625562235</v>
       </c>
       <c r="W12">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X12">
-        <v>1.1267786282330218E-2</v>
+        <v>0.011274786197971176</v>
       </c>
       <c r="Y12">
-        <v>3.5816032196048724E-4</v>
+        <v>4.690385295221169e-5</v>
       </c>
       <c r="Z12">
-        <v>54.756852013178722</v>
+        <v>54.79086875215946</v>
       </c>
       <c r="AA12">
-        <v>1.8389506503544566</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.6361954480830201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="P13">
-        <v>0.96660556034482747</v>
+        <v>0.9666055603448275</v>
       </c>
       <c r="Q13">
-        <v>7.3705283330803084E-4</v>
+        <v>0.0007370528333080308</v>
       </c>
       <c r="R13">
-        <v>1.0690858119527859E-2</v>
+        <v>0.010689853327888965</v>
       </c>
       <c r="S13">
-        <v>3.7675128233410134E-4</v>
+        <v>3.69965828078511e-5</v>
       </c>
       <c r="T13">
         <v>4.458294829857798</v>
       </c>
       <c r="U13">
-        <v>4.8449690782270419E-2</v>
+        <v>0.04844969078227042</v>
       </c>
       <c r="V13">
         <v>0.21681059625562235</v>
       </c>
       <c r="W13">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X13">
-        <v>1.1315824163436671E-2</v>
+        <v>0.011322690553823955</v>
       </c>
       <c r="Y13">
-        <v>3.6142299332279898E-4</v>
+        <v>4.943213968979879e-5</v>
       </c>
       <c r="Z13">
-        <v>54.990296549742006</v>
+        <v>55.02366441037413</v>
       </c>
       <c r="AA13">
-        <v>1.854776055651179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.6430403095026609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="P14">
         <v>1.0544787931034483</v>
       </c>
       <c r="Q14">
-        <v>7.2704712711390987E-4</v>
+        <v>0.0007270471271139099</v>
       </c>
       <c r="R14">
-        <v>1.1687333812058049E-2</v>
+        <v>0.011686919403648632</v>
       </c>
       <c r="S14">
-        <v>4.0611394277049974E-4</v>
+        <v>4.1092132731793044e-5</v>
       </c>
       <c r="T14">
-        <v>4.8635943598448712</v>
+        <v>4.863594359844871</v>
       </c>
       <c r="U14">
-        <v>5.283047352968432E-2</v>
+        <v>0.05283047352968432</v>
       </c>
       <c r="V14">
         <v>0.21681059625562235</v>
       </c>
       <c r="W14">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X14">
-        <v>1.1364049900053137E-2</v>
+        <v>0.011370592122867285</v>
       </c>
       <c r="Y14">
-        <v>3.6587319064499638E-4</v>
+        <v>5.206013278335443e-5</v>
       </c>
       <c r="Z14">
-        <v>55.224653987571251</v>
+        <v>55.25644652582993</v>
       </c>
       <c r="AA14">
-        <v>1.8760768384351418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.650243366693542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="P15">
         <v>1.142352025862069</v>
       </c>
       <c r="Q15">
-        <v>7.2029944399260265E-4</v>
+        <v>0.0007202994439926026</v>
       </c>
       <c r="R15">
-        <v>1.2688054181916222E-2</v>
+        <v>0.012688194622698878</v>
       </c>
       <c r="S15">
-        <v>4.3576962712778874E-4</v>
+        <v>4.542883929674377e-5</v>
       </c>
       <c r="T15">
         <v>5.2688938898319435</v>
       </c>
       <c r="U15">
-        <v>5.7214139301773763E-2</v>
+        <v>0.05721413930177376</v>
       </c>
       <c r="V15">
         <v>0.21681059625562235</v>
       </c>
       <c r="W15">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X15">
-        <v>1.1412428111707239E-2</v>
+        <v>0.011418490905316325</v>
       </c>
       <c r="Y15">
-        <v>3.7129686281641501E-4</v>
+        <v>5.477340873815076e-5</v>
       </c>
       <c r="Z15">
-        <v>55.459752391980999</v>
+        <v>55.48921509957244</v>
       </c>
       <c r="AA15">
-        <v>1.901878444878961</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.6577927057560985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="P16">
         <v>1.2302252586206897</v>
       </c>
       <c r="Q16">
-        <v>7.1690178616166348E-4</v>
+        <v>0.0007169017861616635</v>
       </c>
       <c r="R16">
-        <v>1.369303137275903E-2</v>
+        <v>0.013693678740182458</v>
       </c>
       <c r="S16">
-        <v>4.6580988131267309E-4</v>
+        <v>5.001124339980168e-5</v>
       </c>
       <c r="T16">
-        <v>5.6741934198190158</v>
+        <v>5.674193419819016</v>
       </c>
       <c r="U16">
-        <v>6.1600072604777914E-2</v>
+        <v>0.061600072604777914</v>
       </c>
       <c r="V16">
         <v>0.21681059625562235</v>
       </c>
       <c r="W16">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X16">
-        <v>1.1460931371436932E-2</v>
+        <v>0.011466386901387793</v>
       </c>
       <c r="Y16">
-        <v>3.7753411383674792E-4</v>
+        <v>5.7559838293244956e-5</v>
       </c>
       <c r="Z16">
-        <v>55.695458479106605</v>
+        <v>55.721970132654846</v>
       </c>
       <c r="AA16">
-        <v>1.9314556377663561</v>
-      </c>
-    </row>
-    <row r="17" spans="16:27" x14ac:dyDescent="0.25">
+        <v>0.6656764002741115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="P17">
         <v>1.3180984913793103</v>
       </c>
       <c r="Q17">
-        <v>7.1690178616166348E-4</v>
+        <v>0.0007169017861616635</v>
       </c>
       <c r="R17">
-        <v>1.4702275389955147E-2</v>
+        <v>0.014703371511261443</v>
       </c>
       <c r="S17">
-        <v>4.9631218500843734E-4</v>
+        <v>5.4843991842542305e-5</v>
       </c>
       <c r="T17">
-        <v>6.0794929498060881</v>
+        <v>6.079492949806088</v>
       </c>
       <c r="U17">
-        <v>6.5987821300480046E-2</v>
+        <v>0.06598782130048005</v>
       </c>
       <c r="V17">
         <v>0.21681059625562235</v>
       </c>
       <c r="W17">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X17">
-        <v>1.1509538152883496E-2</v>
+        <v>0.01151428011129818</v>
       </c>
       <c r="Y17">
-        <v>3.844628709584568E-4</v>
+        <v>6.040923255732865e-5</v>
       </c>
       <c r="Z17">
-        <v>55.931667639612265</v>
+        <v>55.954711626129175</v>
       </c>
       <c r="AA17">
-        <v>1.9642562989115524</v>
-      </c>
-    </row>
-    <row r="18" spans="16:27" x14ac:dyDescent="0.25">
+        <v>0.673882572244428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="P18">
         <v>1.4059717241379308</v>
       </c>
       <c r="Q18">
-        <v>7.2029944399260265E-4</v>
+        <v>0.0007202994439926026</v>
       </c>
       <c r="R18">
-        <v>1.5715794551385182E-2</v>
+        <v>0.015717272691115447</v>
       </c>
       <c r="S18">
-        <v>5.2734309450374109E-4</v>
+        <v>5.9931602763510246e-5</v>
       </c>
       <c r="T18">
-        <v>6.4847924797931604</v>
+        <v>6.48479247979316</v>
       </c>
       <c r="U18">
-        <v>7.0377045840624097E-2</v>
+        <v>0.0703770458406241</v>
       </c>
       <c r="V18">
         <v>0.21681059625562235</v>
       </c>
       <c r="W18">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X18">
-        <v>1.155823137000056E-2</v>
+        <v>0.011562170535263094</v>
       </c>
       <c r="Y18">
-        <v>3.9198794355821355E-4</v>
+        <v>6.331302711572116e-5</v>
       </c>
       <c r="Z18">
-        <v>56.168296842271694</v>
+        <v>56.18743958104322</v>
       </c>
       <c r="AA18">
-        <v>1.9998506696079072</v>
-      </c>
-    </row>
-    <row r="19" spans="16:27" x14ac:dyDescent="0.25">
+        <v>0.6823994464495076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="P19">
         <v>1.4938449568965515</v>
       </c>
       <c r="Q19">
-        <v>7.2704712711390976E-4</v>
+        <v>0.0007270471271139098</v>
       </c>
       <c r="R19">
-        <v>1.6733595828809077E-2</v>
+        <v>0.01673538203494429</v>
       </c>
       <c r="S19">
-        <v>5.5896055146537982E-4</v>
+        <v>6.527833688043947e-5</v>
       </c>
       <c r="T19">
-        <v>6.8900920097802327</v>
+        <v>6.890092009780233</v>
       </c>
       <c r="U19">
-        <v>7.4767486307361991E-2</v>
+        <v>0.07476748630736199</v>
       </c>
       <c r="V19">
         <v>0.21681059625562235</v>
       </c>
       <c r="W19">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X19">
-        <v>1.1606997321636449E-2</v>
+        <v>0.011610058173498361</v>
       </c>
       <c r="Y19">
-        <v>4.0003359378594402E-4</v>
+        <v>6.626400965839912e-5</v>
       </c>
       <c r="Z19">
-        <v>56.405279505068172</v>
+        <v>56.42015399844579</v>
       </c>
       <c r="AA19">
-        <v>2.0378970626850492</v>
-      </c>
-    </row>
-    <row r="20" spans="16:27" x14ac:dyDescent="0.25">
+        <v>0.6912153982975634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="P20">
         <v>1.5817181896551724</v>
       </c>
       <c r="Q20">
-        <v>7.3705283330803084E-4</v>
+        <v>0.0007370528333080308</v>
       </c>
       <c r="R20">
-        <v>1.7755685109588248E-2</v>
+        <v>0.017757699297966667</v>
       </c>
       <c r="S20">
-        <v>5.9121559803632367E-4</v>
+        <v>7.088813401058262e-5</v>
       </c>
       <c r="T20">
-        <v>7.2953915397673059</v>
+        <v>7.295391539767306</v>
       </c>
       <c r="U20">
-        <v>7.9158940381923143E-2</v>
+        <v>0.07915894038192314</v>
       </c>
       <c r="V20">
         <v>0.21681059625562235</v>
       </c>
       <c r="W20">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X20">
-        <v>1.1655824917602892E-2</v>
+        <v>0.011657943026220474</v>
       </c>
       <c r="Y20">
-        <v>4.085384210839577E-4</v>
+        <v>6.925609012360719e-5</v>
       </c>
       <c r="Z20">
-        <v>56.642561734203667</v>
+        <v>56.65285487938896</v>
       </c>
       <c r="AA20">
-        <v>2.0781183720947132</v>
-      </c>
-    </row>
-    <row r="21" spans="16:27" x14ac:dyDescent="0.25">
+        <v>0.7003189952846262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="P21">
         <v>1.6695914224137929</v>
       </c>
       <c r="Q21">
-        <v>7.5018621097996117E-4</v>
+        <v>0.0007501862109799612</v>
       </c>
       <c r="R21">
-        <v>1.8782067399630328E-2</v>
+        <v>0.0187842242354197</v>
       </c>
       <c r="S21">
-        <v>6.2415366491283574E-4</v>
+        <v>7.676458955233994e-5</v>
       </c>
       <c r="T21">
-        <v>7.7006910697543773</v>
+        <v>7.700691069754377</v>
       </c>
       <c r="U21">
-        <v>8.3551248238761838E-2</v>
+        <v>0.08355124823876184</v>
       </c>
       <c r="V21">
         <v>0.21681059625562235</v>
       </c>
       <c r="W21">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X21">
-        <v>1.170470510358927E-2</v>
+        <v>0.011705825093645261</v>
       </c>
       <c r="Y21">
-        <v>4.174517890804035E-4</v>
+        <v>7.228410928440074e-5</v>
       </c>
       <c r="Z21">
-        <v>56.880099529416384</v>
+        <v>56.885542224921565</v>
       </c>
       <c r="AA21">
-        <v>2.1202857478633108</v>
-      </c>
-    </row>
-    <row r="22" spans="16:27" x14ac:dyDescent="0.25">
+        <v>0.7096990323367077</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="P22">
         <v>1.7574646551724138</v>
       </c>
       <c r="Q22">
-        <v>7.6628646158979896E-4</v>
+        <v>0.000766286461589799</v>
       </c>
       <c r="R22">
-        <v>1.981274698240109E-2</v>
+        <v>0.019814956602560052</v>
       </c>
       <c r="S22">
-        <v>6.5781554933321159E-4</v>
+        <v>8.291095496851409e-5</v>
       </c>
       <c r="T22">
-        <v>8.1059905997414514</v>
+        <v>8.105990599741451</v>
       </c>
       <c r="U22">
-        <v>8.7944281953522038E-2</v>
+        <v>0.08794428195352204</v>
       </c>
       <c r="V22">
         <v>0.21681059625562235</v>
       </c>
       <c r="W22">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X22">
-        <v>1.1753630428607789E-2</v>
+        <v>0.011753704375988772</v>
       </c>
       <c r="Y22">
-        <v>4.2673129277420166E-4</v>
+        <v>7.534368061471835e-5</v>
       </c>
       <c r="Z22">
-        <v>57.117856681940374</v>
+        <v>57.118216036093514</v>
       </c>
       <c r="AA22">
-        <v>2.1642070842714602</v>
-      </c>
-    </row>
-    <row r="23" spans="16:27" x14ac:dyDescent="0.25">
+        <v>0.7193445613696161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="P23">
         <v>1.8453378879310343</v>
       </c>
       <c r="Q23">
-        <v>7.8517109555906791E-4</v>
+        <v>0.0007851710955590679</v>
       </c>
       <c r="R23">
-        <v>2.0847727544712608E-2</v>
+        <v>0.020849896154662595</v>
       </c>
       <c r="S23">
-        <v>6.922381659127593E-4</v>
+        <v>8.933015216161042e-5</v>
       </c>
       <c r="T23">
-        <v>8.5112901297285237</v>
+        <v>8.511290129728524</v>
       </c>
       <c r="U23">
-        <v>9.2337937926861915E-2</v>
+        <v>0.09233793792686192</v>
       </c>
       <c r="V23">
         <v>0.21681059625562235</v>
       </c>
       <c r="W23">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X23">
-        <v>1.1802594715982061E-2</v>
+        <v>0.011801580873467277</v>
       </c>
       <c r="Y23">
-        <v>4.3634093579015892E-4</v>
+        <v>7.843106021900351e-5</v>
       </c>
       <c r="Z23">
-        <v>57.355803175644134</v>
+        <v>57.3508763139558</v>
       </c>
       <c r="AA23">
-        <v>2.2097187804844709</v>
-      </c>
-    </row>
-    <row r="24" spans="16:27" x14ac:dyDescent="0.25">
+        <v>0.7292449154602323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="P24">
-        <v>1.9332111206896549</v>
+        <v>1.933211120689655</v>
       </c>
       <c r="Q24">
-        <v>8.0664457811436879E-4</v>
+        <v>0.0008066445781143688</v>
       </c>
       <c r="R24">
-        <v>2.1887012277113954E-2</v>
+        <v>0.021889042647022183</v>
       </c>
       <c r="S24">
-        <v>7.2745512971813067E-4</v>
+        <v>9.602479534056869e-5</v>
       </c>
       <c r="T24">
         <v>8.916589659715596</v>
       </c>
       <c r="U24">
-        <v>9.6732131368271121E-2</v>
+        <v>0.09673213136827112</v>
       </c>
       <c r="V24">
         <v>0.21681059625562235</v>
       </c>
       <c r="W24">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X24">
-        <v>1.1851592810491604E-2</v>
+        <v>0.011849454586296604</v>
       </c>
       <c r="Y24">
-        <v>4.4624979820605184E-4</v>
+        <v>8.154304004641756e-5</v>
       </c>
       <c r="Z24">
-        <v>57.593913958255811</v>
+        <v>57.58352305955726</v>
       </c>
       <c r="AA24">
-        <v>2.2566797529453235</v>
-      </c>
-    </row>
-    <row r="25" spans="16:27" x14ac:dyDescent="0.25">
+        <v>0.7393897280598409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="P25">
         <v>2.0210843534482756</v>
       </c>
       <c r="Q25">
-        <v>8.305061225032949E-4</v>
+        <v>0.0008305061225032949</v>
       </c>
       <c r="R25">
-        <v>2.2930603954672103E-2</v>
+        <v>0.02293239583495188</v>
       </c>
       <c r="S25">
-        <v>7.6349721448530151E-4</v>
+        <v>0.00010299721635496166</v>
       </c>
       <c r="T25">
-        <v>9.3218891897026683</v>
+        <v>9.321889189702668</v>
       </c>
       <c r="U25">
         <v>0.10112679221507505</v>
@@ -4891,36 +4878,36 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W25">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X25">
-        <v>1.1900620382172733E-2</v>
+        <v>0.011897325514692136</v>
       </c>
       <c r="Y25">
-        <v>4.5643104750361392E-4</v>
+        <v>8.467686023364525e-5</v>
       </c>
       <c r="Z25">
-        <v>57.832167987915483</v>
+        <v>57.816156273944564</v>
       </c>
       <c r="AA25">
-        <v>2.3049670159314433</v>
-      </c>
-    </row>
-    <row r="26" spans="16:27" x14ac:dyDescent="0.25">
+        <v>0.7497689476996419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="P26">
         <v>2.1089575862068966</v>
       </c>
       <c r="Q26">
-        <v>8.5655617541634493E-4</v>
+        <v>0.0008565561754163449</v>
       </c>
       <c r="R26">
-        <v>2.397850500247108E-2</v>
+        <v>0.023979955473784287</v>
       </c>
       <c r="S26">
-        <v>8.0039271721617082E-4</v>
+        <v>0.00011024949100613364</v>
       </c>
       <c r="T26">
-        <v>9.7271887196897424</v>
+        <v>9.727188719689742</v>
       </c>
       <c r="U26">
         <v>0.10552186206930061</v>
@@ -4929,33 +4916,33 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W26">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X26">
-        <v>1.1949673772718645E-2</v>
+        <v>0.01194519365887059</v>
       </c>
       <c r="Y26">
-        <v>4.668611925481074E-4</v>
+        <v>8.783013707133561e-5</v>
       </c>
       <c r="Z26">
-        <v>58.070547486742086</v>
+        <v>58.048775958170864</v>
       </c>
       <c r="AA26">
-        <v>2.3544723675295458</v>
-      </c>
-    </row>
-    <row r="27" spans="16:27" x14ac:dyDescent="0.25">
+        <v>0.7603728486437644</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="P27">
         <v>2.196830818965517</v>
       </c>
       <c r="Q27">
-        <v>8.8460141407673758E-4</v>
+        <v>0.0008846014140767376</v>
       </c>
       <c r="R27">
-        <v>2.5030717549099031E-2</v>
+        <v>0.025031721318871547</v>
       </c>
       <c r="S27">
-        <v>8.3816775205253484E-4</v>
+        <v>0.0001177834648369178</v>
       </c>
       <c r="T27">
         <v>10.132488249676813</v>
@@ -4967,33 +4954,33 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W27">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X27">
-        <v>1.1998749874226944E-2</v>
+        <v>0.011993059019047791</v>
       </c>
       <c r="Y27">
-        <v>4.775195119286397E-4</v>
+        <v>9.100080369353352e-5</v>
       </c>
       <c r="Z27">
-        <v>58.309037351595812</v>
+        <v>58.28138211328499</v>
       </c>
       <c r="AA27">
-        <v>2.4050998644982124</v>
-      </c>
-    </row>
-    <row r="28" spans="16:27" x14ac:dyDescent="0.25">
+        <v>0.7711920379385534</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="P28">
-        <v>2.2847040517241379</v>
+        <v>2.284704051724138</v>
       </c>
       <c r="Q28">
-        <v>9.1445828770016593E-4</v>
+        <v>0.0009144582877001659</v>
       </c>
       <c r="R28">
-        <v>2.6087243470617083E-2</v>
+        <v>0.026087693125582234</v>
       </c>
       <c r="S28">
-        <v>8.7684649032077424E-4</v>
+        <v>0.00012560077754248194</v>
       </c>
       <c r="T28">
         <v>10.537787779663887</v>
@@ -5005,33 +4992,33 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W28">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X28">
-        <v>1.2047846032737093E-2</v>
+        <v>0.012040921595438903</v>
       </c>
       <c r="Y28">
-        <v>4.8838760905126598E-4</v>
+        <v>9.418706111749188e-5</v>
       </c>
       <c r="Z28">
-        <v>58.547624685309415</v>
+        <v>58.51397474033254</v>
       </c>
       <c r="AA28">
-        <v>2.456763867266865</v>
-      </c>
-    </row>
-    <row r="29" spans="16:27" x14ac:dyDescent="0.25">
+        <v>0.7822174592922486</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="P29">
         <v>2.3725772844827584</v>
       </c>
       <c r="Q29">
-        <v>9.4595527173051055E-4</v>
+        <v>0.0009459552717305105</v>
       </c>
       <c r="R29">
-        <v>2.7148084426929071E-2</v>
+        <v>0.02714787064930624</v>
       </c>
       <c r="S29">
-        <v>9.1645135928159285E-4</v>
+        <v>0.00013370288555605657</v>
       </c>
       <c r="T29">
         <v>10.943087309650958</v>
@@ -5043,33 +5030,33 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W29">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X29">
-        <v>1.2096959970930255E-2</v>
+        <v>0.012088781388260417</v>
       </c>
       <c r="Y29">
-        <v>4.9944906062366343E-4</v>
+        <v>9.738733770684001e-5</v>
       </c>
       <c r="Z29">
-        <v>58.786298421040861</v>
+        <v>58.74655384036558</v>
       </c>
       <c r="AA29">
-        <v>2.509387502343059</v>
-      </c>
-    </row>
-    <row r="30" spans="16:27" x14ac:dyDescent="0.25">
+        <v>0.7934403941970856</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="P30">
         <v>2.4604505172413793</v>
       </c>
       <c r="Q30">
-        <v>9.7893406841331135E-4</v>
+        <v>0.0009789340684133114</v>
       </c>
       <c r="R30">
-        <v>2.8213241892041663E-2</v>
+        <v>0.0282122536454521</v>
       </c>
       <c r="S30">
-        <v>9.5700320893393558E-4</v>
+        <v>0.00014209108262364022</v>
       </c>
       <c r="T30">
         <v>11.348386839638032</v>
@@ -5081,33 +5068,33 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W30">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X30">
-        <v>1.2146089725761401E-2</v>
+        <v>0.012136638397728383</v>
       </c>
       <c r="Y30">
-        <v>5.1068913489846733E-4</v>
+        <v>0.00010060025549917358</v>
       </c>
       <c r="Z30">
-        <v>59.025049019190881</v>
+        <v>58.97911941443403</v>
       </c>
       <c r="AA30">
-        <v>2.5629014343988814</v>
-      </c>
-    </row>
-    <row r="31" spans="16:27" x14ac:dyDescent="0.25">
+        <v>0.8048524606792539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="P31">
         <v>2.5483237499999998</v>
       </c>
       <c r="Q31">
-        <v>1.01325E-3</v>
+        <v>0.00101325</v>
       </c>
       <c r="R31">
-        <v>2.9282717179379445E-2</v>
+        <v>0.029280841869446572</v>
       </c>
       <c r="S31">
-        <v>9.9852145388086241E-4</v>
+        <v>0.0001507665183429243</v>
       </c>
       <c r="T31">
         <v>11.753686369625104</v>
@@ -5119,19 +5106,19 @@
         <v>0.21681059625562235</v>
       </c>
       <c r="W31">
-        <v>2.3503417324359246E-3</v>
+        <v>0.0023503417324359246</v>
       </c>
       <c r="X31">
-        <v>1.2195233597815831E-2</v>
+        <v>0.012184492624057519</v>
       </c>
       <c r="Y31">
-        <v>5.2209456274723398E-4</v>
+        <v>0.00010382460213918194</v>
       </c>
       <c r="Z31">
-        <v>59.263868221296164</v>
+        <v>59.211671463581325</v>
       </c>
       <c r="AA31">
-        <v>2.6172428712559586</v>
+        <v>0.8164456100333032</v>
       </c>
     </row>
   </sheetData>

--- a/test/writer_output/Molar Volume Analysis.xlsx
+++ b/test/writer_output/Molar Volume Analysis.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Partial Molar Volume Analysis" r:id="rId4" sheetId="2"/>
     <sheet name="With hessian an uncertain input" r:id="rId6" sheetId="3"/>
     <sheet name="Also with jackknifing!" r:id="rId7" sheetId="4"/>
+    <sheet name="dualmode dilation &amp; jackknife" r:id="rId8" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -581,7 +582,7 @@
         <v>27</v>
       </c>
       <c r="F2">
-        <v>0.21681059625562235</v>
+        <v>0.17817941175298221</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -599,13 +600,13 @@
         <v>27</v>
       </c>
       <c r="L2">
-        <v>0.010795589317327492</v>
+        <v>0.010795582606098586</v>
       </c>
       <c r="M2" t="s">
         <v>27</v>
       </c>
       <c r="N2">
-        <v>52.46216708697694</v>
+        <v>43.114462213408345</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -629,19 +630,19 @@
         <v>27</v>
       </c>
       <c r="V2">
-        <v>0.21681059625562235</v>
+        <v>0.17817941175298221</v>
       </c>
       <c r="W2" t="s">
         <v>27</v>
       </c>
       <c r="X2">
-        <v>0.010795589317327492</v>
+        <v>0.010795582606098586</v>
       </c>
       <c r="Y2" t="s">
         <v>27</v>
       </c>
       <c r="Z2">
-        <v>52.46216708697694</v>
+        <v>43.114462213408345</v>
       </c>
       <c r="AA2" t="s">
         <v>27</v>
@@ -658,13 +659,13 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>2.0282703317762607</v>
+        <v>2.449497352479485</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3">
-        <v>0.21681059625562235</v>
+        <v>0.18083674421695575</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -676,19 +677,19 @@
         <v>27</v>
       </c>
       <c r="J3">
-        <v>0.004800103872732109</v>
+        <v>0.004800102251954486</v>
       </c>
       <c r="K3" t="s">
         <v>27</v>
       </c>
       <c r="L3">
-        <v>0.011035432198053252</v>
+        <v>0.01079820106514151</v>
       </c>
       <c r="M3" t="s">
         <v>27</v>
       </c>
       <c r="N3">
-        <v>53.62770580037176</v>
+        <v>43.76807609938999</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -700,31 +701,31 @@
         <v>27</v>
       </c>
       <c r="R3">
-        <v>0.0009507493335303291</v>
+        <v>0.0009507488020963906</v>
       </c>
       <c r="S3" t="s">
         <v>27</v>
       </c>
       <c r="T3">
-        <v>0.4052995299870725</v>
+        <v>0.49240731844863606</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
       </c>
       <c r="V3">
-        <v>0.21681059625562235</v>
+        <v>0.17873180797546914</v>
       </c>
       <c r="W3" t="s">
         <v>27</v>
       </c>
       <c r="X3">
-        <v>0.010843521553172808</v>
+        <v>0.01084351615421908</v>
       </c>
       <c r="Y3" t="s">
         <v>27</v>
       </c>
       <c r="Z3">
-        <v>52.695098230599946</v>
+        <v>43.44015307148589</v>
       </c>
       <c r="AA3" t="s">
         <v>27</v>
@@ -741,13 +742,13 @@
         <v>27</v>
       </c>
       <c r="D4">
-        <v>4.224784285543178</v>
+        <v>5.063901037152608</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4">
-        <v>0.21681059625562235</v>
+        <v>0.1834344556960193</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -759,19 +760,19 @@
         <v>27</v>
       </c>
       <c r="J4">
-        <v>0.010117311770503568</v>
+        <v>0.010117310634723431</v>
       </c>
       <c r="K4" t="s">
         <v>27</v>
       </c>
       <c r="L4">
-        <v>0.01129509112805449</v>
+        <v>0.010801101595907081</v>
       </c>
       <c r="M4" t="s">
         <v>27</v>
       </c>
       <c r="N4">
-        <v>54.889542442257174</v>
+        <v>44.40872802313298</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -783,31 +784,31 @@
         <v>27</v>
       </c>
       <c r="R4">
-        <v>0.001905710505038155</v>
+        <v>0.0019057095536052782</v>
       </c>
       <c r="S4" t="s">
         <v>27</v>
       </c>
       <c r="T4">
-        <v>0.810599059974145</v>
+        <v>0.9833101884528241</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
       </c>
       <c r="V4">
-        <v>0.21681059625562235</v>
+        <v>0.17927325903075117</v>
       </c>
       <c r="W4" t="s">
         <v>27</v>
       </c>
       <c r="X4">
-        <v>0.010891451000045294</v>
+        <v>0.010891446825086915</v>
       </c>
       <c r="Y4" t="s">
         <v>27</v>
       </c>
       <c r="Z4">
-        <v>52.928015820950925</v>
+        <v>43.76434739316399</v>
       </c>
       <c r="AA4" t="s">
         <v>27</v>
@@ -824,13 +825,13 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>5.981995448556714</v>
+        <v>7.13005651985377</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
       </c>
       <c r="F5">
-        <v>0.21681059625562235</v>
+        <v>0.18532627603702329</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -842,19 +843,19 @@
         <v>27</v>
       </c>
       <c r="J5">
-        <v>0.01446009876601928</v>
+        <v>0.014460098889179651</v>
       </c>
       <c r="K5" t="s">
         <v>27</v>
       </c>
       <c r="L5">
-        <v>0.011502759335172863</v>
+        <v>0.010803470573850449</v>
       </c>
       <c r="M5" t="s">
         <v>27</v>
       </c>
       <c r="N5">
-        <v>55.89872534652072</v>
+        <v>44.87657045946695</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>
@@ -866,31 +867,31 @@
         <v>27</v>
       </c>
       <c r="R5">
-        <v>0.002864883269456886</v>
+        <v>0.002864882001703317</v>
       </c>
       <c r="S5" t="s">
         <v>27</v>
       </c>
       <c r="T5">
-        <v>1.2158985899612178</v>
+        <v>1.4727472515695061</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
       </c>
       <c r="V5">
-        <v>0.21681059625562235</v>
+        <v>0.17980402772424994</v>
       </c>
       <c r="W5" t="s">
         <v>27</v>
       </c>
       <c r="X5">
-        <v>0.010939377658161886</v>
+        <v>0.010939374618932574</v>
       </c>
       <c r="Y5" t="s">
         <v>27</v>
       </c>
       <c r="Z5">
-        <v>53.16091985908412</v>
+        <v>44.08707423745635</v>
       </c>
       <c r="AA5" t="s">
         <v>27</v>
@@ -907,13 +908,13 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>7.944837705114385</v>
+        <v>9.414252357674307</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
       <c r="F6">
-        <v>0.21681059625562235</v>
+        <v>0.18726488102959535</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -925,19 +926,19 @@
         <v>27</v>
       </c>
       <c r="J6">
-        <v>0.019404618799188977</v>
+        <v>0.01940462040652413</v>
       </c>
       <c r="K6" t="s">
         <v>27</v>
       </c>
       <c r="L6">
-        <v>0.01173466722150307</v>
+        <v>0.010806167786924448</v>
       </c>
       <c r="M6" t="s">
         <v>27</v>
       </c>
       <c r="N6">
-        <v>57.025703219040864</v>
+        <v>45.35732286024531</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -949,31 +950,31 @@
         <v>27</v>
       </c>
       <c r="R6">
-        <v>0.00382826738173897</v>
+        <v>0.0038282658935873126</v>
       </c>
       <c r="S6" t="s">
         <v>27</v>
       </c>
       <c r="T6">
-        <v>1.62119811994829</v>
+        <v>1.9607558372517362</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
       </c>
       <c r="V6">
-        <v>0.21681059625562235</v>
+        <v>0.18032436995235632</v>
       </c>
       <c r="W6" t="s">
         <v>27</v>
       </c>
       <c r="X6">
-        <v>0.010987301527738191</v>
+        <v>0.010987299535985873</v>
       </c>
       <c r="Y6" t="s">
         <v>27</v>
       </c>
       <c r="Z6">
-        <v>53.39381034604727</v>
+        <v>44.40836209534838</v>
       </c>
       <c r="AA6" t="s">
         <v>27</v>
@@ -990,13 +991,13 @@
         <v>27</v>
       </c>
       <c r="D7">
-        <v>9.888986225895316</v>
+        <v>11.65449221043736</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
       <c r="F7">
-        <v>0.21681059625562235</v>
+        <v>0.18902199523337998</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -1008,19 +1009,19 @@
         <v>27</v>
       </c>
       <c r="J7">
-        <v>0.024399321022261056</v>
+        <v>0.02439932334731809</v>
       </c>
       <c r="K7" t="s">
         <v>27</v>
       </c>
       <c r="L7">
-        <v>0.011964302072882793</v>
+        <v>0.010808892364477574</v>
       </c>
       <c r="M7" t="s">
         <v>27</v>
       </c>
       <c r="N7">
-        <v>58.141635067498626</v>
+        <v>45.79445583993324</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -1032,31 +1033,31 @@
         <v>27</v>
       </c>
       <c r="R7">
-        <v>0.004795862596856049</v>
+        <v>0.004795860976474442</v>
       </c>
       <c r="S7" t="s">
         <v>27</v>
       </c>
       <c r="T7">
-        <v>2.0264976499353624</v>
+        <v>2.4473720180717717</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
       </c>
       <c r="V7">
-        <v>0.21681059625562235</v>
+        <v>0.18083453487483386</v>
       </c>
       <c r="W7" t="s">
         <v>27</v>
       </c>
       <c r="X7">
-        <v>0.011035222608991146</v>
+        <v>0.011035221576477516</v>
       </c>
       <c r="Y7" t="s">
         <v>27</v>
       </c>
       <c r="Z7">
-        <v>53.626687282894615</v>
+        <v>44.72823889517048</v>
       </c>
       <c r="AA7" t="s">
         <v>27</v>
@@ -1073,13 +1074,13 @@
         <v>27</v>
       </c>
       <c r="D8">
-        <v>11.753686369625104</v>
+        <v>13.784494468595295</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
       </c>
       <c r="F8">
-        <v>0.21681059625562235</v>
+        <v>0.19057053593990395</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
@@ -1091,19 +1092,19 @@
         <v>27</v>
       </c>
       <c r="J8">
-        <v>0.029280841869446572</v>
+        <v>0.02928084338601078</v>
       </c>
       <c r="K8" t="s">
         <v>27</v>
       </c>
       <c r="L8">
-        <v>0.012184492624057519</v>
+        <v>0.010811555192520306</v>
       </c>
       <c r="M8" t="s">
         <v>27</v>
       </c>
       <c r="N8">
-        <v>59.211671463581325</v>
+        <v>46.18099572351015</v>
       </c>
       <c r="O8" t="s">
         <v>27</v>
@@ -1115,31 +1116,31 @@
         <v>27</v>
       </c>
       <c r="R8">
-        <v>0.005767668669798498</v>
+        <v>0.005767666997602006</v>
       </c>
       <c r="S8" t="s">
         <v>27</v>
       </c>
       <c r="T8">
-        <v>2.4317971799224356</v>
+        <v>2.932630662178406</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
       </c>
       <c r="V8">
-        <v>0.21681059625562235</v>
+        <v>0.18133476508491816</v>
       </c>
       <c r="W8" t="s">
         <v>27</v>
       </c>
       <c r="X8">
-        <v>0.011083140902136801</v>
+        <v>0.011083140740637543</v>
       </c>
       <c r="Y8" t="s">
         <v>27</v>
       </c>
       <c r="Z8">
-        <v>53.859550670676064</v>
+        <v>45.046732008504215</v>
       </c>
       <c r="AA8" t="s">
         <v>27</v>
@@ -1153,31 +1154,31 @@
         <v>27</v>
       </c>
       <c r="R9">
-        <v>0.006743685355575679</v>
+        <v>0.00674368370422751</v>
       </c>
       <c r="S9" t="s">
         <v>27</v>
       </c>
       <c r="T9">
-        <v>2.837096709909508</v>
+        <v>3.416565483148806</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
       </c>
       <c r="V9">
-        <v>0.21681059625562235</v>
+        <v>0.18182529677691842</v>
       </c>
       <c r="W9" t="s">
         <v>27</v>
       </c>
       <c r="X9">
-        <v>0.011131056407390982</v>
+        <v>0.01113105702869599</v>
       </c>
       <c r="Y9" t="s">
         <v>27</v>
       </c>
       <c r="Z9">
-        <v>54.09240051044044</v>
+        <v>45.3638682565769</v>
       </c>
       <c r="AA9" t="s">
         <v>27</v>
@@ -1191,31 +1192,31 @@
         <v>27</v>
       </c>
       <c r="R10">
-        <v>0.007723912409216438</v>
+        <v>0.0077239108436287784</v>
       </c>
       <c r="S10" t="s">
         <v>27</v>
       </c>
       <c r="T10">
-        <v>3.24239623989658</v>
+        <v>3.899209087384611</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
       </c>
       <c r="V10">
-        <v>0.21681059625562235</v>
+        <v>0.18230635991115746</v>
       </c>
       <c r="W10" t="s">
         <v>27</v>
       </c>
       <c r="X10">
-        <v>0.01117896912497085</v>
+        <v>0.011178970440882896</v>
       </c>
       <c r="Y10" t="s">
         <v>27</v>
       </c>
       <c r="Z10">
-        <v>54.325236803243065</v>
+        <v>45.67967391707289</v>
       </c>
       <c r="AA10" t="s">
         <v>27</v>
@@ -1229,31 +1230,31 @@
         <v>27</v>
       </c>
       <c r="R11">
-        <v>0.00870834958576805</v>
+        <v>0.00870834816310384</v>
       </c>
       <c r="S11" t="s">
         <v>27</v>
       </c>
       <c r="T11">
-        <v>3.6476957698836525</v>
+        <v>4.380593019192256</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
       </c>
       <c r="V11">
-        <v>0.21681059625562235</v>
+        <v>0.1827781783761104</v>
       </c>
       <c r="W11" t="s">
         <v>27</v>
       </c>
       <c r="X11">
-        <v>0.011226879055092231</v>
+        <v>0.011226880977428966</v>
       </c>
       <c r="Y11" t="s">
         <v>27</v>
       </c>
       <c r="Z11">
-        <v>54.55805955013277</v>
+        <v>45.99417473131174</v>
       </c>
       <c r="AA11" t="s">
         <v>27</v>
@@ -1267,31 +1268,31 @@
         <v>27</v>
       </c>
       <c r="R12">
-        <v>0.009696996640297106</v>
+        <v>0.009696995409970821</v>
       </c>
       <c r="S12" t="s">
         <v>27</v>
       </c>
       <c r="T12">
-        <v>4.052995299870725</v>
+        <v>4.860747803678475</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
       </c>
       <c r="V12">
-        <v>0.21681059625562235</v>
+        <v>0.183240970147628</v>
       </c>
       <c r="W12" t="s">
         <v>27</v>
       </c>
       <c r="X12">
-        <v>0.011274786197971176</v>
+        <v>0.011274788638563793</v>
       </c>
       <c r="Y12" t="s">
         <v>27</v>
       </c>
       <c r="Z12">
-        <v>54.79086875215946</v>
+        <v>46.30739591173015</v>
       </c>
       <c r="AA12" t="s">
         <v>27</v>
@@ -1305,31 +1306,31 @@
         <v>27</v>
       </c>
       <c r="R13">
-        <v>0.010689853327888965</v>
+        <v>0.010689852331568606</v>
       </c>
       <c r="S13" t="s">
         <v>27</v>
       </c>
       <c r="T13">
-        <v>4.458294829857798</v>
+        <v>5.339702987583527</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>
       </c>
       <c r="V13">
-        <v>0.21681059625562235</v>
+        <v>0.18369494744514867</v>
       </c>
       <c r="W13" t="s">
         <v>27</v>
       </c>
       <c r="X13">
-        <v>0.011322690553823955</v>
+        <v>0.01132269342451786</v>
       </c>
       <c r="Y13" t="s">
         <v>27</v>
       </c>
       <c r="Z13">
-        <v>55.02366441037413</v>
+        <v>46.619362149646946</v>
       </c>
       <c r="AA13" t="s">
         <v>27</v>
@@ -1343,31 +1344,31 @@
         <v>27</v>
       </c>
       <c r="R14">
-        <v>0.011686919403648632</v>
+        <v>0.011686918675254843</v>
       </c>
       <c r="S14" t="s">
         <v>27</v>
       </c>
       <c r="T14">
-        <v>4.863594359844871</v>
+        <v>5.817487178166894</v>
       </c>
       <c r="U14" t="s">
         <v>27</v>
       </c>
       <c r="V14">
-        <v>0.21681059625562235</v>
+        <v>0.18414031688482524</v>
       </c>
       <c r="W14" t="s">
         <v>27</v>
       </c>
       <c r="X14">
-        <v>0.011370592122867285</v>
+        <v>0.011370595335520983</v>
       </c>
       <c r="Y14" t="s">
         <v>27</v>
       </c>
       <c r="Z14">
-        <v>55.25644652582993</v>
+        <v>46.9300976232392</v>
       </c>
       <c r="AA14" t="s">
         <v>27</v>
@@ -1381,31 +1382,31 @@
         <v>27</v>
       </c>
       <c r="R15">
-        <v>0.012688194622698878</v>
+        <v>0.012688194188409385</v>
       </c>
       <c r="S15" t="s">
         <v>27</v>
       </c>
       <c r="T15">
-        <v>5.2688938898319435</v>
+        <v>6.294128080252962</v>
       </c>
       <c r="U15" t="s">
         <v>27</v>
       </c>
       <c r="V15">
-        <v>0.21681059625562235</v>
+        <v>0.1845772796295066</v>
       </c>
       <c r="W15" t="s">
         <v>27</v>
       </c>
       <c r="X15">
-        <v>0.011418490905316325</v>
+        <v>0.011418494371802979</v>
       </c>
       <c r="Y15" t="s">
         <v>27</v>
       </c>
       <c r="Z15">
-        <v>55.48921509957244</v>
+        <v>47.23962600571443</v>
       </c>
       <c r="AA15" t="s">
         <v>27</v>
@@ -1419,31 +1420,31 @@
         <v>27</v>
       </c>
       <c r="R16">
-        <v>0.013693678740182458</v>
+        <v>0.01369367861843096</v>
       </c>
       <c r="S16" t="s">
         <v>27</v>
       </c>
       <c r="T16">
-        <v>5.674193419819016</v>
+        <v>6.769652531537481</v>
       </c>
       <c r="U16" t="s">
         <v>27</v>
       </c>
       <c r="V16">
-        <v>0.21681059625562235</v>
+        <v>0.18500603153553227</v>
       </c>
       <c r="W16" t="s">
         <v>27</v>
       </c>
       <c r="X16">
-        <v>0.011466386901387793</v>
+        <v>0.01146639053359455</v>
       </c>
       <c r="Y16" t="s">
         <v>27</v>
       </c>
       <c r="Z16">
-        <v>55.721970132654846</v>
+        <v>47.547970473636255</v>
       </c>
       <c r="AA16" t="s">
         <v>27</v>
@@ -1457,31 +1458,31 @@
         <v>27</v>
       </c>
       <c r="R17">
-        <v>0.014703371511261443</v>
+        <v>0.0147033717127385</v>
       </c>
       <c r="S17" t="s">
         <v>27</v>
       </c>
       <c r="T17">
-        <v>6.079492949806087</v>
+        <v>7.244086536249314</v>
       </c>
       <c r="U17" t="s">
         <v>27</v>
       </c>
       <c r="V17">
-        <v>0.21681059625562235</v>
+        <v>0.1854267632963093</v>
       </c>
       <c r="W17" t="s">
         <v>27</v>
       </c>
       <c r="X17">
-        <v>0.01151428011129818</v>
+        <v>0.011514283821124849</v>
       </c>
       <c r="Y17" t="s">
         <v>27</v>
       </c>
       <c r="Z17">
-        <v>55.954711626129175</v>
+        <v>47.85515371535657</v>
       </c>
       <c r="AA17" t="s">
         <v>27</v>
@@ -1495,31 +1496,31 @@
         <v>27</v>
       </c>
       <c r="R18">
-        <v>0.015717272691115447</v>
+        <v>0.015717273218772476</v>
       </c>
       <c r="S18" t="s">
         <v>27</v>
       </c>
       <c r="T18">
-        <v>6.48479247979316</v>
+        <v>7.717455297256173</v>
       </c>
       <c r="U18" t="s">
         <v>27</v>
       </c>
       <c r="V18">
-        <v>0.21681059625562235</v>
+        <v>0.1858396605826547</v>
       </c>
       <c r="W18" t="s">
         <v>27</v>
       </c>
       <c r="X18">
-        <v>0.011562170535263094</v>
+        <v>0.011562174234624356</v>
       </c>
       <c r="Y18" t="s">
         <v>27</v>
       </c>
       <c r="Z18">
-        <v>56.18743958104322</v>
+        <v>48.161197939561404</v>
       </c>
       <c r="AA18" t="s">
         <v>27</v>
@@ -1533,31 +1534,31 @@
         <v>27</v>
       </c>
       <c r="R19">
-        <v>0.01673538203494429</v>
+        <v>0.01673538288399179</v>
       </c>
       <c r="S19" t="s">
         <v>27</v>
       </c>
       <c r="T19">
-        <v>6.890092009780233</v>
+        <v>8.189783246697617</v>
       </c>
       <c r="U19" t="s">
         <v>27</v>
       </c>
       <c r="V19">
-        <v>0.21681059625562235</v>
+        <v>0.18624490417989684</v>
       </c>
       <c r="W19" t="s">
         <v>27</v>
       </c>
       <c r="X19">
-        <v>0.011610058173498361</v>
+        <v>0.011610061774322888</v>
       </c>
       <c r="Y19" t="s">
         <v>27</v>
       </c>
       <c r="Z19">
-        <v>56.42015399844579</v>
+        <v>48.46612488386201</v>
       </c>
       <c r="AA19" t="s">
         <v>27</v>
@@ -1571,31 +1572,31 @@
         <v>27</v>
       </c>
       <c r="R20">
-        <v>0.017757699297966667</v>
+        <v>0.017757700455876657</v>
       </c>
       <c r="S20" t="s">
         <v>27</v>
       </c>
       <c r="T20">
-        <v>7.295391539767305</v>
+        <v>8.661094075223545</v>
       </c>
       <c r="U20" t="s">
         <v>27</v>
       </c>
       <c r="V20">
-        <v>0.21681059625562235</v>
+        <v>0.18664267012173855</v>
       </c>
       <c r="W20" t="s">
         <v>27</v>
       </c>
       <c r="X20">
-        <v>0.011657943026220474</v>
+        <v>0.011657946440450484</v>
       </c>
       <c r="Y20" t="s">
         <v>27</v>
       </c>
       <c r="Z20">
-        <v>56.65285487938896</v>
+        <v>48.76995582343942</v>
       </c>
       <c r="AA20" t="s">
         <v>27</v>
@@ -1609,31 +1610,31 @@
         <v>27</v>
       </c>
       <c r="R21">
-        <v>0.0187842242354197</v>
+        <v>0.018784225681927058</v>
       </c>
       <c r="S21" t="s">
         <v>27</v>
       </c>
       <c r="T21">
-        <v>7.700691069754377</v>
+        <v>9.131410759911658</v>
       </c>
       <c r="U21" t="s">
         <v>27</v>
       </c>
       <c r="V21">
-        <v>0.21681059625562235</v>
+        <v>0.18703312982089454</v>
       </c>
       <c r="W21" t="s">
         <v>27</v>
       </c>
       <c r="X21">
-        <v>0.011705825093645261</v>
+        <v>0.011705828233237181</v>
       </c>
       <c r="Y21" t="s">
         <v>27</v>
       </c>
       <c r="Z21">
-        <v>56.885542224921565</v>
+        <v>49.07271157970491</v>
       </c>
       <c r="AA21" t="s">
         <v>27</v>
@@ -1647,31 +1648,31 @@
         <v>27</v>
       </c>
       <c r="R22">
-        <v>0.019814956602559608</v>
+        <v>0.0198149583096634</v>
       </c>
       <c r="S22" t="s">
         <v>27</v>
       </c>
       <c r="T22">
-        <v>8.10599059974145</v>
+        <v>9.600755590933032</v>
       </c>
       <c r="U22" t="s">
         <v>27</v>
       </c>
       <c r="V22">
-        <v>0.21681059625562235</v>
+        <v>0.18741645019652103</v>
       </c>
       <c r="W22" t="s">
         <v>27</v>
       </c>
       <c r="X22">
-        <v>0.011753704375988772</v>
+        <v>0.011753707152912574</v>
       </c>
       <c r="Y22" t="s">
         <v>27</v>
       </c>
       <c r="Z22">
-        <v>57.118216036093514</v>
+        <v>49.37441252896012</v>
       </c>
       <c r="AA22" t="s">
         <v>27</v>
@@ -1685,31 +1686,31 @@
         <v>27</v>
       </c>
       <c r="R23">
-        <v>0.020849896154662595</v>
+        <v>0.020849898086626517</v>
       </c>
       <c r="S23" t="s">
         <v>27</v>
       </c>
       <c r="T23">
-        <v>8.511290129728524</v>
+        <v>10.069150197030792</v>
       </c>
       <c r="U23" t="s">
         <v>27</v>
       </c>
       <c r="V23">
-        <v>0.21681059625562235</v>
+        <v>0.18779279379846484</v>
       </c>
       <c r="W23" t="s">
         <v>27</v>
       </c>
       <c r="X23">
-        <v>0.011801580873467277</v>
+        <v>0.011801583199706478</v>
       </c>
       <c r="Y23" t="s">
         <v>27</v>
       </c>
       <c r="Z23">
-        <v>57.3508763139558</v>
+        <v>49.67507861104553</v>
       </c>
       <c r="AA23" t="s">
         <v>27</v>
@@ -1723,31 +1724,31 @@
         <v>27</v>
       </c>
       <c r="R24">
-        <v>0.021889042647022183</v>
+        <v>0.021889044760376564</v>
       </c>
       <c r="S24" t="s">
         <v>27</v>
       </c>
       <c r="T24">
-        <v>8.916589659715596</v>
+        <v>10.53661556987307</v>
       </c>
       <c r="U24" t="s">
         <v>27</v>
       </c>
       <c r="V24">
-        <v>0.21681059625562235</v>
+        <v>0.18816231892836266</v>
       </c>
       <c r="W24" t="s">
         <v>27</v>
       </c>
       <c r="X24">
-        <v>0.011849454586296604</v>
+        <v>0.011849456373849154</v>
       </c>
       <c r="Y24" t="s">
         <v>27</v>
       </c>
       <c r="Z24">
-        <v>57.58352305955726</v>
+        <v>49.97472933795472</v>
       </c>
       <c r="AA24" t="s">
         <v>27</v>
@@ -1761,31 +1762,31 @@
         <v>27</v>
       </c>
       <c r="R25">
-        <v>0.02293239583495188</v>
+        <v>0.022932398078494565</v>
       </c>
       <c r="S25" t="s">
         <v>27</v>
       </c>
       <c r="T25">
-        <v>9.321889189702668</v>
+        <v>11.003172087337875</v>
       </c>
       <c r="U25" t="s">
         <v>27</v>
       </c>
       <c r="V25">
-        <v>0.21681059625562235</v>
+        <v>0.18852517975762803</v>
       </c>
       <c r="W25" t="s">
         <v>27</v>
       </c>
       <c r="X25">
-        <v>0.011897325514692136</v>
+        <v>0.011897326675569975</v>
       </c>
       <c r="Y25" t="s">
         <v>27</v>
       </c>
       <c r="Z25">
-        <v>57.816156273944564</v>
+        <v>50.27338380239604</v>
       </c>
       <c r="AA25" t="s">
         <v>27</v>
@@ -1799,31 +1800,31 @@
         <v>27</v>
       </c>
       <c r="R26">
-        <v>0.023979955473784287</v>
+        <v>0.023979957788581974</v>
       </c>
       <c r="S26" t="s">
         <v>27</v>
       </c>
       <c r="T26">
-        <v>9.727188719689742</v>
+        <v>11.468839535784081</v>
       </c>
       <c r="U26" t="s">
         <v>27</v>
       </c>
       <c r="V26">
-        <v>0.21681059625562235</v>
+        <v>0.18888152644236633</v>
       </c>
       <c r="W26" t="s">
         <v>27</v>
       </c>
       <c r="X26">
-        <v>0.01194519365887059</v>
+        <v>0.011945194105098977</v>
       </c>
       <c r="Y26" t="s">
         <v>27</v>
       </c>
       <c r="Z26">
-        <v>58.048775958170864</v>
+        <v>50.571060686307604</v>
       </c>
       <c r="AA26" t="s">
         <v>27</v>
@@ -1837,31 +1838,31 @@
         <v>27</v>
       </c>
       <c r="R27">
-        <v>0.025031721318871547</v>
+        <v>0.025031723638259784</v>
       </c>
       <c r="S27" t="s">
         <v>27</v>
       </c>
       <c r="T27">
-        <v>10.132488249676813</v>
+        <v>11.933637131359704</v>
       </c>
       <c r="U27" t="s">
         <v>27</v>
       </c>
       <c r="V27">
-        <v>0.21681059625562235</v>
+        <v>0.18923150523526344</v>
       </c>
       <c r="W27" t="s">
         <v>27</v>
       </c>
       <c r="X27">
-        <v>0.011993059019047791</v>
+        <v>0.011993058662665756</v>
       </c>
       <c r="Y27" t="s">
         <v>27</v>
       </c>
       <c r="Z27">
-        <v>58.28138211328499</v>
+        <v>50.86777826929122</v>
       </c>
       <c r="AA27" t="s">
         <v>27</v>
@@ -1875,31 +1876,31 @@
         <v>27</v>
       </c>
       <c r="R28">
-        <v>0.026087693125582234</v>
+        <v>0.026087695375170306</v>
       </c>
       <c r="S28" t="s">
         <v>27</v>
       </c>
       <c r="T28">
-        <v>10.537787779663887</v>
+        <v>12.397583540395692</v>
       </c>
       <c r="U28" t="s">
         <v>27</v>
       </c>
       <c r="V28">
-        <v>0.21681059625562235</v>
+        <v>0.18957525859449623</v>
       </c>
       <c r="W28" t="s">
         <v>27</v>
       </c>
       <c r="X28">
-        <v>0.012040921595438903</v>
+        <v>0.012040920348499906</v>
       </c>
       <c r="Y28" t="s">
         <v>27</v>
       </c>
       <c r="Z28">
-        <v>58.51397474033254</v>
+        <v>51.16355443697323</v>
       </c>
       <c r="AA28" t="s">
         <v>27</v>
@@ -1913,31 +1914,31 @@
         <v>27</v>
       </c>
       <c r="R29">
-        <v>0.02714787064930624</v>
+        <v>0.027147872746974056</v>
       </c>
       <c r="S29" t="s">
         <v>27</v>
       </c>
       <c r="T29">
-        <v>10.943087309650958</v>
+        <v>12.860696898930597</v>
       </c>
       <c r="U29" t="s">
         <v>27</v>
       </c>
       <c r="V29">
-        <v>0.21681059625562235</v>
+        <v>0.18991292528971457</v>
       </c>
       <c r="W29" t="s">
         <v>27</v>
       </c>
       <c r="X29">
-        <v>0.012088781388260417</v>
+        <v>0.012088779162831909</v>
       </c>
       <c r="Y29" t="s">
         <v>27</v>
       </c>
       <c r="Z29">
-        <v>58.74655384036558</v>
+        <v>51.458406689278426</v>
       </c>
       <c r="AA29" t="s">
         <v>27</v>
@@ -1951,31 +1952,31 @@
         <v>27</v>
       </c>
       <c r="R30">
-        <v>0.0282122536454521</v>
+        <v>0.028212255501353756</v>
       </c>
       <c r="S30" t="s">
         <v>27</v>
       </c>
       <c r="T30">
-        <v>11.348386839638032</v>
+        <v>13.322994831409183</v>
       </c>
       <c r="U30" t="s">
         <v>27</v>
       </c>
       <c r="V30">
-        <v>0.21681059625562235</v>
+        <v>0.19024464050514997</v>
       </c>
       <c r="W30" t="s">
         <v>27</v>
       </c>
       <c r="X30">
-        <v>0.012136638397728383</v>
+        <v>0.012136635105890692</v>
       </c>
       <c r="Y30" t="s">
         <v>27</v>
       </c>
       <c r="Z30">
-        <v>58.97911941443403</v>
+        <v>51.752352148594085</v>
       </c>
       <c r="AA30" t="s">
         <v>27</v>
@@ -1989,31 +1990,31 @@
         <v>27</v>
       </c>
       <c r="R31">
-        <v>0.029280841869446572</v>
+        <v>0.02928084338601078</v>
       </c>
       <c r="S31" t="s">
         <v>27</v>
       </c>
       <c r="T31">
-        <v>11.753686369625104</v>
+        <v>13.784494468595295</v>
       </c>
       <c r="U31" t="s">
         <v>27</v>
       </c>
       <c r="V31">
-        <v>0.21681059625562235</v>
+        <v>0.19057053593990395</v>
       </c>
       <c r="W31" t="s">
         <v>27</v>
       </c>
       <c r="X31">
-        <v>0.012184492624057519</v>
+        <v>0.012184488177906294</v>
       </c>
       <c r="Y31" t="s">
         <v>27</v>
       </c>
       <c r="Z31">
-        <v>59.211671463581325</v>
+        <v>52.04540756785243</v>
       </c>
       <c r="AA31" t="s">
         <v>27</v>
@@ -2147,19 +2148,19 @@
         <v>0.0</v>
       </c>
       <c r="K2">
-        <v>1.0938630875781951e-5</v>
+        <v>1.0938624075629427e-5</v>
       </c>
       <c r="L2">
-        <v>0.010795589317327492</v>
+        <v>0.010795582606098586</v>
       </c>
       <c r="M2">
-        <v>1.7124092564063638</v>
+        <v>5.967036655792579e-9</v>
       </c>
       <c r="N2">
-        <v>52.46216708697694</v>
+        <v>52.46213447313791</v>
       </c>
       <c r="O2">
-        <v>8321.611548939012</v>
+        <v>0.5687173335374325</v>
       </c>
       <c r="P2">
         <v>0.0</v>
@@ -2171,7 +2172,7 @@
         <v>0.0</v>
       </c>
       <c r="S2">
-        <v>1.0938630875781951e-5</v>
+        <v>1.0938624075629427e-5</v>
       </c>
       <c r="T2">
         <v>0.0</v>
@@ -2186,16 +2187,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X2">
-        <v>0.010795589317327492</v>
+        <v>0.010795582606098586</v>
       </c>
       <c r="Y2">
-        <v>1.7124092564063638</v>
+        <v>5.527294703318459e-7</v>
       </c>
       <c r="Z2">
-        <v>52.46216708697694</v>
+        <v>52.46213447313791</v>
       </c>
       <c r="AA2">
-        <v>8321.611548939012</v>
+        <v>0.5687236758185008</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -2227,22 +2228,22 @@
         <v>0.0002</v>
       </c>
       <c r="J3">
-        <v>0.004800103872732109</v>
+        <v>0.004800102251954486</v>
       </c>
       <c r="K3">
-        <v>0.7529962860656916</v>
+        <v>1.1181650632537954e-5</v>
       </c>
       <c r="L3">
-        <v>0.011035432198053252</v>
+        <v>0.01079820106514151</v>
       </c>
       <c r="M3">
-        <v>1.7122430881307247</v>
+        <v>6.099588024072491e-9</v>
       </c>
       <c r="N3">
-        <v>53.62770580037176</v>
+        <v>52.47485911759988</v>
       </c>
       <c r="O3">
-        <v>8320.804039674073</v>
+        <v>0.5688552754581002</v>
       </c>
       <c r="P3">
         <v>0.08787323275862068</v>
@@ -2251,10 +2252,10 @@
         <v>0.0009789340684133114</v>
       </c>
       <c r="R3">
-        <v>0.0009507493335303291</v>
+        <v>0.0009507488020963906</v>
       </c>
       <c r="S3">
-        <v>0.1504734782669294</v>
+        <v>1.0615087384755091e-5</v>
       </c>
       <c r="T3">
         <v>0.4052995299870725</v>
@@ -2269,16 +2270,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X3">
-        <v>0.010843521553172808</v>
+        <v>0.01084351615421908</v>
       </c>
       <c r="Y3">
-        <v>1.7123760440560847</v>
+        <v>5.339780208852373e-7</v>
       </c>
       <c r="Z3">
-        <v>52.695098230599946</v>
+        <v>52.69507199388379</v>
       </c>
       <c r="AA3">
-        <v>8321.450150617235</v>
+        <v>0.5712483927141521</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -2310,22 +2311,22 @@
         <v>0.0002</v>
       </c>
       <c r="J4">
-        <v>0.010117311770503568</v>
+        <v>0.010117310634723431</v>
       </c>
       <c r="K4">
-        <v>1.5683706966326942</v>
+        <v>1.144475375405421e-5</v>
       </c>
       <c r="L4">
-        <v>0.01129509112805449</v>
+        <v>0.010801101595907081</v>
       </c>
       <c r="M4">
-        <v>1.7120632454637865</v>
+        <v>6.243088043423531e-9</v>
       </c>
       <c r="N4">
-        <v>54.889542442257174</v>
+        <v>52.48895451574734</v>
       </c>
       <c r="O4">
-        <v>8319.93007853106</v>
+        <v>0.569008077078488</v>
       </c>
       <c r="P4">
         <v>0.17574646551724135</v>
@@ -2334,10 +2335,10 @@
         <v>0.0009459552717305105</v>
       </c>
       <c r="R4">
-        <v>0.001905710505038155</v>
+        <v>0.0019057095536052782</v>
       </c>
       <c r="S4">
-        <v>0.3009440376121977</v>
+        <v>1.0302821540963705e-5</v>
       </c>
       <c r="T4">
         <v>0.810599059974145</v>
@@ -2352,16 +2353,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X4">
-        <v>0.010891451000045294</v>
+        <v>0.010891446825086915</v>
       </c>
       <c r="Y4">
-        <v>1.7123428355726429</v>
+        <v>5.159581428634519e-7</v>
       </c>
       <c r="Z4">
-        <v>52.928015820950925</v>
+        <v>52.92799553235364</v>
       </c>
       <c r="AA4">
-        <v>8321.28877108747</v>
+        <v>0.5737729919865419</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -2393,22 +2394,22 @@
         <v>0.0002</v>
       </c>
       <c r="J5">
-        <v>0.01446009876601928</v>
+        <v>0.014460098889179651</v>
       </c>
       <c r="K5">
-        <v>2.220608567792961</v>
+        <v>1.1655174644579491e-5</v>
       </c>
       <c r="L5">
-        <v>0.011502759335172863</v>
+        <v>0.010803470573850449</v>
       </c>
       <c r="M5">
-        <v>1.7119194529871855</v>
+        <v>6.357853315424717e-9</v>
       </c>
       <c r="N5">
-        <v>55.89872534652072</v>
+        <v>52.500466783677986</v>
       </c>
       <c r="O5">
-        <v>8319.23130645228</v>
+        <v>0.5691328761920289</v>
       </c>
       <c r="P5">
         <v>0.26361969827586207</v>
@@ -2417,10 +2418,10 @@
         <v>0.0009144582877001659</v>
       </c>
       <c r="R5">
-        <v>0.002864883269456886</v>
+        <v>0.002864882001703317</v>
       </c>
       <c r="S5">
-        <v>0.4514116790381079</v>
+        <v>1.0003601782539814e-5</v>
       </c>
       <c r="T5">
         <v>1.2158985899612178</v>
@@ -2435,16 +2436,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X5">
-        <v>0.010939377658161886</v>
+        <v>0.010939374618932574</v>
       </c>
       <c r="Y5">
-        <v>1.7123096309554384</v>
+        <v>4.987486123944761e-7</v>
       </c>
       <c r="Z5">
-        <v>53.16091985908412</v>
+        <v>53.16090508966752</v>
       </c>
       <c r="AA5">
-        <v>8321.12741034681</v>
+        <v>0.5762974731905413</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -2476,22 +2477,22 @@
         <v>0.0002</v>
       </c>
       <c r="J6">
-        <v>0.019404618799188977</v>
+        <v>0.01940462040652413</v>
       </c>
       <c r="K6">
-        <v>2.9491073773360066</v>
+        <v>1.1890154532699926e-5</v>
       </c>
       <c r="L6">
-        <v>0.01173466722150307</v>
+        <v>0.010806167786924448</v>
       </c>
       <c r="M6">
-        <v>1.711758919488349</v>
+        <v>6.486012040078752e-9</v>
       </c>
       <c r="N6">
-        <v>57.025703219040864</v>
+        <v>52.513574140654804</v>
       </c>
       <c r="O6">
-        <v>8318.451179933523</v>
+        <v>0.5692749669200358</v>
       </c>
       <c r="P6">
         <v>0.3514929310344827</v>
@@ -2500,10 +2501,10 @@
         <v>0.0008846014140767376</v>
       </c>
       <c r="R6">
-        <v>0.00382826738173897</v>
+        <v>0.0038282658935873126</v>
       </c>
       <c r="S6">
-        <v>0.6018764027425015</v>
+        <v>9.719380706417893e-6</v>
       </c>
       <c r="T6">
         <v>1.62119811994829</v>
@@ -2518,16 +2519,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X6">
-        <v>0.010987301527738191</v>
+        <v>0.010987299535985873</v>
       </c>
       <c r="Y6">
-        <v>1.712276430203871</v>
+        <v>4.824356146332317e-7</v>
       </c>
       <c r="Z6">
-        <v>53.39381034604727</v>
+        <v>53.393800666942234</v>
       </c>
       <c r="AA6">
-        <v>8320.96606839233</v>
+        <v>0.5788218358890127</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -2559,22 +2560,22 @@
         <v>0.0002</v>
       </c>
       <c r="J7">
-        <v>0.024399321022261056</v>
+        <v>0.02439932334731809</v>
       </c>
       <c r="K7">
-        <v>3.6706007580621187</v>
+        <v>1.2122829213525172e-5</v>
       </c>
       <c r="L7">
-        <v>0.011964302072882793</v>
+        <v>0.010808892364477574</v>
       </c>
       <c r="M7">
-        <v>1.7116000040240604</v>
+        <v>6.61291219892844e-9</v>
       </c>
       <c r="N7">
-        <v>58.141635067498626</v>
+        <v>52.52681447785474</v>
       </c>
       <c r="O7">
-        <v>8317.678916412666</v>
+        <v>0.5694184992244327</v>
       </c>
       <c r="P7">
         <v>0.43936616379310345</v>
@@ -2583,10 +2584,10 @@
         <v>0.0008565561754163449</v>
       </c>
       <c r="R7">
-        <v>0.00479586259685616</v>
+        <v>0.004795860976474442</v>
       </c>
       <c r="S7">
-        <v>0.7523382090026965</v>
+        <v>9.452287188419406e-6</v>
       </c>
       <c r="T7">
         <v>2.026497649935363</v>
@@ -2601,16 +2602,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X7">
-        <v>0.011035222608991146</v>
+        <v>0.011035221576477516</v>
       </c>
       <c r="Y7">
-        <v>1.7122432333173405</v>
+        <v>4.6711252710701246e-7</v>
       </c>
       <c r="Z7">
-        <v>53.626687282894615</v>
+        <v>53.62668226529891</v>
       </c>
       <c r="AA7">
-        <v>8320.80474522112</v>
+        <v>0.5813460796527182</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -2642,22 +2643,22 @@
         <v>0.0002</v>
       </c>
       <c r="J8">
-        <v>0.029280841869446572</v>
+        <v>0.02928084338601078</v>
       </c>
       <c r="K8">
-        <v>4.3625470944131495</v>
+        <v>1.2345932646263686e-5</v>
       </c>
       <c r="L8">
-        <v>0.012184492624057519</v>
+        <v>0.010811555192520306</v>
       </c>
       <c r="M8">
-        <v>1.7114476659933757</v>
+        <v>6.734590986403345e-9</v>
       </c>
       <c r="N8">
-        <v>59.211671463581325</v>
+        <v>52.539754737584474</v>
       </c>
       <c r="O8">
-        <v>8316.938616519421</v>
+        <v>0.5695587785292648</v>
       </c>
       <c r="P8">
         <v>0.5272393965517241</v>
@@ -2666,10 +2667,10 @@
         <v>0.0008305061225032949</v>
       </c>
       <c r="R8">
-        <v>0.005767668669798498</v>
+        <v>0.005767666997602006</v>
       </c>
       <c r="S8">
-        <v>0.9027970981092219</v>
+        <v>9.20461624166502e-6</v>
       </c>
       <c r="T8">
         <v>2.4317971799224356</v>
@@ -2684,16 +2685,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X8">
-        <v>0.011083140902136801</v>
+        <v>0.011083140740637543</v>
       </c>
       <c r="Y8">
-        <v>1.7122100402952471</v>
+        <v>4.5287926287607224e-7</v>
       </c>
       <c r="Z8">
-        <v>53.859550670676064</v>
+        <v>53.859549885855444</v>
       </c>
       <c r="AA8">
-        <v>8320.643440830263</v>
+        <v>0.5838702040600664</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -2704,10 +2705,10 @@
         <v>0.0008066445781143688</v>
       </c>
       <c r="R9">
-        <v>0.006743685355575679</v>
+        <v>0.00674368370422751</v>
       </c>
       <c r="S9">
-        <v>1.0532530703563527</v>
+        <v>8.978806800879429e-6</v>
       </c>
       <c r="T9">
         <v>2.837096709909508</v>
@@ -2722,16 +2723,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X9">
-        <v>0.011131056407390982</v>
+        <v>0.01113105702869599</v>
       </c>
       <c r="Y9">
-        <v>1.712176851136991</v>
+        <v>4.3984103939753587e-7</v>
       </c>
       <c r="Z9">
-        <v>54.09240051044044</v>
+        <v>54.09240352972972</v>
       </c>
       <c r="AA9">
-        <v>8320.482155216845</v>
+        <v>0.5863942086969807</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -2742,10 +2743,10 @@
         <v>0.0007851710955590679</v>
       </c>
       <c r="R10">
-        <v>0.007723912409216438</v>
+        <v>0.0077239108436287784</v>
       </c>
       <c r="S10">
-        <v>1.2037061260397421</v>
+        <v>8.777404468290404e-6</v>
       </c>
       <c r="T10">
         <v>3.24239623989658</v>
@@ -2760,16 +2761,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X10">
-        <v>0.01117896912497085</v>
+        <v>0.011178970440882896</v>
       </c>
       <c r="Y10">
-        <v>1.7121436658419722</v>
+        <v>4.28106445986777e-7</v>
       </c>
       <c r="Z10">
-        <v>54.325236803243065</v>
+        <v>54.32524319803964</v>
       </c>
       <c r="AA10">
-        <v>8320.320888377946</v>
+        <v>0.5889180931567379</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -2780,10 +2781,10 @@
         <v>0.000766286461589799</v>
       </c>
       <c r="R11">
-        <v>0.00870834958576805</v>
+        <v>0.00870834816310384</v>
       </c>
       <c r="S11">
-        <v>1.3541562654556343</v>
+        <v>8.603006898883974e-6</v>
       </c>
       <c r="T11">
         <v>3.647695769883653</v>
@@ -2798,16 +2799,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X11">
-        <v>0.011226879055092231</v>
+        <v>0.011226880977428966</v>
       </c>
       <c r="Y11">
-        <v>1.7121104844095913</v>
+        <v>4.1778471835486195e-7</v>
       </c>
       <c r="Z11">
-        <v>54.55805955013277</v>
+        <v>54.55806889190634</v>
       </c>
       <c r="AA11">
-        <v>8320.159640310658</v>
+        <v>0.5914418570398465</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -2818,10 +2819,10 @@
         <v>0.0007501862109799612</v>
       </c>
       <c r="R12">
-        <v>0.009696996640297328</v>
+        <v>0.009696995409970821</v>
       </c>
       <c r="S12">
-        <v>1.5046034889005464</v>
+        <v>8.458190968364155e-6</v>
       </c>
       <c r="T12">
         <v>4.052995299870726</v>
@@ -2836,16 +2837,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X12">
-        <v>0.011274786197971176</v>
+        <v>0.011274788638563793</v>
       </c>
       <c r="Y12">
-        <v>1.7120773068392487</v>
+        <v>4.089822027269646e-7</v>
       </c>
       <c r="Z12">
-        <v>54.79086875215946</v>
+        <v>54.790880612445534</v>
       </c>
       <c r="AA12">
-        <v>8319.998411012066</v>
+        <v>0.5939654999537973</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -2856,10 +2857,10 @@
         <v>0.0007370528333080308</v>
       </c>
       <c r="R13">
-        <v>0.010689853327888965</v>
+        <v>0.010689852331568606</v>
       </c>
       <c r="S13">
-        <v>1.6550477966711277</v>
+        <v>8.345423269219176e-6</v>
       </c>
       <c r="T13">
         <v>4.458294829857798</v>
@@ -2874,16 +2875,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X13">
-        <v>0.011322690553823955</v>
+        <v>0.01132269342451786</v>
       </c>
       <c r="Y13">
-        <v>1.7120441331303455</v>
+        <v>4.017981083011594e-7</v>
       </c>
       <c r="Z13">
-        <v>55.02366441037413</v>
+        <v>55.02367836077728</v>
       </c>
       <c r="AA13">
-        <v>8319.837200479255</v>
+        <v>0.5964890215130205</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -2894,10 +2895,10 @@
         <v>0.0007270471271139099</v>
       </c>
       <c r="R14">
-        <v>0.011686919403648632</v>
+        <v>0.011686918675254843</v>
       </c>
       <c r="S14">
-        <v>1.8054891890640863</v>
+        <v>8.26695867226545e-6</v>
       </c>
       <c r="T14">
         <v>4.863594359844871</v>
@@ -2912,16 +2913,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X14">
-        <v>0.011370592122867285</v>
+        <v>0.011370595335520983</v>
       </c>
       <c r="Y14">
-        <v>1.7120109632822813</v>
+        <v>3.9631979646187854e-7</v>
       </c>
       <c r="Z14">
-        <v>55.25644652582993</v>
+        <v>55.2564621380184</v>
       </c>
       <c r="AA14">
-        <v>8319.676008709315</v>
+        <v>0.5990124213386574</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -2932,10 +2933,10 @@
         <v>0.0007202994439926026</v>
       </c>
       <c r="R15">
-        <v>0.012688194622698878</v>
+        <v>0.012688194188409385</v>
       </c>
       <c r="S15">
-        <v>1.9559276663761502</v>
+        <v>8.224735147242375e-6</v>
       </c>
       <c r="T15">
         <v>5.2688938898319435</v>
@@ -2950,16 +2951,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X15">
-        <v>0.011418490905316325</v>
+        <v>0.011418494371802979</v>
       </c>
       <c r="Y15">
-        <v>1.7119777972944574</v>
+        <v>3.926180116973163e-7</v>
       </c>
       <c r="Z15">
-        <v>55.48921509957244</v>
+        <v>55.4892319452857</v>
       </c>
       <c r="AA15">
-        <v>8319.51483569933</v>
+        <v>0.6015356990584529</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -2970,10 +2971,10 @@
         <v>0.0007169017861616635</v>
       </c>
       <c r="R16">
-        <v>0.013693678740182458</v>
+        <v>0.01369367861843096</v>
       </c>
       <c r="S16">
-        <v>2.1063632289040473</v>
+        <v>8.220275854361029e-6</v>
       </c>
       <c r="T16">
         <v>5.674193419819016</v>
@@ -2988,16 +2989,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X16">
-        <v>0.011466386901387793</v>
+        <v>0.01146639053359455</v>
       </c>
       <c r="Y16">
-        <v>1.7119446351662748</v>
+        <v>3.9074257941468e-7</v>
       </c>
       <c r="Z16">
-        <v>55.721970132654846</v>
+        <v>55.7219877837003</v>
       </c>
       <c r="AA16">
-        <v>8319.353681446393</v>
+        <v>0.6040588543066641</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -3008,10 +3009,10 @@
         <v>0.0007169017861616635</v>
       </c>
       <c r="R17">
-        <v>0.014703371511261443</v>
+        <v>0.0147033717127385</v>
       </c>
       <c r="S17">
-        <v>2.25679587694449</v>
+        <v>8.254610637736679e-6</v>
       </c>
       <c r="T17">
         <v>6.079492949806088</v>
@@ -3026,16 +3027,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X17">
-        <v>0.01151428011129818</v>
+        <v>0.011514283821124849</v>
       </c>
       <c r="Y17">
-        <v>1.7119114768971344</v>
+        <v>3.9071913108767153e-7</v>
       </c>
       <c r="Z17">
-        <v>55.954711626129175</v>
+        <v>55.9547296543758</v>
       </c>
       <c r="AA17">
-        <v>8319.19254594759</v>
+        <v>0.6065818867237958</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -3046,10 +3047,10 @@
         <v>0.0007202994439926026</v>
       </c>
       <c r="R18">
-        <v>0.015717272691115447</v>
+        <v>0.015717273218772476</v>
       </c>
       <c r="S18">
-        <v>2.4072256107941676</v>
+        <v>8.328227672545498e-6</v>
       </c>
       <c r="T18">
         <v>6.48479247979316</v>
@@ -3064,16 +3065,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X18">
-        <v>0.011562170535263094</v>
+        <v>0.011562174234624356</v>
       </c>
       <c r="Y18">
-        <v>1.7118783224864371</v>
+        <v>3.9254733332569906e-7</v>
       </c>
       <c r="Z18">
-        <v>56.18743958104322</v>
+        <v>56.18745755843222</v>
       </c>
       <c r="AA18">
-        <v>8319.031429200011</v>
+        <v>0.609104795956621</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -3084,10 +3085,10 @@
         <v>0.0007270471271139098</v>
       </c>
       <c r="R19">
-        <v>0.01673538203494429</v>
+        <v>0.01673538288399179</v>
       </c>
       <c r="S19">
-        <v>2.557652430749743</v>
+        <v>8.44106205863671e-6</v>
       </c>
       <c r="T19">
         <v>6.890092009780233</v>
@@ -3102,16 +3103,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X19">
-        <v>0.011610058173498361</v>
+        <v>0.011610061774322888</v>
       </c>
       <c r="Y19">
-        <v>1.7118451719335848</v>
+        <v>3.9620089566366146e-7</v>
       </c>
       <c r="Z19">
-        <v>56.42015399844579</v>
+        <v>56.4201714969864</v>
       </c>
       <c r="AA19">
-        <v>8318.87033120075</v>
+        <v>0.6116275816579475</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -3122,10 +3123,10 @@
         <v>0.0007370528333080308</v>
       </c>
       <c r="R20">
-        <v>0.017757699297966667</v>
+        <v>0.017757700455876657</v>
       </c>
       <c r="S20">
-        <v>2.708076337107845</v>
+        <v>8.592522454487535e-6</v>
       </c>
       <c r="T20">
         <v>7.295391539767306</v>
@@ -3140,16 +3141,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X20">
-        <v>0.011657943026220474</v>
+        <v>0.011657946440450484</v>
       </c>
       <c r="Y20">
-        <v>1.7118120252379774</v>
+        <v>4.0162935632525835e-7</v>
       </c>
       <c r="Z20">
-        <v>56.65285487938896</v>
+        <v>56.6528714711562</v>
       </c>
       <c r="AA20">
-        <v>8318.709251946886</v>
+        <v>0.6141502434865383</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -3160,10 +3161,10 @@
         <v>0.0007501862109799612</v>
       </c>
       <c r="R21">
-        <v>0.0187842242354197</v>
+        <v>0.018784225681927058</v>
       </c>
       <c r="S21">
-        <v>2.8584973301650685</v>
+        <v>8.781550928674434e-6</v>
       </c>
       <c r="T21">
         <v>7.700691069754377</v>
@@ -3178,16 +3179,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X21">
-        <v>0.011705825093645261</v>
+        <v>0.011705828233237181</v>
       </c>
       <c r="Y21">
-        <v>1.7117788823990174</v>
+        <v>4.0876136981566473e-7</v>
       </c>
       <c r="Z21">
-        <v>56.885542224921565</v>
+        <v>56.88555748205955</v>
       </c>
       <c r="AA21">
-        <v>8318.548191435524</v>
+        <v>0.6166727811069782</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -3198,10 +3199,10 @@
         <v>0.000766286461589799</v>
       </c>
       <c r="R22">
-        <v>0.019814956602560052</v>
+        <v>0.0198149583096634</v>
       </c>
       <c r="S22">
-        <v>3.0089154102179743</v>
+        <v>9.006706664768072e-6</v>
       </c>
       <c r="T22">
         <v>8.105990599741451</v>
@@ -3216,16 +3217,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X22">
-        <v>0.011753704375988772</v>
+        <v>0.011753707152912574</v>
       </c>
       <c r="Y22">
-        <v>1.7117457434161056</v>
+        <v>4.175090188063422e-7</v>
       </c>
       <c r="Z22">
-        <v>57.118216036093514</v>
+        <v>57.118229530812165</v>
       </c>
       <c r="AA22">
-        <v>8318.387149663744</v>
+        <v>0.6191951941895314</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -3236,10 +3237,10 @@
         <v>0.0007851710955590679</v>
       </c>
       <c r="R23">
-        <v>0.020849896154662595</v>
+        <v>0.020849898086626517</v>
       </c>
       <c r="S23">
-        <v>3.1593305775630824</v>
+        <v>9.266262010245091e-6</v>
       </c>
       <c r="T23">
         <v>8.511290129728524</v>
@@ -3254,16 +3255,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X23">
-        <v>0.011801580873467277</v>
+        <v>0.011801583199706478</v>
       </c>
       <c r="Y23">
-        <v>1.7117126082886442</v>
+        <v>4.2777258945313483e-7</v>
       </c>
       <c r="Z23">
-        <v>57.3508763139558</v>
+        <v>57.350887618530855</v>
       </c>
       <c r="AA23">
-        <v>8318.226126628644</v>
+        <v>0.6217174824100596</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -3274,10 +3275,10 @@
         <v>0.0008066445781143688</v>
       </c>
       <c r="R24">
-        <v>0.021889042647022183</v>
+        <v>0.021889044760376564</v>
       </c>
       <c r="S24">
-        <v>3.3097428324968785</v>
+        <v>9.558299737568215e-6</v>
       </c>
       <c r="T24">
         <v>8.916589659715596</v>
@@ -3292,16 +3293,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X24">
-        <v>0.011849454586296604</v>
+        <v>0.011849456373849154</v>
       </c>
       <c r="Y24">
-        <v>1.7116794770160342</v>
+        <v>4.39445285035673e-7</v>
       </c>
       <c r="Z24">
-        <v>57.58352305955726</v>
+        <v>57.58353174633459</v>
       </c>
       <c r="AA24">
-        <v>8318.065122327313</v>
+        <v>0.6242396454499206</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -3312,10 +3313,10 @@
         <v>0.0008305061225032949</v>
       </c>
       <c r="R25">
-        <v>0.02293239583495188</v>
+        <v>0.022932398078494565</v>
       </c>
       <c r="S25">
-        <v>3.4601521753158075</v>
+        <v>9.880802645482636e-6</v>
       </c>
       <c r="T25">
         <v>9.321889189702668</v>
@@ -3330,16 +3331,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X25">
-        <v>0.011897325514692136</v>
+        <v>0.011897326675569975</v>
       </c>
       <c r="Y25">
-        <v>1.7116463495976781</v>
+        <v>4.524174734320857e-7</v>
       </c>
       <c r="Z25">
-        <v>57.816156273944564</v>
+        <v>57.816161915338036</v>
       </c>
       <c r="AA25">
-        <v>8317.904136756846</v>
+        <v>0.6267616829957868</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -3350,10 +3351,10 @@
         <v>0.0008565561754163449</v>
       </c>
       <c r="R26">
-        <v>0.023979955473784287</v>
+        <v>0.023979957788581974</v>
       </c>
       <c r="S26">
-        <v>3.610558606316278</v>
+        <v>1.0231729777269465e-5</v>
       </c>
       <c r="T26">
         <v>9.727188719689742</v>
@@ -3368,16 +3369,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X26">
-        <v>0.01194519365887059</v>
+        <v>0.011945194105098977</v>
       </c>
       <c r="Y26">
-        <v>1.7116132260329773</v>
+        <v>4.665802206880295e-7</v>
       </c>
       <c r="Z26">
-        <v>58.048775958170864</v>
+        <v>58.04877812665908</v>
       </c>
       <c r="AA26">
-        <v>8317.743169914334</v>
+        <v>0.6292835947396198</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -3388,10 +3389,10 @@
         <v>0.0008846014140767376</v>
       </c>
       <c r="R27">
-        <v>0.025031721318871547</v>
+        <v>0.025031723638259784</v>
       </c>
       <c r="S27">
-        <v>3.760962125794652</v>
+        <v>1.0609076652099515e-5</v>
       </c>
       <c r="T27">
         <v>10.132488249676813</v>
@@ -3406,16 +3407,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X27">
-        <v>0.011993059019047791</v>
+        <v>0.011993058662665756</v>
       </c>
       <c r="Y27">
-        <v>1.7115801063213336</v>
+        <v>4.818280126434791e-7</v>
       </c>
       <c r="Z27">
-        <v>58.28138211328499</v>
+        <v>58.28138038141345</v>
       </c>
       <c r="AA27">
-        <v>8317.582221796873</v>
+        <v>0.6318053803785059</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -3426,10 +3427,10 @@
         <v>0.0009144582877001659</v>
       </c>
       <c r="R28">
-        <v>0.026087693125582234</v>
+        <v>0.026087695375170306</v>
       </c>
       <c r="S28">
-        <v>3.9113627340472608</v>
+        <v>1.101091940422347e-5</v>
       </c>
       <c r="T28">
         <v>10.537787779663887</v>
@@ -3444,16 +3445,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X28">
-        <v>0.012040921595438903</v>
+        <v>0.012040920348499906</v>
       </c>
       <c r="Y28">
-        <v>1.7115469904621492</v>
+        <v>4.980606827693016e-7</v>
       </c>
       <c r="Z28">
-        <v>58.51397474033254</v>
+        <v>58.51396868071689</v>
       </c>
       <c r="AA28">
-        <v>8317.421292401556</v>
+        <v>0.634327039614576</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -3464,10 +3465,10 @@
         <v>0.0009459552717305105</v>
       </c>
       <c r="R29">
-        <v>0.02714787064930624</v>
+        <v>0.027147872746974056</v>
       </c>
       <c r="S29">
-        <v>4.061760431370389</v>
+        <v>1.1435444377867013e-5</v>
       </c>
       <c r="T29">
         <v>10.943087309650958</v>
@@ -3482,16 +3483,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X29">
-        <v>0.012088781388260417</v>
+        <v>0.012088779162831909</v>
       </c>
       <c r="Y29">
-        <v>1.711513878454827</v>
+        <v>5.151846382638506e-7</v>
       </c>
       <c r="Z29">
-        <v>58.74655384036558</v>
+        <v>58.74654302568944</v>
       </c>
       <c r="AA29">
-        <v>8317.260381725479</v>
+        <v>0.6368485721549535</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -3502,10 +3503,10 @@
         <v>0.0009789340684133114</v>
       </c>
       <c r="R30">
-        <v>0.0282122536454521</v>
+        <v>0.028212255501353756</v>
       </c>
       <c r="S30">
-        <v>4.212155218060283</v>
+        <v>1.1880965581057335e-5</v>
       </c>
       <c r="T30">
         <v>11.348386839638032</v>
@@ -3520,16 +3521,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X30">
-        <v>0.012136638397728383</v>
+        <v>0.012136635105890692</v>
       </c>
       <c r="Y30">
-        <v>1.711480770298768</v>
+        <v>5.331135118986138e-7</v>
       </c>
       <c r="Z30">
-        <v>58.97911941443403</v>
+        <v>58.97910341744361</v>
       </c>
       <c r="AA30">
-        <v>8317.099489765735</v>
+        <v>0.6393699777115255</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -3540,10 +3541,10 @@
         <v>0.00101325</v>
       </c>
       <c r="R31">
-        <v>0.029280841869446572</v>
+        <v>0.02928084338601078</v>
       </c>
       <c r="S31">
-        <v>4.3625470944131495</v>
+        <v>1.2345932646263686e-5</v>
       </c>
       <c r="T31">
         <v>11.753686369625104</v>
@@ -3558,16 +3559,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X31">
-        <v>0.012184492624057519</v>
+        <v>0.012184488177906294</v>
       </c>
       <c r="Y31">
-        <v>1.7114476659933757</v>
+        <v>5.517683739736065e-7</v>
       </c>
       <c r="Z31">
-        <v>59.211671463581325</v>
+        <v>59.21164985709727</v>
       </c>
       <c r="AA31">
-        <v>8316.938616519421</v>
+        <v>0.6418912560009887</v>
       </c>
     </row>
   </sheetData>
@@ -3698,19 +3699,19 @@
         <v>0.0</v>
       </c>
       <c r="K2">
-        <v>1.0938630875781951e-5</v>
+        <v>1.0938624075629427e-5</v>
       </c>
       <c r="L2">
-        <v>0.010795589317327492</v>
+        <v>0.010795582606098586</v>
       </c>
       <c r="M2">
-        <v>3.224409330879928e-5</v>
+        <v>3.2239926638040694e-5</v>
       </c>
       <c r="N2">
-        <v>52.46216708697694</v>
+        <v>52.46213447313791</v>
       </c>
       <c r="O2">
-        <v>0.5899089364870984</v>
+        <v>0.5899032175436166</v>
       </c>
       <c r="P2">
         <v>0.0</v>
@@ -3722,7 +3723,7 @@
         <v>0.0</v>
       </c>
       <c r="S2">
-        <v>1.0938630875781951e-5</v>
+        <v>1.0938624075629427e-5</v>
       </c>
       <c r="T2">
         <v>0.0</v>
@@ -3737,16 +3738,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X2">
-        <v>0.010795589317327492</v>
+        <v>0.010795582606098586</v>
       </c>
       <c r="Y2">
-        <v>3.224409330879928e-5</v>
+        <v>3.224466380485448e-5</v>
       </c>
       <c r="Z2">
-        <v>52.46216708697694</v>
+        <v>52.46213447313791</v>
       </c>
       <c r="AA2">
-        <v>0.5899089364870984</v>
+        <v>0.589909332049334</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -3778,22 +3779,22 @@
         <v>0.0002</v>
       </c>
       <c r="J3">
-        <v>0.004800103872732109</v>
+        <v>0.004800102251954486</v>
       </c>
       <c r="K3">
-        <v>1.844099998431065e-5</v>
+        <v>1.8441207726282337e-5</v>
       </c>
       <c r="L3">
-        <v>0.011035432198053252</v>
+        <v>0.01079820106514151</v>
       </c>
       <c r="M3">
-        <v>3.647416062322552e-5</v>
+        <v>3.224817448499619e-5</v>
       </c>
       <c r="N3">
-        <v>53.62770580037176</v>
+        <v>52.47485911759988</v>
       </c>
       <c r="O3">
-        <v>0.6077733299870516</v>
+        <v>0.590046850561078</v>
       </c>
       <c r="P3">
         <v>0.08787323275862068</v>
@@ -3802,10 +3803,10 @@
         <v>0.0009789340684133114</v>
       </c>
       <c r="R3">
-        <v>0.0009507493335303291</v>
+        <v>0.0009507488020963906</v>
       </c>
       <c r="S3">
-        <v>1.0987639665147907e-5</v>
+        <v>1.098764735271991e-5</v>
       </c>
       <c r="T3">
         <v>0.4052995299870725</v>
@@ -3820,16 +3821,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X3">
-        <v>0.010843521553172808</v>
+        <v>0.01084351615421908</v>
       </c>
       <c r="Y3">
-        <v>3.242285197896797e-5</v>
+        <v>3.2423416326710944e-5</v>
       </c>
       <c r="Z3">
-        <v>52.695098230599946</v>
+        <v>52.69507199388379</v>
       </c>
       <c r="AA3">
-        <v>0.5925740929767519</v>
+        <v>0.5925745480157049</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -3861,22 +3862,22 @@
         <v>0.0002</v>
       </c>
       <c r="J4">
-        <v>0.010117311770503568</v>
+        <v>0.010117310634723431</v>
       </c>
       <c r="K4">
-        <v>3.5602247541461635e-5</v>
+        <v>3.5602868861193614e-5</v>
       </c>
       <c r="L4">
-        <v>0.01129509112805449</v>
+        <v>0.010801101595907081</v>
       </c>
       <c r="M4">
-        <v>4.7963743996320106e-5</v>
+        <v>3.225845726872257e-5</v>
       </c>
       <c r="N4">
-        <v>54.889542442257174</v>
+        <v>52.48895451574734</v>
       </c>
       <c r="O4">
-        <v>0.6390547877513278</v>
+        <v>0.5902074360908816</v>
       </c>
       <c r="P4">
         <v>0.17574646551724135</v>
@@ -3885,10 +3886,10 @@
         <v>0.0009459552717305105</v>
       </c>
       <c r="R4">
-        <v>0.001905710505038155</v>
+        <v>0.0019057095536052782</v>
       </c>
       <c r="S4">
-        <v>1.1773227879437655e-5</v>
+        <v>1.1773272388984885e-5</v>
       </c>
       <c r="T4">
         <v>0.810599059974145</v>
@@ -3903,16 +3904,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X4">
-        <v>0.010891451000045294</v>
+        <v>0.010891446825086915</v>
       </c>
       <c r="Y4">
-        <v>3.2955092323233137e-5</v>
+        <v>3.295567491826681e-5</v>
       </c>
       <c r="Z4">
-        <v>52.928015820950925</v>
+        <v>52.92799553235364</v>
       </c>
       <c r="AA4">
-        <v>0.5956986640315967</v>
+        <v>0.5956992133324199</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -3944,22 +3945,22 @@
         <v>0.0002</v>
       </c>
       <c r="J5">
-        <v>0.01446009876601928</v>
+        <v>0.014460098889179651</v>
       </c>
       <c r="K5">
-        <v>5.428734665910479e-5</v>
+        <v>5.428836687583218e-5</v>
       </c>
       <c r="L5">
-        <v>0.011502759335172863</v>
+        <v>0.010803470573850449</v>
       </c>
       <c r="M5">
-        <v>5.971979972788473e-5</v>
+        <v>3.226781793204296e-5</v>
       </c>
       <c r="N5">
-        <v>55.89872534652072</v>
+        <v>52.500466783677986</v>
       </c>
       <c r="O5">
-        <v>0.6718823782869113</v>
+        <v>0.5903398348566113</v>
       </c>
       <c r="P5">
         <v>0.26361969827586207</v>
@@ -3968,10 +3969,10 @@
         <v>0.0009144582877001659</v>
       </c>
       <c r="R5">
-        <v>0.002864883269456886</v>
+        <v>0.002864882001703317</v>
       </c>
       <c r="S5">
-        <v>1.3195321819766082e-5</v>
+        <v>1.319541767665085e-5</v>
       </c>
       <c r="T5">
         <v>1.2158985899612178</v>
@@ -3986,16 +3987,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X5">
-        <v>0.010939377658161886</v>
+        <v>0.010939374618932574</v>
       </c>
       <c r="Y5">
-        <v>3.3824011881529906e-5</v>
+        <v>3.382463190334487e-5</v>
       </c>
       <c r="Z5">
-        <v>53.16091985908412</v>
+        <v>53.16090508966752</v>
       </c>
       <c r="AA5">
-        <v>0.5992753019631913</v>
+        <v>0.5992759744312272</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -4027,22 +4028,22 @@
         <v>0.0002</v>
       </c>
       <c r="J6">
-        <v>0.019404618799188977</v>
+        <v>0.01940462040652413</v>
       </c>
       <c r="K6">
-        <v>8.081863873454316e-5</v>
+        <v>8.082008599275609e-5</v>
       </c>
       <c r="L6">
-        <v>0.01173466722150307</v>
+        <v>0.010806167786924448</v>
       </c>
       <c r="M6">
-        <v>7.412452582489258e-5</v>
+        <v>3.227959916768886e-5</v>
       </c>
       <c r="N6">
-        <v>57.025703219040864</v>
+        <v>52.513574140654804</v>
       </c>
       <c r="O6">
-        <v>0.7154804585232319</v>
+        <v>0.5904920289502951</v>
       </c>
       <c r="P6">
         <v>0.3514929310344827</v>
@@ -4051,10 +4052,10 @@
         <v>0.0008846014140767376</v>
       </c>
       <c r="R6">
-        <v>0.00382826738173897</v>
+        <v>0.0038282658935873126</v>
       </c>
       <c r="S6">
-        <v>1.5119858371104549e-5</v>
+        <v>1.5120013601404619e-5</v>
       </c>
       <c r="T6">
         <v>1.62119811994829</v>
@@ -4069,16 +4070,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X6">
-        <v>0.010987301527738191</v>
+        <v>0.010987299535985873</v>
       </c>
       <c r="Y6">
-        <v>3.50044315701159e-5</v>
+        <v>3.500510250396889e-5</v>
       </c>
       <c r="Z6">
-        <v>53.39381034604727</v>
+        <v>53.393800666942234</v>
       </c>
       <c r="AA6">
-        <v>0.6032958060288165</v>
+        <v>0.6032966246993966</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -4110,22 +4111,22 @@
         <v>0.0002</v>
       </c>
       <c r="J7">
-        <v>0.024399321022261056</v>
+        <v>0.02439932334731809</v>
       </c>
       <c r="K7">
-        <v>0.00011339633419451476</v>
+        <v>0.00011339806502461487</v>
       </c>
       <c r="L7">
-        <v>0.011964302072882793</v>
+        <v>0.010808892364477574</v>
       </c>
       <c r="M7">
-        <v>8.909435945872067e-5</v>
+        <v>3.2292783774999656e-5</v>
       </c>
       <c r="N7">
-        <v>58.141635067498626</v>
+        <v>52.52681447785474</v>
       </c>
       <c r="O7">
-        <v>0.7646678730684443</v>
+        <v>0.5906474252545488</v>
       </c>
       <c r="P7">
         <v>0.43936616379310345</v>
@@ -4134,10 +4135,10 @@
         <v>0.0008565561754163449</v>
       </c>
       <c r="R7">
-        <v>0.00479586259685616</v>
+        <v>0.004795860976474442</v>
       </c>
       <c r="S7">
-        <v>1.7435213310149565e-5</v>
+        <v>1.743543279997192e-5</v>
       </c>
       <c r="T7">
         <v>2.026497649935363</v>
@@ -4152,16 +4153,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X7">
-        <v>0.011035222608991146</v>
+        <v>0.011035221576477516</v>
       </c>
       <c r="Y7">
-        <v>3.646600268057512e-5</v>
+        <v>3.646673248585941e-5</v>
       </c>
       <c r="Z7">
-        <v>53.626687282894615</v>
+        <v>53.62668226529891</v>
       </c>
       <c r="AA7">
-        <v>0.6077512079220669</v>
+        <v>0.6077521900174299</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -4193,22 +4194,22 @@
         <v>0.0002</v>
       </c>
       <c r="J8">
-        <v>0.029280841869446572</v>
+        <v>0.02928084338601078</v>
       </c>
       <c r="K8">
-        <v>0.0001507665183429243</v>
+        <v>0.00015076827149666973</v>
       </c>
       <c r="L8">
-        <v>0.012184492624057519</v>
+        <v>0.010811555192520306</v>
       </c>
       <c r="M8">
-        <v>0.00010382460213918194</v>
+        <v>3.230698154850097e-5</v>
       </c>
       <c r="N8">
-        <v>59.211671463581325</v>
+        <v>52.539754737584474</v>
       </c>
       <c r="O8">
-        <v>0.8164456100333032</v>
+        <v>0.5908009948255722</v>
       </c>
       <c r="P8">
         <v>0.5272393965517241</v>
@@ -4217,10 +4218,10 @@
         <v>0.0008305061225032949</v>
       </c>
       <c r="R8">
-        <v>0.005767668669798498</v>
+        <v>0.005767666997602006</v>
       </c>
       <c r="S8">
-        <v>2.0066909744799822e-5</v>
+        <v>2.006719744917344e-5</v>
       </c>
       <c r="T8">
         <v>2.4317971799224356</v>
@@ -4235,16 +4236,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X8">
-        <v>0.011083140902136801</v>
+        <v>0.011083140740637543</v>
       </c>
       <c r="Y8">
-        <v>3.817634136390573e-5</v>
+        <v>3.81771330970835e-5</v>
       </c>
       <c r="Z8">
-        <v>53.859550670676064</v>
+        <v>53.859549885855444</v>
       </c>
       <c r="AA8">
-        <v>0.612631861223959</v>
+        <v>0.6126330182536848</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -4255,10 +4256,10 @@
         <v>0.0008066445781143688</v>
       </c>
       <c r="R9">
-        <v>0.006743685355575679</v>
+        <v>0.00674368370422751</v>
       </c>
       <c r="S9">
-        <v>2.2970959271943186e-5</v>
+        <v>2.2971319081673797e-5</v>
       </c>
       <c r="T9">
         <v>2.837096709909508</v>
@@ -4273,16 +4274,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X9">
-        <v>0.011131056407390982</v>
+        <v>0.01113105702869599</v>
       </c>
       <c r="Y9">
-        <v>4.0103530908915143e-5</v>
+        <v>4.0104383564362076e-5</v>
       </c>
       <c r="Z9">
-        <v>54.09240051044044</v>
+        <v>54.09240352972972</v>
       </c>
       <c r="AA9">
-        <v>0.6179275329353965</v>
+        <v>0.6179288708358986</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -4293,10 +4294,10 @@
         <v>0.0007851710955590679</v>
       </c>
       <c r="R10">
-        <v>0.007723912409216438</v>
+        <v>0.0077239108436287784</v>
       </c>
       <c r="S10">
-        <v>2.6123715998066114e-5</v>
+        <v>2.6124151895985962e-5</v>
       </c>
       <c r="T10">
         <v>3.24239623989658</v>
@@ -4311,16 +4312,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X10">
-        <v>0.01117896912497085</v>
+        <v>0.011178970440882896</v>
       </c>
       <c r="Y10">
-        <v>4.2217788957982596e-5</v>
+        <v>4.221869833432497e-5</v>
       </c>
       <c r="Z10">
-        <v>54.325236803243065</v>
+        <v>54.32524319803964</v>
       </c>
       <c r="AA10">
-        <v>0.6236274953219104</v>
+        <v>0.6236290146299538</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -4331,10 +4332,10 @@
         <v>0.000766286461589799</v>
       </c>
       <c r="R11">
-        <v>0.00870834958576805</v>
+        <v>0.00870834816310384</v>
       </c>
       <c r="S11">
-        <v>2.951403477764838e-5</v>
+        <v>2.951455071853097e-5</v>
       </c>
       <c r="T11">
         <v>3.647695769883653</v>
@@ -4349,16 +4350,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X11">
-        <v>0.011226879055092231</v>
+        <v>0.011226880977428966</v>
       </c>
       <c r="Y11">
-        <v>4.449236429167437e-5</v>
+        <v>4.4493323767839384e-5</v>
       </c>
       <c r="Z11">
-        <v>54.55805955013277</v>
+        <v>54.55806889190634</v>
       </c>
       <c r="AA11">
-        <v>0.6297206164614495</v>
+        <v>0.6297223125166733</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -4369,10 +4370,10 @@
         <v>0.0007501862109799612</v>
       </c>
       <c r="R12">
-        <v>0.009696996640297328</v>
+        <v>0.009696995409970821</v>
       </c>
       <c r="S12">
-        <v>3.31381606116037e-5</v>
+        <v>3.3138760323883294e-5</v>
       </c>
       <c r="T12">
         <v>4.052995299870726</v>
@@ -4387,16 +4388,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X12">
-        <v>0.011274786197971176</v>
+        <v>0.011274788638563793</v>
       </c>
       <c r="Y12">
-        <v>4.690385295221169e-5</v>
+        <v>4.69048541252265e-5</v>
       </c>
       <c r="Z12">
-        <v>54.79086875215946</v>
+        <v>54.790880612445534</v>
       </c>
       <c r="AA12">
-        <v>0.6361954480830201</v>
+        <v>0.6361973112537544</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -4407,10 +4408,10 @@
         <v>0.0007370528333080308</v>
       </c>
       <c r="R13">
-        <v>0.010689853327888965</v>
+        <v>0.010689852331568606</v>
       </c>
       <c r="S13">
-        <v>3.69965828078511e-5</v>
+        <v>3.6997269593964684e-5</v>
       </c>
       <c r="T13">
         <v>4.458294829857798</v>
@@ -4425,16 +4426,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X13">
-        <v>0.011322690553823955</v>
+        <v>0.01132269342451786</v>
       </c>
       <c r="Y13">
-        <v>4.943213968979879e-5</v>
+        <v>4.943317287022804e-5</v>
       </c>
       <c r="Z13">
-        <v>55.02366441037413</v>
+        <v>55.02367836077728</v>
       </c>
       <c r="AA13">
-        <v>0.6430403095026609</v>
+        <v>0.643042325430001</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -4445,10 +4446,10 @@
         <v>0.0007270471271139099</v>
       </c>
       <c r="R14">
-        <v>0.011686919403648632</v>
+        <v>0.011686918675254843</v>
       </c>
       <c r="S14">
-        <v>4.1092132731793044e-5</v>
+        <v>4.1092909293132176e-5</v>
       </c>
       <c r="T14">
         <v>4.863594359844871</v>
@@ -4463,16 +4464,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X14">
-        <v>0.011370592122867285</v>
+        <v>0.011370595335520983</v>
       </c>
       <c r="Y14">
-        <v>5.206013278335443e-5</v>
+        <v>5.20611873659492e-5</v>
       </c>
       <c r="Z14">
-        <v>55.25644652582993</v>
+        <v>55.2564621380184</v>
       </c>
       <c r="AA14">
-        <v>0.650243366693542</v>
+        <v>0.6502455165484033</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -4483,10 +4484,10 @@
         <v>0.0007202994439926026</v>
       </c>
       <c r="R15">
-        <v>0.012688194622698878</v>
+        <v>0.012688194188409385</v>
       </c>
       <c r="S15">
-        <v>4.542883929674377e-5</v>
+        <v>4.54297075893992e-5</v>
       </c>
       <c r="T15">
         <v>5.2688938898319435</v>
@@ -4501,16 +4502,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X15">
-        <v>0.011418490905316325</v>
+        <v>0.011418494371802979</v>
       </c>
       <c r="Y15">
-        <v>5.477340873815076e-5</v>
+        <v>5.477447347229198e-5</v>
       </c>
       <c r="Z15">
-        <v>55.48921509957244</v>
+        <v>55.4892319452857</v>
       </c>
       <c r="AA15">
-        <v>0.6577927057560985</v>
+        <v>0.6577949665047241</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -4521,10 +4522,10 @@
         <v>0.0007169017861616635</v>
       </c>
       <c r="R16">
-        <v>0.013693678740182458</v>
+        <v>0.01369367861843096</v>
       </c>
       <c r="S16">
-        <v>5.001124339980168e-5</v>
+        <v>5.001220451989486e-5</v>
       </c>
       <c r="T16">
         <v>5.674193419819016</v>
@@ -4539,16 +4540,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X16">
-        <v>0.011466386901387793</v>
+        <v>0.01146639053359455</v>
       </c>
       <c r="Y16">
-        <v>5.7559838293244956e-5</v>
+        <v>5.756090147707184e-5</v>
       </c>
       <c r="Z16">
-        <v>55.721970132654846</v>
+        <v>55.7219877837003</v>
       </c>
       <c r="AA16">
-        <v>0.6656764002741115</v>
+        <v>0.6656787449474756</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -4559,10 +4560,10 @@
         <v>0.0007169017861616635</v>
       </c>
       <c r="R17">
-        <v>0.014703371511261443</v>
+        <v>0.0147033717127385</v>
       </c>
       <c r="S17">
-        <v>5.4843991842542305e-5</v>
+        <v>5.484504593742827e-5</v>
       </c>
       <c r="T17">
         <v>6.079492949806088</v>
@@ -4577,16 +4578,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X17">
-        <v>0.01151428011129818</v>
+        <v>0.011514283821124849</v>
       </c>
       <c r="Y17">
-        <v>6.040923255732865e-5</v>
+        <v>6.041028217564688e-5</v>
       </c>
       <c r="Z17">
-        <v>55.954711626129175</v>
+        <v>55.9547296543758</v>
       </c>
       <c r="AA17">
-        <v>0.673882572244428</v>
+        <v>0.6738849702077787</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -4597,10 +4598,10 @@
         <v>0.0007202994439926026</v>
       </c>
       <c r="R18">
-        <v>0.015717272691115447</v>
+        <v>0.015717273218772476</v>
       </c>
       <c r="S18">
-        <v>5.9931602763510246e-5</v>
+        <v>5.9932748964560694e-5</v>
       </c>
       <c r="T18">
         <v>6.48479247979316</v>
@@ -4615,16 +4616,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X18">
-        <v>0.011562170535263094</v>
+        <v>0.011562174234624356</v>
       </c>
       <c r="Y18">
-        <v>6.331302711572116e-5</v>
+        <v>6.331405093735298e-5</v>
       </c>
       <c r="Z18">
-        <v>56.18743958104322</v>
+        <v>56.18745755843222</v>
       </c>
       <c r="AA18">
-        <v>0.6823994464495076</v>
+        <v>0.6824018636689343</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -4635,10 +4636,10 @@
         <v>0.0007270471271139098</v>
       </c>
       <c r="R19">
-        <v>0.01673538203494429</v>
+        <v>0.01673538288399179</v>
       </c>
       <c r="S19">
-        <v>6.527833688043947e-5</v>
+        <v>6.527957325330487e-5</v>
       </c>
       <c r="T19">
         <v>6.890092009780233</v>
@@ -4653,16 +4654,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X19">
-        <v>0.011610058173498361</v>
+        <v>0.011610061774322888</v>
       </c>
       <c r="Y19">
-        <v>6.626400965839912e-5</v>
+        <v>6.626499530465036e-5</v>
       </c>
       <c r="Z19">
-        <v>56.42015399844579</v>
+        <v>56.4201714969864</v>
       </c>
       <c r="AA19">
-        <v>0.6912153982975634</v>
+        <v>0.6912177976004756</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -4673,10 +4674,10 @@
         <v>0.0007370528333080308</v>
       </c>
       <c r="R20">
-        <v>0.017757699297966667</v>
+        <v>0.017757700455876657</v>
       </c>
       <c r="S20">
-        <v>7.088813401058262e-5</v>
+        <v>7.088945751930957e-5</v>
       </c>
       <c r="T20">
         <v>7.295391539767306</v>
@@ -4691,16 +4692,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X20">
-        <v>0.011657943026220474</v>
+        <v>0.011657946440450484</v>
       </c>
       <c r="Y20">
-        <v>6.925609012360719e-5</v>
+        <v>6.92570251163195e-5</v>
       </c>
       <c r="Z20">
-        <v>56.65285487938896</v>
+        <v>56.6528714711562</v>
       </c>
       <c r="AA20">
-        <v>0.7003189952846262</v>
+        <v>0.7003213366120301</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -4711,10 +4712,10 @@
         <v>0.0007501862109799612</v>
       </c>
       <c r="R21">
-        <v>0.0187842242354197</v>
+        <v>0.018784225681927058</v>
       </c>
       <c r="S21">
-        <v>7.676458955233994e-5</v>
+        <v>7.676599603427707e-5</v>
       </c>
       <c r="T21">
         <v>7.700691069754377</v>
@@ -4729,16 +4730,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X21">
-        <v>0.011705825093645261</v>
+        <v>0.011705828233237181</v>
       </c>
       <c r="Y21">
-        <v>7.228410928440074e-5</v>
+        <v>7.228498107963116e-5</v>
       </c>
       <c r="Z21">
-        <v>56.885542224921565</v>
+        <v>56.88555748205955</v>
       </c>
       <c r="AA21">
-        <v>0.7096990323367077</v>
+        <v>0.7097012729855106</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -4749,10 +4750,10 @@
         <v>0.000766286461589799</v>
       </c>
       <c r="R22">
-        <v>0.019814956602560052</v>
+        <v>0.0198149583096634</v>
       </c>
       <c r="S22">
-        <v>8.291095496851409e-5</v>
+        <v>8.291243911748349e-5</v>
       </c>
       <c r="T22">
         <v>8.105990599741451</v>
@@ -4767,16 +4768,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X22">
-        <v>0.011753704375988772</v>
+        <v>0.011753707152912574</v>
       </c>
       <c r="Y22">
-        <v>7.534368061471835e-5</v>
+        <v>7.534447662631589e-5</v>
       </c>
       <c r="Z22">
-        <v>57.118216036093514</v>
+        <v>57.118229530812165</v>
       </c>
       <c r="AA22">
-        <v>0.7193445613696161</v>
+        <v>0.7193466562234848</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -4787,10 +4788,10 @@
         <v>0.0007851710955590679</v>
       </c>
       <c r="R23">
-        <v>0.020849896154662595</v>
+        <v>0.020849898086626517</v>
       </c>
       <c r="S23">
-        <v>8.933015216161042e-5</v>
+        <v>8.933170751731279e-5</v>
       </c>
       <c r="T23">
         <v>8.511290129728524</v>
@@ -4805,16 +4806,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X23">
-        <v>0.011801580873467277</v>
+        <v>0.011801583199706478</v>
       </c>
       <c r="Y23">
-        <v>7.843106021900351e-5</v>
+        <v>7.84317678350836e-5</v>
       </c>
       <c r="Z23">
-        <v>57.3508763139558</v>
+        <v>57.350887618530855</v>
       </c>
       <c r="AA23">
-        <v>0.7292449154602323</v>
+        <v>0.7292468172081427</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -4825,10 +4826,10 @@
         <v>0.0008066445781143688</v>
       </c>
       <c r="R24">
-        <v>0.021889042647022183</v>
+        <v>0.021889044760376564</v>
       </c>
       <c r="S24">
-        <v>9.602479534056869e-5</v>
+        <v>9.60264142826138e-5</v>
       </c>
       <c r="T24">
         <v>8.916589659715596</v>
@@ -4843,16 +4844,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X24">
-        <v>0.011849454586296604</v>
+        <v>0.011849456373849154</v>
       </c>
       <c r="Y24">
-        <v>8.154304004641756e-5</v>
+        <v>8.154364664084008e-5</v>
       </c>
       <c r="Z24">
-        <v>57.58352305955726</v>
+        <v>57.58353174633459</v>
       </c>
       <c r="AA24">
-        <v>0.7393897280598409</v>
+        <v>0.7393913874017193</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -4863,10 +4864,10 @@
         <v>0.0008305061225032949</v>
       </c>
       <c r="R25">
-        <v>0.02293239583495188</v>
+        <v>0.022932398078494565</v>
       </c>
       <c r="S25">
-        <v>0.00010299721635496166</v>
+        <v>0.00010299889010026893</v>
       </c>
       <c r="T25">
         <v>9.321889189702668</v>
@@ -4881,16 +4882,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X25">
-        <v>0.011897325514692136</v>
+        <v>0.011897326675569975</v>
       </c>
       <c r="Y25">
-        <v>8.467686023364525e-5</v>
+        <v>8.467735317397286e-5</v>
       </c>
       <c r="Z25">
-        <v>57.816156273944564</v>
+        <v>57.816161915338036</v>
       </c>
       <c r="AA25">
-        <v>0.7497689476996419</v>
+        <v>0.7497703135386904</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -4901,10 +4902,10 @@
         <v>0.0008565561754163449</v>
       </c>
       <c r="R26">
-        <v>0.023979955473784287</v>
+        <v>0.023979957788581974</v>
       </c>
       <c r="S26">
-        <v>0.00011024949100613364</v>
+        <v>0.00011025120960873706</v>
       </c>
       <c r="T26">
         <v>9.727188719689742</v>
@@ -4919,16 +4920,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X26">
-        <v>0.01194519365887059</v>
+        <v>0.011945194105098977</v>
       </c>
       <c r="Y26">
-        <v>8.783013707133561e-5</v>
+        <v>8.783050372430991e-5</v>
       </c>
       <c r="Z26">
-        <v>58.048775958170864</v>
+        <v>58.04877812665908</v>
       </c>
       <c r="AA26">
-        <v>0.7603728486437644</v>
+        <v>0.7603738682654733</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -4939,10 +4940,10 @@
         <v>0.0008846014140767376</v>
       </c>
       <c r="R27">
-        <v>0.025031721318871547</v>
+        <v>0.025031723638259784</v>
       </c>
       <c r="S27">
-        <v>0.0001177834648369178</v>
+        <v>0.00011778521718943989</v>
       </c>
       <c r="T27">
         <v>10.132488249676813</v>
@@ -4957,16 +4958,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X27">
-        <v>0.011993059019047791</v>
+        <v>0.011993058662665756</v>
       </c>
       <c r="Y27">
-        <v>9.100080369353352e-5</v>
+        <v>9.100103142879864e-5</v>
       </c>
       <c r="Z27">
-        <v>58.28138211328499</v>
+        <v>58.28138038141345</v>
       </c>
       <c r="AA27">
-        <v>0.7711920379385534</v>
+        <v>0.7711926571766081</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -4977,10 +4978,10 @@
         <v>0.0009144582877001659</v>
       </c>
       <c r="R28">
-        <v>0.026087693125582234</v>
+        <v>0.026087695375170306</v>
       </c>
       <c r="S28">
-        <v>0.00012560077754248194</v>
+        <v>0.0001256025513787251</v>
       </c>
       <c r="T28">
         <v>10.537787779663887</v>
@@ -4995,16 +4996,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X28">
-        <v>0.012040921595438903</v>
+        <v>0.012040920348499906</v>
       </c>
       <c r="Y28">
-        <v>9.418706111749188e-5</v>
+        <v>9.418713731008114e-5</v>
       </c>
       <c r="Z28">
-        <v>58.51397474033254</v>
+        <v>58.51396868071689</v>
       </c>
       <c r="AA28">
-        <v>0.7822174592922486</v>
+        <v>0.7822176226816162</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -5015,10 +5016,10 @@
         <v>0.0009459552717305105</v>
       </c>
       <c r="R29">
-        <v>0.02714787064930624</v>
+        <v>0.027147872746974056</v>
       </c>
       <c r="S29">
-        <v>0.00013370288555605657</v>
+        <v>0.00013370466745430247</v>
       </c>
       <c r="T29">
         <v>10.943087309650958</v>
@@ -5033,16 +5034,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X29">
-        <v>0.012088781388260417</v>
+        <v>0.012088779162831909</v>
       </c>
       <c r="Y29">
-        <v>9.738733770684001e-5</v>
+        <v>9.738724973878988e-5</v>
       </c>
       <c r="Z29">
-        <v>58.74655384036558</v>
+        <v>58.74654302568944</v>
       </c>
       <c r="AA29">
-        <v>0.7934403941970856</v>
+        <v>0.7934400451146696</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -5053,10 +5054,10 @@
         <v>0.0009789340684133114</v>
       </c>
       <c r="R30">
-        <v>0.0282122536454521</v>
+        <v>0.028212255501353756</v>
       </c>
       <c r="S30">
-        <v>0.00014209108262364022</v>
+        <v>0.0001420928580103577</v>
       </c>
       <c r="T30">
         <v>11.348386839638032</v>
@@ -5071,16 +5072,16 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X30">
-        <v>0.012136638397728383</v>
+        <v>0.012136635105890692</v>
       </c>
       <c r="Y30">
-        <v>0.00010060025549917358</v>
+        <v>0.00010059999076052355</v>
       </c>
       <c r="Z30">
-        <v>58.97911941443403</v>
+        <v>58.97910341744361</v>
       </c>
       <c r="AA30">
-        <v>0.8048524606792539</v>
+        <v>0.8048515414726853</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -5091,10 +5092,10 @@
         <v>0.00101325</v>
       </c>
       <c r="R31">
-        <v>0.029280841869446572</v>
+        <v>0.02928084338601078</v>
       </c>
       <c r="S31">
-        <v>0.0001507665183429243</v>
+        <v>0.00015076827149666973</v>
       </c>
       <c r="T31">
         <v>11.753686369625104</v>
@@ -5109,16 +5110,1567 @@
         <v>0.0023503417324359246</v>
       </c>
       <c r="X31">
-        <v>0.012184492624057519</v>
+        <v>0.012184488177906294</v>
       </c>
       <c r="Y31">
-        <v>0.00010382460213918194</v>
+        <v>0.0001038241480285438</v>
       </c>
       <c r="Z31">
-        <v>59.211671463581325</v>
+        <v>59.21164985709727</v>
       </c>
       <c r="AA31">
-        <v>0.8164456100333032</v>
+        <v>0.8164440621386545</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:AA31"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.0</v>
+      </c>
+      <c r="C2">
+        <v>0.00101325</v>
+      </c>
+      <c r="D2">
+        <v>0.0</v>
+      </c>
+      <c r="E2">
+        <v>0.004673433944184932</v>
+      </c>
+      <c r="F2">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G2">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="H2">
+        <v>0.0</v>
+      </c>
+      <c r="I2">
+        <v>0.0002</v>
+      </c>
+      <c r="J2">
+        <v>0.0</v>
+      </c>
+      <c r="K2">
+        <v>1.1507641843135591e-5</v>
+      </c>
+      <c r="L2">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="M2">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="N2">
+        <v>55.191169352673</v>
+      </c>
+      <c r="O2">
+        <v>0.1938362110407488</v>
+      </c>
+      <c r="P2">
+        <v>0.0</v>
+      </c>
+      <c r="Q2">
+        <v>0.00101325</v>
+      </c>
+      <c r="R2">
+        <v>0.0</v>
+      </c>
+      <c r="S2">
+        <v>1.1507641843135591e-5</v>
+      </c>
+      <c r="T2">
+        <v>0.0</v>
+      </c>
+      <c r="U2">
+        <v>0.004673433944184932</v>
+      </c>
+      <c r="V2">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W2">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X2">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y2">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z2">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA2">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.4397505</v>
+      </c>
+      <c r="C3">
+        <v>0.00101325</v>
+      </c>
+      <c r="D3">
+        <v>2.0282703317762607</v>
+      </c>
+      <c r="E3">
+        <v>0.022478706378621635</v>
+      </c>
+      <c r="F3">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G3">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="H3">
+        <v>0.004778</v>
+      </c>
+      <c r="I3">
+        <v>0.0002</v>
+      </c>
+      <c r="J3">
+        <v>0.004994316559920847</v>
+      </c>
+      <c r="K3">
+        <v>5.806329372671899e-5</v>
+      </c>
+      <c r="L3">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="M3">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="N3">
+        <v>55.191169352673</v>
+      </c>
+      <c r="O3">
+        <v>0.1938362110407488</v>
+      </c>
+      <c r="P3">
+        <v>0.08787323275862068</v>
+      </c>
+      <c r="Q3">
+        <v>0.0009789340684133114</v>
+      </c>
+      <c r="R3">
+        <v>0.0009979903184650348</v>
+      </c>
+      <c r="S3">
+        <v>1.590403651795744e-5</v>
+      </c>
+      <c r="T3">
+        <v>0.4052995299870725</v>
+      </c>
+      <c r="U3">
+        <v>0.006300072468969903</v>
+      </c>
+      <c r="V3">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W3">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X3">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y3">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z3">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA3">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.9159779999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.00101325</v>
+      </c>
+      <c r="D4">
+        <v>4.224784285543178</v>
+      </c>
+      <c r="E4">
+        <v>0.0460367269257998</v>
+      </c>
+      <c r="F4">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G4">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="H4">
+        <v>0.0101</v>
+      </c>
+      <c r="I4">
+        <v>0.0002</v>
+      </c>
+      <c r="J4">
+        <v>0.010402908226194572</v>
+      </c>
+      <c r="K4">
+        <v>0.00011910103825084493</v>
+      </c>
+      <c r="L4">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="M4">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="N4">
+        <v>55.191169352673</v>
+      </c>
+      <c r="O4">
+        <v>0.1938362110407488</v>
+      </c>
+      <c r="P4">
+        <v>0.17574646551724135</v>
+      </c>
+      <c r="Q4">
+        <v>0.0009459552717305105</v>
+      </c>
+      <c r="R4">
+        <v>0.0019959806369300695</v>
+      </c>
+      <c r="S4">
+        <v>2.5154357044898147e-5</v>
+      </c>
+      <c r="T4">
+        <v>0.810599059974145</v>
+      </c>
+      <c r="U4">
+        <v>0.00981087394664336</v>
+      </c>
+      <c r="V4">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W4">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X4">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y4">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z4">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA4">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.2969600000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.00101325</v>
+      </c>
+      <c r="D5">
+        <v>5.981995448556714</v>
+      </c>
+      <c r="E5">
+        <v>0.06501618328409213</v>
+      </c>
+      <c r="F5">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G5">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="H5">
+        <v>0.01458</v>
+      </c>
+      <c r="I5">
+        <v>0.0002</v>
+      </c>
+      <c r="J5">
+        <v>0.014729781559213558</v>
+      </c>
+      <c r="K5">
+        <v>0.00016824363729095305</v>
+      </c>
+      <c r="L5">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="M5">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="N5">
+        <v>55.191169352673</v>
+      </c>
+      <c r="O5">
+        <v>0.1938362110407488</v>
+      </c>
+      <c r="P5">
+        <v>0.26361969827586207</v>
+      </c>
+      <c r="Q5">
+        <v>0.0009144582877001659</v>
+      </c>
+      <c r="R5">
+        <v>0.002993970955395105</v>
+      </c>
+      <c r="S5">
+        <v>3.5662805878435386e-5</v>
+      </c>
+      <c r="T5">
+        <v>1.2158985899612178</v>
+      </c>
+      <c r="U5">
+        <v>0.013839363723763418</v>
+      </c>
+      <c r="V5">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W5">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X5">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y5">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z5">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA5">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.722525</v>
+      </c>
+      <c r="C6">
+        <v>0.00101325</v>
+      </c>
+      <c r="D6">
+        <v>7.944837705114385</v>
+      </c>
+      <c r="E6">
+        <v>0.08625295313143291</v>
+      </c>
+      <c r="F6">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G6">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="H6">
+        <v>0.019299999999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.0002</v>
+      </c>
+      <c r="J6">
+        <v>0.019562991133330508</v>
+      </c>
+      <c r="K6">
+        <v>0.00022322210026315235</v>
+      </c>
+      <c r="L6">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="M6">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="N6">
+        <v>55.191169352673</v>
+      </c>
+      <c r="O6">
+        <v>0.1938362110407488</v>
+      </c>
+      <c r="P6">
+        <v>0.3514929310344827</v>
+      </c>
+      <c r="Q6">
+        <v>0.0008846014140767376</v>
+      </c>
+      <c r="R6">
+        <v>0.003991961273860139</v>
+      </c>
+      <c r="S6">
+        <v>4.658562559316734e-5</v>
+      </c>
+      <c r="T6">
+        <v>1.62119811994829</v>
+      </c>
+      <c r="U6">
+        <v>0.01804203799905522</v>
+      </c>
+      <c r="V6">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W6">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X6">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y6">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z6">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA6">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.144037</v>
+      </c>
+      <c r="C7">
+        <v>0.00101325</v>
+      </c>
+      <c r="D7">
+        <v>9.888986225895316</v>
+      </c>
+      <c r="E7">
+        <v>0.10730367015276393</v>
+      </c>
+      <c r="F7">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G7">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="H7">
+        <v>0.024399999999999998</v>
+      </c>
+      <c r="I7">
+        <v>0.0002</v>
+      </c>
+      <c r="J7">
+        <v>0.02435017014007491</v>
+      </c>
+      <c r="K7">
+        <v>0.0002777149295285774</v>
+      </c>
+      <c r="L7">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="M7">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="N7">
+        <v>55.191169352673</v>
+      </c>
+      <c r="O7">
+        <v>0.1938362110407488</v>
+      </c>
+      <c r="P7">
+        <v>0.43936616379310345</v>
+      </c>
+      <c r="Q7">
+        <v>0.0008565561754163449</v>
+      </c>
+      <c r="R7">
+        <v>0.0049899515923251744</v>
+      </c>
+      <c r="S7">
+        <v>5.768791939993698e-5</v>
+      </c>
+      <c r="T7">
+        <v>2.026497649935363</v>
+      </c>
+      <c r="U7">
+        <v>0.022320723291128507</v>
+      </c>
+      <c r="V7">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W7">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X7">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y7">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z7">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA7">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2.5483237499999998</v>
+      </c>
+      <c r="C8">
+        <v>0.00101325</v>
+      </c>
+      <c r="D8">
+        <v>11.753686369625104</v>
+      </c>
+      <c r="E8">
+        <v>0.12750186595444718</v>
+      </c>
+      <c r="F8">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="G8">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="H8">
+        <v>0.029300000000000003</v>
+      </c>
+      <c r="I8">
+        <v>0.0002</v>
+      </c>
+      <c r="J8">
+        <v>0.02894171923548601</v>
+      </c>
+      <c r="K8">
+        <v>0.0003299989879264702</v>
+      </c>
+      <c r="L8">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="M8">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="N8">
+        <v>55.191169352673</v>
+      </c>
+      <c r="O8">
+        <v>0.1938362110407488</v>
+      </c>
+      <c r="P8">
+        <v>0.5272393965517241</v>
+      </c>
+      <c r="Q8">
+        <v>0.0008305061225032949</v>
+      </c>
+      <c r="R8">
+        <v>0.00598794191079021</v>
+      </c>
+      <c r="S8">
+        <v>6.888296103887768e-5</v>
+      </c>
+      <c r="T8">
+        <v>2.4317971799224356</v>
+      </c>
+      <c r="U8">
+        <v>0.026638818433217738</v>
+      </c>
+      <c r="V8">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W8">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X8">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y8">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z8">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA8">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="P9">
+        <v>0.6151126293103448</v>
+      </c>
+      <c r="Q9">
+        <v>0.0008066445781143688</v>
+      </c>
+      <c r="R9">
+        <v>0.006985932229255244</v>
+      </c>
+      <c r="S9">
+        <v>8.013188717530934e-5</v>
+      </c>
+      <c r="T9">
+        <v>2.837096709909508</v>
+      </c>
+      <c r="U9">
+        <v>0.030979848498593338</v>
+      </c>
+      <c r="V9">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W9">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X9">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y9">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z9">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA9">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="P10">
+        <v>0.7029858620689654</v>
+      </c>
+      <c r="Q10">
+        <v>0.0007851710955590679</v>
+      </c>
+      <c r="R10">
+        <v>0.007983922547720278</v>
+      </c>
+      <c r="S10">
+        <v>9.14148079201205e-5</v>
+      </c>
+      <c r="T10">
+        <v>3.24239623989658</v>
+      </c>
+      <c r="U10">
+        <v>0.03533536167457029</v>
+      </c>
+      <c r="V10">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W10">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X10">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y10">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z10">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA10">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="P11">
+        <v>0.7908590948275862</v>
+      </c>
+      <c r="Q11">
+        <v>0.000766286461589799</v>
+      </c>
+      <c r="R11">
+        <v>0.008981912866185314</v>
+      </c>
+      <c r="S11">
+        <v>0.00010272052188278447</v>
+      </c>
+      <c r="T11">
+        <v>3.647695769883653</v>
+      </c>
+      <c r="U11">
+        <v>0.03970059146346093</v>
+      </c>
+      <c r="V11">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W11">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X11">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y11">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z11">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA11">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="P12">
+        <v>0.8787323275862069</v>
+      </c>
+      <c r="Q12">
+        <v>0.0007501862109799612</v>
+      </c>
+      <c r="R12">
+        <v>0.009979903184650349</v>
+      </c>
+      <c r="S12">
+        <v>0.00011404225036658006</v>
+      </c>
+      <c r="T12">
+        <v>4.052995299870726</v>
+      </c>
+      <c r="U12">
+        <v>0.044072650778272944</v>
+      </c>
+      <c r="V12">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W12">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X12">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y12">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z12">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA12">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="P13">
+        <v>0.9666055603448275</v>
+      </c>
+      <c r="Q13">
+        <v>0.0007370528333080308</v>
+      </c>
+      <c r="R13">
+        <v>0.010977893503115383</v>
+      </c>
+      <c r="S13">
+        <v>0.00012537565499521396</v>
+      </c>
+      <c r="T13">
+        <v>4.458294829857798</v>
+      </c>
+      <c r="U13">
+        <v>0.04844969078227042</v>
+      </c>
+      <c r="V13">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W13">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X13">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y13">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z13">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA13">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="P14">
+        <v>1.0544787931034483</v>
+      </c>
+      <c r="Q14">
+        <v>0.0007270471271139099</v>
+      </c>
+      <c r="R14">
+        <v>0.01197588382158042</v>
+      </c>
+      <c r="S14">
+        <v>0.00013671783207134015</v>
+      </c>
+      <c r="T14">
+        <v>4.863594359844871</v>
+      </c>
+      <c r="U14">
+        <v>0.05283047352968432</v>
+      </c>
+      <c r="V14">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W14">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X14">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y14">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z14">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA14">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="P15">
+        <v>1.142352025862069</v>
+      </c>
+      <c r="Q15">
+        <v>0.0007202994439926026</v>
+      </c>
+      <c r="R15">
+        <v>0.012973874140045454</v>
+      </c>
+      <c r="S15">
+        <v>0.00014806676565353369</v>
+      </c>
+      <c r="T15">
+        <v>5.2688938898319435</v>
+      </c>
+      <c r="U15">
+        <v>0.05721413930177376</v>
+      </c>
+      <c r="V15">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W15">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X15">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y15">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z15">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA15">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="P16">
+        <v>1.2302252586206897</v>
+      </c>
+      <c r="Q16">
+        <v>0.0007169017861616635</v>
+      </c>
+      <c r="R16">
+        <v>0.013971864458510489</v>
+      </c>
+      <c r="S16">
+        <v>0.00015942101279289633</v>
+      </c>
+      <c r="T16">
+        <v>5.674193419819016</v>
+      </c>
+      <c r="U16">
+        <v>0.061600072604777914</v>
+      </c>
+      <c r="V16">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W16">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X16">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y16">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z16">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA16">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="P17">
+        <v>1.3180984913793103</v>
+      </c>
+      <c r="Q17">
+        <v>0.0007169017861616635</v>
+      </c>
+      <c r="R17">
+        <v>0.014969854776975523</v>
+      </c>
+      <c r="S17">
+        <v>0.00017077951367986213</v>
+      </c>
+      <c r="T17">
+        <v>6.079492949806088</v>
+      </c>
+      <c r="U17">
+        <v>0.06598782130048005</v>
+      </c>
+      <c r="V17">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W17">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X17">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y17">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z17">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA17">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="P18">
+        <v>1.4059717241379308</v>
+      </c>
+      <c r="Q18">
+        <v>0.0007202994439926026</v>
+      </c>
+      <c r="R18">
+        <v>0.015967845095440556</v>
+      </c>
+      <c r="S18">
+        <v>0.0001821414725139518</v>
+      </c>
+      <c r="T18">
+        <v>6.48479247979316</v>
+      </c>
+      <c r="U18">
+        <v>0.0703770458406241</v>
+      </c>
+      <c r="V18">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W18">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X18">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y18">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z18">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA18">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="P19">
+        <v>1.4938449568965515</v>
+      </c>
+      <c r="Q19">
+        <v>0.0007270471271139098</v>
+      </c>
+      <c r="R19">
+        <v>0.016965835413905592</v>
+      </c>
+      <c r="S19">
+        <v>0.0001935062801832906</v>
+      </c>
+      <c r="T19">
+        <v>6.890092009780233</v>
+      </c>
+      <c r="U19">
+        <v>0.07476748630736199</v>
+      </c>
+      <c r="V19">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W19">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X19">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y19">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z19">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA19">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="P20">
+        <v>1.5817181896551724</v>
+      </c>
+      <c r="Q20">
+        <v>0.0007370528333080308</v>
+      </c>
+      <c r="R20">
+        <v>0.01796382573237063</v>
+      </c>
+      <c r="S20">
+        <v>0.00020487346259386732</v>
+      </c>
+      <c r="T20">
+        <v>7.295391539767306</v>
+      </c>
+      <c r="U20">
+        <v>0.07915894038192314</v>
+      </c>
+      <c r="V20">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W20">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X20">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y20">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z20">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA20">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="P21">
+        <v>1.6695914224137929</v>
+      </c>
+      <c r="Q21">
+        <v>0.0007501862109799612</v>
+      </c>
+      <c r="R21">
+        <v>0.01896181605083566</v>
+      </c>
+      <c r="S21">
+        <v>0.00021624264524841154</v>
+      </c>
+      <c r="T21">
+        <v>7.700691069754377</v>
+      </c>
+      <c r="U21">
+        <v>0.08355124823876184</v>
+      </c>
+      <c r="V21">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W21">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X21">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y21">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z21">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA21">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="P22">
+        <v>1.7574646551724138</v>
+      </c>
+      <c r="Q22">
+        <v>0.000766286461589799</v>
+      </c>
+      <c r="R22">
+        <v>0.019959806369300698</v>
+      </c>
+      <c r="S22">
+        <v>0.00022761352841354365</v>
+      </c>
+      <c r="T22">
+        <v>8.105990599741451</v>
+      </c>
+      <c r="U22">
+        <v>0.08794428195352204</v>
+      </c>
+      <c r="V22">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W22">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X22">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y22">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z22">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA22">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="P23">
+        <v>1.8453378879310343</v>
+      </c>
+      <c r="Q23">
+        <v>0.0007851710955590679</v>
+      </c>
+      <c r="R23">
+        <v>0.020957796687765734</v>
+      </c>
+      <c r="S23">
+        <v>0.0002389858693598824</v>
+      </c>
+      <c r="T23">
+        <v>8.511290129728524</v>
+      </c>
+      <c r="U23">
+        <v>0.09233793792686192</v>
+      </c>
+      <c r="V23">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W23">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X23">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y23">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z23">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA23">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="P24">
+        <v>1.933211120689655</v>
+      </c>
+      <c r="Q24">
+        <v>0.0008066445781143688</v>
+      </c>
+      <c r="R24">
+        <v>0.021955787006230767</v>
+      </c>
+      <c r="S24">
+        <v>0.0002503594694325293</v>
+      </c>
+      <c r="T24">
+        <v>8.916589659715596</v>
+      </c>
+      <c r="U24">
+        <v>0.09673213136827112</v>
+      </c>
+      <c r="V24">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W24">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X24">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y24">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z24">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA24">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="P25">
+        <v>2.0210843534482756</v>
+      </c>
+      <c r="Q25">
+        <v>0.0008305061225032949</v>
+      </c>
+      <c r="R25">
+        <v>0.0229537773246958</v>
+      </c>
+      <c r="S25">
+        <v>0.00026173416448637234</v>
+      </c>
+      <c r="T25">
+        <v>9.321889189702668</v>
+      </c>
+      <c r="U25">
+        <v>0.10112679221507505</v>
+      </c>
+      <c r="V25">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W25">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X25">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y25">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z25">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA25">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="P26">
+        <v>2.1089575862068966</v>
+      </c>
+      <c r="Q26">
+        <v>0.0008565561754163449</v>
+      </c>
+      <c r="R26">
+        <v>0.02395176764316084</v>
+      </c>
+      <c r="S26">
+        <v>0.00027310981770750084</v>
+      </c>
+      <c r="T26">
+        <v>9.727188719689742</v>
+      </c>
+      <c r="U26">
+        <v>0.10552186206930061</v>
+      </c>
+      <c r="V26">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W26">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X26">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y26">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z26">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA26">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="P27">
+        <v>2.196830818965517</v>
+      </c>
+      <c r="Q27">
+        <v>0.0008846014140767376</v>
+      </c>
+      <c r="R27">
+        <v>0.02494975796162587</v>
+      </c>
+      <c r="S27">
+        <v>0.0002844863141542529</v>
+      </c>
+      <c r="T27">
+        <v>10.132488249676813</v>
+      </c>
+      <c r="U27">
+        <v>0.10991729186817281</v>
+      </c>
+      <c r="V27">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W27">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X27">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y27">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z27">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA27">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="P28">
+        <v>2.284704051724138</v>
+      </c>
+      <c r="Q28">
+        <v>0.0009144582877001659</v>
+      </c>
+      <c r="R28">
+        <v>0.02594774828009091</v>
+      </c>
+      <c r="S28">
+        <v>0.00029586355655592884</v>
+      </c>
+      <c r="T28">
+        <v>10.537787779663887</v>
+      </c>
+      <c r="U28">
+        <v>0.1143130400912018</v>
+      </c>
+      <c r="V28">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W28">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X28">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y28">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z28">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA28">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="P29">
+        <v>2.3725772844827584</v>
+      </c>
+      <c r="Q29">
+        <v>0.0009459552717305105</v>
+      </c>
+      <c r="R29">
+        <v>0.026945738598555938</v>
+      </c>
+      <c r="S29">
+        <v>0.0003072414620437439</v>
+      </c>
+      <c r="T29">
+        <v>10.943087309650958</v>
+      </c>
+      <c r="U29">
+        <v>0.1187090713650451</v>
+      </c>
+      <c r="V29">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W29">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X29">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y29">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z29">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA29">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="P30">
+        <v>2.4604505172413793</v>
+      </c>
+      <c r="Q30">
+        <v>0.0009789340684133114</v>
+      </c>
+      <c r="R30">
+        <v>0.027943728917020978</v>
+      </c>
+      <c r="S30">
+        <v>0.000318619959581371</v>
+      </c>
+      <c r="T30">
+        <v>11.348386839638032</v>
+      </c>
+      <c r="U30">
+        <v>0.12310535536689325</v>
+      </c>
+      <c r="V30">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W30">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X30">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y30">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z30">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA30">
+        <v>0.1938362110407488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="P31">
+        <v>2.5483237499999998</v>
+      </c>
+      <c r="Q31">
+        <v>0.00101325</v>
+      </c>
+      <c r="R31">
+        <v>0.02894171923548601</v>
+      </c>
+      <c r="S31">
+        <v>0.0003299989879264702</v>
+      </c>
+      <c r="T31">
+        <v>11.753686369625104</v>
+      </c>
+      <c r="U31">
+        <v>0.12750186595444718</v>
+      </c>
+      <c r="V31">
+        <v>0.21681059625562235</v>
+      </c>
+      <c r="W31">
+        <v>0.0023503417324359246</v>
+      </c>
+      <c r="X31">
+        <v>0.011357159480025256</v>
+      </c>
+      <c r="Y31">
+        <v>0.00012941773237906204</v>
+      </c>
+      <c r="Z31">
+        <v>55.191169352673</v>
+      </c>
+      <c r="AA31">
+        <v>0.1938362110407488</v>
       </c>
     </row>
   </sheetData>

--- a/test/writer_output/Molar Volume Analysis.xlsx
+++ b/test/writer_output/Molar Volume Analysis.xlsx
@@ -582,7 +582,7 @@
         <v>27</v>
       </c>
       <c r="F2">
-        <v>0.17817941175298221</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -606,7 +606,7 @@
         <v>27</v>
       </c>
       <c r="N2">
-        <v>43.114462213408345</v>
+        <v>52.46213447313791</v>
       </c>
       <c r="O2" t="s">
         <v>27</v>
@@ -630,7 +630,7 @@
         <v>27</v>
       </c>
       <c r="V2">
-        <v>0.17817941175298221</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W2" t="s">
         <v>27</v>
@@ -642,7 +642,7 @@
         <v>27</v>
       </c>
       <c r="Z2">
-        <v>43.114462213408345</v>
+        <v>52.46213447313791</v>
       </c>
       <c r="AA2" t="s">
         <v>27</v>
@@ -659,13 +659,13 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>2.449497352479485</v>
+        <v>2.0282703317762607</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3">
-        <v>0.18083674421695575</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -689,7 +689,7 @@
         <v>27</v>
       </c>
       <c r="N3">
-        <v>43.76807609938999</v>
+        <v>52.47485911759988</v>
       </c>
       <c r="O3" t="s">
         <v>27</v>
@@ -707,13 +707,13 @@
         <v>27</v>
       </c>
       <c r="T3">
-        <v>0.49240731844863606</v>
+        <v>0.4052995299870725</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
       </c>
       <c r="V3">
-        <v>0.17873180797546914</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W3" t="s">
         <v>27</v>
@@ -725,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="Z3">
-        <v>43.44015307148589</v>
+        <v>52.69507199388379</v>
       </c>
       <c r="AA3" t="s">
         <v>27</v>
@@ -742,13 +742,13 @@
         <v>27</v>
       </c>
       <c r="D4">
-        <v>5.063901037152608</v>
+        <v>4.224784285543178</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4">
-        <v>0.1834344556960193</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -772,7 +772,7 @@
         <v>27</v>
       </c>
       <c r="N4">
-        <v>44.40872802313298</v>
+        <v>52.48895451574734</v>
       </c>
       <c r="O4" t="s">
         <v>27</v>
@@ -790,13 +790,13 @@
         <v>27</v>
       </c>
       <c r="T4">
-        <v>0.9833101884528241</v>
+        <v>0.810599059974145</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
       </c>
       <c r="V4">
-        <v>0.17927325903075117</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W4" t="s">
         <v>27</v>
@@ -808,7 +808,7 @@
         <v>27</v>
       </c>
       <c r="Z4">
-        <v>43.76434739316399</v>
+        <v>52.92799553235364</v>
       </c>
       <c r="AA4" t="s">
         <v>27</v>
@@ -825,13 +825,13 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>7.13005651985377</v>
+        <v>5.981995448556714</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
       </c>
       <c r="F5">
-        <v>0.18532627603702329</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -855,7 +855,7 @@
         <v>27</v>
       </c>
       <c r="N5">
-        <v>44.87657045946695</v>
+        <v>52.500466783677986</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>
@@ -873,13 +873,13 @@
         <v>27</v>
       </c>
       <c r="T5">
-        <v>1.4727472515695061</v>
+        <v>1.2158985899612178</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
       </c>
       <c r="V5">
-        <v>0.17980402772424994</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W5" t="s">
         <v>27</v>
@@ -891,7 +891,7 @@
         <v>27</v>
       </c>
       <c r="Z5">
-        <v>44.08707423745635</v>
+        <v>53.16090508966752</v>
       </c>
       <c r="AA5" t="s">
         <v>27</v>
@@ -908,13 +908,13 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>9.414252357674307</v>
+        <v>7.944837705114385</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
       <c r="F6">
-        <v>0.18726488102959535</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -938,7 +938,7 @@
         <v>27</v>
       </c>
       <c r="N6">
-        <v>45.35732286024531</v>
+        <v>52.513574140654804</v>
       </c>
       <c r="O6" t="s">
         <v>27</v>
@@ -956,13 +956,13 @@
         <v>27</v>
       </c>
       <c r="T6">
-        <v>1.9607558372517362</v>
+        <v>1.62119811994829</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
       </c>
       <c r="V6">
-        <v>0.18032436995235632</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W6" t="s">
         <v>27</v>
@@ -974,7 +974,7 @@
         <v>27</v>
       </c>
       <c r="Z6">
-        <v>44.40836209534838</v>
+        <v>53.393800666942234</v>
       </c>
       <c r="AA6" t="s">
         <v>27</v>
@@ -991,13 +991,13 @@
         <v>27</v>
       </c>
       <c r="D7">
-        <v>11.65449221043736</v>
+        <v>9.888986225895316</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
       <c r="F7">
-        <v>0.18902199523337998</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -1021,7 +1021,7 @@
         <v>27</v>
       </c>
       <c r="N7">
-        <v>45.79445583993324</v>
+        <v>52.52681447785474</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
@@ -1039,13 +1039,13 @@
         <v>27</v>
       </c>
       <c r="T7">
-        <v>2.4473720180717717</v>
+        <v>2.0264976499353624</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
       </c>
       <c r="V7">
-        <v>0.18083453487483386</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W7" t="s">
         <v>27</v>
@@ -1057,7 +1057,7 @@
         <v>27</v>
       </c>
       <c r="Z7">
-        <v>44.72823889517048</v>
+        <v>53.62668226529891</v>
       </c>
       <c r="AA7" t="s">
         <v>27</v>
@@ -1074,13 +1074,13 @@
         <v>27</v>
       </c>
       <c r="D8">
-        <v>13.784494468595295</v>
+        <v>11.753686369625104</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
       </c>
       <c r="F8">
-        <v>0.19057053593990395</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
@@ -1104,7 +1104,7 @@
         <v>27</v>
       </c>
       <c r="N8">
-        <v>46.18099572351015</v>
+        <v>52.539754737584474</v>
       </c>
       <c r="O8" t="s">
         <v>27</v>
@@ -1122,13 +1122,13 @@
         <v>27</v>
       </c>
       <c r="T8">
-        <v>2.932630662178406</v>
+        <v>2.4317971799224356</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
       </c>
       <c r="V8">
-        <v>0.18133476508491816</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W8" t="s">
         <v>27</v>
@@ -1140,7 +1140,7 @@
         <v>27</v>
       </c>
       <c r="Z8">
-        <v>45.046732008504215</v>
+        <v>53.859549885855444</v>
       </c>
       <c r="AA8" t="s">
         <v>27</v>
@@ -1160,13 +1160,13 @@
         <v>27</v>
       </c>
       <c r="T9">
-        <v>3.416565483148806</v>
+        <v>2.837096709909508</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
       </c>
       <c r="V9">
-        <v>0.18182529677691842</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W9" t="s">
         <v>27</v>
@@ -1178,7 +1178,7 @@
         <v>27</v>
       </c>
       <c r="Z9">
-        <v>45.3638682565769</v>
+        <v>54.09240352972972</v>
       </c>
       <c r="AA9" t="s">
         <v>27</v>
@@ -1198,13 +1198,13 @@
         <v>27</v>
       </c>
       <c r="T10">
-        <v>3.899209087384611</v>
+        <v>3.24239623989658</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
       </c>
       <c r="V10">
-        <v>0.18230635991115746</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W10" t="s">
         <v>27</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="Z10">
-        <v>45.67967391707289</v>
+        <v>54.32524319803964</v>
       </c>
       <c r="AA10" t="s">
         <v>27</v>
@@ -1236,13 +1236,13 @@
         <v>27</v>
       </c>
       <c r="T11">
-        <v>4.380593019192256</v>
+        <v>3.6476957698836525</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
       </c>
       <c r="V11">
-        <v>0.1827781783761104</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W11" t="s">
         <v>27</v>
@@ -1254,7 +1254,7 @@
         <v>27</v>
       </c>
       <c r="Z11">
-        <v>45.99417473131174</v>
+        <v>54.55806889190634</v>
       </c>
       <c r="AA11" t="s">
         <v>27</v>
@@ -1274,13 +1274,13 @@
         <v>27</v>
       </c>
       <c r="T12">
-        <v>4.860747803678475</v>
+        <v>4.052995299870725</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
       </c>
       <c r="V12">
-        <v>0.183240970147628</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W12" t="s">
         <v>27</v>
@@ -1292,7 +1292,7 @@
         <v>27</v>
       </c>
       <c r="Z12">
-        <v>46.30739591173015</v>
+        <v>54.790880612445534</v>
       </c>
       <c r="AA12" t="s">
         <v>27</v>
@@ -1312,13 +1312,13 @@
         <v>27</v>
       </c>
       <c r="T13">
-        <v>5.339702987583527</v>
+        <v>4.458294829857798</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>
       </c>
       <c r="V13">
-        <v>0.18369494744514867</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W13" t="s">
         <v>27</v>
@@ -1330,7 +1330,7 @@
         <v>27</v>
       </c>
       <c r="Z13">
-        <v>46.619362149646946</v>
+        <v>55.02367836077728</v>
       </c>
       <c r="AA13" t="s">
         <v>27</v>
@@ -1350,13 +1350,13 @@
         <v>27</v>
       </c>
       <c r="T14">
-        <v>5.817487178166894</v>
+        <v>4.863594359844871</v>
       </c>
       <c r="U14" t="s">
         <v>27</v>
       </c>
       <c r="V14">
-        <v>0.18414031688482524</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W14" t="s">
         <v>27</v>
@@ -1368,7 +1368,7 @@
         <v>27</v>
       </c>
       <c r="Z14">
-        <v>46.9300976232392</v>
+        <v>55.2564621380184</v>
       </c>
       <c r="AA14" t="s">
         <v>27</v>
@@ -1388,13 +1388,13 @@
         <v>27</v>
       </c>
       <c r="T15">
-        <v>6.294128080252962</v>
+        <v>5.2688938898319435</v>
       </c>
       <c r="U15" t="s">
         <v>27</v>
       </c>
       <c r="V15">
-        <v>0.1845772796295066</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W15" t="s">
         <v>27</v>
@@ -1406,7 +1406,7 @@
         <v>27</v>
       </c>
       <c r="Z15">
-        <v>47.23962600571443</v>
+        <v>55.4892319452857</v>
       </c>
       <c r="AA15" t="s">
         <v>27</v>
@@ -1426,13 +1426,13 @@
         <v>27</v>
       </c>
       <c r="T16">
-        <v>6.769652531537481</v>
+        <v>5.674193419819016</v>
       </c>
       <c r="U16" t="s">
         <v>27</v>
       </c>
       <c r="V16">
-        <v>0.18500603153553227</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W16" t="s">
         <v>27</v>
@@ -1444,7 +1444,7 @@
         <v>27</v>
       </c>
       <c r="Z16">
-        <v>47.547970473636255</v>
+        <v>55.7219877837003</v>
       </c>
       <c r="AA16" t="s">
         <v>27</v>
@@ -1464,13 +1464,13 @@
         <v>27</v>
       </c>
       <c r="T17">
-        <v>7.244086536249314</v>
+        <v>6.079492949806087</v>
       </c>
       <c r="U17" t="s">
         <v>27</v>
       </c>
       <c r="V17">
-        <v>0.1854267632963093</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W17" t="s">
         <v>27</v>
@@ -1482,7 +1482,7 @@
         <v>27</v>
       </c>
       <c r="Z17">
-        <v>47.85515371535657</v>
+        <v>55.9547296543758</v>
       </c>
       <c r="AA17" t="s">
         <v>27</v>
@@ -1502,13 +1502,13 @@
         <v>27</v>
       </c>
       <c r="T18">
-        <v>7.717455297256173</v>
+        <v>6.48479247979316</v>
       </c>
       <c r="U18" t="s">
         <v>27</v>
       </c>
       <c r="V18">
-        <v>0.1858396605826547</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W18" t="s">
         <v>27</v>
@@ -1520,7 +1520,7 @@
         <v>27</v>
       </c>
       <c r="Z18">
-        <v>48.161197939561404</v>
+        <v>56.18745755843222</v>
       </c>
       <c r="AA18" t="s">
         <v>27</v>
@@ -1540,13 +1540,13 @@
         <v>27</v>
       </c>
       <c r="T19">
-        <v>8.189783246697617</v>
+        <v>6.890092009780233</v>
       </c>
       <c r="U19" t="s">
         <v>27</v>
       </c>
       <c r="V19">
-        <v>0.18624490417989684</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W19" t="s">
         <v>27</v>
@@ -1558,7 +1558,7 @@
         <v>27</v>
       </c>
       <c r="Z19">
-        <v>48.46612488386201</v>
+        <v>56.4201714969864</v>
       </c>
       <c r="AA19" t="s">
         <v>27</v>
@@ -1578,13 +1578,13 @@
         <v>27</v>
       </c>
       <c r="T20">
-        <v>8.661094075223545</v>
+        <v>7.295391539767305</v>
       </c>
       <c r="U20" t="s">
         <v>27</v>
       </c>
       <c r="V20">
-        <v>0.18664267012173855</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W20" t="s">
         <v>27</v>
@@ -1596,7 +1596,7 @@
         <v>27</v>
       </c>
       <c r="Z20">
-        <v>48.76995582343942</v>
+        <v>56.6528714711562</v>
       </c>
       <c r="AA20" t="s">
         <v>27</v>
@@ -1616,13 +1616,13 @@
         <v>27</v>
       </c>
       <c r="T21">
-        <v>9.131410759911658</v>
+        <v>7.700691069754377</v>
       </c>
       <c r="U21" t="s">
         <v>27</v>
       </c>
       <c r="V21">
-        <v>0.18703312982089454</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W21" t="s">
         <v>27</v>
@@ -1634,7 +1634,7 @@
         <v>27</v>
       </c>
       <c r="Z21">
-        <v>49.07271157970491</v>
+        <v>56.88555748205955</v>
       </c>
       <c r="AA21" t="s">
         <v>27</v>
@@ -1654,13 +1654,13 @@
         <v>27</v>
       </c>
       <c r="T22">
-        <v>9.600755590933032</v>
+        <v>8.10599059974145</v>
       </c>
       <c r="U22" t="s">
         <v>27</v>
       </c>
       <c r="V22">
-        <v>0.18741645019652103</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W22" t="s">
         <v>27</v>
@@ -1672,7 +1672,7 @@
         <v>27</v>
       </c>
       <c r="Z22">
-        <v>49.37441252896012</v>
+        <v>57.118229530812165</v>
       </c>
       <c r="AA22" t="s">
         <v>27</v>
@@ -1692,13 +1692,13 @@
         <v>27</v>
       </c>
       <c r="T23">
-        <v>10.069150197030792</v>
+        <v>8.511290129728524</v>
       </c>
       <c r="U23" t="s">
         <v>27</v>
       </c>
       <c r="V23">
-        <v>0.18779279379846484</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W23" t="s">
         <v>27</v>
@@ -1710,7 +1710,7 @@
         <v>27</v>
       </c>
       <c r="Z23">
-        <v>49.67507861104553</v>
+        <v>57.350887618530855</v>
       </c>
       <c r="AA23" t="s">
         <v>27</v>
@@ -1730,13 +1730,13 @@
         <v>27</v>
       </c>
       <c r="T24">
-        <v>10.53661556987307</v>
+        <v>8.916589659715596</v>
       </c>
       <c r="U24" t="s">
         <v>27</v>
       </c>
       <c r="V24">
-        <v>0.18816231892836266</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W24" t="s">
         <v>27</v>
@@ -1748,7 +1748,7 @@
         <v>27</v>
       </c>
       <c r="Z24">
-        <v>49.97472933795472</v>
+        <v>57.58353174633459</v>
       </c>
       <c r="AA24" t="s">
         <v>27</v>
@@ -1768,13 +1768,13 @@
         <v>27</v>
       </c>
       <c r="T25">
-        <v>11.003172087337875</v>
+        <v>9.321889189702668</v>
       </c>
       <c r="U25" t="s">
         <v>27</v>
       </c>
       <c r="V25">
-        <v>0.18852517975762803</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W25" t="s">
         <v>27</v>
@@ -1786,7 +1786,7 @@
         <v>27</v>
       </c>
       <c r="Z25">
-        <v>50.27338380239604</v>
+        <v>57.816161915338036</v>
       </c>
       <c r="AA25" t="s">
         <v>27</v>
@@ -1806,13 +1806,13 @@
         <v>27</v>
       </c>
       <c r="T26">
-        <v>11.468839535784081</v>
+        <v>9.727188719689742</v>
       </c>
       <c r="U26" t="s">
         <v>27</v>
       </c>
       <c r="V26">
-        <v>0.18888152644236633</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W26" t="s">
         <v>27</v>
@@ -1824,7 +1824,7 @@
         <v>27</v>
       </c>
       <c r="Z26">
-        <v>50.571060686307604</v>
+        <v>58.04877812665908</v>
       </c>
       <c r="AA26" t="s">
         <v>27</v>
@@ -1844,13 +1844,13 @@
         <v>27</v>
       </c>
       <c r="T27">
-        <v>11.933637131359704</v>
+        <v>10.132488249676813</v>
       </c>
       <c r="U27" t="s">
         <v>27</v>
       </c>
       <c r="V27">
-        <v>0.18923150523526344</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W27" t="s">
         <v>27</v>
@@ -1862,7 +1862,7 @@
         <v>27</v>
       </c>
       <c r="Z27">
-        <v>50.86777826929122</v>
+        <v>58.28138038141345</v>
       </c>
       <c r="AA27" t="s">
         <v>27</v>
@@ -1882,13 +1882,13 @@
         <v>27</v>
       </c>
       <c r="T28">
-        <v>12.397583540395692</v>
+        <v>10.537787779663887</v>
       </c>
       <c r="U28" t="s">
         <v>27</v>
       </c>
       <c r="V28">
-        <v>0.18957525859449623</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W28" t="s">
         <v>27</v>
@@ -1900,7 +1900,7 @@
         <v>27</v>
       </c>
       <c r="Z28">
-        <v>51.16355443697323</v>
+        <v>58.51396868071689</v>
       </c>
       <c r="AA28" t="s">
         <v>27</v>
@@ -1920,13 +1920,13 @@
         <v>27</v>
       </c>
       <c r="T29">
-        <v>12.860696898930597</v>
+        <v>10.943087309650958</v>
       </c>
       <c r="U29" t="s">
         <v>27</v>
       </c>
       <c r="V29">
-        <v>0.18991292528971457</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W29" t="s">
         <v>27</v>
@@ -1938,7 +1938,7 @@
         <v>27</v>
       </c>
       <c r="Z29">
-        <v>51.458406689278426</v>
+        <v>58.74654302568944</v>
       </c>
       <c r="AA29" t="s">
         <v>27</v>
@@ -1958,13 +1958,13 @@
         <v>27</v>
       </c>
       <c r="T30">
-        <v>13.322994831409183</v>
+        <v>11.348386839638032</v>
       </c>
       <c r="U30" t="s">
         <v>27</v>
       </c>
       <c r="V30">
-        <v>0.19024464050514997</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W30" t="s">
         <v>27</v>
@@ -1976,7 +1976,7 @@
         <v>27</v>
       </c>
       <c r="Z30">
-        <v>51.752352148594085</v>
+        <v>58.97910341744361</v>
       </c>
       <c r="AA30" t="s">
         <v>27</v>
@@ -1996,13 +1996,13 @@
         <v>27</v>
       </c>
       <c r="T31">
-        <v>13.784494468595295</v>
+        <v>11.753686369625104</v>
       </c>
       <c r="U31" t="s">
         <v>27</v>
       </c>
       <c r="V31">
-        <v>0.19057053593990395</v>
+        <v>0.21681059625562235</v>
       </c>
       <c r="W31" t="s">
         <v>27</v>
@@ -2014,7 +2014,7 @@
         <v>27</v>
       </c>
       <c r="Z31">
-        <v>52.04540756785243</v>
+        <v>59.21164985709727</v>
       </c>
       <c r="AA31" t="s">
         <v>27</v>
